--- a/Febuary2021.xlsx
+++ b/Febuary2021.xlsx
@@ -67,6 +67,30 @@
           <t xml:space="preserve">
 1040-Auto
 1040-Auto</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y77" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Vijay:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+1040-Auto
+1040-Auto
+</t>
         </r>
       </text>
     </comment>
@@ -729,10 +753,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="[$-409]d\-mmm;@"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -751,38 +775,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -798,28 +808,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -842,15 +830,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -864,6 +844,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -873,6 +890,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -895,12 +919,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="Times New Roman"/>
       <charset val="0"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="Times New Roman"/>
       <charset val="0"/>
@@ -993,7 +1017,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1005,19 +1131,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1029,85 +1155,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1125,37 +1173,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1167,13 +1191,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1202,11 +1226,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1226,24 +1265,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1259,17 +1280,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1291,6 +1306,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1304,7 +1328,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1322,130 +1346,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1901,11 +1925,11 @@
   <dimension ref="A1:AS114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="T53" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="X57" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F1" sqref="F$1:F$1048576"/>
+      <selection pane="bottomRight" activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -2043,22 +2067,22 @@
       <c r="A2" s="13"/>
       <c r="B2" s="25">
         <f>SUM(F3:F121)</f>
-        <v>853700</v>
+        <v>951700</v>
       </c>
       <c r="D2" s="14">
         <f>SUM(G3:G121)</f>
-        <v>712920</v>
+        <v>814840</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="25">
         <f t="shared" ref="F2:F18" si="0">G2/1.04+H2</f>
-        <v>853700</v>
+        <v>951700</v>
       </c>
       <c r="G2" s="14">
         <f t="shared" ref="G2:G28" si="1">SUM(I2:AM2)</f>
-        <v>712920</v>
+        <v>814840</v>
       </c>
       <c r="H2" s="26">
         <f t="shared" ref="H2:AJ2" si="2">SUM(H3:H121)</f>
@@ -2126,15 +2150,15 @@
       </c>
       <c r="X2" s="10">
         <f t="shared" si="2"/>
-        <v>15600</v>
+        <v>67600</v>
       </c>
       <c r="Y2" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>38480</v>
       </c>
       <c r="Z2" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>11440</v>
       </c>
       <c r="AA2" s="10">
         <f t="shared" si="2"/>
@@ -2177,7 +2201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" s="11" customFormat="1" spans="1:16">
+    <row r="3" s="11" customFormat="1" spans="1:24">
       <c r="A3" s="11">
         <v>1</v>
       </c>
@@ -2189,16 +2213,19 @@
       </c>
       <c r="F3" s="10">
         <f t="shared" si="0"/>
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="G3" s="10">
         <f t="shared" si="1"/>
-        <v>3120</v>
+        <v>6240</v>
       </c>
       <c r="H3" s="27">
         <v>3000</v>
       </c>
       <c r="P3" s="11">
+        <v>3120</v>
+      </c>
+      <c r="X3" s="11">
         <v>3120</v>
       </c>
     </row>
@@ -2319,7 +2346,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="7" s="11" customFormat="1" spans="1:23">
+    <row r="7" s="11" customFormat="1" spans="1:25">
       <c r="A7" s="11">
         <v>5</v>
       </c>
@@ -2334,11 +2361,11 @@
       </c>
       <c r="F7" s="10">
         <f t="shared" si="0"/>
-        <v>43000</v>
+        <v>47000</v>
       </c>
       <c r="G7" s="10">
         <f t="shared" si="1"/>
-        <v>33280</v>
+        <v>37440</v>
       </c>
       <c r="H7" s="27">
         <v>11000</v>
@@ -2383,6 +2410,12 @@
         <v>2080</v>
       </c>
       <c r="W7" s="11">
+        <v>2080</v>
+      </c>
+      <c r="X7" s="11">
+        <v>2080</v>
+      </c>
+      <c r="Y7" s="11">
         <v>2080</v>
       </c>
     </row>
@@ -2417,7 +2450,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="9" s="11" customFormat="1" spans="1:15">
+    <row r="9" s="11" customFormat="1" spans="1:25">
       <c r="A9" s="11">
         <v>7</v>
       </c>
@@ -2429,11 +2462,11 @@
       </c>
       <c r="F9" s="10">
         <f t="shared" si="0"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="G9" s="10">
         <f t="shared" si="1"/>
-        <v>2080</v>
+        <v>4160</v>
       </c>
       <c r="H9" s="27">
         <v>2000</v>
@@ -2441,8 +2474,11 @@
       <c r="O9" s="11">
         <v>2080</v>
       </c>
-    </row>
-    <row r="10" s="11" customFormat="1" spans="1:22">
+      <c r="Y9" s="11">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="10" s="11" customFormat="1" spans="1:24">
       <c r="A10" s="11">
         <v>8</v>
       </c>
@@ -2457,11 +2493,11 @@
       </c>
       <c r="F10" s="10">
         <f t="shared" si="0"/>
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="G10" s="10">
         <f t="shared" si="1"/>
-        <v>15600</v>
+        <v>20800</v>
       </c>
       <c r="H10" s="27">
         <v>5000</v>
@@ -2473,6 +2509,9 @@
         <v>5200</v>
       </c>
       <c r="V10" s="11">
+        <v>5200</v>
+      </c>
+      <c r="X10" s="11">
         <v>5200</v>
       </c>
     </row>
@@ -2544,7 +2583,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="13" s="11" customFormat="1" spans="1:20">
+    <row r="13" s="11" customFormat="1" spans="1:25">
       <c r="A13" s="11">
         <v>11</v>
       </c>
@@ -2556,11 +2595,11 @@
       </c>
       <c r="F13" s="10">
         <f t="shared" si="0"/>
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="G13" s="10">
         <f t="shared" si="1"/>
-        <v>15600</v>
+        <v>20800</v>
       </c>
       <c r="H13" s="27">
         <v>0</v>
@@ -2574,8 +2613,11 @@
       <c r="T13" s="11">
         <v>5200</v>
       </c>
-    </row>
-    <row r="14" s="11" customFormat="1" spans="1:23">
+      <c r="Y13" s="11">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="14" s="11" customFormat="1" spans="1:25">
       <c r="A14" s="11">
         <v>12</v>
       </c>
@@ -2587,11 +2629,11 @@
       </c>
       <c r="F14" s="10">
         <f t="shared" si="0"/>
-        <v>35500</v>
+        <v>40500</v>
       </c>
       <c r="G14" s="10">
         <f t="shared" si="1"/>
-        <v>26000</v>
+        <v>31200</v>
       </c>
       <c r="H14" s="27">
         <v>10500</v>
@@ -2609,6 +2651,9 @@
         <v>5200</v>
       </c>
       <c r="W14" s="11">
+        <v>5200</v>
+      </c>
+      <c r="Y14" s="11">
         <v>5200</v>
       </c>
     </row>
@@ -2882,7 +2927,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="23" s="11" customFormat="1" spans="1:18">
+    <row r="23" s="11" customFormat="1" spans="1:24">
       <c r="A23" s="11">
         <v>21</v>
       </c>
@@ -2894,11 +2939,11 @@
       </c>
       <c r="F23" s="10">
         <f t="shared" si="3"/>
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="G23" s="10">
         <f t="shared" si="1"/>
-        <v>15600</v>
+        <v>20800</v>
       </c>
       <c r="H23" s="27">
         <v>0</v>
@@ -2910,6 +2955,9 @@
         <v>5200</v>
       </c>
       <c r="R23" s="11">
+        <v>5200</v>
+      </c>
+      <c r="X23" s="11">
         <v>5200</v>
       </c>
     </row>
@@ -3024,7 +3072,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="27" s="11" customFormat="1" spans="1:15">
+    <row r="27" s="11" customFormat="1" spans="1:25">
       <c r="A27" s="11">
         <v>25</v>
       </c>
@@ -3036,11 +3084,11 @@
       </c>
       <c r="F27" s="10">
         <f t="shared" si="3"/>
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="G27" s="10">
         <f t="shared" si="1"/>
-        <v>3120</v>
+        <v>6240</v>
       </c>
       <c r="H27" s="27">
         <v>3000</v>
@@ -3048,8 +3096,11 @@
       <c r="O27" s="11">
         <v>3120</v>
       </c>
-    </row>
-    <row r="28" s="11" customFormat="1" spans="1:22">
+      <c r="Y27" s="11">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="28" s="11" customFormat="1" spans="1:26">
       <c r="A28" s="11">
         <v>26</v>
       </c>
@@ -3061,11 +3112,11 @@
       </c>
       <c r="F28" s="10">
         <f t="shared" si="3"/>
-        <v>10500</v>
+        <v>12500</v>
       </c>
       <c r="G28" s="10">
         <f t="shared" si="1"/>
-        <v>8320</v>
+        <v>10400</v>
       </c>
       <c r="H28" s="27">
         <v>2500</v>
@@ -3082,8 +3133,11 @@
       <c r="V28" s="11">
         <v>2080</v>
       </c>
-    </row>
-    <row r="29" s="11" customFormat="1" spans="1:18">
+      <c r="Z28" s="11">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="29" s="11" customFormat="1" spans="1:25">
       <c r="A29" s="11">
         <v>27</v>
       </c>
@@ -3095,11 +3149,11 @@
       </c>
       <c r="F29" s="10">
         <f t="shared" si="3"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="G29" s="10">
         <f>SUM(J29:AM29)</f>
-        <v>4160</v>
+        <v>6240</v>
       </c>
       <c r="H29" s="27">
         <v>0</v>
@@ -3110,8 +3164,11 @@
       <c r="R29" s="11">
         <v>2080</v>
       </c>
-    </row>
-    <row r="30" s="11" customFormat="1" spans="1:19">
+      <c r="Y29" s="11">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="30" s="11" customFormat="1" spans="1:25">
       <c r="A30" s="11">
         <v>28</v>
       </c>
@@ -3123,16 +3180,19 @@
       </c>
       <c r="F30" s="10">
         <f t="shared" si="3"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="G30" s="10">
         <f t="shared" ref="G30:G41" si="4">SUM(I30:AM30)</f>
-        <v>2080</v>
+        <v>4160</v>
       </c>
       <c r="H30" s="27">
         <v>2000</v>
       </c>
       <c r="S30" s="11">
+        <v>2080</v>
+      </c>
+      <c r="Y30" s="11">
         <v>2080</v>
       </c>
     </row>
@@ -3173,7 +3233,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="32" s="11" customFormat="1" spans="1:22">
+    <row r="32" s="11" customFormat="1" spans="1:24">
       <c r="A32" s="11">
         <v>30</v>
       </c>
@@ -3185,11 +3245,11 @@
       </c>
       <c r="F32" s="10">
         <f t="shared" si="3"/>
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="G32" s="10">
         <f t="shared" si="4"/>
-        <v>26000</v>
+        <v>31200</v>
       </c>
       <c r="H32" s="27">
         <v>0</v>
@@ -3209,8 +3269,11 @@
       <c r="V32" s="11">
         <v>5200</v>
       </c>
-    </row>
-    <row r="33" s="11" customFormat="1" spans="1:22">
+      <c r="X32" s="11">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="33" s="11" customFormat="1" spans="1:25">
       <c r="A33" s="11">
         <v>31</v>
       </c>
@@ -3222,11 +3285,11 @@
       </c>
       <c r="F33" s="10">
         <f t="shared" si="3"/>
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="G33" s="10">
         <f t="shared" si="4"/>
-        <v>8320</v>
+        <v>10400</v>
       </c>
       <c r="H33" s="27">
         <v>1000</v>
@@ -3241,6 +3304,9 @@
         <v>2080</v>
       </c>
       <c r="V33" s="11">
+        <v>2080</v>
+      </c>
+      <c r="Y33" s="11">
         <v>2080</v>
       </c>
     </row>
@@ -3343,7 +3409,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="37" s="11" customFormat="1" spans="1:22">
+    <row r="37" s="11" customFormat="1" spans="1:26">
       <c r="A37" s="11">
         <v>35</v>
       </c>
@@ -3355,11 +3421,11 @@
       </c>
       <c r="F37" s="10">
         <f t="shared" si="3"/>
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="G37" s="10">
         <f t="shared" si="4"/>
-        <v>18720</v>
+        <v>21840</v>
       </c>
       <c r="H37" s="27">
         <v>0</v>
@@ -3380,6 +3446,9 @@
         <v>3120</v>
       </c>
       <c r="V37" s="11">
+        <v>3120</v>
+      </c>
+      <c r="Z37" s="11">
         <v>3120</v>
       </c>
     </row>
@@ -3498,7 +3567,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="42" s="11" customFormat="1" spans="1:12">
+    <row r="42" s="11" customFormat="1" spans="1:24">
       <c r="A42" s="11">
         <v>40</v>
       </c>
@@ -3510,11 +3579,11 @@
       </c>
       <c r="F42" s="10">
         <f t="shared" si="3"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="G42" s="10">
         <f>SUM(J42:AM42)</f>
-        <v>2080</v>
+        <v>4160</v>
       </c>
       <c r="H42" s="27">
         <v>0</v>
@@ -3522,8 +3591,11 @@
       <c r="L42" s="11">
         <v>2080</v>
       </c>
-    </row>
-    <row r="43" s="11" customFormat="1" spans="1:23">
+      <c r="X42" s="11">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="43" s="11" customFormat="1" spans="1:24">
       <c r="A43" s="11">
         <v>41</v>
       </c>
@@ -3535,11 +3607,11 @@
       </c>
       <c r="F43" s="10">
         <f t="shared" si="3"/>
-        <v>25500</v>
+        <v>28500</v>
       </c>
       <c r="G43" s="10">
         <f t="shared" ref="G43:G75" si="5">SUM(I43:AM43)</f>
-        <v>24960</v>
+        <v>28080</v>
       </c>
       <c r="H43" s="27">
         <v>1500</v>
@@ -3566,6 +3638,9 @@
         <v>3120</v>
       </c>
       <c r="W43" s="11">
+        <v>3120</v>
+      </c>
+      <c r="X43" s="11">
         <v>3120</v>
       </c>
     </row>
@@ -3594,7 +3669,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="45" s="11" customFormat="1" spans="1:22">
+    <row r="45" s="11" customFormat="1" spans="1:24">
       <c r="A45" s="11">
         <v>43</v>
       </c>
@@ -3606,11 +3681,11 @@
       </c>
       <c r="F45" s="10">
         <f t="shared" si="3"/>
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="G45" s="10">
         <f t="shared" si="5"/>
-        <v>12480</v>
+        <v>15600</v>
       </c>
       <c r="H45" s="27">
         <v>0</v>
@@ -3627,8 +3702,11 @@
       <c r="V45" s="11">
         <v>3120</v>
       </c>
-    </row>
-    <row r="46" s="11" customFormat="1" spans="1:21">
+      <c r="X45" s="11">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="46" s="11" customFormat="1" spans="1:25">
       <c r="A46" s="11">
         <v>44</v>
       </c>
@@ -3640,11 +3718,11 @@
       </c>
       <c r="F46" s="10">
         <f t="shared" si="3"/>
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="G46" s="10">
         <f t="shared" si="5"/>
-        <v>9360</v>
+        <v>12480</v>
       </c>
       <c r="H46" s="27">
         <v>3000</v>
@@ -3658,8 +3736,11 @@
       <c r="U46" s="11">
         <v>3120</v>
       </c>
-    </row>
-    <row r="47" s="11" customFormat="1" spans="1:19">
+      <c r="Y46" s="11">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="47" s="11" customFormat="1" spans="1:24">
       <c r="A47" s="11">
         <v>45</v>
       </c>
@@ -3671,11 +3752,11 @@
       </c>
       <c r="F47" s="10">
         <f t="shared" si="3"/>
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="G47" s="10">
         <f t="shared" si="5"/>
-        <v>9360</v>
+        <v>12480</v>
       </c>
       <c r="H47" s="27">
         <v>0</v>
@@ -3687,6 +3768,9 @@
         <v>3120</v>
       </c>
       <c r="S47" s="11">
+        <v>3120</v>
+      </c>
+      <c r="X47" s="11">
         <v>3120</v>
       </c>
     </row>
@@ -3715,7 +3799,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="49" s="11" customFormat="1" spans="1:23">
+    <row r="49" s="11" customFormat="1" spans="1:25">
       <c r="A49" s="11">
         <v>47</v>
       </c>
@@ -3727,11 +3811,11 @@
       </c>
       <c r="F49" s="10">
         <f t="shared" si="3"/>
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="G49" s="10">
         <f t="shared" si="5"/>
-        <v>18720</v>
+        <v>21840</v>
       </c>
       <c r="H49" s="27">
         <v>3000</v>
@@ -3754,8 +3838,11 @@
       <c r="W49" s="11">
         <v>3120</v>
       </c>
-    </row>
-    <row r="50" s="11" customFormat="1" spans="1:22">
+      <c r="Y49" s="11">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="50" s="11" customFormat="1" spans="1:24">
       <c r="A50" s="11">
         <v>48</v>
       </c>
@@ -3767,11 +3854,11 @@
       </c>
       <c r="F50" s="10">
         <f t="shared" si="3"/>
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="G50" s="10">
         <f t="shared" si="5"/>
-        <v>15600</v>
+        <v>18720</v>
       </c>
       <c r="H50" s="27">
         <v>3000</v>
@@ -3789,6 +3876,9 @@
         <v>3120</v>
       </c>
       <c r="V50" s="11">
+        <v>3120</v>
+      </c>
+      <c r="X50" s="11">
         <v>3120</v>
       </c>
     </row>
@@ -3845,7 +3935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" s="11" customFormat="1" spans="1:24">
+    <row r="53" s="11" customFormat="1" spans="1:26">
       <c r="A53" s="11">
         <v>51</v>
       </c>
@@ -3857,11 +3947,11 @@
       </c>
       <c r="F53" s="10">
         <f t="shared" si="3"/>
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="G53" s="10">
         <f t="shared" si="5"/>
-        <v>10400</v>
+        <v>12480</v>
       </c>
       <c r="H53" s="27">
         <v>0</v>
@@ -3896,8 +3986,14 @@
       <c r="X53" s="11">
         <v>1040</v>
       </c>
-    </row>
-    <row r="54" s="11" customFormat="1" spans="1:20">
+      <c r="Y53" s="11">
+        <v>1040</v>
+      </c>
+      <c r="Z53" s="11">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="54" s="11" customFormat="1" spans="1:24">
       <c r="A54" s="11">
         <v>52</v>
       </c>
@@ -3909,11 +4005,11 @@
       </c>
       <c r="F54" s="10">
         <f t="shared" si="3"/>
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="G54" s="10">
         <f t="shared" si="5"/>
-        <v>6240</v>
+        <v>8320</v>
       </c>
       <c r="H54" s="27">
         <v>2000</v>
@@ -3925,6 +4021,9 @@
         <v>2080</v>
       </c>
       <c r="T54" s="11">
+        <v>2080</v>
+      </c>
+      <c r="X54" s="11">
         <v>2080</v>
       </c>
     </row>
@@ -3954,7 +4053,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="56" s="11" customFormat="1" spans="1:14">
+    <row r="56" s="11" customFormat="1" spans="1:26">
       <c r="A56" s="11">
         <v>54</v>
       </c>
@@ -3967,16 +4066,19 @@
       </c>
       <c r="F56" s="10">
         <f t="shared" si="3"/>
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G56" s="10">
         <f t="shared" si="5"/>
+        <v>2080</v>
+      </c>
+      <c r="H56" s="27">
+        <v>0</v>
+      </c>
+      <c r="N56" s="11">
         <v>1040</v>
       </c>
-      <c r="H56" s="27">
-        <v>0</v>
-      </c>
-      <c r="N56" s="11">
+      <c r="Z56" s="11">
         <v>1040</v>
       </c>
     </row>
@@ -4003,7 +4105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" s="11" customFormat="1" spans="1:24">
+    <row r="58" s="11" customFormat="1" spans="1:25">
       <c r="A58" s="11">
         <v>56</v>
       </c>
@@ -4015,11 +4117,11 @@
       </c>
       <c r="F58" s="10">
         <f t="shared" si="3"/>
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="G58" s="10">
         <f t="shared" si="5"/>
-        <v>8320</v>
+        <v>10400</v>
       </c>
       <c r="H58" s="27">
         <v>0</v>
@@ -4034,6 +4136,9 @@
         <v>2080</v>
       </c>
       <c r="X58" s="11">
+        <v>2080</v>
+      </c>
+      <c r="Y58" s="11">
         <v>2080</v>
       </c>
     </row>
@@ -4099,7 +4204,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="61" s="11" customFormat="1" spans="1:23">
+    <row r="61" s="11" customFormat="1" spans="1:24">
       <c r="A61" s="11">
         <v>59</v>
       </c>
@@ -4111,11 +4216,11 @@
       </c>
       <c r="F61" s="10">
         <f t="shared" si="3"/>
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="G61" s="10">
         <f t="shared" si="5"/>
-        <v>8320</v>
+        <v>10400</v>
       </c>
       <c r="H61" s="27">
         <v>0</v>
@@ -4132,8 +4237,11 @@
       <c r="W61" s="35">
         <v>2080</v>
       </c>
-    </row>
-    <row r="62" s="11" customFormat="1" spans="1:18">
+      <c r="X61" s="11">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="62" s="11" customFormat="1" spans="1:24">
       <c r="A62" s="11">
         <v>60</v>
       </c>
@@ -4146,11 +4254,11 @@
       </c>
       <c r="F62" s="10">
         <f t="shared" si="3"/>
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="G62" s="10">
         <f t="shared" si="5"/>
-        <v>10400</v>
+        <v>15600</v>
       </c>
       <c r="H62" s="27">
         <v>5000</v>
@@ -4159,6 +4267,9 @@
         <v>5200</v>
       </c>
       <c r="R62" s="11">
+        <v>5200</v>
+      </c>
+      <c r="X62" s="11">
         <v>5200</v>
       </c>
     </row>
@@ -4282,7 +4393,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="67" s="11" customFormat="1" spans="1:20">
+    <row r="67" s="11" customFormat="1" spans="1:26">
       <c r="A67" s="11">
         <v>65</v>
       </c>
@@ -4295,11 +4406,11 @@
       </c>
       <c r="F67" s="10">
         <f t="shared" si="3"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="G67" s="10">
         <f t="shared" si="5"/>
-        <v>2080</v>
+        <v>4160</v>
       </c>
       <c r="H67" s="27">
         <v>2000</v>
@@ -4307,8 +4418,11 @@
       <c r="T67" s="11">
         <v>2080</v>
       </c>
-    </row>
-    <row r="68" s="11" customFormat="1" spans="1:19">
+      <c r="Z67" s="11">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="68" s="11" customFormat="1" spans="1:24">
       <c r="A68" s="11">
         <v>66</v>
       </c>
@@ -4320,11 +4434,11 @@
       </c>
       <c r="F68" s="10">
         <f t="shared" si="3"/>
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="G68" s="10">
         <f t="shared" si="5"/>
-        <v>4160</v>
+        <v>6240</v>
       </c>
       <c r="H68" s="27">
         <v>2000</v>
@@ -4333,6 +4447,9 @@
         <v>2080</v>
       </c>
       <c r="S68" s="11">
+        <v>2080</v>
+      </c>
+      <c r="X68" s="11">
         <v>2080</v>
       </c>
     </row>
@@ -4551,7 +4668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" s="11" customFormat="1" spans="1:8">
+    <row r="76" s="11" customFormat="1" spans="1:26">
       <c r="A76" s="11">
         <v>74</v>
       </c>
@@ -4564,17 +4681,20 @@
       </c>
       <c r="F76" s="10">
         <f t="shared" si="3"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="G76" s="10">
         <f t="shared" ref="G76:G85" si="6">SUM(I76:AM76)</f>
-        <v>0</v>
+        <v>2080</v>
       </c>
       <c r="H76" s="27">
         <v>2000</v>
       </c>
-    </row>
-    <row r="77" s="11" customFormat="1" spans="1:21">
+      <c r="Z76" s="11">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="77" s="11" customFormat="1" spans="1:25">
       <c r="A77" s="11">
         <v>75</v>
       </c>
@@ -4586,11 +4706,11 @@
       </c>
       <c r="F77" s="10">
         <f t="shared" si="3"/>
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="G77" s="10">
         <f t="shared" si="6"/>
-        <v>7280</v>
+        <v>9360</v>
       </c>
       <c r="H77" s="27">
         <v>2000</v>
@@ -4616,8 +4736,11 @@
       <c r="U77" s="11">
         <v>1040</v>
       </c>
-    </row>
-    <row r="78" s="11" customFormat="1" spans="1:22">
+      <c r="Y77" s="11">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="78" s="11" customFormat="1" spans="1:24">
       <c r="A78" s="11">
         <v>76</v>
       </c>
@@ -4629,11 +4752,11 @@
       </c>
       <c r="F78" s="10">
         <f t="shared" si="3"/>
-        <v>24000</v>
+        <v>27000</v>
       </c>
       <c r="G78" s="10">
         <f t="shared" si="6"/>
-        <v>18720</v>
+        <v>21840</v>
       </c>
       <c r="H78" s="27">
         <v>6000</v>
@@ -4656,8 +4779,11 @@
       <c r="V78" s="11">
         <v>3120</v>
       </c>
-    </row>
-    <row r="79" s="11" customFormat="1" spans="1:23">
+      <c r="X78" s="11">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="79" s="11" customFormat="1" spans="1:25">
       <c r="A79" s="11">
         <v>77</v>
       </c>
@@ -4669,11 +4795,11 @@
       </c>
       <c r="F79" s="10">
         <f t="shared" si="3"/>
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="G79" s="10">
         <f t="shared" si="6"/>
-        <v>10400</v>
+        <v>12480</v>
       </c>
       <c r="H79" s="27">
         <v>3000</v>
@@ -4691,6 +4817,9 @@
         <v>2080</v>
       </c>
       <c r="W79" s="11">
+        <v>2080</v>
+      </c>
+      <c r="Y79" s="11">
         <v>2080</v>
       </c>
     </row>
@@ -4732,7 +4861,7 @@
       <c r="X80" s="33"/>
       <c r="Y80" s="33"/>
     </row>
-    <row r="81" s="11" customFormat="1" spans="1:23">
+    <row r="81" s="11" customFormat="1" spans="1:25">
       <c r="A81" s="11">
         <v>79</v>
       </c>
@@ -4745,11 +4874,11 @@
       </c>
       <c r="F81" s="10">
         <f t="shared" si="3"/>
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="G81" s="10">
         <f t="shared" si="6"/>
-        <v>5200</v>
+        <v>6240</v>
       </c>
       <c r="H81" s="27">
         <v>0</v>
@@ -4767,6 +4896,9 @@
         <v>1040</v>
       </c>
       <c r="W81" s="11">
+        <v>1040</v>
+      </c>
+      <c r="Y81" s="11">
         <v>1040</v>
       </c>
     </row>
@@ -4956,11 +5088,11 @@
       </c>
       <c r="F88" s="10">
         <f t="shared" si="7"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="G88" s="10">
         <f t="shared" si="8"/>
-        <v>2080</v>
+        <v>4160</v>
       </c>
       <c r="H88" s="27">
         <v>0</v>
@@ -4982,7 +5114,9 @@
       <c r="U88" s="33"/>
       <c r="V88" s="33"/>
       <c r="W88" s="31"/>
-      <c r="X88" s="33"/>
+      <c r="X88" s="33">
+        <v>2080</v>
+      </c>
       <c r="Y88" s="33"/>
       <c r="Z88" s="33"/>
     </row>
@@ -5243,11 +5377,11 @@
   <dimension ref="A1:AM96"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="2" topLeftCell="Q81" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H1" sqref="H$1:H$1048576"/>
+      <selection pane="bottomRight" activeCell="Y101" sqref="Y101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -5388,14 +5522,14 @@
       <c r="E2" s="13"/>
       <c r="F2" s="14">
         <f>SUM(H3:H121)</f>
-        <v>645600</v>
+        <v>767200</v>
       </c>
       <c r="G2" s="15" t="s">
         <v>8</v>
       </c>
       <c r="H2" s="14">
         <f t="shared" ref="H2:H18" si="0">SUM(I2:AM2)</f>
-        <v>645600</v>
+        <v>767200</v>
       </c>
       <c r="I2" s="10">
         <f t="shared" ref="I2:AJ2" si="1">SUM(I3:I121)</f>
@@ -5459,11 +5593,11 @@
       </c>
       <c r="X2" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7000</v>
       </c>
       <c r="Y2" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>114600</v>
       </c>
       <c r="Z2" s="10">
         <f t="shared" si="1"/>
@@ -5510,7 +5644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" s="11" customFormat="1" spans="1:18">
+    <row r="3" s="11" customFormat="1" spans="1:25">
       <c r="A3" s="11">
         <v>1</v>
       </c>
@@ -5534,12 +5668,15 @@
       </c>
       <c r="H3" s="10">
         <f t="shared" si="0"/>
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="I3" s="18">
         <v>3000</v>
       </c>
       <c r="R3" s="18">
+        <v>3000</v>
+      </c>
+      <c r="Y3" s="19">
         <v>3000</v>
       </c>
     </row>
@@ -5660,7 +5797,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="7" s="11" customFormat="1" spans="1:21">
+    <row r="7" s="11" customFormat="1" spans="1:25">
       <c r="A7" s="11">
         <v>5</v>
       </c>
@@ -5684,7 +5821,7 @@
       </c>
       <c r="H7" s="10">
         <f t="shared" si="0"/>
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="J7" s="18">
         <v>620</v>
@@ -5700,6 +5837,9 @@
       </c>
       <c r="U7" s="18">
         <v>4000</v>
+      </c>
+      <c r="Y7" s="19">
+        <v>8000</v>
       </c>
     </row>
     <row r="8" s="11" customFormat="1" spans="1:11">
@@ -5753,7 +5893,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" s="11" customFormat="1" spans="1:21">
+    <row r="10" s="11" customFormat="1" spans="1:25">
       <c r="A10" s="11">
         <v>8</v>
       </c>
@@ -5771,7 +5911,7 @@
       </c>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="I10" s="11">
         <v>5000</v>
@@ -5784,6 +5924,9 @@
       </c>
       <c r="U10" s="11">
         <v>2500</v>
+      </c>
+      <c r="Y10" s="11">
+        <v>7000</v>
       </c>
     </row>
     <row r="11" s="11" customFormat="1" spans="1:23">
@@ -5882,7 +6025,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="14" s="11" customFormat="1" spans="1:23">
+    <row r="14" s="11" customFormat="1" spans="1:25">
       <c r="A14" s="11">
         <v>12</v>
       </c>
@@ -5906,7 +6049,7 @@
       </c>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>29500</v>
+        <v>33500</v>
       </c>
       <c r="I14" s="11">
         <v>4500</v>
@@ -5938,8 +6081,11 @@
       <c r="W14" s="11">
         <v>4000</v>
       </c>
-    </row>
-    <row r="15" s="11" customFormat="1" spans="1:18">
+      <c r="Y14" s="11">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="15" s="11" customFormat="1" spans="1:25">
       <c r="A15" s="11">
         <v>13</v>
       </c>
@@ -5960,7 +6106,7 @@
       </c>
       <c r="H15" s="10">
         <f t="shared" si="0"/>
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="I15" s="11">
         <v>2000</v>
@@ -5969,6 +6115,9 @@
         <v>2000</v>
       </c>
       <c r="R15" s="11">
+        <v>2000</v>
+      </c>
+      <c r="Y15" s="19">
         <v>2000</v>
       </c>
     </row>
@@ -6047,7 +6196,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="19" s="11" customFormat="1" spans="1:23">
+    <row r="19" s="11" customFormat="1" spans="1:25">
       <c r="A19" s="11">
         <v>17</v>
       </c>
@@ -6071,7 +6220,7 @@
       </c>
       <c r="H19" s="10">
         <f t="shared" ref="H19:H82" si="2">SUM(I19:AM19)</f>
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="J19" s="11">
         <v>1000</v>
@@ -6085,8 +6234,11 @@
       <c r="W19" s="11">
         <v>2000</v>
       </c>
-    </row>
-    <row r="20" s="11" customFormat="1" spans="1:19">
+      <c r="Y19" s="11">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="20" s="11" customFormat="1" spans="1:25">
       <c r="A20" s="11">
         <v>18</v>
       </c>
@@ -6110,7 +6262,7 @@
       </c>
       <c r="H20" s="10">
         <f t="shared" si="2"/>
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="L20" s="18">
         <v>5000</v>
@@ -6121,8 +6273,11 @@
       <c r="S20" s="11">
         <v>5000</v>
       </c>
-    </row>
-    <row r="21" s="11" customFormat="1" spans="1:19">
+      <c r="Y20" s="11">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="21" s="11" customFormat="1" spans="1:25">
       <c r="A21" s="11">
         <v>19</v>
       </c>
@@ -6146,13 +6301,16 @@
       </c>
       <c r="H21" s="10">
         <f t="shared" si="2"/>
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M21" s="11">
         <v>2000</v>
       </c>
       <c r="S21" s="18">
         <v>4000</v>
+      </c>
+      <c r="Y21" s="11">
+        <v>2000</v>
       </c>
     </row>
     <row r="22" s="11" customFormat="1" spans="1:23">
@@ -6221,7 +6379,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="24" s="11" customFormat="1" spans="1:20">
+    <row r="24" s="11" customFormat="1" spans="1:25">
       <c r="A24" s="11">
         <v>22</v>
       </c>
@@ -6239,7 +6397,7 @@
       </c>
       <c r="H24" s="10">
         <f t="shared" si="2"/>
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="I24" s="11">
         <v>1000</v>
@@ -6256,8 +6414,11 @@
       <c r="T24" s="11">
         <v>1000</v>
       </c>
-    </row>
-    <row r="25" s="11" customFormat="1" spans="1:21">
+      <c r="Y24" s="11">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="25" s="11" customFormat="1" spans="1:25">
       <c r="A25" s="11">
         <v>23</v>
       </c>
@@ -6281,7 +6442,7 @@
       </c>
       <c r="H25" s="10">
         <f t="shared" si="2"/>
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="K25" s="11">
         <v>3000</v>
@@ -6295,8 +6456,11 @@
       <c r="U25" s="11">
         <v>3000</v>
       </c>
-    </row>
-    <row r="26" s="11" customFormat="1" spans="1:20">
+      <c r="Y25" s="11">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="26" s="11" customFormat="1" spans="1:24">
       <c r="A26" s="11">
         <v>24</v>
       </c>
@@ -6320,7 +6484,7 @@
       </c>
       <c r="H26" s="10">
         <f t="shared" si="2"/>
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="I26" s="18">
         <v>5000</v>
@@ -6334,8 +6498,11 @@
       <c r="T26" s="18">
         <v>5000</v>
       </c>
-    </row>
-    <row r="27" s="11" customFormat="1" spans="1:9">
+      <c r="X26" s="19">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="27" s="11" customFormat="1" spans="1:25">
       <c r="A27" s="11">
         <v>25</v>
       </c>
@@ -6353,13 +6520,16 @@
       </c>
       <c r="H27" s="10">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="I27" s="11">
         <v>3000</v>
       </c>
-    </row>
-    <row r="28" s="11" customFormat="1" spans="1:21">
+      <c r="Y27" s="11">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="28" s="11" customFormat="1" spans="1:25">
       <c r="A28" s="11">
         <v>26</v>
       </c>
@@ -6377,7 +6547,7 @@
       </c>
       <c r="H28" s="10">
         <f t="shared" si="2"/>
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="K28" s="11">
         <v>1500</v>
@@ -6401,6 +6571,9 @@
         <v>1000</v>
       </c>
       <c r="U28" s="11">
+        <v>1000</v>
+      </c>
+      <c r="Y28" s="19">
         <v>1000</v>
       </c>
     </row>
@@ -6431,7 +6604,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="30" s="11" customFormat="1" spans="1:20">
+    <row r="30" s="11" customFormat="1" spans="1:25">
       <c r="A30" s="11">
         <v>28</v>
       </c>
@@ -6449,7 +6622,7 @@
       </c>
       <c r="H30" s="10">
         <f t="shared" si="2"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="I30" s="11">
         <v>1000</v>
@@ -6458,6 +6631,9 @@
         <v>1000</v>
       </c>
       <c r="T30" s="11">
+        <v>2000</v>
+      </c>
+      <c r="Y30" s="11">
         <v>2000</v>
       </c>
     </row>
@@ -6494,7 +6670,7 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="32" s="11" customFormat="1" spans="1:19">
+    <row r="32" s="11" customFormat="1" spans="1:25">
       <c r="A32" s="11">
         <v>30</v>
       </c>
@@ -6515,7 +6691,7 @@
       </c>
       <c r="H32" s="10">
         <f t="shared" si="2"/>
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="N32" s="18">
         <v>10000</v>
@@ -6523,8 +6699,11 @@
       <c r="S32" s="18">
         <v>10000</v>
       </c>
-    </row>
-    <row r="33" s="11" customFormat="1" spans="1:23">
+      <c r="Y32" s="19">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="33" s="11" customFormat="1" spans="1:25">
       <c r="A33" s="11">
         <v>31</v>
       </c>
@@ -6539,7 +6718,7 @@
       </c>
       <c r="H33" s="10">
         <f t="shared" si="2"/>
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="I33" s="11">
         <v>1000</v>
@@ -6563,6 +6742,9 @@
         <v>1000</v>
       </c>
       <c r="W33" s="11">
+        <v>1000</v>
+      </c>
+      <c r="Y33" s="11">
         <v>1000</v>
       </c>
     </row>
@@ -6608,7 +6790,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="35" s="11" customFormat="1" spans="1:19">
+    <row r="35" s="11" customFormat="1" spans="1:25">
       <c r="A35" s="11">
         <v>33</v>
       </c>
@@ -6623,7 +6805,7 @@
       </c>
       <c r="H35" s="10">
         <f t="shared" si="2"/>
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="K35" s="11">
         <v>1000</v>
@@ -6633,6 +6815,9 @@
       </c>
       <c r="S35" s="11">
         <v>2000</v>
+      </c>
+      <c r="Y35" s="11">
+        <v>1000</v>
       </c>
     </row>
     <row r="36" s="11" customFormat="1" spans="1:16">
@@ -6662,7 +6847,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="37" s="11" customFormat="1" spans="1:21">
+    <row r="37" s="11" customFormat="1" spans="1:25">
       <c r="A37" s="11">
         <v>35</v>
       </c>
@@ -6677,7 +6862,7 @@
       </c>
       <c r="H37" s="10">
         <f t="shared" si="2"/>
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="J37" s="18">
         <v>3000</v>
@@ -6692,6 +6877,9 @@
         <v>3000</v>
       </c>
       <c r="U37" s="18">
+        <v>3000</v>
+      </c>
+      <c r="Y37" s="19">
         <v>3000</v>
       </c>
     </row>
@@ -6803,7 +6991,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="42" s="11" customFormat="1" spans="1:13">
+    <row r="42" s="11" customFormat="1" spans="1:25">
       <c r="A42" s="11">
         <v>40</v>
       </c>
@@ -6818,13 +7006,16 @@
       </c>
       <c r="H42" s="10">
         <f t="shared" si="2"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="M42" s="11">
         <v>2000</v>
       </c>
-    </row>
-    <row r="43" s="11" customFormat="1" spans="1:23">
+      <c r="Y42" s="11">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="43" s="11" customFormat="1" spans="1:25">
       <c r="A43" s="11">
         <v>41</v>
       </c>
@@ -6842,7 +7033,7 @@
       </c>
       <c r="H43" s="10">
         <f t="shared" si="2"/>
-        <v>22500</v>
+        <v>25500</v>
       </c>
       <c r="J43" s="11">
         <v>1500</v>
@@ -6864,6 +7055,9 @@
       </c>
       <c r="W43" s="11">
         <v>6000</v>
+      </c>
+      <c r="Y43" s="11">
+        <v>3000</v>
       </c>
     </row>
     <row r="44" s="11" customFormat="1" spans="1:18">
@@ -6887,7 +7081,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="45" s="11" customFormat="1" spans="1:23">
+    <row r="45" s="11" customFormat="1" spans="1:25">
       <c r="A45" s="11">
         <v>43</v>
       </c>
@@ -6902,7 +7096,7 @@
       </c>
       <c r="H45" s="10">
         <f t="shared" si="2"/>
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="K45" s="11">
         <v>3000</v>
@@ -6914,6 +7108,9 @@
         <v>3000</v>
       </c>
       <c r="W45" s="19">
+        <v>3000</v>
+      </c>
+      <c r="Y45" s="11">
         <v>3000</v>
       </c>
     </row>
@@ -6950,7 +7147,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="47" s="11" customFormat="1" spans="1:21">
+    <row r="47" s="11" customFormat="1" spans="1:25">
       <c r="A47" s="11">
         <v>45</v>
       </c>
@@ -6965,7 +7162,7 @@
       </c>
       <c r="H47" s="10">
         <f t="shared" si="2"/>
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L47" s="11">
         <v>2100</v>
@@ -6977,6 +7174,9 @@
         <v>3000</v>
       </c>
       <c r="U47" s="11">
+        <v>3000</v>
+      </c>
+      <c r="Y47" s="11">
         <v>3000</v>
       </c>
     </row>
@@ -7007,7 +7207,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="49" s="11" customFormat="1" spans="1:23">
+    <row r="49" s="11" customFormat="1" spans="1:25">
       <c r="A49" s="11">
         <v>47</v>
       </c>
@@ -7031,7 +7231,7 @@
       </c>
       <c r="H49" s="10">
         <f t="shared" si="2"/>
-        <v>16000</v>
+        <v>19500</v>
       </c>
       <c r="J49" s="18">
         <v>4000</v>
@@ -7047,6 +7247,9 @@
       </c>
       <c r="W49" s="19">
         <v>4000</v>
+      </c>
+      <c r="Y49" s="11">
+        <v>3500</v>
       </c>
     </row>
     <row r="50" s="11" customFormat="1" spans="1:23">
@@ -7091,7 +7294,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="51" s="11" customFormat="1" spans="1:18">
+    <row r="51" s="11" customFormat="1" spans="1:25">
       <c r="A51" s="11">
         <v>49</v>
       </c>
@@ -7112,12 +7315,15 @@
       </c>
       <c r="H51" s="10">
         <f t="shared" si="2"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M51" s="11">
         <v>2000</v>
       </c>
       <c r="R51" s="11">
+        <v>2000</v>
+      </c>
+      <c r="Y51" s="11">
         <v>2000</v>
       </c>
     </row>
@@ -7139,7 +7345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" s="11" customFormat="1" spans="1:22">
+    <row r="53" s="11" customFormat="1" spans="1:25">
       <c r="A53" s="11">
         <v>51</v>
       </c>
@@ -7160,7 +7366,7 @@
       </c>
       <c r="H53" s="10">
         <f t="shared" si="2"/>
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="K53" s="18">
         <v>1000</v>
@@ -7177,8 +7383,14 @@
       <c r="V53" s="19">
         <v>1000</v>
       </c>
-    </row>
-    <row r="54" s="11" customFormat="1" spans="1:18">
+      <c r="X53" s="19">
+        <v>2000</v>
+      </c>
+      <c r="Y53" s="19">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="54" s="11" customFormat="1" spans="1:25">
       <c r="A54" s="11">
         <v>52</v>
       </c>
@@ -7193,7 +7405,7 @@
       </c>
       <c r="H54" s="10">
         <f t="shared" si="2"/>
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="I54" s="18">
         <v>2000</v>
@@ -7203,6 +7415,9 @@
       </c>
       <c r="R54" s="11">
         <v>1000</v>
+      </c>
+      <c r="Y54" s="19">
+        <v>5000</v>
       </c>
     </row>
     <row r="55" s="11" customFormat="1" spans="1:21">
@@ -7280,7 +7495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" s="11" customFormat="1" spans="1:21">
+    <row r="58" s="11" customFormat="1" spans="1:25">
       <c r="A58" s="11">
         <v>56</v>
       </c>
@@ -7298,7 +7513,7 @@
       </c>
       <c r="H58" s="10">
         <f t="shared" si="2"/>
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="J58" s="11">
         <v>2000</v>
@@ -7306,8 +7521,11 @@
       <c r="U58" s="11">
         <v>4000</v>
       </c>
-    </row>
-    <row r="59" s="11" customFormat="1" spans="1:16">
+      <c r="Y58" s="11">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="59" s="11" customFormat="1" spans="1:25">
       <c r="A59" s="11">
         <v>57</v>
       </c>
@@ -7328,10 +7546,13 @@
       </c>
       <c r="H59" s="10">
         <f t="shared" si="2"/>
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="P59" s="18">
         <v>15000</v>
+      </c>
+      <c r="Y59" s="11">
+        <v>10000</v>
       </c>
     </row>
     <row r="60" s="11" customFormat="1" spans="1:21">
@@ -7358,7 +7579,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="61" s="11" customFormat="1" spans="1:21">
+    <row r="61" s="11" customFormat="1" spans="1:25">
       <c r="A61" s="11">
         <v>59</v>
       </c>
@@ -7373,7 +7594,7 @@
       </c>
       <c r="H61" s="10">
         <f t="shared" si="2"/>
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="J61" s="11">
         <v>2000</v>
@@ -7383,6 +7604,9 @@
       </c>
       <c r="U61" s="11">
         <v>2000</v>
+      </c>
+      <c r="Y61" s="11">
+        <v>4000</v>
       </c>
     </row>
     <row r="62" s="11" customFormat="1" spans="1:19">
@@ -7580,7 +7804,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="69" s="11" customFormat="1" spans="1:8">
+    <row r="69" s="11" customFormat="1" spans="1:25">
       <c r="A69" s="11">
         <v>67</v>
       </c>
@@ -7595,7 +7819,10 @@
       </c>
       <c r="H69" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2000</v>
+      </c>
+      <c r="Y69" s="11">
+        <v>2000</v>
       </c>
     </row>
     <row r="70" s="11" customFormat="1" spans="1:16">
@@ -7622,7 +7849,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="71" s="11" customFormat="1" spans="1:19">
+    <row r="71" s="11" customFormat="1" spans="1:25">
       <c r="A71" s="11">
         <v>69</v>
       </c>
@@ -7637,7 +7864,7 @@
       </c>
       <c r="H71" s="10">
         <f t="shared" si="2"/>
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="L71" s="11">
         <v>1000</v>
@@ -7645,8 +7872,11 @@
       <c r="S71" s="11">
         <v>1000</v>
       </c>
-    </row>
-    <row r="72" s="11" customFormat="1" spans="1:19">
+      <c r="Y71" s="11">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="72" s="11" customFormat="1" spans="1:25">
       <c r="A72" s="11">
         <v>70</v>
       </c>
@@ -7661,7 +7891,7 @@
       </c>
       <c r="H72" s="10">
         <f t="shared" si="2"/>
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="I72" s="11">
         <v>5000</v>
@@ -7675,8 +7905,11 @@
       <c r="S72" s="11">
         <v>5000</v>
       </c>
-    </row>
-    <row r="73" s="11" customFormat="1" spans="1:18">
+      <c r="Y72" s="11">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="73" s="11" customFormat="1" spans="1:25">
       <c r="A73" s="11">
         <v>71</v>
       </c>
@@ -7691,12 +7924,15 @@
       </c>
       <c r="H73" s="10">
         <f t="shared" si="2"/>
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="K73" s="11">
         <v>3000</v>
       </c>
       <c r="R73" s="11">
+        <v>3000</v>
+      </c>
+      <c r="Y73" s="19">
         <v>3000</v>
       </c>
     </row>
@@ -7778,7 +8014,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="77" s="11" customFormat="1" spans="1:21">
+    <row r="77" s="11" customFormat="1" spans="1:25">
       <c r="A77" s="11">
         <v>75</v>
       </c>
@@ -7802,7 +8038,7 @@
       </c>
       <c r="H77" s="10">
         <f t="shared" si="2"/>
-        <v>7000</v>
+        <v>8600</v>
       </c>
       <c r="J77" s="11">
         <v>1200</v>
@@ -7821,6 +8057,9 @@
       </c>
       <c r="U77" s="18">
         <v>1900</v>
+      </c>
+      <c r="Y77" s="11">
+        <v>1600</v>
       </c>
     </row>
     <row r="78" s="11" customFormat="1" spans="1:21">
@@ -8246,8 +8485,8 @@
   <sheetPr/>
   <dimension ref="A1:D96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="F79" sqref="F79"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -8283,7 +8522,7 @@
       </c>
       <c r="D2" s="6">
         <f>Orders!F2-Collection!H2</f>
-        <v>208100</v>
+        <v>184500</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -8358,7 +8597,7 @@
       </c>
       <c r="D7" s="9">
         <f>Orders!F7-Collection!H7</f>
-        <v>16000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -8388,7 +8627,7 @@
       </c>
       <c r="D9" s="9">
         <f>Orders!F9-Collection!H9</f>
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -8403,7 +8642,7 @@
       </c>
       <c r="D10" s="9">
         <f>Orders!F10-Collection!H10</f>
-        <v>5000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -8448,7 +8687,7 @@
       </c>
       <c r="D13" s="9">
         <f>Orders!F13-Collection!H13</f>
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -8463,7 +8702,7 @@
       </c>
       <c r="D14" s="9">
         <f>Orders!F14-Collection!H14</f>
-        <v>6000</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -8476,7 +8715,7 @@
       </c>
       <c r="D15" s="9">
         <f>Orders!F15-Collection!H15</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -8532,7 +8771,7 @@
       </c>
       <c r="D19" s="9">
         <f>Orders!F19-Collection!H19</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -8547,7 +8786,7 @@
       </c>
       <c r="D20" s="9">
         <f>Orders!F20-Collection!H20</f>
-        <v>5000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -8562,7 +8801,7 @@
       </c>
       <c r="D21" s="9">
         <f>Orders!F21-Collection!H21</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -8592,7 +8831,7 @@
       </c>
       <c r="D23" s="9">
         <f>Orders!F23-Collection!H23</f>
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -8607,7 +8846,7 @@
       </c>
       <c r="D24" s="9">
         <f>Orders!F24-Collection!H24</f>
-        <v>1000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -8622,7 +8861,7 @@
       </c>
       <c r="D25" s="9">
         <f>Orders!F25-Collection!H25</f>
-        <v>3000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -8637,7 +8876,7 @@
       </c>
       <c r="D26" s="9">
         <f>Orders!F26-Collection!H26</f>
-        <v>5000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -8652,7 +8891,7 @@
       </c>
       <c r="D27" s="9">
         <f>Orders!F27-Collection!H27</f>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -8667,7 +8906,7 @@
       </c>
       <c r="D28" s="9">
         <f>Orders!F28-Collection!H28</f>
-        <v>2000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -8682,7 +8921,7 @@
       </c>
       <c r="D29" s="9">
         <f>Orders!F29-Collection!H29</f>
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -8723,7 +8962,7 @@
       </c>
       <c r="D32" s="9">
         <f>Orders!F32-Collection!H32</f>
-        <v>5000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -8736,7 +8975,7 @@
       </c>
       <c r="D33" s="9">
         <f>Orders!F33-Collection!H33</f>
-        <v>1000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -8762,7 +9001,7 @@
       </c>
       <c r="D35" s="9">
         <f>Orders!F35-Collection!H35</f>
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -8911,7 +9150,7 @@
       </c>
       <c r="D46" s="9">
         <f>Orders!F46-Collection!H46</f>
-        <v>0</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -8952,7 +9191,7 @@
       </c>
       <c r="D49" s="9">
         <f>Orders!F49-Collection!H49</f>
-        <v>5000</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -8967,7 +9206,7 @@
       </c>
       <c r="D50" s="9">
         <f>Orders!F50-Collection!H50</f>
-        <v>0</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -8980,7 +9219,7 @@
       </c>
       <c r="D51" s="9">
         <f>Orders!F51-Collection!H51</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -9006,7 +9245,7 @@
       </c>
       <c r="D53" s="9">
         <f>Orders!F53-Collection!H53</f>
-        <v>3000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -9019,7 +9258,7 @@
       </c>
       <c r="D54" s="9">
         <f>Orders!F54-Collection!H54</f>
-        <v>3000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -9045,7 +9284,7 @@
       </c>
       <c r="D56" s="9">
         <f>Orders!F56-Collection!H56</f>
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -9075,7 +9314,7 @@
       </c>
       <c r="D58" s="9">
         <f>Orders!F58-Collection!H58</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -9088,7 +9327,7 @@
       </c>
       <c r="D59" s="9">
         <f>Orders!F59-Collection!H59</f>
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -9114,7 +9353,7 @@
       </c>
       <c r="D61" s="9">
         <f>Orders!F61-Collection!H61</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -9129,7 +9368,7 @@
       </c>
       <c r="D62" s="9">
         <f>Orders!F62-Collection!H62</f>
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -9200,7 +9439,7 @@
       </c>
       <c r="D67" s="9">
         <f>Orders!F67-Collection!H67</f>
-        <v>500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -9213,7 +9452,7 @@
       </c>
       <c r="D68" s="9">
         <f>Orders!F68-Collection!H68</f>
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -9226,7 +9465,7 @@
       </c>
       <c r="D69" s="9">
         <f>Orders!F69-Collection!H69</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -9252,7 +9491,7 @@
       </c>
       <c r="D71" s="9">
         <f>Orders!F71-Collection!H71</f>
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -9265,7 +9504,7 @@
       </c>
       <c r="D72" s="9">
         <f>Orders!F72-Collection!H72</f>
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -9278,7 +9517,7 @@
       </c>
       <c r="D73" s="9">
         <f>Orders!F73-Collection!H73</f>
-        <v>6000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -9321,7 +9560,7 @@
       </c>
       <c r="D76" s="9">
         <f>Orders!F76-Collection!H76</f>
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -9336,7 +9575,7 @@
       </c>
       <c r="D77" s="9">
         <f>Orders!F77-Collection!H77</f>
-        <v>2000</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -9349,7 +9588,7 @@
       </c>
       <c r="D78" s="9">
         <f>Orders!F78-Collection!H78</f>
-        <v>3000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -9362,7 +9601,7 @@
       </c>
       <c r="D79" s="9">
         <f>Orders!F79-Collection!H79</f>
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -9388,7 +9627,7 @@
       </c>
       <c r="D81" s="9">
         <f>Orders!F81-Collection!H81</f>
-        <v>1000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -9479,7 +9718,7 @@
       </c>
       <c r="D88" s="9">
         <f>Orders!F88-Collection!H88</f>
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="89" spans="1:4">

--- a/Febuary2021.xlsx
+++ b/Febuary2021.xlsx
@@ -48,6 +48,29 @@
       </text>
     </comment>
     <comment ref="V16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Vijay:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+1040-Auto
+1040-Auto</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z53" authorId="0">
       <text>
         <r>
           <rPr>
@@ -753,9 +776,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="[$-409]d\-mmm;@"/>
   </numFmts>
   <fonts count="23">
@@ -782,9 +805,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -799,7 +821,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -807,7 +859,14 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -844,6 +903,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -853,29 +920,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -892,28 +937,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1017,7 +1040,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1029,19 +1082,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1053,7 +1106,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1071,7 +1124,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1083,7 +1142,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1095,13 +1154,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1113,43 +1166,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1161,31 +1178,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1198,6 +1209,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1222,6 +1245,15 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1265,6 +1297,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1282,9 +1323,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1303,32 +1346,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1346,130 +1369,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1925,11 +1948,11 @@
   <dimension ref="A1:AS114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="X57" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="Y17" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E63" sqref="E63"/>
+      <selection pane="bottomRight" activeCell="AA37" sqref="AA37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -2067,22 +2090,22 @@
       <c r="A2" s="13"/>
       <c r="B2" s="25">
         <f>SUM(F3:F121)</f>
-        <v>951700</v>
+        <v>991700</v>
       </c>
       <c r="D2" s="14">
         <f>SUM(G3:G121)</f>
-        <v>814840</v>
+        <v>856440</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="25">
         <f t="shared" ref="F2:F18" si="0">G2/1.04+H2</f>
-        <v>951700</v>
+        <v>991700</v>
       </c>
       <c r="G2" s="14">
         <f t="shared" ref="G2:G28" si="1">SUM(I2:AM2)</f>
-        <v>814840</v>
+        <v>856440</v>
       </c>
       <c r="H2" s="26">
         <f t="shared" ref="H2:AJ2" si="2">SUM(H3:H121)</f>
@@ -2158,11 +2181,11 @@
       </c>
       <c r="Z2" s="10">
         <f t="shared" si="2"/>
-        <v>11440</v>
+        <v>24960</v>
       </c>
       <c r="AA2" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>28080</v>
       </c>
       <c r="AB2" s="10">
         <f t="shared" si="2"/>
@@ -2346,7 +2369,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="7" s="11" customFormat="1" spans="1:25">
+    <row r="7" s="11" customFormat="1" spans="1:27">
       <c r="A7" s="11">
         <v>5</v>
       </c>
@@ -2361,11 +2384,11 @@
       </c>
       <c r="F7" s="10">
         <f t="shared" si="0"/>
-        <v>47000</v>
+        <v>51000</v>
       </c>
       <c r="G7" s="10">
         <f t="shared" si="1"/>
-        <v>37440</v>
+        <v>41600</v>
       </c>
       <c r="H7" s="27">
         <v>11000</v>
@@ -2418,8 +2441,14 @@
       <c r="Y7" s="11">
         <v>2080</v>
       </c>
-    </row>
-    <row r="8" s="11" customFormat="1" spans="1:20">
+      <c r="Z7" s="11">
+        <v>2080</v>
+      </c>
+      <c r="AA7" s="11">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="8" s="11" customFormat="1" spans="1:27">
       <c r="A8" s="11">
         <v>6</v>
       </c>
@@ -2434,11 +2463,11 @@
       </c>
       <c r="F8" s="10">
         <f t="shared" si="0"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="G8" s="10">
         <f t="shared" si="1"/>
-        <v>4160</v>
+        <v>6240</v>
       </c>
       <c r="H8" s="27">
         <v>0</v>
@@ -2447,6 +2476,9 @@
         <v>2080</v>
       </c>
       <c r="T8" s="11">
+        <v>2080</v>
+      </c>
+      <c r="AA8" s="11">
         <v>2080</v>
       </c>
     </row>
@@ -2800,7 +2832,7 @@
       <c r="Z18" s="33"/>
       <c r="AA18" s="33"/>
     </row>
-    <row r="19" s="11" customFormat="1" spans="1:22">
+    <row r="19" s="11" customFormat="1" spans="1:27">
       <c r="A19" s="11">
         <v>17</v>
       </c>
@@ -2812,11 +2844,11 @@
       </c>
       <c r="F19" s="10">
         <f t="shared" ref="F19:F82" si="3">G19/1.04+H19</f>
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="G19" s="10">
         <f t="shared" si="1"/>
-        <v>9360</v>
+        <v>12480</v>
       </c>
       <c r="H19" s="27">
         <v>-1000</v>
@@ -2828,6 +2860,9 @@
         <v>3120</v>
       </c>
       <c r="V19" s="11">
+        <v>3120</v>
+      </c>
+      <c r="AA19" s="11">
         <v>3120</v>
       </c>
     </row>
@@ -2961,7 +2996,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="24" s="11" customFormat="1" spans="1:23">
+    <row r="24" s="11" customFormat="1" spans="1:27">
       <c r="A24" s="11">
         <v>22</v>
       </c>
@@ -2973,11 +3008,11 @@
       </c>
       <c r="F24" s="10">
         <f t="shared" si="3"/>
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="G24" s="10">
         <f t="shared" si="1"/>
-        <v>5200</v>
+        <v>6240</v>
       </c>
       <c r="H24" s="27">
         <v>1000</v>
@@ -2995,6 +3030,9 @@
         <v>1040</v>
       </c>
       <c r="W24" s="11">
+        <v>1040</v>
+      </c>
+      <c r="AA24" s="11">
         <v>1040</v>
       </c>
     </row>
@@ -3035,7 +3073,7 @@
         <v>3120</v>
       </c>
     </row>
-    <row r="26" s="11" customFormat="1" spans="1:24">
+    <row r="26" s="11" customFormat="1" spans="1:27">
       <c r="A26" s="11">
         <v>24</v>
       </c>
@@ -3047,11 +3085,11 @@
       </c>
       <c r="F26" s="10">
         <f t="shared" si="3"/>
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="G26" s="10">
         <f t="shared" si="1"/>
-        <v>26000</v>
+        <v>31200</v>
       </c>
       <c r="H26" s="27">
         <v>0</v>
@@ -3069,6 +3107,9 @@
         <v>5200</v>
       </c>
       <c r="X26" s="11">
+        <v>5200</v>
+      </c>
+      <c r="AA26" s="11">
         <v>5200</v>
       </c>
     </row>
@@ -3409,7 +3450,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="37" s="11" customFormat="1" spans="1:26">
+    <row r="37" s="11" customFormat="1" spans="1:27">
       <c r="A37" s="11">
         <v>35</v>
       </c>
@@ -3421,11 +3462,11 @@
       </c>
       <c r="F37" s="10">
         <f t="shared" si="3"/>
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="G37" s="10">
         <f t="shared" si="4"/>
-        <v>21840</v>
+        <v>24960</v>
       </c>
       <c r="H37" s="27">
         <v>0</v>
@@ -3449,6 +3490,9 @@
         <v>3120</v>
       </c>
       <c r="Z37" s="11">
+        <v>3120</v>
+      </c>
+      <c r="AA37" s="11">
         <v>3120</v>
       </c>
     </row>
@@ -3536,7 +3580,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="41" s="11" customFormat="1" spans="1:23">
+    <row r="41" s="11" customFormat="1" spans="1:27">
       <c r="A41" s="11">
         <v>39</v>
       </c>
@@ -3548,11 +3592,11 @@
       </c>
       <c r="F41" s="10">
         <f t="shared" si="3"/>
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="G41" s="10">
         <f t="shared" si="4"/>
-        <v>6240</v>
+        <v>8320</v>
       </c>
       <c r="H41" s="27">
         <v>2000</v>
@@ -3564,6 +3608,9 @@
         <v>2080</v>
       </c>
       <c r="W41" s="11">
+        <v>2080</v>
+      </c>
+      <c r="AA41" s="11">
         <v>2080</v>
       </c>
     </row>
@@ -3669,7 +3716,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="45" s="11" customFormat="1" spans="1:24">
+    <row r="45" s="11" customFormat="1" spans="1:26">
       <c r="A45" s="11">
         <v>43</v>
       </c>
@@ -3681,11 +3728,11 @@
       </c>
       <c r="F45" s="10">
         <f t="shared" si="3"/>
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="G45" s="10">
         <f t="shared" si="5"/>
-        <v>15600</v>
+        <v>18720</v>
       </c>
       <c r="H45" s="27">
         <v>0</v>
@@ -3703,6 +3750,9 @@
         <v>3120</v>
       </c>
       <c r="X45" s="11">
+        <v>3120</v>
+      </c>
+      <c r="Z45" s="11">
         <v>3120</v>
       </c>
     </row>
@@ -3947,11 +3997,11 @@
       </c>
       <c r="F53" s="10">
         <f t="shared" si="3"/>
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="G53" s="10">
         <f t="shared" si="5"/>
-        <v>12480</v>
+        <v>13520</v>
       </c>
       <c r="H53" s="27">
         <v>0</v>
@@ -3990,10 +4040,10 @@
         <v>1040</v>
       </c>
       <c r="Z53" s="11">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="54" s="11" customFormat="1" spans="1:24">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="54" s="11" customFormat="1" spans="1:26">
       <c r="A54" s="11">
         <v>52</v>
       </c>
@@ -4005,11 +4055,11 @@
       </c>
       <c r="F54" s="10">
         <f t="shared" si="3"/>
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="G54" s="10">
         <f t="shared" si="5"/>
-        <v>8320</v>
+        <v>10400</v>
       </c>
       <c r="H54" s="27">
         <v>2000</v>
@@ -4024,6 +4074,9 @@
         <v>2080</v>
       </c>
       <c r="X54" s="11">
+        <v>2080</v>
+      </c>
+      <c r="Z54" s="11">
         <v>2080</v>
       </c>
     </row>
@@ -4204,7 +4257,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="61" s="11" customFormat="1" spans="1:24">
+    <row r="61" s="11" customFormat="1" spans="1:27">
       <c r="A61" s="11">
         <v>59</v>
       </c>
@@ -4216,11 +4269,11 @@
       </c>
       <c r="F61" s="10">
         <f t="shared" si="3"/>
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="G61" s="10">
         <f t="shared" si="5"/>
-        <v>10400</v>
+        <v>12480</v>
       </c>
       <c r="H61" s="27">
         <v>0</v>
@@ -4238,6 +4291,9 @@
         <v>2080</v>
       </c>
       <c r="X61" s="11">
+        <v>2080</v>
+      </c>
+      <c r="AA61" s="11">
         <v>2080</v>
       </c>
     </row>
@@ -4327,7 +4383,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="65" s="11" customFormat="1" spans="1:15">
+    <row r="65" s="11" customFormat="1" spans="1:26">
       <c r="A65" s="11">
         <v>63</v>
       </c>
@@ -4342,11 +4398,11 @@
       </c>
       <c r="F65" s="10">
         <f t="shared" si="3"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="G65" s="10">
         <f t="shared" si="5"/>
-        <v>2080</v>
+        <v>4160</v>
       </c>
       <c r="H65" s="22">
         <v>2000</v>
@@ -4354,8 +4410,11 @@
       <c r="O65" s="11">
         <v>2080</v>
       </c>
-    </row>
-    <row r="66" s="11" customFormat="1" spans="1:21">
+      <c r="Z65" s="11">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="66" s="11" customFormat="1" spans="1:27">
       <c r="A66" s="11">
         <v>64</v>
       </c>
@@ -4368,11 +4427,11 @@
       </c>
       <c r="F66" s="10">
         <f t="shared" si="3"/>
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="G66" s="10">
         <f t="shared" si="5"/>
-        <v>10400</v>
+        <v>12480</v>
       </c>
       <c r="H66" s="27">
         <v>2000</v>
@@ -4390,6 +4449,9 @@
         <v>2080</v>
       </c>
       <c r="U66" s="11">
+        <v>2080</v>
+      </c>
+      <c r="AA66" s="11">
         <v>2080</v>
       </c>
     </row>
@@ -4540,7 +4602,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="72" s="11" customFormat="1" spans="1:23">
+    <row r="72" s="11" customFormat="1" spans="1:27">
       <c r="A72" s="11">
         <v>70</v>
       </c>
@@ -4552,11 +4614,11 @@
       </c>
       <c r="F72" s="10">
         <f t="shared" si="3"/>
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="G72" s="10">
         <f t="shared" si="5"/>
-        <v>26000</v>
+        <v>31200</v>
       </c>
       <c r="H72" s="27">
         <v>5000</v>
@@ -4576,8 +4638,11 @@
       <c r="W72" s="11">
         <v>5200</v>
       </c>
-    </row>
-    <row r="73" s="11" customFormat="1" spans="1:23">
+      <c r="AA72" s="11">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="73" s="11" customFormat="1" spans="1:26">
       <c r="A73" s="11">
         <v>71</v>
       </c>
@@ -4589,11 +4654,11 @@
       </c>
       <c r="F73" s="10">
         <f t="shared" si="3"/>
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="G73" s="10">
         <f t="shared" si="5"/>
-        <v>12480</v>
+        <v>15600</v>
       </c>
       <c r="H73" s="27">
         <v>0</v>
@@ -4608,6 +4673,9 @@
         <v>3120</v>
       </c>
       <c r="W73" s="11">
+        <v>3120</v>
+      </c>
+      <c r="Z73" s="11">
         <v>3120</v>
       </c>
     </row>
@@ -5377,11 +5445,11 @@
   <dimension ref="A1:AM96"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="Q81" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="2" topLeftCell="S78" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Y101" sqref="Y101"/>
+      <selection pane="bottomRight" activeCell="G88" sqref="G88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -5522,14 +5590,14 @@
       <c r="E2" s="13"/>
       <c r="F2" s="14">
         <f>SUM(H3:H121)</f>
-        <v>767200</v>
+        <v>803700</v>
       </c>
       <c r="G2" s="15" t="s">
         <v>8</v>
       </c>
       <c r="H2" s="14">
         <f t="shared" ref="H2:H18" si="0">SUM(I2:AM2)</f>
-        <v>767200</v>
+        <v>803700</v>
       </c>
       <c r="I2" s="10">
         <f t="shared" ref="I2:AJ2" si="1">SUM(I3:I121)</f>
@@ -5601,7 +5669,7 @@
       </c>
       <c r="Z2" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>36500</v>
       </c>
       <c r="AA2" s="10">
         <f t="shared" si="1"/>
@@ -5842,7 +5910,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="8" s="11" customFormat="1" spans="1:11">
+    <row r="8" s="11" customFormat="1" spans="1:26">
       <c r="A8" s="11">
         <v>6</v>
       </c>
@@ -5860,13 +5928,16 @@
       </c>
       <c r="H8" s="10">
         <f t="shared" si="0"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="K8" s="11">
         <v>2000</v>
       </c>
-    </row>
-    <row r="9" s="11" customFormat="1" spans="1:18">
+      <c r="Z8" s="11">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="9" s="11" customFormat="1" spans="1:26">
       <c r="A9" s="11">
         <v>7</v>
       </c>
@@ -5884,12 +5955,15 @@
       </c>
       <c r="H9" s="10">
         <f t="shared" si="0"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="I9" s="11">
         <v>2000</v>
       </c>
       <c r="R9" s="11">
+        <v>2000</v>
+      </c>
+      <c r="Z9" s="11">
         <v>2000</v>
       </c>
     </row>
@@ -5995,7 +6069,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="13" s="11" customFormat="1" spans="1:21">
+    <row r="13" s="11" customFormat="1" spans="1:26">
       <c r="A13" s="11">
         <v>11</v>
       </c>
@@ -6013,7 +6087,7 @@
       </c>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="L13" s="11">
         <v>5000</v>
@@ -6024,8 +6098,11 @@
       <c r="U13" s="11">
         <v>5000</v>
       </c>
-    </row>
-    <row r="14" s="11" customFormat="1" spans="1:25">
+      <c r="Z13" s="19">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="14" s="11" customFormat="1" spans="1:26">
       <c r="A14" s="11">
         <v>12</v>
       </c>
@@ -6049,7 +6126,7 @@
       </c>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>33500</v>
+        <v>36500</v>
       </c>
       <c r="I14" s="11">
         <v>4500</v>
@@ -6083,6 +6160,9 @@
       </c>
       <c r="Y14" s="11">
         <v>4000</v>
+      </c>
+      <c r="Z14" s="11">
+        <v>3000</v>
       </c>
     </row>
     <row r="15" s="11" customFormat="1" spans="1:25">
@@ -6175,7 +6255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" s="11" customFormat="1" spans="1:20">
+    <row r="18" s="11" customFormat="1" spans="1:26">
       <c r="A18" s="11">
         <v>16</v>
       </c>
@@ -6190,9 +6270,12 @@
       </c>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="T18" s="11">
         <v>1000</v>
       </c>
-      <c r="T18" s="11">
+      <c r="Z18" s="11">
         <v>1000</v>
       </c>
     </row>
@@ -6379,7 +6462,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="24" s="11" customFormat="1" spans="1:25">
+    <row r="24" s="11" customFormat="1" spans="1:26">
       <c r="A24" s="11">
         <v>22</v>
       </c>
@@ -6397,7 +6480,7 @@
       </c>
       <c r="H24" s="10">
         <f t="shared" si="2"/>
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="I24" s="11">
         <v>1000</v>
@@ -6415,6 +6498,9 @@
         <v>1000</v>
       </c>
       <c r="Y24" s="11">
+        <v>500</v>
+      </c>
+      <c r="Z24" s="11">
         <v>500</v>
       </c>
     </row>
@@ -6703,7 +6789,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="33" s="11" customFormat="1" spans="1:25">
+    <row r="33" s="11" customFormat="1" spans="1:26">
       <c r="A33" s="11">
         <v>31</v>
       </c>
@@ -6718,7 +6804,7 @@
       </c>
       <c r="H33" s="10">
         <f t="shared" si="2"/>
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="I33" s="11">
         <v>1000</v>
@@ -6745,6 +6831,9 @@
         <v>1000</v>
       </c>
       <c r="Y33" s="11">
+        <v>1000</v>
+      </c>
+      <c r="Z33" s="11">
         <v>1000</v>
       </c>
     </row>
@@ -6847,7 +6936,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="37" s="11" customFormat="1" spans="1:25">
+    <row r="37" s="11" customFormat="1" spans="1:26">
       <c r="A37" s="11">
         <v>35</v>
       </c>
@@ -6862,7 +6951,7 @@
       </c>
       <c r="H37" s="10">
         <f t="shared" si="2"/>
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="J37" s="18">
         <v>3000</v>
@@ -6880,6 +6969,9 @@
         <v>3000</v>
       </c>
       <c r="Y37" s="19">
+        <v>3000</v>
+      </c>
+      <c r="Z37" s="19">
         <v>3000</v>
       </c>
     </row>
@@ -6970,7 +7062,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="41" s="11" customFormat="1" spans="1:16">
+    <row r="41" s="11" customFormat="1" spans="1:26">
       <c r="A41" s="11">
         <v>39</v>
       </c>
@@ -6985,9 +7077,12 @@
       </c>
       <c r="H41" s="10">
         <f t="shared" si="2"/>
+        <v>8000</v>
+      </c>
+      <c r="P41" s="11">
         <v>4000</v>
       </c>
-      <c r="P41" s="11">
+      <c r="Z41" s="11">
         <v>4000</v>
       </c>
     </row>
@@ -7114,7 +7209,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="46" s="11" customFormat="1" spans="1:18">
+    <row r="46" s="11" customFormat="1" spans="1:26">
       <c r="A46" s="11">
         <v>44</v>
       </c>
@@ -7135,7 +7230,7 @@
       </c>
       <c r="H46" s="10">
         <f t="shared" si="2"/>
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="J46" s="11">
         <v>3000</v>
@@ -7145,6 +7240,9 @@
       </c>
       <c r="R46" s="11">
         <v>6000</v>
+      </c>
+      <c r="Z46" s="19">
+        <v>3000</v>
       </c>
     </row>
     <row r="47" s="11" customFormat="1" spans="1:25">
@@ -7390,7 +7488,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="54" s="11" customFormat="1" spans="1:25">
+    <row r="54" s="11" customFormat="1" spans="1:26">
       <c r="A54" s="11">
         <v>52</v>
       </c>
@@ -7405,7 +7503,7 @@
       </c>
       <c r="H54" s="10">
         <f t="shared" si="2"/>
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="I54" s="18">
         <v>2000</v>
@@ -7418,6 +7516,9 @@
       </c>
       <c r="Y54" s="19">
         <v>5000</v>
+      </c>
+      <c r="Z54" s="19">
+        <v>2000</v>
       </c>
     </row>
     <row r="55" s="11" customFormat="1" spans="1:21">
@@ -7909,7 +8010,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="73" s="11" customFormat="1" spans="1:25">
+    <row r="73" s="11" customFormat="1" spans="1:26">
       <c r="A73" s="11">
         <v>71</v>
       </c>
@@ -7924,7 +8025,7 @@
       </c>
       <c r="H73" s="10">
         <f t="shared" si="2"/>
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="K73" s="11">
         <v>3000</v>
@@ -7933,6 +8034,9 @@
         <v>3000</v>
       </c>
       <c r="Y73" s="19">
+        <v>3000</v>
+      </c>
+      <c r="Z73" s="11">
         <v>3000</v>
       </c>
     </row>
@@ -8014,7 +8118,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="77" s="11" customFormat="1" spans="1:25">
+    <row r="77" s="11" customFormat="1" spans="1:26">
       <c r="A77" s="11">
         <v>75</v>
       </c>
@@ -8038,7 +8142,7 @@
       </c>
       <c r="H77" s="10">
         <f t="shared" si="2"/>
-        <v>8600</v>
+        <v>10100</v>
       </c>
       <c r="J77" s="11">
         <v>1200</v>
@@ -8060,6 +8164,9 @@
       </c>
       <c r="Y77" s="11">
         <v>1600</v>
+      </c>
+      <c r="Z77" s="11">
+        <v>1500</v>
       </c>
     </row>
     <row r="78" s="11" customFormat="1" spans="1:21">
@@ -8098,7 +8205,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="79" s="11" customFormat="1" spans="1:23">
+    <row r="79" s="11" customFormat="1" spans="1:26">
       <c r="A79" s="11">
         <v>77</v>
       </c>
@@ -8119,7 +8226,7 @@
       </c>
       <c r="H79" s="10">
         <f t="shared" si="2"/>
-        <v>11000</v>
+        <v>14500</v>
       </c>
       <c r="I79" s="11">
         <v>2000</v>
@@ -8135,6 +8242,9 @@
       </c>
       <c r="W79" s="11">
         <v>2000</v>
+      </c>
+      <c r="Z79" s="11">
+        <v>3500</v>
       </c>
     </row>
     <row r="80" s="11" customFormat="1" spans="1:8">
@@ -8314,7 +8424,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="88" s="11" customFormat="1" spans="1:19">
+    <row r="88" s="11" customFormat="1" spans="1:26">
       <c r="A88" s="11">
         <v>86</v>
       </c>
@@ -8329,9 +8439,12 @@
       </c>
       <c r="H88" s="10">
         <f t="shared" si="3"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="S88" s="18">
+        <v>2000</v>
+      </c>
+      <c r="Z88" s="11">
         <v>2000</v>
       </c>
     </row>
@@ -8486,7 +8599,7 @@
   <dimension ref="A1:D96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -8522,7 +8635,7 @@
       </c>
       <c r="D2" s="6">
         <f>Orders!F2-Collection!H2</f>
-        <v>184500</v>
+        <v>188000</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -8597,7 +8710,7 @@
       </c>
       <c r="D7" s="9">
         <f>Orders!F7-Collection!H7</f>
-        <v>12000</v>
+        <v>16000</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -8627,7 +8740,7 @@
       </c>
       <c r="D9" s="9">
         <f>Orders!F9-Collection!H9</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -8687,7 +8800,7 @@
       </c>
       <c r="D13" s="9">
         <f>Orders!F13-Collection!H13</f>
-        <v>5000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -8702,7 +8815,7 @@
       </c>
       <c r="D14" s="9">
         <f>Orders!F14-Collection!H14</f>
-        <v>7000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -8756,7 +8869,7 @@
       </c>
       <c r="D18" s="9">
         <f>Orders!F18-Collection!H18</f>
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -8771,7 +8884,7 @@
       </c>
       <c r="D19" s="9">
         <f>Orders!F19-Collection!H19</f>
-        <v>0</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -8846,7 +8959,7 @@
       </c>
       <c r="D24" s="9">
         <f>Orders!F24-Collection!H24</f>
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -8876,7 +8989,7 @@
       </c>
       <c r="D26" s="9">
         <f>Orders!F26-Collection!H26</f>
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -8975,7 +9088,7 @@
       </c>
       <c r="D33" s="9">
         <f>Orders!F33-Collection!H33</f>
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -9083,7 +9196,7 @@
       </c>
       <c r="D41" s="9">
         <f>Orders!F41-Collection!H41</f>
-        <v>4000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -9137,7 +9250,7 @@
       </c>
       <c r="D45" s="9">
         <f>Orders!F45-Collection!H45</f>
-        <v>0</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -9150,7 +9263,7 @@
       </c>
       <c r="D46" s="9">
         <f>Orders!F46-Collection!H46</f>
-        <v>3000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -9245,7 +9358,7 @@
       </c>
       <c r="D53" s="9">
         <f>Orders!F53-Collection!H53</f>
-        <v>2000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -9353,7 +9466,7 @@
       </c>
       <c r="D61" s="9">
         <f>Orders!F61-Collection!H61</f>
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -9413,7 +9526,7 @@
       </c>
       <c r="D65" s="9">
         <f>Orders!F65-Collection!H65</f>
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -9426,7 +9539,7 @@
       </c>
       <c r="D66" s="9">
         <f>Orders!F66-Collection!H66</f>
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -9504,7 +9617,7 @@
       </c>
       <c r="D72" s="9">
         <f>Orders!F72-Collection!H72</f>
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -9575,7 +9688,7 @@
       </c>
       <c r="D77" s="9">
         <f>Orders!F77-Collection!H77</f>
-        <v>2400</v>
+        <v>900</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -9601,7 +9714,7 @@
       </c>
       <c r="D79" s="9">
         <f>Orders!F79-Collection!H79</f>
-        <v>4000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -9718,7 +9831,7 @@
       </c>
       <c r="D88" s="9">
         <f>Orders!F88-Collection!H88</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -9812,9 +9925,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D96">
-    <extLst/>
-  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/Febuary2021.xlsx
+++ b/Febuary2021.xlsx
@@ -775,11 +775,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="[$-409]d\-mmm;@"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="[$-409]d\-mmm;@"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -798,8 +798,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -807,6 +816,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -821,21 +838,44 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -849,52 +889,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -903,24 +897,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -937,6 +915,28 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1040,7 +1040,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1052,7 +1118,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1064,61 +1190,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1130,97 +1208,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1249,39 +1249,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1301,7 +1268,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1323,11 +1305,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1346,18 +1326,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1369,134 +1369,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1542,16 +1542,19 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -1566,7 +1569,13 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -1603,7 +1612,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="1" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1948,11 +1957,11 @@
   <dimension ref="A1:AS114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="Y17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="Z34" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AA37" sqref="AA37"/>
+      <selection pane="bottomRight" activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1963,151 +1972,151 @@
     <col min="5" max="5" width="51.1428571428571" style="11" customWidth="1"/>
     <col min="6" max="6" width="21.8571428571429" style="11" customWidth="1"/>
     <col min="7" max="7" width="11" style="11" customWidth="1"/>
-    <col min="8" max="8" width="20" style="22" customWidth="1"/>
+    <col min="8" max="8" width="20" style="25" customWidth="1"/>
     <col min="9" max="16384" width="9.14285714285714" style="11"/>
   </cols>
   <sheetData>
     <row r="1" s="10" customFormat="1" spans="1:45">
-      <c r="A1" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="23" t="s">
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="32">
+      <c r="I1" s="35">
         <v>44228</v>
       </c>
-      <c r="J1" s="32">
+      <c r="J1" s="35">
         <v>44229</v>
       </c>
-      <c r="K1" s="32">
+      <c r="K1" s="35">
         <v>44230</v>
       </c>
-      <c r="L1" s="32">
+      <c r="L1" s="35">
         <v>44231</v>
       </c>
-      <c r="M1" s="32">
+      <c r="M1" s="35">
         <v>44232</v>
       </c>
-      <c r="N1" s="32">
+      <c r="N1" s="35">
         <v>44233</v>
       </c>
-      <c r="O1" s="32">
+      <c r="O1" s="35">
         <v>44234</v>
       </c>
-      <c r="P1" s="32">
+      <c r="P1" s="35">
         <v>44235</v>
       </c>
-      <c r="Q1" s="32">
+      <c r="Q1" s="35">
         <v>44236</v>
       </c>
-      <c r="R1" s="32">
+      <c r="R1" s="35">
         <v>44237</v>
       </c>
-      <c r="S1" s="32">
+      <c r="S1" s="35">
         <v>44238</v>
       </c>
-      <c r="T1" s="32">
+      <c r="T1" s="35">
         <v>44239</v>
       </c>
-      <c r="U1" s="32">
+      <c r="U1" s="35">
         <v>44240</v>
       </c>
-      <c r="V1" s="32">
+      <c r="V1" s="35">
         <v>44241</v>
       </c>
-      <c r="W1" s="32">
+      <c r="W1" s="35">
         <v>44242</v>
       </c>
-      <c r="X1" s="32">
+      <c r="X1" s="35">
         <v>44243</v>
       </c>
-      <c r="Y1" s="32">
+      <c r="Y1" s="35">
         <v>44244</v>
       </c>
-      <c r="Z1" s="32">
+      <c r="Z1" s="35">
         <v>44245</v>
       </c>
-      <c r="AA1" s="32">
+      <c r="AA1" s="35">
         <v>44246</v>
       </c>
-      <c r="AB1" s="32">
+      <c r="AB1" s="35">
         <v>44247</v>
       </c>
-      <c r="AC1" s="32">
+      <c r="AC1" s="35">
         <v>44248</v>
       </c>
-      <c r="AD1" s="32">
+      <c r="AD1" s="35">
         <v>44249</v>
       </c>
-      <c r="AE1" s="32">
+      <c r="AE1" s="35">
         <v>44250</v>
       </c>
-      <c r="AF1" s="32">
+      <c r="AF1" s="35">
         <v>44251</v>
       </c>
-      <c r="AG1" s="32">
+      <c r="AG1" s="35">
         <v>44252</v>
       </c>
-      <c r="AH1" s="32">
+      <c r="AH1" s="35">
         <v>44253</v>
       </c>
-      <c r="AI1" s="32">
+      <c r="AI1" s="35">
         <v>44254</v>
       </c>
-      <c r="AJ1" s="32">
+      <c r="AJ1" s="35">
         <v>44255</v>
       </c>
-      <c r="AK1" s="21"/>
-      <c r="AL1" s="21"/>
-      <c r="AM1" s="21"/>
-      <c r="AN1" s="21"/>
-      <c r="AO1" s="21"/>
-      <c r="AP1" s="21"/>
-      <c r="AQ1" s="21"/>
-      <c r="AR1" s="21"/>
-      <c r="AS1" s="21"/>
+      <c r="AK1" s="24"/>
+      <c r="AL1" s="24"/>
+      <c r="AM1" s="24"/>
+      <c r="AN1" s="24"/>
+      <c r="AO1" s="24"/>
+      <c r="AP1" s="24"/>
+      <c r="AQ1" s="24"/>
+      <c r="AR1" s="24"/>
+      <c r="AS1" s="24"/>
     </row>
     <row r="2" s="10" customFormat="1" spans="1:36">
       <c r="A2" s="13"/>
-      <c r="B2" s="25">
+      <c r="B2" s="28">
         <f>SUM(F3:F121)</f>
-        <v>991700</v>
-      </c>
-      <c r="D2" s="14">
+        <v>1123700</v>
+      </c>
+      <c r="D2" s="16">
         <f>SUM(G3:G121)</f>
-        <v>856440</v>
+        <v>993720</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="25">
+      <c r="F2" s="28">
         <f t="shared" ref="F2:F18" si="0">G2/1.04+H2</f>
-        <v>991700</v>
-      </c>
-      <c r="G2" s="14">
+        <v>1123700</v>
+      </c>
+      <c r="G2" s="16">
         <f t="shared" ref="G2:G28" si="1">SUM(I2:AM2)</f>
-        <v>856440</v>
-      </c>
-      <c r="H2" s="26">
+        <v>993720</v>
+      </c>
+      <c r="H2" s="29">
         <f t="shared" ref="H2:AJ2" si="2">SUM(H3:H121)</f>
         <v>168200</v>
       </c>
@@ -2185,19 +2194,19 @@
       </c>
       <c r="AA2" s="10">
         <f t="shared" si="2"/>
-        <v>28080</v>
+        <v>75920</v>
       </c>
       <c r="AB2" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>34320</v>
       </c>
       <c r="AC2" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>29120</v>
       </c>
       <c r="AD2" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>26000</v>
       </c>
       <c r="AE2" s="10">
         <f t="shared" si="2"/>
@@ -2231,7 +2240,7 @@
       <c r="D3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="17" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="10">
@@ -2242,7 +2251,7 @@
         <f t="shared" si="1"/>
         <v>6240</v>
       </c>
-      <c r="H3" s="27">
+      <c r="H3" s="30">
         <v>3000</v>
       </c>
       <c r="P3" s="11">
@@ -2259,7 +2268,7 @@
       <c r="D4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="10">
@@ -2270,7 +2279,7 @@
         <f t="shared" si="1"/>
         <v>5200</v>
       </c>
-      <c r="H4" s="27">
+      <c r="H4" s="30">
         <v>2000</v>
       </c>
       <c r="J4" s="11">
@@ -2299,7 +2308,7 @@
       <c r="D5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="17" t="s">
         <v>13</v>
       </c>
       <c r="F5" s="10">
@@ -2310,7 +2319,7 @@
         <f t="shared" si="1"/>
         <v>8320</v>
       </c>
-      <c r="H5" s="27">
+      <c r="H5" s="30">
         <v>3500</v>
       </c>
       <c r="I5" s="11">
@@ -2338,7 +2347,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="6" s="11" customFormat="1" spans="1:21">
+    <row r="6" s="11" customFormat="1" spans="1:27">
       <c r="A6" s="11">
         <v>4</v>
       </c>
@@ -2348,18 +2357,18 @@
       <c r="D6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="17" t="s">
         <v>15</v>
       </c>
       <c r="F6" s="10">
         <f t="shared" si="0"/>
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="G6" s="10">
         <f t="shared" si="1"/>
-        <v>10400</v>
-      </c>
-      <c r="H6" s="27">
+        <v>15600</v>
+      </c>
+      <c r="H6" s="30">
         <v>5000</v>
       </c>
       <c r="N6" s="11">
@@ -2368,8 +2377,11 @@
       <c r="U6" s="11">
         <v>5200</v>
       </c>
-    </row>
-    <row r="7" s="11" customFormat="1" spans="1:27">
+      <c r="AA6" s="11">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="7" s="11" customFormat="1" spans="1:30">
       <c r="A7" s="11">
         <v>5</v>
       </c>
@@ -2379,18 +2391,18 @@
       <c r="D7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="17" t="s">
         <v>17</v>
       </c>
       <c r="F7" s="10">
         <f t="shared" si="0"/>
-        <v>51000</v>
+        <v>57000</v>
       </c>
       <c r="G7" s="10">
         <f t="shared" si="1"/>
-        <v>41600</v>
-      </c>
-      <c r="H7" s="27">
+        <v>47840</v>
+      </c>
+      <c r="H7" s="30">
         <v>11000</v>
       </c>
       <c r="I7" s="11">
@@ -2445,6 +2457,15 @@
         <v>2080</v>
       </c>
       <c r="AA7" s="11">
+        <v>2080</v>
+      </c>
+      <c r="AB7" s="11">
+        <v>2080</v>
+      </c>
+      <c r="AC7" s="11">
+        <v>2080</v>
+      </c>
+      <c r="AD7" s="11">
         <v>2080</v>
       </c>
     </row>
@@ -2458,7 +2479,7 @@
       <c r="D8" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="17" t="s">
         <v>19</v>
       </c>
       <c r="F8" s="10">
@@ -2469,7 +2490,7 @@
         <f t="shared" si="1"/>
         <v>6240</v>
       </c>
-      <c r="H8" s="27">
+      <c r="H8" s="30">
         <v>0</v>
       </c>
       <c r="J8" s="11">
@@ -2489,7 +2510,7 @@
       <c r="D9" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="17" t="s">
         <v>20</v>
       </c>
       <c r="F9" s="10">
@@ -2500,7 +2521,7 @@
         <f t="shared" si="1"/>
         <v>4160</v>
       </c>
-      <c r="H9" s="27">
+      <c r="H9" s="30">
         <v>2000</v>
       </c>
       <c r="O9" s="11">
@@ -2510,7 +2531,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="10" s="11" customFormat="1" spans="1:24">
+    <row r="10" s="11" customFormat="1" spans="1:29">
       <c r="A10" s="11">
         <v>8</v>
       </c>
@@ -2520,18 +2541,18 @@
       <c r="D10" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="17" t="s">
         <v>22</v>
       </c>
       <c r="F10" s="10">
         <f t="shared" si="0"/>
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="G10" s="10">
         <f t="shared" si="1"/>
-        <v>20800</v>
-      </c>
-      <c r="H10" s="27">
+        <v>26000</v>
+      </c>
+      <c r="H10" s="30">
         <v>5000</v>
       </c>
       <c r="L10" s="11">
@@ -2544,6 +2565,9 @@
         <v>5200</v>
       </c>
       <c r="X10" s="11">
+        <v>5200</v>
+      </c>
+      <c r="AC10" s="11">
         <v>5200</v>
       </c>
     </row>
@@ -2554,7 +2578,7 @@
       <c r="D11" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="17" t="s">
         <v>24</v>
       </c>
       <c r="F11" s="10">
@@ -2565,7 +2589,7 @@
         <f t="shared" si="1"/>
         <v>6240</v>
       </c>
-      <c r="H11" s="27">
+      <c r="H11" s="30">
         <v>2000</v>
       </c>
       <c r="J11" s="11">
@@ -2578,25 +2602,25 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="12" s="11" customFormat="1" spans="1:21">
+    <row r="12" s="11" customFormat="1" spans="1:29">
       <c r="A12" s="11">
         <v>10</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="17" t="s">
         <v>25</v>
       </c>
       <c r="F12" s="10">
         <f t="shared" si="0"/>
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="G12" s="10">
         <f t="shared" si="1"/>
-        <v>5200</v>
-      </c>
-      <c r="H12" s="27">
+        <v>7280</v>
+      </c>
+      <c r="H12" s="30">
         <v>0</v>
       </c>
       <c r="I12" s="11">
@@ -2614,26 +2638,32 @@
       <c r="U12" s="11">
         <v>1040</v>
       </c>
-    </row>
-    <row r="13" s="11" customFormat="1" spans="1:25">
+      <c r="AB12" s="11">
+        <v>1040</v>
+      </c>
+      <c r="AC12" s="11">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="13" s="11" customFormat="1" spans="1:30">
       <c r="A13" s="11">
         <v>11</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="17" t="s">
         <v>26</v>
       </c>
       <c r="F13" s="10">
         <f t="shared" si="0"/>
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="G13" s="10">
         <f t="shared" si="1"/>
-        <v>20800</v>
-      </c>
-      <c r="H13" s="27">
+        <v>26000</v>
+      </c>
+      <c r="H13" s="30">
         <v>0</v>
       </c>
       <c r="K13" s="11">
@@ -2648,26 +2678,29 @@
       <c r="Y13" s="11">
         <v>5200</v>
       </c>
-    </row>
-    <row r="14" s="11" customFormat="1" spans="1:25">
+      <c r="AD13" s="11">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="14" s="11" customFormat="1" spans="1:28">
       <c r="A14" s="11">
         <v>12</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="17" t="s">
         <v>27</v>
       </c>
       <c r="F14" s="10">
         <f t="shared" si="0"/>
-        <v>40500</v>
+        <v>45500</v>
       </c>
       <c r="G14" s="10">
         <f t="shared" si="1"/>
-        <v>31200</v>
-      </c>
-      <c r="H14" s="27">
+        <v>36400</v>
+      </c>
+      <c r="H14" s="30">
         <v>10500</v>
       </c>
       <c r="K14" s="11">
@@ -2688,8 +2721,11 @@
       <c r="Y14" s="11">
         <v>5200</v>
       </c>
-    </row>
-    <row r="15" s="11" customFormat="1" spans="1:22">
+      <c r="AB14" s="11">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="15" s="11" customFormat="1" spans="1:27">
       <c r="A15" s="11">
         <v>13</v>
       </c>
@@ -2699,18 +2735,18 @@
       <c r="D15" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="17" t="s">
         <v>29</v>
       </c>
       <c r="F15" s="10">
         <f t="shared" si="0"/>
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="G15" s="10">
         <f t="shared" si="1"/>
-        <v>6240</v>
-      </c>
-      <c r="H15" s="27">
+        <v>8320</v>
+      </c>
+      <c r="H15" s="30">
         <v>2000</v>
       </c>
       <c r="M15" s="11">
@@ -2720,6 +2756,9 @@
         <v>2080</v>
       </c>
       <c r="V15" s="11">
+        <v>2080</v>
+      </c>
+      <c r="AA15" s="11">
         <v>2080</v>
       </c>
     </row>
@@ -2730,7 +2769,7 @@
       <c r="D16" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="17" t="s">
         <v>30</v>
       </c>
       <c r="F16" s="10">
@@ -2741,7 +2780,7 @@
         <f t="shared" si="1"/>
         <v>3120</v>
       </c>
-      <c r="H16" s="27">
+      <c r="H16" s="30">
         <v>2200</v>
       </c>
       <c r="Q16" s="11">
@@ -2755,13 +2794,13 @@
       <c r="A17" s="11">
         <v>15</v>
       </c>
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="31" t="s">
         <v>31</v>
       </c>
       <c r="D17" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="17" t="s">
         <v>32</v>
       </c>
       <c r="F17" s="10">
@@ -2772,7 +2811,7 @@
         <f t="shared" si="1"/>
         <v>1040</v>
       </c>
-      <c r="H17" s="27">
+      <c r="H17" s="30">
         <v>1000</v>
       </c>
       <c r="U17" s="11">
@@ -2783,7 +2822,7 @@
       <c r="A18" s="11">
         <v>16</v>
       </c>
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="32" t="s">
         <v>33</v>
       </c>
       <c r="C18" s="11">
@@ -2792,7 +2831,7 @@
       <c r="D18" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="30" t="s">
+      <c r="E18" s="33" t="s">
         <v>34</v>
       </c>
       <c r="F18" s="10">
@@ -2803,34 +2842,34 @@
         <f t="shared" si="1"/>
         <v>3120</v>
       </c>
-      <c r="H18" s="27">
-        <v>0</v>
-      </c>
-      <c r="I18" s="33"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="33"/>
-      <c r="L18" s="33"/>
-      <c r="M18" s="31">
+      <c r="H18" s="30">
+        <v>0</v>
+      </c>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="34">
         <v>1040</v>
       </c>
-      <c r="N18" s="33"/>
-      <c r="O18" s="33"/>
-      <c r="P18" s="33"/>
-      <c r="Q18" s="33"/>
-      <c r="R18" s="33"/>
-      <c r="S18" s="33"/>
-      <c r="T18" s="33"/>
-      <c r="U18" s="33">
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="36"/>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="36"/>
+      <c r="S18" s="36"/>
+      <c r="T18" s="36"/>
+      <c r="U18" s="36">
         <v>1040</v>
       </c>
-      <c r="V18" s="33"/>
-      <c r="W18" s="33"/>
-      <c r="X18" s="31">
+      <c r="V18" s="36"/>
+      <c r="W18" s="36"/>
+      <c r="X18" s="34">
         <v>1040</v>
       </c>
-      <c r="Y18" s="33"/>
-      <c r="Z18" s="33"/>
-      <c r="AA18" s="33"/>
+      <c r="Y18" s="36"/>
+      <c r="Z18" s="36"/>
+      <c r="AA18" s="36"/>
     </row>
     <row r="19" s="11" customFormat="1" spans="1:27">
       <c r="A19" s="11">
@@ -2839,7 +2878,7 @@
       <c r="D19" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="17" t="s">
         <v>35</v>
       </c>
       <c r="F19" s="10">
@@ -2850,7 +2889,7 @@
         <f t="shared" si="1"/>
         <v>12480</v>
       </c>
-      <c r="H19" s="27">
+      <c r="H19" s="30">
         <v>-1000</v>
       </c>
       <c r="J19" s="11">
@@ -2866,25 +2905,25 @@
         <v>3120</v>
       </c>
     </row>
-    <row r="20" s="11" customFormat="1" spans="1:21">
+    <row r="20" s="11" customFormat="1" spans="1:27">
       <c r="A20" s="11">
         <v>18</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="17" t="s">
         <v>37</v>
       </c>
       <c r="F20" s="10">
         <f t="shared" si="3"/>
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="G20" s="10">
         <f t="shared" si="1"/>
-        <v>15600</v>
-      </c>
-      <c r="H20" s="27">
+        <v>20800</v>
+      </c>
+      <c r="H20" s="30">
         <v>5000</v>
       </c>
       <c r="K20" s="11">
@@ -2894,6 +2933,9 @@
         <v>5200</v>
       </c>
       <c r="U20" s="11">
+        <v>5200</v>
+      </c>
+      <c r="AA20" s="11">
         <v>5200</v>
       </c>
     </row>
@@ -2904,7 +2946,7 @@
       <c r="D21" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="17" t="s">
         <v>38</v>
       </c>
       <c r="F21" s="10">
@@ -2915,7 +2957,7 @@
         <f t="shared" si="1"/>
         <v>8320</v>
       </c>
-      <c r="H21" s="27">
+      <c r="H21" s="30">
         <v>0</v>
       </c>
       <c r="L21" s="11">
@@ -2931,25 +2973,25 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="22" s="11" customFormat="1" spans="1:23">
+    <row r="22" s="11" customFormat="1" spans="1:28">
       <c r="A22" s="11">
         <v>20</v>
       </c>
       <c r="D22" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="17" t="s">
         <v>39</v>
       </c>
       <c r="F22" s="10">
         <f t="shared" si="3"/>
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="G22" s="10">
         <f t="shared" si="1"/>
-        <v>3120</v>
-      </c>
-      <c r="H22" s="27">
+        <v>4160</v>
+      </c>
+      <c r="H22" s="30">
         <v>1000</v>
       </c>
       <c r="J22" s="11">
@@ -2961,26 +3003,29 @@
       <c r="W22" s="11">
         <v>1040</v>
       </c>
-    </row>
-    <row r="23" s="11" customFormat="1" spans="1:24">
+      <c r="AB22" s="11">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="23" s="11" customFormat="1" spans="1:28">
       <c r="A23" s="11">
         <v>21</v>
       </c>
       <c r="D23" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="17" t="s">
         <v>40</v>
       </c>
       <c r="F23" s="10">
         <f t="shared" si="3"/>
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="G23" s="10">
         <f t="shared" si="1"/>
-        <v>20800</v>
-      </c>
-      <c r="H23" s="27">
+        <v>26000</v>
+      </c>
+      <c r="H23" s="30">
         <v>0</v>
       </c>
       <c r="I23" s="11">
@@ -2995,26 +3040,29 @@
       <c r="X23" s="11">
         <v>5200</v>
       </c>
-    </row>
-    <row r="24" s="11" customFormat="1" spans="1:27">
+      <c r="AB23" s="11">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="24" s="11" customFormat="1" spans="1:29">
       <c r="A24" s="11">
         <v>22</v>
       </c>
       <c r="D24" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="17" t="s">
         <v>41</v>
       </c>
       <c r="F24" s="10">
         <f t="shared" si="3"/>
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="G24" s="10">
         <f t="shared" si="1"/>
-        <v>6240</v>
-      </c>
-      <c r="H24" s="27">
+        <v>7280</v>
+      </c>
+      <c r="H24" s="30">
         <v>1000</v>
       </c>
       <c r="J24" s="11">
@@ -3035,26 +3083,29 @@
       <c r="AA24" s="11">
         <v>1040</v>
       </c>
-    </row>
-    <row r="25" s="11" customFormat="1" spans="1:23">
+      <c r="AC24" s="11">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="25" s="11" customFormat="1" spans="1:30">
       <c r="A25" s="11">
         <v>23</v>
       </c>
       <c r="D25" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="17" t="s">
         <v>42</v>
       </c>
       <c r="F25" s="10">
         <f t="shared" si="3"/>
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="G25" s="10">
         <f t="shared" si="1"/>
-        <v>15600</v>
-      </c>
-      <c r="H25" s="27">
+        <v>18720</v>
+      </c>
+      <c r="H25" s="30">
         <v>0</v>
       </c>
       <c r="J25" s="11">
@@ -3072,26 +3123,29 @@
       <c r="W25" s="11">
         <v>3120</v>
       </c>
-    </row>
-    <row r="26" s="11" customFormat="1" spans="1:27">
+      <c r="AD25" s="11">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="26" s="11" customFormat="1" spans="1:30">
       <c r="A26" s="11">
         <v>24</v>
       </c>
       <c r="D26" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="17" t="s">
         <v>43</v>
       </c>
       <c r="F26" s="10">
         <f t="shared" si="3"/>
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="G26" s="10">
         <f t="shared" si="1"/>
-        <v>31200</v>
-      </c>
-      <c r="H26" s="27">
+        <v>36400</v>
+      </c>
+      <c r="H26" s="30">
         <v>0</v>
       </c>
       <c r="I26" s="11">
@@ -3112,32 +3166,38 @@
       <c r="AA26" s="11">
         <v>5200</v>
       </c>
-    </row>
-    <row r="27" s="11" customFormat="1" spans="1:25">
+      <c r="AD26" s="11">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="27" s="11" customFormat="1" spans="1:28">
       <c r="A27" s="11">
         <v>25</v>
       </c>
       <c r="D27" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="17" t="s">
         <v>44</v>
       </c>
       <c r="F27" s="10">
         <f t="shared" si="3"/>
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="G27" s="10">
         <f t="shared" si="1"/>
-        <v>6240</v>
-      </c>
-      <c r="H27" s="27">
+        <v>9360</v>
+      </c>
+      <c r="H27" s="30">
         <v>3000</v>
       </c>
       <c r="O27" s="11">
         <v>3120</v>
       </c>
       <c r="Y27" s="11">
+        <v>3120</v>
+      </c>
+      <c r="AB27" s="11">
         <v>3120</v>
       </c>
     </row>
@@ -3148,7 +3208,7 @@
       <c r="D28" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="17" t="s">
         <v>45</v>
       </c>
       <c r="F28" s="10">
@@ -3159,7 +3219,7 @@
         <f t="shared" si="1"/>
         <v>10400</v>
       </c>
-      <c r="H28" s="27">
+      <c r="H28" s="30">
         <v>2500</v>
       </c>
       <c r="K28" s="11">
@@ -3185,7 +3245,7 @@
       <c r="D29" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="17" t="s">
         <v>46</v>
       </c>
       <c r="F29" s="10">
@@ -3196,7 +3256,7 @@
         <f>SUM(J29:AM29)</f>
         <v>6240</v>
       </c>
-      <c r="H29" s="27">
+      <c r="H29" s="30">
         <v>0</v>
       </c>
       <c r="J29" s="11">
@@ -3216,7 +3276,7 @@
       <c r="D30" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="17" t="s">
         <v>47</v>
       </c>
       <c r="F30" s="10">
@@ -3227,7 +3287,7 @@
         <f t="shared" ref="G30:G41" si="4">SUM(I30:AM30)</f>
         <v>4160</v>
       </c>
-      <c r="H30" s="27">
+      <c r="H30" s="30">
         <v>2000</v>
       </c>
       <c r="S30" s="11">
@@ -3244,7 +3304,7 @@
       <c r="D31" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="17" t="s">
         <v>48</v>
       </c>
       <c r="F31" s="10">
@@ -3255,10 +3315,10 @@
         <f t="shared" si="4"/>
         <v>16640</v>
       </c>
-      <c r="H31" s="27">
-        <v>0</v>
-      </c>
-      <c r="I31" s="34">
+      <c r="H31" s="30">
+        <v>0</v>
+      </c>
+      <c r="I31" s="37">
         <v>520</v>
       </c>
       <c r="J31" s="11">
@@ -3267,32 +3327,32 @@
       <c r="O31" s="11">
         <v>5200</v>
       </c>
-      <c r="T31" s="34">
+      <c r="T31" s="37">
         <v>520</v>
       </c>
       <c r="U31" s="11">
         <v>5200</v>
       </c>
     </row>
-    <row r="32" s="11" customFormat="1" spans="1:24">
+    <row r="32" s="11" customFormat="1" spans="1:27">
       <c r="A32" s="11">
         <v>30</v>
       </c>
       <c r="D32" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="17" t="s">
         <v>49</v>
       </c>
       <c r="F32" s="10">
         <f t="shared" si="3"/>
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="G32" s="10">
         <f t="shared" si="4"/>
-        <v>31200</v>
-      </c>
-      <c r="H32" s="27">
+        <v>36400</v>
+      </c>
+      <c r="H32" s="30">
         <v>0</v>
       </c>
       <c r="I32" s="11">
@@ -3311,6 +3371,9 @@
         <v>5200</v>
       </c>
       <c r="X32" s="11">
+        <v>5200</v>
+      </c>
+      <c r="AA32" s="11">
         <v>5200</v>
       </c>
     </row>
@@ -3321,7 +3384,7 @@
       <c r="D33" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="E33" s="17" t="s">
         <v>50</v>
       </c>
       <c r="F33" s="10">
@@ -3332,7 +3395,7 @@
         <f t="shared" si="4"/>
         <v>10400</v>
       </c>
-      <c r="H33" s="27">
+      <c r="H33" s="30">
         <v>1000</v>
       </c>
       <c r="L33" s="11">
@@ -3351,25 +3414,25 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="34" s="11" customFormat="1" spans="1:22">
+    <row r="34" s="11" customFormat="1" spans="1:28">
       <c r="A34" s="11">
         <v>32</v>
       </c>
       <c r="D34" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="E34" s="17" t="s">
         <v>52</v>
       </c>
       <c r="F34" s="10">
         <f t="shared" si="3"/>
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="G34" s="10">
         <f t="shared" si="4"/>
-        <v>5200</v>
-      </c>
-      <c r="H34" s="27">
+        <v>6240</v>
+      </c>
+      <c r="H34" s="30">
         <v>1000</v>
       </c>
       <c r="J34" s="11">
@@ -3387,26 +3450,29 @@
       <c r="V34" s="11">
         <v>1040</v>
       </c>
-    </row>
-    <row r="35" s="11" customFormat="1" spans="1:23">
+      <c r="AB34" s="11">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="35" s="11" customFormat="1" spans="1:28">
       <c r="A35" s="11">
         <v>33</v>
       </c>
       <c r="D35" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="E35" s="17" t="s">
         <v>53</v>
       </c>
       <c r="F35" s="10">
         <f t="shared" si="3"/>
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="G35" s="10">
         <f t="shared" si="4"/>
-        <v>5200</v>
-      </c>
-      <c r="H35" s="27">
+        <v>6240</v>
+      </c>
+      <c r="H35" s="30">
         <v>0</v>
       </c>
       <c r="I35" s="11">
@@ -3422,6 +3488,9 @@
         <v>1040</v>
       </c>
       <c r="W35" s="11">
+        <v>1040</v>
+      </c>
+      <c r="AB35" s="11">
         <v>1040</v>
       </c>
     </row>
@@ -3432,7 +3501,7 @@
       <c r="D36" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="E36" s="17" t="s">
         <v>54</v>
       </c>
       <c r="F36" s="10">
@@ -3443,32 +3512,32 @@
         <f t="shared" si="4"/>
         <v>2080</v>
       </c>
-      <c r="H36" s="27">
+      <c r="H36" s="30">
         <v>2000</v>
       </c>
       <c r="O36" s="11">
         <v>2080</v>
       </c>
     </row>
-    <row r="37" s="11" customFormat="1" spans="1:27">
+    <row r="37" s="11" customFormat="1" spans="1:30">
       <c r="A37" s="11">
         <v>35</v>
       </c>
       <c r="D37" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="17" t="s">
         <v>55</v>
       </c>
       <c r="F37" s="10">
         <f t="shared" si="3"/>
-        <v>24000</v>
+        <v>27000</v>
       </c>
       <c r="G37" s="10">
         <f t="shared" si="4"/>
-        <v>24960</v>
-      </c>
-      <c r="H37" s="27">
+        <v>28080</v>
+      </c>
+      <c r="H37" s="30">
         <v>0</v>
       </c>
       <c r="I37" s="11">
@@ -3493,6 +3562,9 @@
         <v>3120</v>
       </c>
       <c r="AA37" s="11">
+        <v>3120</v>
+      </c>
+      <c r="AD37" s="11">
         <v>3120</v>
       </c>
     </row>
@@ -3503,7 +3575,7 @@
       <c r="D38" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="E38" s="16" t="s">
+      <c r="E38" s="17" t="s">
         <v>56</v>
       </c>
       <c r="F38" s="10">
@@ -3514,32 +3586,32 @@
         <f t="shared" si="4"/>
         <v>1040</v>
       </c>
-      <c r="H38" s="27">
+      <c r="H38" s="30">
         <v>0</v>
       </c>
       <c r="P38" s="11">
         <v>1040</v>
       </c>
     </row>
-    <row r="39" s="11" customFormat="1" spans="1:22">
+    <row r="39" s="11" customFormat="1" spans="1:28">
       <c r="A39" s="11">
         <v>37</v>
       </c>
       <c r="D39" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="17" t="s">
         <v>57</v>
       </c>
       <c r="F39" s="10">
         <f t="shared" si="3"/>
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="G39" s="10">
         <f t="shared" si="4"/>
-        <v>9360</v>
-      </c>
-      <c r="H39" s="27">
+        <v>12480</v>
+      </c>
+      <c r="H39" s="30">
         <v>0</v>
       </c>
       <c r="J39" s="11">
@@ -3549,6 +3621,9 @@
         <v>3120</v>
       </c>
       <c r="V39" s="11">
+        <v>3120</v>
+      </c>
+      <c r="AB39" s="11">
         <v>3120</v>
       </c>
     </row>
@@ -3562,7 +3637,7 @@
       <c r="D40" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="E40" s="17" t="s">
         <v>58</v>
       </c>
       <c r="F40" s="10">
@@ -3573,7 +3648,7 @@
         <f t="shared" si="4"/>
         <v>2080</v>
       </c>
-      <c r="H40" s="27">
+      <c r="H40" s="30">
         <v>2000</v>
       </c>
       <c r="U40" s="11">
@@ -3587,7 +3662,7 @@
       <c r="D41" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="E41" s="16" t="s">
+      <c r="E41" s="17" t="s">
         <v>59</v>
       </c>
       <c r="F41" s="10">
@@ -3598,7 +3673,7 @@
         <f t="shared" si="4"/>
         <v>8320</v>
       </c>
-      <c r="H41" s="27">
+      <c r="H41" s="30">
         <v>2000</v>
       </c>
       <c r="I41" s="11">
@@ -3621,7 +3696,7 @@
       <c r="D42" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="E42" s="16" t="s">
+      <c r="E42" s="17" t="s">
         <v>60</v>
       </c>
       <c r="F42" s="10">
@@ -3632,7 +3707,7 @@
         <f>SUM(J42:AM42)</f>
         <v>4160</v>
       </c>
-      <c r="H42" s="27">
+      <c r="H42" s="30">
         <v>0</v>
       </c>
       <c r="L42" s="11">
@@ -3642,25 +3717,25 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="43" s="11" customFormat="1" spans="1:24">
+    <row r="43" s="11" customFormat="1" spans="1:29">
       <c r="A43" s="11">
         <v>41</v>
       </c>
       <c r="D43" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="E43" s="16" t="s">
+      <c r="E43" s="17" t="s">
         <v>61</v>
       </c>
       <c r="F43" s="10">
         <f t="shared" si="3"/>
-        <v>28500</v>
+        <v>34500</v>
       </c>
       <c r="G43" s="10">
-        <f t="shared" ref="G43:G75" si="5">SUM(I43:AM43)</f>
-        <v>28080</v>
-      </c>
-      <c r="H43" s="27">
+        <f t="shared" ref="G43:G84" si="5">SUM(I43:AM43)</f>
+        <v>34320</v>
+      </c>
+      <c r="H43" s="30">
         <v>1500</v>
       </c>
       <c r="I43" s="11">
@@ -3688,6 +3763,12 @@
         <v>3120</v>
       </c>
       <c r="X43" s="11">
+        <v>3120</v>
+      </c>
+      <c r="AA43" s="11">
+        <v>3120</v>
+      </c>
+      <c r="AC43" s="11">
         <v>3120</v>
       </c>
     </row>
@@ -3698,7 +3779,7 @@
       <c r="D44" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="E44" s="16" t="s">
+      <c r="E44" s="17" t="s">
         <v>62</v>
       </c>
       <c r="F44" s="10">
@@ -3709,7 +3790,7 @@
         <f t="shared" si="5"/>
         <v>2080</v>
       </c>
-      <c r="H44" s="27">
+      <c r="H44" s="30">
         <v>0</v>
       </c>
       <c r="T44" s="11">
@@ -3723,7 +3804,7 @@
       <c r="D45" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="E45" s="16" t="s">
+      <c r="E45" s="17" t="s">
         <v>63</v>
       </c>
       <c r="F45" s="10">
@@ -3734,7 +3815,7 @@
         <f t="shared" si="5"/>
         <v>18720</v>
       </c>
-      <c r="H45" s="27">
+      <c r="H45" s="30">
         <v>0</v>
       </c>
       <c r="J45" s="11">
@@ -3763,7 +3844,7 @@
       <c r="D46" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="E46" s="16" t="s">
+      <c r="E46" s="17" t="s">
         <v>65</v>
       </c>
       <c r="F46" s="10">
@@ -3774,7 +3855,7 @@
         <f t="shared" si="5"/>
         <v>12480</v>
       </c>
-      <c r="H46" s="27">
+      <c r="H46" s="30">
         <v>3000</v>
       </c>
       <c r="K46" s="11">
@@ -3797,7 +3878,7 @@
       <c r="D47" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="E47" s="16" t="s">
+      <c r="E47" s="17" t="s">
         <v>66</v>
       </c>
       <c r="F47" s="10">
@@ -3808,7 +3889,7 @@
         <f t="shared" si="5"/>
         <v>12480</v>
       </c>
-      <c r="H47" s="27">
+      <c r="H47" s="30">
         <v>0</v>
       </c>
       <c r="L47" s="11">
@@ -3824,50 +3905,53 @@
         <v>3120</v>
       </c>
     </row>
-    <row r="48" s="11" customFormat="1" spans="1:11">
+    <row r="48" s="11" customFormat="1" spans="1:27">
       <c r="A48" s="11">
         <v>46</v>
       </c>
       <c r="D48" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="E48" s="16" t="s">
+      <c r="E48" s="17" t="s">
         <v>67</v>
       </c>
       <c r="F48" s="10">
         <f t="shared" si="3"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="G48" s="10">
         <f t="shared" si="5"/>
-        <v>2080</v>
-      </c>
-      <c r="H48" s="27">
+        <v>4160</v>
+      </c>
+      <c r="H48" s="30">
         <v>0</v>
       </c>
       <c r="K48" s="11">
         <v>2080</v>
       </c>
-    </row>
-    <row r="49" s="11" customFormat="1" spans="1:25">
+      <c r="AA48" s="11">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="49" s="11" customFormat="1" spans="1:27">
       <c r="A49" s="11">
         <v>47</v>
       </c>
       <c r="D49" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="E49" s="16" t="s">
+      <c r="E49" s="17" t="s">
         <v>68</v>
       </c>
       <c r="F49" s="10">
         <f t="shared" si="3"/>
-        <v>24000</v>
+        <v>27000</v>
       </c>
       <c r="G49" s="10">
         <f t="shared" si="5"/>
-        <v>21840</v>
-      </c>
-      <c r="H49" s="27">
+        <v>24960</v>
+      </c>
+      <c r="H49" s="30">
         <v>3000</v>
       </c>
       <c r="I49" s="11">
@@ -3891,26 +3975,29 @@
       <c r="Y49" s="11">
         <v>3120</v>
       </c>
-    </row>
-    <row r="50" s="11" customFormat="1" spans="1:24">
+      <c r="AA49" s="11">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="50" s="11" customFormat="1" spans="1:28">
       <c r="A50" s="11">
         <v>48</v>
       </c>
       <c r="D50" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="E50" s="16" t="s">
+      <c r="E50" s="17" t="s">
         <v>69</v>
       </c>
       <c r="F50" s="10">
         <f t="shared" si="3"/>
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="G50" s="10">
         <f t="shared" si="5"/>
-        <v>18720</v>
-      </c>
-      <c r="H50" s="27">
+        <v>21840</v>
+      </c>
+      <c r="H50" s="30">
         <v>3000</v>
       </c>
       <c r="K50" s="11">
@@ -3931,26 +4018,29 @@
       <c r="X50" s="11">
         <v>3120</v>
       </c>
-    </row>
-    <row r="51" s="11" customFormat="1" spans="1:21">
+      <c r="AB50" s="11">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="51" s="11" customFormat="1" spans="1:28">
       <c r="A51" s="11">
         <v>49</v>
       </c>
       <c r="D51" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="E51" s="16" t="s">
+      <c r="E51" s="17" t="s">
         <v>70</v>
       </c>
       <c r="F51" s="10">
         <f t="shared" si="3"/>
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="G51" s="10">
         <f t="shared" si="5"/>
-        <v>6240</v>
-      </c>
-      <c r="H51" s="27">
+        <v>8320</v>
+      </c>
+      <c r="H51" s="30">
         <v>0</v>
       </c>
       <c r="M51" s="11">
@@ -3960,6 +4050,9 @@
         <v>2080</v>
       </c>
       <c r="U51" s="11">
+        <v>2080</v>
+      </c>
+      <c r="AB51" s="11">
         <v>2080</v>
       </c>
     </row>
@@ -3970,7 +4063,7 @@
       <c r="D52" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="E52" s="16" t="s">
+      <c r="E52" s="17" t="s">
         <v>71</v>
       </c>
       <c r="F52" s="10">
@@ -3981,29 +4074,29 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H52" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" s="11" customFormat="1" spans="1:26">
+      <c r="H52" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" s="11" customFormat="1" spans="1:30">
       <c r="A53" s="11">
         <v>51</v>
       </c>
       <c r="D53" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="E53" s="16" t="s">
+      <c r="E53" s="17" t="s">
         <v>72</v>
       </c>
       <c r="F53" s="10">
         <f t="shared" si="3"/>
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="G53" s="10">
         <f t="shared" si="5"/>
-        <v>13520</v>
-      </c>
-      <c r="H53" s="27">
+        <v>15600</v>
+      </c>
+      <c r="H53" s="30">
         <v>0</v>
       </c>
       <c r="J53" s="11">
@@ -4041,6 +4134,12 @@
       </c>
       <c r="Z53" s="11">
         <v>2080</v>
+      </c>
+      <c r="AB53" s="11">
+        <v>1040</v>
+      </c>
+      <c r="AD53" s="11">
+        <v>1040</v>
       </c>
     </row>
     <row r="54" s="11" customFormat="1" spans="1:26">
@@ -4050,7 +4149,7 @@
       <c r="D54" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="E54" s="16" t="s">
+      <c r="E54" s="17" t="s">
         <v>73</v>
       </c>
       <c r="F54" s="10">
@@ -4061,10 +4160,10 @@
         <f t="shared" si="5"/>
         <v>10400</v>
       </c>
-      <c r="H54" s="27">
-        <v>2000</v>
-      </c>
-      <c r="L54" s="34">
+      <c r="H54" s="30">
+        <v>2000</v>
+      </c>
+      <c r="L54" s="37">
         <v>2080</v>
       </c>
       <c r="S54" s="11">
@@ -4084,11 +4183,11 @@
       <c r="A55" s="11">
         <v>53</v>
       </c>
-      <c r="B55" s="31"/>
+      <c r="B55" s="34"/>
       <c r="D55" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="E55" s="30" t="s">
+      <c r="E55" s="33" t="s">
         <v>74</v>
       </c>
       <c r="F55" s="10">
@@ -4099,39 +4198,42 @@
         <f t="shared" si="5"/>
         <v>2080</v>
       </c>
-      <c r="H55" s="27">
-        <v>0</v>
-      </c>
-      <c r="U55" s="34">
-        <v>2080</v>
-      </c>
-    </row>
-    <row r="56" s="11" customFormat="1" spans="1:26">
+      <c r="H55" s="30">
+        <v>0</v>
+      </c>
+      <c r="U55" s="37">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="56" s="11" customFormat="1" spans="1:29">
       <c r="A56" s="11">
         <v>54</v>
       </c>
-      <c r="B56" s="31"/>
+      <c r="B56" s="34"/>
       <c r="D56" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="E56" s="30" t="s">
+      <c r="E56" s="33" t="s">
         <v>75</v>
       </c>
       <c r="F56" s="10">
         <f t="shared" si="3"/>
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="G56" s="10">
         <f t="shared" si="5"/>
-        <v>2080</v>
-      </c>
-      <c r="H56" s="27">
+        <v>3120</v>
+      </c>
+      <c r="H56" s="30">
         <v>0</v>
       </c>
       <c r="N56" s="11">
         <v>1040</v>
       </c>
       <c r="Z56" s="11">
+        <v>1040</v>
+      </c>
+      <c r="AC56" s="11">
         <v>1040</v>
       </c>
     </row>
@@ -4139,11 +4241,11 @@
       <c r="A57" s="11">
         <v>55</v>
       </c>
-      <c r="B57" s="31"/>
+      <c r="B57" s="34"/>
       <c r="D57" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="E57" s="30" t="s">
+      <c r="E57" s="33" t="s">
         <v>76</v>
       </c>
       <c r="F57" s="10">
@@ -4154,7 +4256,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H57" s="27">
+      <c r="H57" s="30">
         <v>0</v>
       </c>
     </row>
@@ -4165,7 +4267,7 @@
       <c r="D58" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E58" s="16" t="s">
+      <c r="E58" s="17" t="s">
         <v>78</v>
       </c>
       <c r="F58" s="10">
@@ -4176,7 +4278,7 @@
         <f t="shared" si="5"/>
         <v>10400</v>
       </c>
-      <c r="H58" s="27">
+      <c r="H58" s="30">
         <v>0</v>
       </c>
       <c r="J58" s="11">
@@ -4195,37 +4297,40 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="59" s="11" customFormat="1" spans="1:20">
+    <row r="59" s="11" customFormat="1" spans="1:27">
       <c r="A59" s="11">
         <v>57</v>
       </c>
       <c r="D59" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E59" s="16" t="s">
+      <c r="E59" s="17" t="s">
         <v>79</v>
       </c>
       <c r="F59" s="10">
         <f t="shared" si="3"/>
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="G59" s="10">
         <f t="shared" si="5"/>
-        <v>20800</v>
-      </c>
-      <c r="H59" s="27">
+        <v>26000</v>
+      </c>
+      <c r="H59" s="30">
         <v>5000</v>
       </c>
       <c r="L59" s="11">
         <v>5200</v>
       </c>
-      <c r="P59" s="34">
+      <c r="P59" s="37">
         <v>5200</v>
       </c>
       <c r="Q59" s="11">
         <v>5200</v>
       </c>
       <c r="T59" s="11">
+        <v>5200</v>
+      </c>
+      <c r="AA59" s="11">
         <v>5200</v>
       </c>
     </row>
@@ -4236,7 +4341,7 @@
       <c r="D60" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E60" s="16" t="s">
+      <c r="E60" s="17" t="s">
         <v>80</v>
       </c>
       <c r="F60" s="10">
@@ -4247,7 +4352,7 @@
         <f t="shared" si="5"/>
         <v>10400</v>
       </c>
-      <c r="H60" s="27">
+      <c r="H60" s="30">
         <v>0</v>
       </c>
       <c r="K60" s="11">
@@ -4264,7 +4369,7 @@
       <c r="D61" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E61" s="16" t="s">
+      <c r="E61" s="17" t="s">
         <v>81</v>
       </c>
       <c r="F61" s="10">
@@ -4275,7 +4380,7 @@
         <f t="shared" si="5"/>
         <v>12480</v>
       </c>
-      <c r="H61" s="27">
+      <c r="H61" s="30">
         <v>0</v>
       </c>
       <c r="I61" s="11">
@@ -4287,7 +4392,7 @@
       <c r="S61" s="11">
         <v>2080</v>
       </c>
-      <c r="W61" s="35">
+      <c r="W61" s="38">
         <v>2080</v>
       </c>
       <c r="X61" s="11">
@@ -4297,26 +4402,26 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="62" s="11" customFormat="1" spans="1:24">
+    <row r="62" s="11" customFormat="1" spans="1:28">
       <c r="A62" s="11">
         <v>60</v>
       </c>
-      <c r="B62" s="31"/>
+      <c r="B62" s="34"/>
       <c r="D62" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="E62" s="30" t="s">
+      <c r="E62" s="33" t="s">
         <v>83</v>
       </c>
       <c r="F62" s="10">
         <f t="shared" si="3"/>
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="G62" s="10">
         <f t="shared" si="5"/>
-        <v>15600</v>
-      </c>
-      <c r="H62" s="27">
+        <v>20800</v>
+      </c>
+      <c r="H62" s="30">
         <v>5000</v>
       </c>
       <c r="N62" s="11">
@@ -4326,6 +4431,9 @@
         <v>5200</v>
       </c>
       <c r="X62" s="11">
+        <v>5200</v>
+      </c>
+      <c r="AB62" s="11">
         <v>5200</v>
       </c>
     </row>
@@ -4333,11 +4441,11 @@
       <c r="A63" s="11">
         <v>61</v>
       </c>
-      <c r="B63" s="31"/>
+      <c r="B63" s="34"/>
       <c r="D63" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="E63" s="30" t="s">
+      <c r="E63" s="33" t="s">
         <v>84</v>
       </c>
       <c r="F63" s="10">
@@ -4348,38 +4456,41 @@
         <f t="shared" si="5"/>
         <v>520</v>
       </c>
-      <c r="H63" s="27">
+      <c r="H63" s="30">
         <v>3000</v>
       </c>
-      <c r="Q63" s="34">
+      <c r="Q63" s="37">
         <v>520</v>
       </c>
     </row>
-    <row r="64" s="11" customFormat="1" spans="1:15">
+    <row r="64" s="11" customFormat="1" spans="1:29">
       <c r="A64" s="11">
         <v>62</v>
       </c>
-      <c r="C64" s="28" t="s">
+      <c r="C64" s="31" t="s">
         <v>85</v>
       </c>
       <c r="D64" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="E64" s="16" t="s">
+      <c r="E64" s="17" t="s">
         <v>86</v>
       </c>
       <c r="F64" s="10">
         <f t="shared" si="3"/>
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="G64" s="10">
         <f t="shared" si="5"/>
+        <v>10400</v>
+      </c>
+      <c r="H64" s="30">
+        <v>0</v>
+      </c>
+      <c r="O64" s="11">
         <v>5200</v>
       </c>
-      <c r="H64" s="27">
-        <v>0</v>
-      </c>
-      <c r="O64" s="11">
+      <c r="AC64" s="11">
         <v>5200</v>
       </c>
     </row>
@@ -4404,7 +4515,7 @@
         <f t="shared" si="5"/>
         <v>4160</v>
       </c>
-      <c r="H65" s="22">
+      <c r="H65" s="25">
         <v>2000</v>
       </c>
       <c r="O65" s="11">
@@ -4418,11 +4529,11 @@
       <c r="A66" s="11">
         <v>64</v>
       </c>
-      <c r="B66" s="31"/>
+      <c r="B66" s="34"/>
       <c r="D66" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="E66" s="30" t="s">
+      <c r="E66" s="33" t="s">
         <v>89</v>
       </c>
       <c r="F66" s="10">
@@ -4433,7 +4544,7 @@
         <f t="shared" si="5"/>
         <v>12480</v>
       </c>
-      <c r="H66" s="27">
+      <c r="H66" s="30">
         <v>2000</v>
       </c>
       <c r="L66" s="11">
@@ -4459,11 +4570,11 @@
       <c r="A67" s="11">
         <v>65</v>
       </c>
-      <c r="B67" s="31"/>
+      <c r="B67" s="34"/>
       <c r="D67" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="E67" s="30" t="s">
+      <c r="E67" s="33" t="s">
         <v>91</v>
       </c>
       <c r="F67" s="10">
@@ -4474,7 +4585,7 @@
         <f t="shared" si="5"/>
         <v>4160</v>
       </c>
-      <c r="H67" s="27">
+      <c r="H67" s="30">
         <v>2000</v>
       </c>
       <c r="T67" s="11">
@@ -4484,25 +4595,25 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="68" s="11" customFormat="1" spans="1:24">
+    <row r="68" s="11" customFormat="1" spans="1:29">
       <c r="A68" s="11">
         <v>66</v>
       </c>
       <c r="D68" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E68" s="16" t="s">
+      <c r="E68" s="17" t="s">
         <v>93</v>
       </c>
       <c r="F68" s="10">
         <f t="shared" si="3"/>
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="G68" s="10">
         <f t="shared" si="5"/>
-        <v>6240</v>
-      </c>
-      <c r="H68" s="27">
+        <v>8320</v>
+      </c>
+      <c r="H68" s="30">
         <v>2000</v>
       </c>
       <c r="L68" s="11">
@@ -4514,26 +4625,29 @@
       <c r="X68" s="11">
         <v>2080</v>
       </c>
-    </row>
-    <row r="69" s="11" customFormat="1" spans="1:24">
+      <c r="AC68" s="11">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="69" s="11" customFormat="1" spans="1:29">
       <c r="A69" s="11">
         <v>67</v>
       </c>
       <c r="D69" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E69" s="16" t="s">
+      <c r="E69" s="17" t="s">
         <v>94</v>
       </c>
       <c r="F69" s="10">
         <f t="shared" si="3"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="G69" s="10">
         <f t="shared" si="5"/>
-        <v>4160</v>
-      </c>
-      <c r="H69" s="27">
+        <v>6240</v>
+      </c>
+      <c r="H69" s="30">
         <v>-2000</v>
       </c>
       <c r="N69" s="11">
@@ -4542,26 +4656,29 @@
       <c r="X69" s="11">
         <v>2080</v>
       </c>
-    </row>
-    <row r="70" s="11" customFormat="1" spans="1:15">
+      <c r="AC69" s="11">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="70" s="11" customFormat="1" spans="1:27">
       <c r="A70" s="11">
         <v>68</v>
       </c>
       <c r="D70" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E70" s="16" t="s">
+      <c r="E70" s="17" t="s">
         <v>95</v>
       </c>
       <c r="F70" s="10">
         <f t="shared" si="3"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="G70" s="10">
         <f t="shared" si="5"/>
-        <v>4160</v>
-      </c>
-      <c r="H70" s="27">
+        <v>6240</v>
+      </c>
+      <c r="H70" s="30">
         <v>0</v>
       </c>
       <c r="I70" s="11">
@@ -4570,26 +4687,29 @@
       <c r="O70" s="11">
         <v>2080</v>
       </c>
-    </row>
-    <row r="71" s="11" customFormat="1" spans="1:23">
+      <c r="AA70" s="11">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="71" s="11" customFormat="1" spans="1:29">
       <c r="A71" s="11">
         <v>69</v>
       </c>
       <c r="D71" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E71" s="16" t="s">
+      <c r="E71" s="17" t="s">
         <v>96</v>
       </c>
       <c r="F71" s="10">
         <f t="shared" si="3"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="G71" s="10">
         <f t="shared" si="5"/>
-        <v>3120</v>
-      </c>
-      <c r="H71" s="27">
+        <v>4160</v>
+      </c>
+      <c r="H71" s="30">
         <v>0</v>
       </c>
       <c r="J71" s="11">
@@ -4601,26 +4721,29 @@
       <c r="W71" s="11">
         <v>1040</v>
       </c>
-    </row>
-    <row r="72" s="11" customFormat="1" spans="1:27">
+      <c r="AC71" s="11">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="72" s="11" customFormat="1" spans="1:30">
       <c r="A72" s="11">
         <v>70</v>
       </c>
       <c r="D72" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E72" s="16" t="s">
+      <c r="E72" s="17" t="s">
         <v>97</v>
       </c>
       <c r="F72" s="10">
         <f t="shared" si="3"/>
-        <v>35000</v>
+        <v>40000</v>
       </c>
       <c r="G72" s="10">
         <f t="shared" si="5"/>
-        <v>31200</v>
-      </c>
-      <c r="H72" s="27">
+        <v>36400</v>
+      </c>
+      <c r="H72" s="30">
         <v>5000</v>
       </c>
       <c r="K72" s="11">
@@ -4639,6 +4762,9 @@
         <v>5200</v>
       </c>
       <c r="AA72" s="11">
+        <v>5200</v>
+      </c>
+      <c r="AD72" s="11">
         <v>5200</v>
       </c>
     </row>
@@ -4649,7 +4775,7 @@
       <c r="D73" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E73" s="16" t="s">
+      <c r="E73" s="17" t="s">
         <v>98</v>
       </c>
       <c r="F73" s="10">
@@ -4660,7 +4786,7 @@
         <f t="shared" si="5"/>
         <v>15600</v>
       </c>
-      <c r="H73" s="27">
+      <c r="H73" s="30">
         <v>0</v>
       </c>
       <c r="J73" s="11">
@@ -4679,26 +4805,26 @@
         <v>3120</v>
       </c>
     </row>
-    <row r="74" s="11" customFormat="1" spans="1:24">
+    <row r="74" s="11" customFormat="1" spans="1:29">
       <c r="A74" s="11">
         <v>72</v>
       </c>
-      <c r="B74" s="31"/>
+      <c r="B74" s="34"/>
       <c r="D74" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E74" s="30" t="s">
+      <c r="E74" s="33" t="s">
         <v>99</v>
       </c>
       <c r="F74" s="10">
         <f t="shared" si="3"/>
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="G74" s="10">
         <f t="shared" si="5"/>
-        <v>6240</v>
-      </c>
-      <c r="H74" s="27">
+        <v>8320</v>
+      </c>
+      <c r="H74" s="30">
         <v>0</v>
       </c>
       <c r="O74" s="11">
@@ -4708,6 +4834,9 @@
         <v>2080</v>
       </c>
       <c r="X74" s="11">
+        <v>2080</v>
+      </c>
+      <c r="AC74" s="11">
         <v>2080</v>
       </c>
     </row>
@@ -4721,7 +4850,7 @@
       <c r="D75" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E75" s="16" t="s">
+      <c r="E75" s="17" t="s">
         <v>100</v>
       </c>
       <c r="F75" s="10">
@@ -4732,7 +4861,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H75" s="27">
+      <c r="H75" s="30">
         <v>0</v>
       </c>
     </row>
@@ -4740,11 +4869,11 @@
       <c r="A76" s="11">
         <v>74</v>
       </c>
-      <c r="B76" s="31"/>
+      <c r="B76" s="34"/>
       <c r="D76" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E76" s="30" t="s">
+      <c r="E76" s="33" t="s">
         <v>101</v>
       </c>
       <c r="F76" s="10">
@@ -4752,35 +4881,35 @@
         <v>4000</v>
       </c>
       <c r="G76" s="10">
-        <f t="shared" ref="G76:G85" si="6">SUM(I76:AM76)</f>
-        <v>2080</v>
-      </c>
-      <c r="H76" s="27">
+        <f t="shared" si="5"/>
+        <v>2080</v>
+      </c>
+      <c r="H76" s="30">
         <v>2000</v>
       </c>
       <c r="Z76" s="11">
         <v>2080</v>
       </c>
     </row>
-    <row r="77" s="11" customFormat="1" spans="1:25">
+    <row r="77" s="11" customFormat="1" spans="1:29">
       <c r="A77" s="11">
         <v>75</v>
       </c>
       <c r="D77" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="E77" s="16" t="s">
+      <c r="E77" s="17" t="s">
         <v>103</v>
       </c>
       <c r="F77" s="10">
         <f t="shared" si="3"/>
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="G77" s="10">
-        <f t="shared" si="6"/>
-        <v>9360</v>
-      </c>
-      <c r="H77" s="27">
+        <f t="shared" si="5"/>
+        <v>11440</v>
+      </c>
+      <c r="H77" s="30">
         <v>2000</v>
       </c>
       <c r="I77" s="11">
@@ -4807,26 +4936,32 @@
       <c r="Y77" s="11">
         <v>2080</v>
       </c>
-    </row>
-    <row r="78" s="11" customFormat="1" spans="1:24">
+      <c r="AA77" s="11">
+        <v>1040</v>
+      </c>
+      <c r="AC77" s="11">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="78" s="11" customFormat="1" spans="1:27">
       <c r="A78" s="11">
         <v>76</v>
       </c>
       <c r="D78" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="E78" s="16" t="s">
+      <c r="E78" s="17" t="s">
         <v>104</v>
       </c>
       <c r="F78" s="10">
         <f t="shared" si="3"/>
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="G78" s="10">
-        <f t="shared" si="6"/>
-        <v>21840</v>
-      </c>
-      <c r="H78" s="27">
+        <f t="shared" si="5"/>
+        <v>24960</v>
+      </c>
+      <c r="H78" s="30">
         <v>6000</v>
       </c>
       <c r="L78" s="11">
@@ -4848,6 +4983,9 @@
         <v>3120</v>
       </c>
       <c r="X78" s="11">
+        <v>3120</v>
+      </c>
+      <c r="AA78" s="11">
         <v>3120</v>
       </c>
     </row>
@@ -4858,7 +4996,7 @@
       <c r="D79" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="E79" s="16" t="s">
+      <c r="E79" s="17" t="s">
         <v>105</v>
       </c>
       <c r="F79" s="10">
@@ -4866,10 +5004,10 @@
         <v>15000</v>
       </c>
       <c r="G79" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>12480</v>
       </c>
-      <c r="H79" s="27">
+      <c r="H79" s="30">
         <v>3000</v>
       </c>
       <c r="K79" s="11">
@@ -4891,64 +5029,70 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="80" s="11" customFormat="1" spans="1:25">
+    <row r="80" s="11" customFormat="1" spans="1:29">
       <c r="A80" s="11">
         <v>78</v>
       </c>
-      <c r="B80" s="31"/>
-      <c r="E80" s="30" t="s">
+      <c r="B80" s="34"/>
+      <c r="E80" s="33" t="s">
         <v>106</v>
       </c>
       <c r="F80" s="10">
         <f t="shared" si="3"/>
-        <v>54000</v>
+        <v>58000</v>
       </c>
       <c r="G80" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
+        <v>9360</v>
+      </c>
+      <c r="H80" s="30">
+        <v>49000</v>
+      </c>
+      <c r="I80" s="34"/>
+      <c r="J80" s="34"/>
+      <c r="K80" s="34"/>
+      <c r="L80" s="34"/>
+      <c r="M80" s="34"/>
+      <c r="N80" s="34"/>
+      <c r="O80" s="34"/>
+      <c r="P80" s="34"/>
+      <c r="Q80" s="34"/>
+      <c r="R80" s="34"/>
+      <c r="S80" s="34"/>
+      <c r="T80" s="34"/>
+      <c r="V80" s="36"/>
+      <c r="W80" s="39">
         <v>5200</v>
       </c>
-      <c r="H80" s="27">
-        <v>49000</v>
-      </c>
-      <c r="I80" s="31"/>
-      <c r="J80" s="31"/>
-      <c r="K80" s="31"/>
-      <c r="L80" s="31"/>
-      <c r="M80" s="31"/>
-      <c r="N80" s="31"/>
-      <c r="O80" s="31"/>
-      <c r="P80" s="31"/>
-      <c r="Q80" s="31"/>
-      <c r="R80" s="31"/>
-      <c r="S80" s="31"/>
-      <c r="T80" s="31"/>
-      <c r="V80" s="33"/>
-      <c r="W80" s="36">
-        <v>5200</v>
-      </c>
-      <c r="X80" s="33"/>
-      <c r="Y80" s="33"/>
-    </row>
-    <row r="81" s="11" customFormat="1" spans="1:25">
+      <c r="X80" s="36"/>
+      <c r="Y80" s="36"/>
+      <c r="AA80" s="11">
+        <v>2080</v>
+      </c>
+      <c r="AC80" s="11">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="81" s="11" customFormat="1" spans="1:27">
       <c r="A81" s="11">
         <v>79</v>
       </c>
-      <c r="B81" s="31"/>
+      <c r="B81" s="34"/>
       <c r="D81" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="E81" s="30" t="s">
+      <c r="E81" s="33" t="s">
         <v>108</v>
       </c>
       <c r="F81" s="10">
         <f t="shared" si="3"/>
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="G81" s="10">
-        <f t="shared" si="6"/>
-        <v>6240</v>
-      </c>
-      <c r="H81" s="27">
+        <f t="shared" si="5"/>
+        <v>7280</v>
+      </c>
+      <c r="H81" s="30">
         <v>0</v>
       </c>
       <c r="I81" s="11">
@@ -4967,6 +5111,9 @@
         <v>1040</v>
       </c>
       <c r="Y81" s="11">
+        <v>1040</v>
+      </c>
+      <c r="AA81" s="11">
         <v>1040</v>
       </c>
     </row>
@@ -4974,8 +5121,8 @@
       <c r="A82" s="11">
         <v>80</v>
       </c>
-      <c r="B82" s="31"/>
-      <c r="E82" s="30" t="s">
+      <c r="B82" s="34"/>
+      <c r="E82" s="33" t="s">
         <v>109</v>
       </c>
       <c r="F82" s="10">
@@ -4983,10 +5130,10 @@
         <v>0</v>
       </c>
       <c r="G82" s="10">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H82" s="27">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H82" s="30">
         <v>0</v>
       </c>
     </row>
@@ -4994,22 +5141,22 @@
       <c r="A83" s="11">
         <v>81</v>
       </c>
-      <c r="B83" s="31"/>
+      <c r="B83" s="34"/>
       <c r="D83" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="E83" s="30" t="s">
+      <c r="E83" s="33" t="s">
         <v>111</v>
       </c>
       <c r="F83" s="10">
-        <f t="shared" ref="F83:F96" si="7">G83/1.04+H83</f>
+        <f t="shared" ref="F83:F96" si="6">G83/1.04+H83</f>
         <v>2000</v>
       </c>
       <c r="G83" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4160</v>
       </c>
-      <c r="H83" s="27">
+      <c r="H83" s="30">
         <v>-2000</v>
       </c>
       <c r="J83" s="11">
@@ -5023,54 +5170,54 @@
       <c r="A84" s="11">
         <v>82</v>
       </c>
-      <c r="B84" s="31"/>
-      <c r="E84" s="30" t="s">
+      <c r="B84" s="34"/>
+      <c r="E84" s="33" t="s">
         <v>112</v>
       </c>
       <c r="F84" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G84" s="10">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H84" s="27">
-        <v>0</v>
-      </c>
-      <c r="I84" s="33"/>
-      <c r="J84" s="33"/>
-      <c r="K84" s="33"/>
-      <c r="L84" s="33"/>
-      <c r="M84" s="33"/>
-      <c r="N84" s="33"/>
-      <c r="O84" s="33"/>
-      <c r="P84" s="33"/>
-      <c r="Q84" s="33"/>
-      <c r="R84" s="33"/>
-      <c r="S84" s="33"/>
-      <c r="T84" s="33"/>
-    </row>
-    <row r="85" s="11" customFormat="1" spans="1:22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H84" s="30">
+        <v>0</v>
+      </c>
+      <c r="I84" s="36"/>
+      <c r="J84" s="36"/>
+      <c r="K84" s="36"/>
+      <c r="L84" s="36"/>
+      <c r="M84" s="36"/>
+      <c r="N84" s="36"/>
+      <c r="O84" s="36"/>
+      <c r="P84" s="36"/>
+      <c r="Q84" s="36"/>
+      <c r="R84" s="36"/>
+      <c r="S84" s="36"/>
+      <c r="T84" s="36"/>
+    </row>
+    <row r="85" s="11" customFormat="1" spans="1:27">
       <c r="A85" s="11">
         <v>83</v>
       </c>
-      <c r="B85" s="31"/>
+      <c r="B85" s="34"/>
       <c r="D85" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="E85" s="30" t="s">
+      <c r="E85" s="33" t="s">
         <v>114</v>
       </c>
       <c r="F85" s="10">
-        <f t="shared" si="7"/>
-        <v>20000</v>
+        <f t="shared" si="6"/>
+        <v>25000</v>
       </c>
       <c r="G85" s="10">
         <f>SUM(J85:AM85)</f>
-        <v>20800</v>
-      </c>
-      <c r="H85" s="27">
+        <v>26000</v>
+      </c>
+      <c r="H85" s="30">
         <v>0</v>
       </c>
       <c r="J85" s="11">
@@ -5083,6 +5230,9 @@
         <v>5200</v>
       </c>
       <c r="V85" s="11">
+        <v>5200</v>
+      </c>
+      <c r="AA85" s="11">
         <v>5200</v>
       </c>
     </row>
@@ -5093,53 +5243,56 @@
       <c r="D86" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="E86" s="16" t="s">
+      <c r="E86" s="17" t="s">
         <v>115</v>
       </c>
       <c r="F86" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>5000</v>
       </c>
       <c r="G86" s="10">
-        <f t="shared" ref="G86:G96" si="8">SUM(I86:AM86)</f>
+        <f t="shared" ref="G86:G96" si="7">SUM(I86:AM86)</f>
         <v>5200</v>
       </c>
-      <c r="H86" s="27">
+      <c r="H86" s="30">
         <v>0</v>
       </c>
       <c r="P86" s="11">
         <v>5200</v>
       </c>
     </row>
-    <row r="87" s="11" customFormat="1" spans="1:14">
+    <row r="87" s="11" customFormat="1" spans="1:27">
       <c r="A87" s="11">
         <v>85</v>
       </c>
-      <c r="B87" s="31"/>
+      <c r="B87" s="34"/>
       <c r="C87" s="11">
         <v>683879115</v>
       </c>
       <c r="D87" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="E87" s="30" t="s">
+      <c r="E87" s="33" t="s">
         <v>116</v>
       </c>
       <c r="F87" s="10">
+        <f t="shared" si="6"/>
+        <v>6000</v>
+      </c>
+      <c r="G87" s="10">
         <f t="shared" si="7"/>
-        <v>4000</v>
-      </c>
-      <c r="G87" s="10">
-        <f t="shared" si="8"/>
-        <v>4160</v>
-      </c>
-      <c r="H87" s="27">
-        <v>0</v>
-      </c>
-      <c r="I87" s="34">
-        <v>2080</v>
-      </c>
-      <c r="N87" s="34">
+        <v>6240</v>
+      </c>
+      <c r="H87" s="30">
+        <v>0</v>
+      </c>
+      <c r="I87" s="37">
+        <v>2080</v>
+      </c>
+      <c r="N87" s="37">
+        <v>2080</v>
+      </c>
+      <c r="AA87" s="38">
         <v>2080</v>
       </c>
     </row>
@@ -5147,64 +5300,64 @@
       <c r="A88" s="11">
         <v>86</v>
       </c>
-      <c r="B88" s="31"/>
+      <c r="B88" s="34"/>
       <c r="D88" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="E88" s="30" t="s">
+      <c r="E88" s="33" t="s">
         <v>118</v>
       </c>
       <c r="F88" s="10">
+        <f t="shared" si="6"/>
+        <v>4000</v>
+      </c>
+      <c r="G88" s="10">
         <f t="shared" si="7"/>
-        <v>4000</v>
-      </c>
-      <c r="G88" s="10">
-        <f t="shared" si="8"/>
         <v>4160</v>
       </c>
-      <c r="H88" s="27">
-        <v>0</v>
-      </c>
-      <c r="I88" s="33"/>
-      <c r="J88" s="33"/>
-      <c r="K88" s="33"/>
-      <c r="L88" s="33"/>
-      <c r="M88" s="33"/>
-      <c r="N88" s="33"/>
-      <c r="O88" s="31"/>
-      <c r="P88" s="33"/>
-      <c r="Q88" s="33"/>
-      <c r="R88" s="33"/>
-      <c r="S88" s="33">
-        <v>2080</v>
-      </c>
-      <c r="T88" s="33"/>
-      <c r="U88" s="33"/>
-      <c r="V88" s="33"/>
-      <c r="W88" s="31"/>
-      <c r="X88" s="33">
-        <v>2080</v>
-      </c>
-      <c r="Y88" s="33"/>
-      <c r="Z88" s="33"/>
+      <c r="H88" s="30">
+        <v>0</v>
+      </c>
+      <c r="I88" s="36"/>
+      <c r="J88" s="36"/>
+      <c r="K88" s="36"/>
+      <c r="L88" s="36"/>
+      <c r="M88" s="36"/>
+      <c r="N88" s="36"/>
+      <c r="O88" s="34"/>
+      <c r="P88" s="36"/>
+      <c r="Q88" s="36"/>
+      <c r="R88" s="36"/>
+      <c r="S88" s="36">
+        <v>2080</v>
+      </c>
+      <c r="T88" s="36"/>
+      <c r="U88" s="36"/>
+      <c r="V88" s="36"/>
+      <c r="W88" s="34"/>
+      <c r="X88" s="36">
+        <v>2080</v>
+      </c>
+      <c r="Y88" s="36"/>
+      <c r="Z88" s="36"/>
     </row>
     <row r="89" s="11" customFormat="1" spans="1:8">
       <c r="A89" s="11">
         <v>87</v>
       </c>
-      <c r="B89" s="31"/>
-      <c r="E89" s="30" t="s">
+      <c r="B89" s="34"/>
+      <c r="E89" s="33" t="s">
         <v>119</v>
       </c>
       <c r="F89" s="10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G89" s="10">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G89" s="10">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="H89" s="27">
+      <c r="H89" s="30">
         <v>0</v>
       </c>
     </row>
@@ -5212,87 +5365,87 @@
       <c r="A90" s="11">
         <v>88</v>
       </c>
-      <c r="B90" s="31"/>
-      <c r="E90" s="30" t="s">
+      <c r="B90" s="34"/>
+      <c r="E90" s="33" t="s">
         <v>120</v>
       </c>
       <c r="F90" s="10">
+        <f t="shared" si="6"/>
+        <v>1000</v>
+      </c>
+      <c r="G90" s="10">
         <f t="shared" si="7"/>
-        <v>1000</v>
-      </c>
-      <c r="G90" s="10">
-        <f t="shared" si="8"/>
         <v>1040</v>
       </c>
-      <c r="H90" s="27">
-        <v>0</v>
-      </c>
-      <c r="I90" s="33"/>
-      <c r="J90" s="33"/>
-      <c r="K90" s="33"/>
-      <c r="L90" s="33"/>
-      <c r="M90" s="33"/>
-      <c r="N90" s="33"/>
-      <c r="O90" s="33"/>
-      <c r="P90" s="33"/>
-      <c r="Q90" s="33"/>
-      <c r="R90" s="37">
+      <c r="H90" s="30">
+        <v>0</v>
+      </c>
+      <c r="I90" s="36"/>
+      <c r="J90" s="36"/>
+      <c r="K90" s="36"/>
+      <c r="L90" s="36"/>
+      <c r="M90" s="36"/>
+      <c r="N90" s="36"/>
+      <c r="O90" s="36"/>
+      <c r="P90" s="36"/>
+      <c r="Q90" s="36"/>
+      <c r="R90" s="40">
         <v>1040</v>
       </c>
-      <c r="S90" s="33"/>
+      <c r="S90" s="36"/>
     </row>
     <row r="91" s="11" customFormat="1" spans="1:24">
       <c r="A91" s="11">
         <v>89</v>
       </c>
-      <c r="B91" s="31"/>
-      <c r="E91" s="30" t="s">
+      <c r="B91" s="34"/>
+      <c r="E91" s="33" t="s">
         <v>121</v>
       </c>
       <c r="F91" s="10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G91" s="10">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G91" s="10">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="H91" s="27">
-        <v>0</v>
-      </c>
-      <c r="I91" s="33"/>
-      <c r="J91" s="33"/>
-      <c r="K91" s="33"/>
-      <c r="L91" s="33"/>
-      <c r="M91" s="33"/>
-      <c r="N91" s="33"/>
-      <c r="O91" s="33"/>
-      <c r="P91" s="33"/>
-      <c r="Q91" s="33"/>
-      <c r="R91" s="33"/>
-      <c r="S91" s="33"/>
-      <c r="T91" s="33"/>
-      <c r="U91" s="33"/>
-      <c r="V91" s="33"/>
-      <c r="W91" s="33"/>
-      <c r="X91" s="33"/>
+      <c r="H91" s="30">
+        <v>0</v>
+      </c>
+      <c r="I91" s="36"/>
+      <c r="J91" s="36"/>
+      <c r="K91" s="36"/>
+      <c r="L91" s="36"/>
+      <c r="M91" s="36"/>
+      <c r="N91" s="36"/>
+      <c r="O91" s="36"/>
+      <c r="P91" s="36"/>
+      <c r="Q91" s="36"/>
+      <c r="R91" s="36"/>
+      <c r="S91" s="36"/>
+      <c r="T91" s="36"/>
+      <c r="U91" s="36"/>
+      <c r="V91" s="36"/>
+      <c r="W91" s="36"/>
+      <c r="X91" s="36"/>
     </row>
     <row r="92" s="11" customFormat="1" spans="1:8">
       <c r="A92" s="11">
         <v>90</v>
       </c>
-      <c r="E92" s="16" t="s">
+      <c r="E92" s="17" t="s">
         <v>122</v>
       </c>
       <c r="F92" s="10">
+        <f t="shared" si="6"/>
+        <v>1000</v>
+      </c>
+      <c r="G92" s="10">
         <f t="shared" si="7"/>
-        <v>1000</v>
-      </c>
-      <c r="G92" s="10">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="H92" s="27">
+        <v>0</v>
+      </c>
+      <c r="H92" s="30">
         <v>1000</v>
       </c>
     </row>
@@ -5300,43 +5453,46 @@
       <c r="A93" s="11">
         <v>91</v>
       </c>
-      <c r="E93" s="16" t="s">
+      <c r="E93" s="17" t="s">
         <v>123</v>
       </c>
       <c r="F93" s="10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G93" s="10">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G93" s="10">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="H93" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" s="11" customFormat="1" spans="1:14">
+      <c r="H93" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" s="11" customFormat="1" spans="1:30">
       <c r="A94" s="11">
         <v>92</v>
       </c>
       <c r="D94" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="E94" s="16" t="s">
+      <c r="E94" s="17" t="s">
         <v>125</v>
       </c>
       <c r="F94" s="10">
+        <f t="shared" si="6"/>
+        <v>2000</v>
+      </c>
+      <c r="G94" s="10">
         <f t="shared" si="7"/>
-        <v>1000</v>
-      </c>
-      <c r="G94" s="10">
-        <f t="shared" si="8"/>
+        <v>2080</v>
+      </c>
+      <c r="H94" s="30">
+        <v>0</v>
+      </c>
+      <c r="N94" s="11">
         <v>1040</v>
       </c>
-      <c r="H94" s="27">
-        <v>0</v>
-      </c>
-      <c r="N94" s="11">
+      <c r="AD94" s="11">
         <v>1040</v>
       </c>
     </row>
@@ -5344,18 +5500,18 @@
       <c r="A95" s="11">
         <v>93</v>
       </c>
-      <c r="E95" s="16" t="s">
+      <c r="E95" s="17" t="s">
         <v>126</v>
       </c>
       <c r="F95" s="10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G95" s="10">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G95" s="10">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="H95" s="27">
+      <c r="H95" s="30">
         <v>0</v>
       </c>
     </row>
@@ -5363,74 +5519,74 @@
       <c r="A96" s="11">
         <v>94</v>
       </c>
-      <c r="E96" s="16" t="s">
+      <c r="E96" s="17" t="s">
         <v>127</v>
       </c>
       <c r="F96" s="10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G96" s="10">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G96" s="10">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="H96" s="27">
+      <c r="H96" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="97" s="11" customFormat="1" spans="8:8">
-      <c r="H97" s="22"/>
+      <c r="H97" s="25"/>
     </row>
     <row r="98" s="11" customFormat="1" spans="8:8">
-      <c r="H98" s="22"/>
+      <c r="H98" s="25"/>
     </row>
     <row r="99" s="11" customFormat="1" spans="8:8">
-      <c r="H99" s="22"/>
+      <c r="H99" s="25"/>
     </row>
     <row r="100" s="11" customFormat="1" spans="8:8">
-      <c r="H100" s="22"/>
+      <c r="H100" s="25"/>
     </row>
     <row r="101" s="11" customFormat="1" spans="8:8">
-      <c r="H101" s="22"/>
+      <c r="H101" s="25"/>
     </row>
     <row r="102" s="11" customFormat="1" spans="8:8">
-      <c r="H102" s="22"/>
+      <c r="H102" s="25"/>
     </row>
     <row r="103" s="11" customFormat="1" spans="8:8">
-      <c r="H103" s="22"/>
+      <c r="H103" s="25"/>
     </row>
     <row r="104" s="11" customFormat="1" spans="8:8">
-      <c r="H104" s="22"/>
+      <c r="H104" s="25"/>
     </row>
     <row r="105" s="11" customFormat="1" spans="8:8">
-      <c r="H105" s="22"/>
+      <c r="H105" s="25"/>
     </row>
     <row r="106" s="11" customFormat="1" spans="8:8">
-      <c r="H106" s="22"/>
+      <c r="H106" s="25"/>
     </row>
     <row r="107" s="11" customFormat="1" spans="8:8">
-      <c r="H107" s="22"/>
+      <c r="H107" s="25"/>
     </row>
     <row r="108" s="11" customFormat="1" spans="8:8">
-      <c r="H108" s="22"/>
+      <c r="H108" s="25"/>
     </row>
     <row r="109" s="11" customFormat="1" spans="8:8">
-      <c r="H109" s="22"/>
+      <c r="H109" s="25"/>
     </row>
     <row r="110" s="11" customFormat="1" spans="8:8">
-      <c r="H110" s="22"/>
+      <c r="H110" s="25"/>
     </row>
     <row r="111" s="11" customFormat="1" spans="8:8">
-      <c r="H111" s="22"/>
+      <c r="H111" s="25"/>
     </row>
     <row r="112" s="11" customFormat="1" spans="8:8">
-      <c r="H112" s="22"/>
+      <c r="H112" s="25"/>
     </row>
     <row r="113" s="11" customFormat="1" spans="8:8">
-      <c r="H113" s="22"/>
+      <c r="H113" s="25"/>
     </row>
     <row r="114" s="11" customFormat="1" spans="8:8">
-      <c r="H114" s="22"/>
+      <c r="H114" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5445,11 +5601,11 @@
   <dimension ref="A1:AM96"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="S78" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="2" topLeftCell="V3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G88" sqref="G88"/>
+      <selection pane="bottomRight" activeCell="Y13" sqref="Y13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -5494,93 +5650,93 @@
       <c r="H1" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="I1" s="17">
+      <c r="I1" s="18">
         <v>44228</v>
       </c>
-      <c r="J1" s="17">
+      <c r="J1" s="18">
         <v>44229</v>
       </c>
-      <c r="K1" s="17">
+      <c r="K1" s="18">
         <v>44230</v>
       </c>
-      <c r="L1" s="17">
+      <c r="L1" s="18">
         <v>44231</v>
       </c>
-      <c r="M1" s="17">
+      <c r="M1" s="18">
         <v>44232</v>
       </c>
-      <c r="N1" s="17">
+      <c r="N1" s="18">
         <v>44233</v>
       </c>
-      <c r="O1" s="17">
+      <c r="O1" s="18">
         <v>44234</v>
       </c>
-      <c r="P1" s="17">
+      <c r="P1" s="18">
         <v>44235</v>
       </c>
-      <c r="Q1" s="17">
+      <c r="Q1" s="18">
         <v>44236</v>
       </c>
-      <c r="R1" s="17">
+      <c r="R1" s="18">
         <v>44237</v>
       </c>
-      <c r="S1" s="17">
+      <c r="S1" s="18">
         <v>44238</v>
       </c>
-      <c r="T1" s="17">
+      <c r="T1" s="18">
         <v>44239</v>
       </c>
-      <c r="U1" s="17">
+      <c r="U1" s="18">
         <v>44240</v>
       </c>
-      <c r="V1" s="17">
+      <c r="V1" s="18">
         <v>44241</v>
       </c>
-      <c r="W1" s="17">
+      <c r="W1" s="18">
         <v>44242</v>
       </c>
-      <c r="X1" s="17">
+      <c r="X1" s="18">
         <v>44243</v>
       </c>
-      <c r="Y1" s="17">
+      <c r="Y1" s="18">
         <v>44244</v>
       </c>
-      <c r="Z1" s="17">
+      <c r="Z1" s="18">
         <v>44245</v>
       </c>
-      <c r="AA1" s="17">
+      <c r="AA1" s="18">
         <v>44246</v>
       </c>
-      <c r="AB1" s="17">
+      <c r="AB1" s="18">
         <v>44247</v>
       </c>
-      <c r="AC1" s="17">
+      <c r="AC1" s="18">
         <v>44248</v>
       </c>
-      <c r="AD1" s="17">
+      <c r="AD1" s="18">
         <v>44249</v>
       </c>
-      <c r="AE1" s="17">
+      <c r="AE1" s="18">
         <v>44250</v>
       </c>
-      <c r="AF1" s="17">
+      <c r="AF1" s="18">
         <v>44251</v>
       </c>
-      <c r="AG1" s="17">
+      <c r="AG1" s="18">
         <v>44252</v>
       </c>
-      <c r="AH1" s="17">
+      <c r="AH1" s="18">
         <v>44253</v>
       </c>
-      <c r="AI1" s="17">
+      <c r="AI1" s="18">
         <v>44254</v>
       </c>
-      <c r="AJ1" s="17">
+      <c r="AJ1" s="18">
         <v>44255</v>
       </c>
-      <c r="AK1" s="21"/>
-      <c r="AL1" s="21"/>
-      <c r="AM1" s="21"/>
+      <c r="AK1" s="24"/>
+      <c r="AL1" s="24"/>
+      <c r="AM1" s="24"/>
     </row>
     <row r="2" s="10" customFormat="1" spans="1:36">
       <c r="A2" s="13"/>
@@ -5590,17 +5746,17 @@
       <c r="E2" s="13"/>
       <c r="F2" s="14">
         <f>SUM(H3:H121)</f>
-        <v>803700</v>
+        <v>880700</v>
       </c>
       <c r="G2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="14">
-        <f t="shared" ref="H2:H18" si="0">SUM(I2:AM2)</f>
-        <v>803700</v>
+      <c r="H2" s="16">
+        <f t="shared" ref="H2:H65" si="0">SUM(I2:AM2)</f>
+        <v>880700</v>
       </c>
       <c r="I2" s="10">
-        <f t="shared" ref="I2:AJ2" si="1">SUM(I3:I121)</f>
+        <f t="shared" ref="I2:AA2" si="1">SUM(I3:I121)</f>
         <v>58700</v>
       </c>
       <c r="J2" s="10">
@@ -5673,46 +5829,46 @@
       </c>
       <c r="AA2" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AB2" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>12000</v>
+      </c>
+      <c r="AB2" s="22">
+        <f>SUM(AB3:AB121)</f>
+        <v>57000</v>
       </c>
       <c r="AC2" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" ref="AC2:AJ2" si="2">SUM(AC3:AC121)</f>
+        <v>8000</v>
       </c>
       <c r="AD2" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AE2" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AF2" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AG2" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AH2" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AI2" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AJ2" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" s="11" customFormat="1" spans="1:25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" s="11" customFormat="1" spans="1:28">
       <c r="A3" s="11">
         <v>1</v>
       </c>
@@ -5731,24 +5887,25 @@
       <c r="F3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="17" t="s">
         <v>10</v>
       </c>
       <c r="H3" s="10">
         <f t="shared" si="0"/>
         <v>9000</v>
       </c>
-      <c r="I3" s="18">
+      <c r="I3" s="19">
         <v>3000</v>
       </c>
-      <c r="R3" s="18">
+      <c r="R3" s="19">
         <v>3000</v>
       </c>
-      <c r="Y3" s="19">
+      <c r="Y3" s="20">
         <v>3000</v>
       </c>
-    </row>
-    <row r="4" s="11" customFormat="1" spans="1:23">
+      <c r="AB3" s="1"/>
+    </row>
+    <row r="4" s="11" customFormat="1" spans="1:28">
       <c r="A4" s="11">
         <v>2</v>
       </c>
@@ -5767,21 +5924,22 @@
       <c r="F4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="17" t="s">
         <v>11</v>
       </c>
       <c r="H4" s="10">
         <f t="shared" si="0"/>
         <v>6000</v>
       </c>
-      <c r="I4" s="18">
-        <v>2000</v>
-      </c>
-      <c r="W4" s="19">
+      <c r="I4" s="19">
+        <v>2000</v>
+      </c>
+      <c r="W4" s="20">
         <v>4000</v>
       </c>
-    </row>
-    <row r="5" s="11" customFormat="1" spans="1:23">
+      <c r="AB4" s="1"/>
+    </row>
+    <row r="5" s="11" customFormat="1" spans="1:28">
       <c r="A5" s="11">
         <v>3</v>
       </c>
@@ -5794,7 +5952,7 @@
       <c r="F5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="17" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="10">
@@ -5819,8 +5977,9 @@
       <c r="W5" s="11">
         <v>1500</v>
       </c>
-    </row>
-    <row r="6" s="11" customFormat="1" spans="1:23">
+      <c r="AB5" s="1"/>
+    </row>
+    <row r="6" s="11" customFormat="1" spans="1:28">
       <c r="A6" s="11">
         <v>4</v>
       </c>
@@ -5839,33 +5998,36 @@
       <c r="F6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="17" t="s">
         <v>15</v>
       </c>
       <c r="H6" s="10">
         <f t="shared" si="0"/>
-        <v>15000</v>
-      </c>
-      <c r="I6" s="18">
+        <v>17000</v>
+      </c>
+      <c r="I6" s="19">
         <v>3000</v>
       </c>
-      <c r="K6" s="18">
-        <v>2000</v>
-      </c>
-      <c r="P6" s="18">
+      <c r="K6" s="19">
+        <v>2000</v>
+      </c>
+      <c r="P6" s="19">
         <v>3000</v>
       </c>
-      <c r="R6" s="18">
-        <v>2000</v>
-      </c>
-      <c r="U6" s="18">
+      <c r="R6" s="19">
+        <v>2000</v>
+      </c>
+      <c r="U6" s="19">
         <v>3000</v>
       </c>
-      <c r="W6" s="19">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="7" s="11" customFormat="1" spans="1:25">
+      <c r="W6" s="20">
+        <v>2000</v>
+      </c>
+      <c r="AB6" s="23">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="7" s="11" customFormat="1" spans="1:28">
       <c r="A7" s="11">
         <v>5</v>
       </c>
@@ -5884,33 +6046,34 @@
       <c r="F7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="17" t="s">
         <v>17</v>
       </c>
       <c r="H7" s="10">
         <f t="shared" si="0"/>
         <v>35000</v>
       </c>
-      <c r="J7" s="18">
+      <c r="J7" s="19">
         <v>620</v>
       </c>
-      <c r="L7" s="18">
+      <c r="L7" s="19">
         <v>7380</v>
       </c>
-      <c r="P7" s="18">
+      <c r="P7" s="19">
         <v>8000</v>
       </c>
-      <c r="T7" s="18">
+      <c r="T7" s="19">
         <v>7000</v>
       </c>
-      <c r="U7" s="18">
+      <c r="U7" s="19">
         <v>4000</v>
       </c>
-      <c r="Y7" s="19">
+      <c r="Y7" s="20">
         <v>8000</v>
       </c>
-    </row>
-    <row r="8" s="11" customFormat="1" spans="1:26">
+      <c r="AB7" s="1"/>
+    </row>
+    <row r="8" s="11" customFormat="1" spans="1:28">
       <c r="A8" s="11">
         <v>6</v>
       </c>
@@ -5923,7 +6086,7 @@
       <c r="F8" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="17" t="s">
         <v>19</v>
       </c>
       <c r="H8" s="10">
@@ -5936,8 +6099,9 @@
       <c r="Z8" s="11">
         <v>2000</v>
       </c>
-    </row>
-    <row r="9" s="11" customFormat="1" spans="1:26">
+      <c r="AB8" s="1"/>
+    </row>
+    <row r="9" s="11" customFormat="1" spans="1:28">
       <c r="A9" s="11">
         <v>7</v>
       </c>
@@ -5950,7 +6114,7 @@
       <c r="F9" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="17" t="s">
         <v>20</v>
       </c>
       <c r="H9" s="10">
@@ -5966,8 +6130,9 @@
       <c r="Z9" s="11">
         <v>2000</v>
       </c>
-    </row>
-    <row r="10" s="11" customFormat="1" spans="1:25">
+      <c r="AB9" s="1"/>
+    </row>
+    <row r="10" s="11" customFormat="1" spans="1:28">
       <c r="A10" s="11">
         <v>8</v>
       </c>
@@ -5980,12 +6145,12 @@
       <c r="F10" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="17" t="s">
         <v>22</v>
       </c>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="I10" s="11">
         <v>5000</v>
@@ -6002,8 +6167,11 @@
       <c r="Y10" s="11">
         <v>7000</v>
       </c>
-    </row>
-    <row r="11" s="11" customFormat="1" spans="1:23">
+      <c r="AB10" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="11" s="11" customFormat="1" spans="1:28">
       <c r="A11" s="11">
         <v>9</v>
       </c>
@@ -6022,18 +6190,19 @@
       <c r="F11" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="17" t="s">
         <v>24</v>
       </c>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
         <v>6000</v>
       </c>
-      <c r="W11" s="19">
+      <c r="W11" s="20">
         <v>6000</v>
       </c>
-    </row>
-    <row r="12" s="11" customFormat="1" spans="1:23">
+      <c r="AB11" s="1"/>
+    </row>
+    <row r="12" s="11" customFormat="1" spans="1:28">
       <c r="A12" s="11">
         <v>10</v>
       </c>
@@ -6046,7 +6215,7 @@
       <c r="F12" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="16" t="s">
+      <c r="G12" s="17" t="s">
         <v>25</v>
       </c>
       <c r="H12" s="10">
@@ -6068,8 +6237,9 @@
       <c r="W12" s="11">
         <v>1000</v>
       </c>
-    </row>
-    <row r="13" s="11" customFormat="1" spans="1:26">
+      <c r="AB12" s="1"/>
+    </row>
+    <row r="13" s="11" customFormat="1" spans="1:28">
       <c r="A13" s="11">
         <v>11</v>
       </c>
@@ -6082,7 +6252,7 @@
       <c r="F13" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="16" t="s">
+      <c r="G13" s="17" t="s">
         <v>26</v>
       </c>
       <c r="H13" s="10">
@@ -6098,11 +6268,12 @@
       <c r="U13" s="11">
         <v>5000</v>
       </c>
-      <c r="Z13" s="19">
+      <c r="Z13" s="20">
         <v>5000</v>
       </c>
-    </row>
-    <row r="14" s="11" customFormat="1" spans="1:26">
+      <c r="AB13" s="1"/>
+    </row>
+    <row r="14" s="11" customFormat="1" spans="1:28">
       <c r="A14" s="11">
         <v>12</v>
       </c>
@@ -6121,12 +6292,12 @@
       <c r="F14" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="16" t="s">
+      <c r="G14" s="17" t="s">
         <v>27</v>
       </c>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>36500</v>
+        <v>39500</v>
       </c>
       <c r="I14" s="11">
         <v>4500</v>
@@ -6164,8 +6335,11 @@
       <c r="Z14" s="11">
         <v>3000</v>
       </c>
-    </row>
-    <row r="15" s="11" customFormat="1" spans="1:25">
+      <c r="AB14" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="15" s="11" customFormat="1" spans="1:28">
       <c r="A15" s="11">
         <v>13</v>
       </c>
@@ -6181,7 +6355,7 @@
       <c r="F15" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="16" t="s">
+      <c r="G15" s="17" t="s">
         <v>29</v>
       </c>
       <c r="H15" s="10">
@@ -6197,11 +6371,12 @@
       <c r="R15" s="11">
         <v>2000</v>
       </c>
-      <c r="Y15" s="19">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="16" s="11" customFormat="1" spans="1:23">
+      <c r="Y15" s="20">
+        <v>2000</v>
+      </c>
+      <c r="AB15" s="1"/>
+    </row>
+    <row r="16" s="11" customFormat="1" spans="1:28">
       <c r="A16" s="11">
         <v>14</v>
       </c>
@@ -6220,24 +6395,25 @@
       <c r="F16" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G16" s="16" t="s">
+      <c r="G16" s="17" t="s">
         <v>30</v>
       </c>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
         <v>3200</v>
       </c>
-      <c r="I16" s="18">
+      <c r="I16" s="19">
         <v>1200</v>
       </c>
       <c r="K16" s="11">
         <v>1000</v>
       </c>
-      <c r="W16" s="19">
+      <c r="W16" s="20">
         <v>1000</v>
       </c>
-    </row>
-    <row r="17" s="11" customFormat="1" spans="1:8">
+      <c r="AB16" s="1"/>
+    </row>
+    <row r="17" s="11" customFormat="1" spans="1:28">
       <c r="A17" s="11">
         <v>15</v>
       </c>
@@ -6247,15 +6423,16 @@
       <c r="F17" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G17" s="16" t="s">
+      <c r="G17" s="17" t="s">
         <v>32</v>
       </c>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" s="11" customFormat="1" spans="1:26">
+      <c r="AB17" s="1"/>
+    </row>
+    <row r="18" s="11" customFormat="1" spans="1:28">
       <c r="A18" s="11">
         <v>16</v>
       </c>
@@ -6265,7 +6442,7 @@
       <c r="F18" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G18" s="16" t="s">
+      <c r="G18" s="17" t="s">
         <v>34</v>
       </c>
       <c r="H18" s="10">
@@ -6278,8 +6455,9 @@
       <c r="Z18" s="11">
         <v>1000</v>
       </c>
-    </row>
-    <row r="19" s="11" customFormat="1" spans="1:25">
+      <c r="AB18" s="1"/>
+    </row>
+    <row r="19" s="11" customFormat="1" spans="1:28">
       <c r="A19" s="11">
         <v>17</v>
       </c>
@@ -6298,11 +6476,11 @@
       <c r="F19" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G19" s="16" t="s">
+      <c r="G19" s="17" t="s">
         <v>35</v>
       </c>
       <c r="H19" s="10">
-        <f t="shared" ref="H19:H82" si="2">SUM(I19:AM19)</f>
+        <f t="shared" si="0"/>
         <v>8000</v>
       </c>
       <c r="J19" s="11">
@@ -6320,8 +6498,9 @@
       <c r="Y19" s="11">
         <v>2000</v>
       </c>
-    </row>
-    <row r="20" s="11" customFormat="1" spans="1:25">
+      <c r="AB19" s="1"/>
+    </row>
+    <row r="20" s="11" customFormat="1" spans="1:28">
       <c r="A20" s="11">
         <v>18</v>
       </c>
@@ -6340,17 +6519,17 @@
       <c r="F20" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="G20" s="16" t="s">
+      <c r="G20" s="17" t="s">
         <v>37</v>
       </c>
       <c r="H20" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>20000</v>
       </c>
-      <c r="L20" s="18">
+      <c r="L20" s="19">
         <v>5000</v>
       </c>
-      <c r="N20" s="18">
+      <c r="N20" s="19">
         <v>5000</v>
       </c>
       <c r="S20" s="11">
@@ -6359,8 +6538,9 @@
       <c r="Y20" s="11">
         <v>5000</v>
       </c>
-    </row>
-    <row r="21" s="11" customFormat="1" spans="1:25">
+      <c r="AB20" s="1"/>
+    </row>
+    <row r="21" s="11" customFormat="1" spans="1:28">
       <c r="A21" s="11">
         <v>19</v>
       </c>
@@ -6379,24 +6559,25 @@
       <c r="F21" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="G21" s="16" t="s">
+      <c r="G21" s="17" t="s">
         <v>38</v>
       </c>
       <c r="H21" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>8000</v>
       </c>
       <c r="M21" s="11">
         <v>2000</v>
       </c>
-      <c r="S21" s="18">
+      <c r="S21" s="19">
         <v>4000</v>
       </c>
       <c r="Y21" s="11">
         <v>2000</v>
       </c>
-    </row>
-    <row r="22" s="11" customFormat="1" spans="1:23">
+      <c r="AB21" s="1"/>
+    </row>
+    <row r="22" s="11" customFormat="1" spans="1:28">
       <c r="A22" s="11">
         <v>20</v>
       </c>
@@ -6409,11 +6590,11 @@
       <c r="F22" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="G22" s="16" t="s">
+      <c r="G22" s="17" t="s">
         <v>39</v>
       </c>
       <c r="H22" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>4000</v>
       </c>
       <c r="J22" s="11">
@@ -6428,8 +6609,9 @@
       <c r="W22" s="11">
         <v>1000</v>
       </c>
-    </row>
-    <row r="23" s="11" customFormat="1" spans="1:19">
+      <c r="AB22" s="1"/>
+    </row>
+    <row r="23" s="11" customFormat="1" spans="1:28">
       <c r="A23" s="11">
         <v>21</v>
       </c>
@@ -6448,21 +6630,22 @@
       <c r="F23" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="G23" s="16" t="s">
+      <c r="G23" s="17" t="s">
         <v>40</v>
       </c>
       <c r="H23" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>15000</v>
       </c>
-      <c r="Q23" s="18">
+      <c r="Q23" s="19">
         <v>5000</v>
       </c>
-      <c r="S23" s="18">
+      <c r="S23" s="19">
         <v>10000</v>
       </c>
-    </row>
-    <row r="24" s="11" customFormat="1" spans="1:26">
+      <c r="AB23" s="1"/>
+    </row>
+    <row r="24" s="11" customFormat="1" spans="1:28">
       <c r="A24" s="11">
         <v>22</v>
       </c>
@@ -6475,12 +6658,12 @@
       <c r="F24" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="G24" s="16" t="s">
+      <c r="G24" s="17" t="s">
         <v>41</v>
       </c>
       <c r="H24" s="10">
-        <f t="shared" si="2"/>
-        <v>6000</v>
+        <f t="shared" si="0"/>
+        <v>7000</v>
       </c>
       <c r="I24" s="11">
         <v>1000</v>
@@ -6503,8 +6686,11 @@
       <c r="Z24" s="11">
         <v>500</v>
       </c>
-    </row>
-    <row r="25" s="11" customFormat="1" spans="1:25">
+      <c r="AB24" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="25" s="11" customFormat="1" spans="1:28">
       <c r="A25" s="11">
         <v>23</v>
       </c>
@@ -6523,11 +6709,11 @@
       <c r="F25" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="G25" s="16" t="s">
+      <c r="G25" s="17" t="s">
         <v>42</v>
       </c>
       <c r="H25" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>15000</v>
       </c>
       <c r="K25" s="11">
@@ -6545,8 +6731,9 @@
       <c r="Y25" s="11">
         <v>3000</v>
       </c>
-    </row>
-    <row r="26" s="11" customFormat="1" spans="1:24">
+      <c r="AB25" s="1"/>
+    </row>
+    <row r="26" s="11" customFormat="1" spans="1:28">
       <c r="A26" s="11">
         <v>24</v>
       </c>
@@ -6565,30 +6752,34 @@
       <c r="F26" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="G26" s="16" t="s">
+      <c r="G26" s="17" t="s">
         <v>43</v>
       </c>
       <c r="H26" s="10">
-        <f t="shared" si="2"/>
-        <v>25000</v>
-      </c>
-      <c r="I26" s="18">
+        <f t="shared" si="0"/>
+        <v>30000</v>
+      </c>
+      <c r="I26" s="19">
         <v>5000</v>
       </c>
-      <c r="L26" s="18">
+      <c r="L26" s="19">
         <v>5000</v>
       </c>
-      <c r="P26" s="18">
+      <c r="P26" s="19">
         <v>5000</v>
       </c>
-      <c r="T26" s="18">
+      <c r="T26" s="19">
         <v>5000</v>
       </c>
-      <c r="X26" s="19">
+      <c r="X26" s="20">
         <v>5000</v>
       </c>
-    </row>
-    <row r="27" s="11" customFormat="1" spans="1:25">
+      <c r="AA26" s="20">
+        <v>5000</v>
+      </c>
+      <c r="AB26" s="1"/>
+    </row>
+    <row r="27" s="11" customFormat="1" spans="1:28">
       <c r="A27" s="11">
         <v>25</v>
       </c>
@@ -6601,12 +6792,12 @@
       <c r="F27" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="G27" s="16" t="s">
+      <c r="G27" s="17" t="s">
         <v>44</v>
       </c>
       <c r="H27" s="10">
-        <f t="shared" si="2"/>
-        <v>5000</v>
+        <f t="shared" si="0"/>
+        <v>7500</v>
       </c>
       <c r="I27" s="11">
         <v>3000</v>
@@ -6614,8 +6805,11 @@
       <c r="Y27" s="11">
         <v>2000</v>
       </c>
-    </row>
-    <row r="28" s="11" customFormat="1" spans="1:25">
+      <c r="AB27" s="1">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="28" s="11" customFormat="1" spans="1:28">
       <c r="A28" s="11">
         <v>26</v>
       </c>
@@ -6628,12 +6822,12 @@
       <c r="F28" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="G28" s="16" t="s">
+      <c r="G28" s="17" t="s">
         <v>45</v>
       </c>
       <c r="H28" s="10">
-        <f t="shared" si="2"/>
-        <v>9500</v>
+        <f t="shared" si="0"/>
+        <v>11500</v>
       </c>
       <c r="K28" s="11">
         <v>1500</v>
@@ -6641,10 +6835,10 @@
       <c r="L28" s="11">
         <v>1000</v>
       </c>
-      <c r="M28" s="18">
+      <c r="M28" s="19">
         <v>1000</v>
       </c>
-      <c r="N28" s="18">
+      <c r="N28" s="19">
         <v>1000</v>
       </c>
       <c r="R28" s="11">
@@ -6659,11 +6853,14 @@
       <c r="U28" s="11">
         <v>1000</v>
       </c>
-      <c r="Y28" s="19">
+      <c r="Y28" s="20">
         <v>1000</v>
       </c>
-    </row>
-    <row r="29" s="11" customFormat="1" spans="1:20">
+      <c r="AB28" s="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="29" s="11" customFormat="1" spans="1:28">
       <c r="A29" s="11">
         <v>27</v>
       </c>
@@ -6676,12 +6873,12 @@
       <c r="F29" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="G29" s="16" t="s">
+      <c r="G29" s="17" t="s">
         <v>46</v>
       </c>
       <c r="H29" s="10">
-        <f t="shared" si="2"/>
-        <v>4000</v>
+        <f t="shared" si="0"/>
+        <v>6000</v>
       </c>
       <c r="L29" s="11">
         <v>2000</v>
@@ -6689,8 +6886,11 @@
       <c r="T29" s="11">
         <v>2000</v>
       </c>
-    </row>
-    <row r="30" s="11" customFormat="1" spans="1:25">
+      <c r="AB29" s="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="30" s="11" customFormat="1" spans="1:28">
       <c r="A30" s="11">
         <v>28</v>
       </c>
@@ -6703,11 +6903,11 @@
       <c r="F30" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="G30" s="16" t="s">
+      <c r="G30" s="17" t="s">
         <v>47</v>
       </c>
       <c r="H30" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>6000</v>
       </c>
       <c r="I30" s="11">
@@ -6722,8 +6922,9 @@
       <c r="Y30" s="11">
         <v>2000</v>
       </c>
-    </row>
-    <row r="31" s="11" customFormat="1" spans="1:21">
+      <c r="AB30" s="1"/>
+    </row>
+    <row r="31" s="11" customFormat="1" spans="1:28">
       <c r="A31" s="11">
         <v>29</v>
       </c>
@@ -6739,11 +6940,11 @@
       <c r="F31" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="G31" s="16" t="s">
+      <c r="G31" s="17" t="s">
         <v>48</v>
       </c>
       <c r="H31" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>16000</v>
       </c>
       <c r="J31" s="11">
@@ -6752,11 +6953,12 @@
       <c r="P31" s="11">
         <v>5000</v>
       </c>
-      <c r="U31" s="18">
+      <c r="U31" s="19">
         <v>5500</v>
       </c>
-    </row>
-    <row r="32" s="11" customFormat="1" spans="1:25">
+      <c r="AB31" s="1"/>
+    </row>
+    <row r="32" s="11" customFormat="1" spans="1:28">
       <c r="A32" s="11">
         <v>30</v>
       </c>
@@ -6772,24 +6974,25 @@
       <c r="F32" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="G32" s="16" t="s">
+      <c r="G32" s="17" t="s">
         <v>49</v>
       </c>
       <c r="H32" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>30000</v>
       </c>
-      <c r="N32" s="18">
+      <c r="N32" s="19">
         <v>10000</v>
       </c>
-      <c r="S32" s="18">
+      <c r="S32" s="19">
         <v>10000</v>
       </c>
-      <c r="Y32" s="19">
+      <c r="Y32" s="20">
         <v>10000</v>
       </c>
-    </row>
-    <row r="33" s="11" customFormat="1" spans="1:26">
+      <c r="AB32" s="1"/>
+    </row>
+    <row r="33" s="11" customFormat="1" spans="1:28">
       <c r="A33" s="11">
         <v>31</v>
       </c>
@@ -6799,12 +7002,12 @@
       <c r="F33" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="G33" s="16" t="s">
+      <c r="G33" s="17" t="s">
         <v>50</v>
       </c>
       <c r="H33" s="10">
-        <f t="shared" si="2"/>
-        <v>10000</v>
+        <f t="shared" si="0"/>
+        <v>11000</v>
       </c>
       <c r="I33" s="11">
         <v>1000</v>
@@ -6836,8 +7039,11 @@
       <c r="Z33" s="11">
         <v>1000</v>
       </c>
-    </row>
-    <row r="34" s="11" customFormat="1" spans="1:23">
+      <c r="AB33" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="34" s="11" customFormat="1" spans="1:28">
       <c r="A34" s="11">
         <v>32</v>
       </c>
@@ -6853,12 +7059,12 @@
       <c r="F34" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="G34" s="16" t="s">
+      <c r="G34" s="17" t="s">
         <v>52</v>
       </c>
       <c r="H34" s="10">
-        <f t="shared" si="2"/>
-        <v>6000</v>
+        <f t="shared" si="0"/>
+        <v>7000</v>
       </c>
       <c r="I34" s="11">
         <v>1000</v>
@@ -6878,8 +7084,11 @@
       <c r="W34" s="11">
         <v>1000</v>
       </c>
-    </row>
-    <row r="35" s="11" customFormat="1" spans="1:25">
+      <c r="AB34" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="35" s="11" customFormat="1" spans="1:28">
       <c r="A35" s="11">
         <v>33</v>
       </c>
@@ -6889,11 +7098,11 @@
       <c r="F35" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="G35" s="16" t="s">
+      <c r="G35" s="17" t="s">
         <v>53</v>
       </c>
       <c r="H35" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>5000</v>
       </c>
       <c r="K35" s="11">
@@ -6908,8 +7117,9 @@
       <c r="Y35" s="11">
         <v>1000</v>
       </c>
-    </row>
-    <row r="36" s="11" customFormat="1" spans="1:16">
+      <c r="AB35" s="1"/>
+    </row>
+    <row r="36" s="11" customFormat="1" spans="1:28">
       <c r="A36" s="11">
         <v>34</v>
       </c>
@@ -6922,11 +7132,11 @@
       <c r="F36" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="G36" s="16" t="s">
+      <c r="G36" s="17" t="s">
         <v>54</v>
       </c>
       <c r="H36" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>4000</v>
       </c>
       <c r="K36" s="11">
@@ -6935,8 +7145,9 @@
       <c r="P36" s="11">
         <v>2500</v>
       </c>
-    </row>
-    <row r="37" s="11" customFormat="1" spans="1:26">
+      <c r="AB36" s="1"/>
+    </row>
+    <row r="37" s="11" customFormat="1" spans="1:29">
       <c r="A37" s="11">
         <v>35</v>
       </c>
@@ -6946,36 +7157,40 @@
       <c r="F37" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="G37" s="16" t="s">
+      <c r="G37" s="17" t="s">
         <v>55</v>
       </c>
       <c r="H37" s="10">
-        <f t="shared" si="2"/>
-        <v>21000</v>
-      </c>
-      <c r="J37" s="18">
+        <f t="shared" si="0"/>
+        <v>24000</v>
+      </c>
+      <c r="J37" s="19">
         <v>3000</v>
       </c>
-      <c r="L37" s="18">
+      <c r="L37" s="19">
         <v>3000</v>
       </c>
-      <c r="N37" s="18">
+      <c r="N37" s="19">
         <v>3000</v>
       </c>
-      <c r="R37" s="18">
+      <c r="R37" s="19">
         <v>3000</v>
       </c>
-      <c r="U37" s="18">
+      <c r="U37" s="19">
         <v>3000</v>
       </c>
-      <c r="Y37" s="19">
+      <c r="Y37" s="20">
         <v>3000</v>
       </c>
-      <c r="Z37" s="19">
+      <c r="Z37" s="20">
         <v>3000</v>
       </c>
-    </row>
-    <row r="38" s="11" customFormat="1" spans="1:18">
+      <c r="AB37" s="1"/>
+      <c r="AC37" s="20">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="38" s="11" customFormat="1" spans="1:28">
       <c r="A38" s="11">
         <v>36</v>
       </c>
@@ -6985,18 +7200,19 @@
       <c r="F38" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="G38" s="16" t="s">
+      <c r="G38" s="17" t="s">
         <v>56</v>
       </c>
       <c r="H38" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
       <c r="R38" s="11">
         <v>1000</v>
       </c>
-    </row>
-    <row r="39" s="11" customFormat="1" spans="1:23">
+      <c r="AB38" s="1"/>
+    </row>
+    <row r="39" s="11" customFormat="1" spans="1:28">
       <c r="A39" s="11">
         <v>37</v>
       </c>
@@ -7012,24 +7228,25 @@
       <c r="F39" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="G39" s="16" t="s">
+      <c r="G39" s="17" t="s">
         <v>57</v>
       </c>
       <c r="H39" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>9000</v>
       </c>
-      <c r="K39" s="18">
+      <c r="K39" s="19">
         <v>3000</v>
       </c>
-      <c r="R39" s="18">
+      <c r="R39" s="19">
         <v>3000</v>
       </c>
-      <c r="W39" s="19">
+      <c r="W39" s="20">
         <v>3000</v>
       </c>
-    </row>
-    <row r="40" s="11" customFormat="1" spans="1:22">
+      <c r="AB39" s="1"/>
+    </row>
+    <row r="40" s="11" customFormat="1" spans="1:28">
       <c r="A40" s="11">
         <v>38</v>
       </c>
@@ -7048,21 +7265,22 @@
       <c r="F40" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="G40" s="16" t="s">
+      <c r="G40" s="17" t="s">
         <v>58</v>
       </c>
       <c r="H40" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>4000</v>
       </c>
-      <c r="I40" s="18">
-        <v>2000</v>
-      </c>
-      <c r="V40" s="19">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="41" s="11" customFormat="1" spans="1:26">
+      <c r="I40" s="19">
+        <v>2000</v>
+      </c>
+      <c r="V40" s="20">
+        <v>2000</v>
+      </c>
+      <c r="AB40" s="1"/>
+    </row>
+    <row r="41" s="11" customFormat="1" spans="1:28">
       <c r="A41" s="11">
         <v>39</v>
       </c>
@@ -7072,11 +7290,11 @@
       <c r="F41" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="G41" s="16" t="s">
+      <c r="G41" s="17" t="s">
         <v>59</v>
       </c>
       <c r="H41" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>8000</v>
       </c>
       <c r="P41" s="11">
@@ -7085,8 +7303,9 @@
       <c r="Z41" s="11">
         <v>4000</v>
       </c>
-    </row>
-    <row r="42" s="11" customFormat="1" spans="1:25">
+      <c r="AB41" s="1"/>
+    </row>
+    <row r="42" s="11" customFormat="1" spans="1:28">
       <c r="A42" s="11">
         <v>40</v>
       </c>
@@ -7096,11 +7315,11 @@
       <c r="F42" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="G42" s="16" t="s">
+      <c r="G42" s="17" t="s">
         <v>60</v>
       </c>
       <c r="H42" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>4000</v>
       </c>
       <c r="M42" s="11">
@@ -7109,8 +7328,9 @@
       <c r="Y42" s="11">
         <v>2000</v>
       </c>
-    </row>
-    <row r="43" s="11" customFormat="1" spans="1:25">
+      <c r="AB42" s="1"/>
+    </row>
+    <row r="43" s="11" customFormat="1" spans="1:28">
       <c r="A43" s="11">
         <v>41</v>
       </c>
@@ -7123,12 +7343,12 @@
       <c r="F43" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="G43" s="16" t="s">
+      <c r="G43" s="17" t="s">
         <v>61</v>
       </c>
       <c r="H43" s="10">
-        <f t="shared" si="2"/>
-        <v>25500</v>
+        <f t="shared" si="0"/>
+        <v>28500</v>
       </c>
       <c r="J43" s="11">
         <v>1500</v>
@@ -7154,8 +7374,12 @@
       <c r="Y43" s="11">
         <v>3000</v>
       </c>
-    </row>
-    <row r="44" s="11" customFormat="1" spans="1:18">
+      <c r="AA43" s="11">
+        <v>3000</v>
+      </c>
+      <c r="AB43" s="1"/>
+    </row>
+    <row r="44" s="11" customFormat="1" spans="1:28">
       <c r="A44" s="11">
         <v>42</v>
       </c>
@@ -7165,18 +7389,19 @@
       <c r="F44" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="G44" s="16" t="s">
+      <c r="G44" s="17" t="s">
         <v>62</v>
       </c>
       <c r="H44" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>2000</v>
       </c>
       <c r="R44" s="11">
         <v>2000</v>
       </c>
-    </row>
-    <row r="45" s="11" customFormat="1" spans="1:25">
+      <c r="AB44" s="1"/>
+    </row>
+    <row r="45" s="11" customFormat="1" spans="1:28">
       <c r="A45" s="11">
         <v>43</v>
       </c>
@@ -7186,30 +7411,33 @@
       <c r="F45" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="G45" s="16" t="s">
+      <c r="G45" s="17" t="s">
         <v>63</v>
       </c>
       <c r="H45" s="10">
-        <f t="shared" si="2"/>
-        <v>15000</v>
+        <f t="shared" si="0"/>
+        <v>18000</v>
       </c>
       <c r="K45" s="11">
         <v>3000</v>
       </c>
-      <c r="P45" s="18">
+      <c r="P45" s="19">
         <v>3000</v>
       </c>
-      <c r="S45" s="18">
+      <c r="S45" s="19">
         <v>3000</v>
       </c>
-      <c r="W45" s="19">
+      <c r="W45" s="20">
         <v>3000</v>
       </c>
       <c r="Y45" s="11">
         <v>3000</v>
       </c>
-    </row>
-    <row r="46" s="11" customFormat="1" spans="1:26">
+      <c r="AB45" s="23">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="46" s="11" customFormat="1" spans="1:28">
       <c r="A46" s="11">
         <v>44</v>
       </c>
@@ -7225,11 +7453,11 @@
       <c r="F46" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="G46" s="16" t="s">
+      <c r="G46" s="17" t="s">
         <v>65</v>
       </c>
       <c r="H46" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>15000</v>
       </c>
       <c r="J46" s="11">
@@ -7241,11 +7469,12 @@
       <c r="R46" s="11">
         <v>6000</v>
       </c>
-      <c r="Z46" s="19">
+      <c r="Z46" s="20">
         <v>3000</v>
       </c>
-    </row>
-    <row r="47" s="11" customFormat="1" spans="1:25">
+      <c r="AB46" s="1"/>
+    </row>
+    <row r="47" s="11" customFormat="1" spans="1:28">
       <c r="A47" s="11">
         <v>45</v>
       </c>
@@ -7255,11 +7484,11 @@
       <c r="F47" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="G47" s="16" t="s">
+      <c r="G47" s="17" t="s">
         <v>66</v>
       </c>
       <c r="H47" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>12000</v>
       </c>
       <c r="L47" s="11">
@@ -7277,8 +7506,9 @@
       <c r="Y47" s="11">
         <v>3000</v>
       </c>
-    </row>
-    <row r="48" s="11" customFormat="1" spans="1:14">
+      <c r="AB47" s="1"/>
+    </row>
+    <row r="48" s="11" customFormat="1" spans="1:28">
       <c r="A48" s="11">
         <v>46</v>
       </c>
@@ -7294,18 +7524,21 @@
       <c r="F48" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="G48" s="16" t="s">
+      <c r="G48" s="17" t="s">
         <v>67</v>
       </c>
       <c r="H48" s="10">
-        <f t="shared" si="2"/>
-        <v>2000</v>
-      </c>
-      <c r="N48" s="18">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="49" s="11" customFormat="1" spans="1:25">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+      <c r="N48" s="19">
+        <v>2000</v>
+      </c>
+      <c r="AB48" s="23">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="49" s="11" customFormat="1" spans="1:28">
       <c r="A49" s="11">
         <v>47</v>
       </c>
@@ -7324,14 +7557,14 @@
       <c r="F49" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="G49" s="16" t="s">
+      <c r="G49" s="17" t="s">
         <v>68</v>
       </c>
       <c r="H49" s="10">
-        <f t="shared" si="2"/>
-        <v>19500</v>
-      </c>
-      <c r="J49" s="18">
+        <f t="shared" si="0"/>
+        <v>24000</v>
+      </c>
+      <c r="J49" s="19">
         <v>4000</v>
       </c>
       <c r="M49" s="11">
@@ -7343,14 +7576,17 @@
       <c r="R49" s="11">
         <v>3000</v>
       </c>
-      <c r="W49" s="19">
+      <c r="W49" s="20">
         <v>4000</v>
       </c>
       <c r="Y49" s="11">
         <v>3500</v>
       </c>
-    </row>
-    <row r="50" s="11" customFormat="1" spans="1:23">
+      <c r="AB49" s="1">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="50" s="11" customFormat="1" spans="1:28">
       <c r="A50" s="11">
         <v>48</v>
       </c>
@@ -7369,30 +7605,31 @@
       <c r="F50" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="G50" s="16" t="s">
+      <c r="G50" s="17" t="s">
         <v>69</v>
       </c>
       <c r="H50" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>18000</v>
       </c>
-      <c r="K50" s="18">
+      <c r="K50" s="19">
         <v>3000</v>
       </c>
-      <c r="L50" s="18">
+      <c r="L50" s="19">
         <v>3000</v>
       </c>
       <c r="P50" s="11">
         <v>3000</v>
       </c>
-      <c r="U50" s="18">
+      <c r="U50" s="19">
         <v>6000</v>
       </c>
       <c r="W50" s="11">
         <v>3000</v>
       </c>
-    </row>
-    <row r="51" s="11" customFormat="1" spans="1:25">
+      <c r="AB50" s="1"/>
+    </row>
+    <row r="51" s="11" customFormat="1" spans="1:28">
       <c r="A51" s="11">
         <v>49</v>
       </c>
@@ -7408,11 +7645,11 @@
       <c r="F51" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="G51" s="16" t="s">
+      <c r="G51" s="17" t="s">
         <v>70</v>
       </c>
       <c r="H51" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>6000</v>
       </c>
       <c r="M51" s="11">
@@ -7424,8 +7661,9 @@
       <c r="Y51" s="11">
         <v>2000</v>
       </c>
-    </row>
-    <row r="52" s="11" customFormat="1" spans="1:8">
+      <c r="AB51" s="1"/>
+    </row>
+    <row r="52" s="11" customFormat="1" spans="1:28">
       <c r="A52" s="11">
         <v>50</v>
       </c>
@@ -7435,15 +7673,16 @@
       <c r="F52" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="G52" s="16" t="s">
+      <c r="G52" s="17" t="s">
         <v>71</v>
       </c>
       <c r="H52" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" s="11" customFormat="1" spans="1:25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB52" s="1"/>
+    </row>
+    <row r="53" s="11" customFormat="1" spans="1:28">
       <c r="A53" s="11">
         <v>51</v>
       </c>
@@ -7459,36 +7698,39 @@
       <c r="F53" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="G53" s="16" t="s">
+      <c r="G53" s="17" t="s">
         <v>72</v>
       </c>
       <c r="H53" s="10">
-        <f t="shared" si="2"/>
-        <v>10000</v>
-      </c>
-      <c r="K53" s="18">
+        <f t="shared" si="0"/>
+        <v>13000</v>
+      </c>
+      <c r="K53" s="19">
         <v>1000</v>
       </c>
       <c r="N53" s="11">
         <v>1000</v>
       </c>
-      <c r="Q53" s="18">
-        <v>2000</v>
-      </c>
-      <c r="R53" s="18">
-        <v>2000</v>
-      </c>
-      <c r="V53" s="19">
+      <c r="Q53" s="19">
+        <v>2000</v>
+      </c>
+      <c r="R53" s="19">
+        <v>2000</v>
+      </c>
+      <c r="V53" s="20">
         <v>1000</v>
       </c>
-      <c r="X53" s="19">
-        <v>2000</v>
-      </c>
-      <c r="Y53" s="19">
+      <c r="X53" s="20">
+        <v>2000</v>
+      </c>
+      <c r="Y53" s="20">
         <v>1000</v>
       </c>
-    </row>
-    <row r="54" s="11" customFormat="1" spans="1:26">
+      <c r="AB53" s="23">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="54" s="11" customFormat="1" spans="1:28">
       <c r="A54" s="11">
         <v>52</v>
       </c>
@@ -7498,14 +7740,14 @@
       <c r="F54" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="G54" s="16" t="s">
+      <c r="G54" s="17" t="s">
         <v>73</v>
       </c>
       <c r="H54" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>12000</v>
       </c>
-      <c r="I54" s="18">
+      <c r="I54" s="19">
         <v>2000</v>
       </c>
       <c r="N54" s="11">
@@ -7514,14 +7756,15 @@
       <c r="R54" s="11">
         <v>1000</v>
       </c>
-      <c r="Y54" s="19">
+      <c r="Y54" s="20">
         <v>5000</v>
       </c>
-      <c r="Z54" s="19">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="55" s="11" customFormat="1" spans="1:21">
+      <c r="Z54" s="20">
+        <v>2000</v>
+      </c>
+      <c r="AB54" s="1"/>
+    </row>
+    <row r="55" s="11" customFormat="1" spans="1:28">
       <c r="A55" s="11">
         <v>53</v>
       </c>
@@ -7537,18 +7780,19 @@
       <c r="F55" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="G55" s="16" t="s">
+      <c r="G55" s="17" t="s">
         <v>74</v>
       </c>
       <c r="H55" s="10">
-        <f t="shared" si="2"/>
-        <v>2000</v>
-      </c>
-      <c r="U55" s="18">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="56" s="11" customFormat="1" spans="1:14">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="U55" s="19">
+        <v>2000</v>
+      </c>
+      <c r="AB55" s="1"/>
+    </row>
+    <row r="56" s="11" customFormat="1" spans="1:28">
       <c r="A56" s="11">
         <v>54</v>
       </c>
@@ -7564,18 +7808,19 @@
       <c r="F56" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="G56" s="16" t="s">
+      <c r="G56" s="17" t="s">
         <v>75</v>
       </c>
       <c r="H56" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
-      <c r="N56" s="18">
+      <c r="N56" s="19">
         <v>1000</v>
       </c>
-    </row>
-    <row r="57" s="11" customFormat="1" spans="1:8">
+      <c r="AB56" s="1"/>
+    </row>
+    <row r="57" s="11" customFormat="1" spans="1:28">
       <c r="A57" s="11">
         <v>55</v>
       </c>
@@ -7588,15 +7833,16 @@
       <c r="F57" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="G57" s="16" t="s">
+      <c r="G57" s="17" t="s">
         <v>76</v>
       </c>
       <c r="H57" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" s="11" customFormat="1" spans="1:25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB57" s="1"/>
+    </row>
+    <row r="58" s="11" customFormat="1" spans="1:28">
       <c r="A58" s="11">
         <v>56</v>
       </c>
@@ -7609,11 +7855,11 @@
       <c r="F58" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="G58" s="16" t="s">
+      <c r="G58" s="17" t="s">
         <v>78</v>
       </c>
       <c r="H58" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>10000</v>
       </c>
       <c r="J58" s="11">
@@ -7625,8 +7871,9 @@
       <c r="Y58" s="11">
         <v>4000</v>
       </c>
-    </row>
-    <row r="59" s="11" customFormat="1" spans="1:25">
+      <c r="AB58" s="1"/>
+    </row>
+    <row r="59" s="11" customFormat="1" spans="1:28">
       <c r="A59" s="11">
         <v>57</v>
       </c>
@@ -7642,21 +7889,22 @@
       <c r="F59" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="G59" s="16" t="s">
+      <c r="G59" s="17" t="s">
         <v>79</v>
       </c>
       <c r="H59" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>25000</v>
       </c>
-      <c r="P59" s="18">
+      <c r="P59" s="19">
         <v>15000</v>
       </c>
       <c r="Y59" s="11">
         <v>10000</v>
       </c>
-    </row>
-    <row r="60" s="11" customFormat="1" spans="1:21">
+      <c r="AB59" s="1"/>
+    </row>
+    <row r="60" s="11" customFormat="1" spans="1:28">
       <c r="A60" s="11">
         <v>58</v>
       </c>
@@ -7666,11 +7914,11 @@
       <c r="F60" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="G60" s="16" t="s">
+      <c r="G60" s="17" t="s">
         <v>80</v>
       </c>
       <c r="H60" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>10000</v>
       </c>
       <c r="J60" s="11">
@@ -7679,8 +7927,9 @@
       <c r="U60" s="11">
         <v>5000</v>
       </c>
-    </row>
-    <row r="61" s="11" customFormat="1" spans="1:25">
+      <c r="AB60" s="1"/>
+    </row>
+    <row r="61" s="11" customFormat="1" spans="1:28">
       <c r="A61" s="11">
         <v>59</v>
       </c>
@@ -7690,11 +7939,11 @@
       <c r="F61" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="G61" s="16" t="s">
+      <c r="G61" s="17" t="s">
         <v>81</v>
       </c>
       <c r="H61" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>10000</v>
       </c>
       <c r="J61" s="11">
@@ -7709,8 +7958,9 @@
       <c r="Y61" s="11">
         <v>4000</v>
       </c>
-    </row>
-    <row r="62" s="11" customFormat="1" spans="1:19">
+      <c r="AB61" s="1"/>
+    </row>
+    <row r="62" s="11" customFormat="1" spans="1:28">
       <c r="A62" s="11">
         <v>60</v>
       </c>
@@ -7729,21 +7979,22 @@
       <c r="F62" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="G62" s="16" t="s">
+      <c r="G62" s="17" t="s">
         <v>83</v>
       </c>
       <c r="H62" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>15000</v>
       </c>
       <c r="I62" s="11">
         <v>5000</v>
       </c>
-      <c r="S62" s="18">
+      <c r="S62" s="19">
         <v>10000</v>
       </c>
-    </row>
-    <row r="63" s="11" customFormat="1" spans="1:21">
+      <c r="AB62" s="1"/>
+    </row>
+    <row r="63" s="11" customFormat="1" spans="1:28">
       <c r="A63" s="11">
         <v>61</v>
       </c>
@@ -7756,18 +8007,19 @@
       <c r="F63" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="G63" s="16" t="s">
+      <c r="G63" s="17" t="s">
         <v>84</v>
       </c>
       <c r="H63" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>2400</v>
       </c>
-      <c r="U63" s="20">
+      <c r="U63" s="21">
         <v>2400</v>
       </c>
-    </row>
-    <row r="64" s="11" customFormat="1" spans="1:16">
+      <c r="AB63" s="1"/>
+    </row>
+    <row r="64" s="11" customFormat="1" spans="1:28">
       <c r="A64" s="11">
         <v>62</v>
       </c>
@@ -7786,18 +8038,19 @@
       <c r="F64" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="G64" s="16" t="s">
+      <c r="G64" s="17" t="s">
         <v>86</v>
       </c>
       <c r="H64" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>5000</v>
       </c>
-      <c r="P64" s="18">
+      <c r="P64" s="19">
         <v>5000</v>
       </c>
-    </row>
-    <row r="65" s="11" customFormat="1" spans="1:16">
+      <c r="AB64" s="1"/>
+    </row>
+    <row r="65" s="11" customFormat="1" spans="1:28">
       <c r="A65" s="11">
         <v>63</v>
       </c>
@@ -7820,17 +8073,21 @@
         <v>88</v>
       </c>
       <c r="H65" s="10">
-        <f t="shared" si="2"/>
-        <v>4000</v>
-      </c>
-      <c r="J65" s="18">
-        <v>2000</v>
-      </c>
-      <c r="P65" s="18">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="66" s="11" customFormat="1" spans="1:19">
+        <f t="shared" si="0"/>
+        <v>6000</v>
+      </c>
+      <c r="J65" s="19">
+        <v>2000</v>
+      </c>
+      <c r="P65" s="19">
+        <v>2000</v>
+      </c>
+      <c r="AA65" s="20">
+        <v>2000</v>
+      </c>
+      <c r="AB65" s="1"/>
+    </row>
+    <row r="66" s="11" customFormat="1" spans="1:29">
       <c r="A66" s="11">
         <v>64</v>
       </c>
@@ -7846,21 +8103,25 @@
       <c r="F66" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="G66" s="16" t="s">
+      <c r="G66" s="17" t="s">
         <v>89</v>
       </c>
       <c r="H66" s="10">
-        <f t="shared" si="2"/>
-        <v>8000</v>
-      </c>
-      <c r="I66" s="18">
-        <v>2000</v>
-      </c>
-      <c r="S66" s="18">
+        <f t="shared" ref="H66:H96" si="3">SUM(I66:AM66)</f>
+        <v>11000</v>
+      </c>
+      <c r="I66" s="19">
+        <v>2000</v>
+      </c>
+      <c r="S66" s="19">
         <v>6000</v>
       </c>
-    </row>
-    <row r="67" s="11" customFormat="1" spans="1:21">
+      <c r="AB66" s="1"/>
+      <c r="AC66" s="20">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="67" s="11" customFormat="1" spans="1:28">
       <c r="A67" s="11">
         <v>65</v>
       </c>
@@ -7870,11 +8131,11 @@
       <c r="F67" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="G67" s="16" t="s">
+      <c r="G67" s="17" t="s">
         <v>91</v>
       </c>
       <c r="H67" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3500</v>
       </c>
       <c r="J67" s="11">
@@ -7883,8 +8144,9 @@
       <c r="U67" s="11">
         <v>2000</v>
       </c>
-    </row>
-    <row r="68" s="11" customFormat="1" spans="1:12">
+      <c r="AB67" s="1"/>
+    </row>
+    <row r="68" s="11" customFormat="1" spans="1:28">
       <c r="A68" s="11">
         <v>66</v>
       </c>
@@ -7894,18 +8156,21 @@
       <c r="F68" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="G68" s="16" t="s">
+      <c r="G68" s="17" t="s">
         <v>93</v>
       </c>
       <c r="H68" s="10">
-        <f t="shared" si="2"/>
-        <v>4000</v>
+        <f t="shared" si="3"/>
+        <v>10000</v>
       </c>
       <c r="L68" s="11">
         <v>4000</v>
       </c>
-    </row>
-    <row r="69" s="11" customFormat="1" spans="1:25">
+      <c r="AB68" s="1">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="69" s="11" customFormat="1" spans="1:28">
       <c r="A69" s="11">
         <v>67</v>
       </c>
@@ -7915,18 +8180,21 @@
       <c r="F69" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="G69" s="16" t="s">
+      <c r="G69" s="17" t="s">
         <v>94</v>
       </c>
       <c r="H69" s="10">
-        <f t="shared" si="2"/>
-        <v>2000</v>
+        <f t="shared" si="3"/>
+        <v>4000</v>
       </c>
       <c r="Y69" s="11">
         <v>2000</v>
       </c>
-    </row>
-    <row r="70" s="11" customFormat="1" spans="1:16">
+      <c r="AB69" s="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="70" s="11" customFormat="1" spans="1:28">
       <c r="A70" s="11">
         <v>68</v>
       </c>
@@ -7936,12 +8204,12 @@
       <c r="F70" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="G70" s="16" t="s">
+      <c r="G70" s="17" t="s">
         <v>95</v>
       </c>
       <c r="H70" s="10">
-        <f t="shared" si="2"/>
-        <v>4000</v>
+        <f t="shared" si="3"/>
+        <v>6000</v>
       </c>
       <c r="I70" s="11">
         <v>1500</v>
@@ -7949,8 +8217,11 @@
       <c r="P70" s="11">
         <v>2500</v>
       </c>
-    </row>
-    <row r="71" s="11" customFormat="1" spans="1:25">
+      <c r="AB70" s="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="71" s="11" customFormat="1" spans="1:28">
       <c r="A71" s="11">
         <v>69</v>
       </c>
@@ -7960,11 +8231,11 @@
       <c r="F71" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="G71" s="16" t="s">
+      <c r="G71" s="17" t="s">
         <v>96</v>
       </c>
       <c r="H71" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3000</v>
       </c>
       <c r="L71" s="11">
@@ -7976,8 +8247,9 @@
       <c r="Y71" s="11">
         <v>1000</v>
       </c>
-    </row>
-    <row r="72" s="11" customFormat="1" spans="1:25">
+      <c r="AB71" s="1"/>
+    </row>
+    <row r="72" s="11" customFormat="1" spans="1:28">
       <c r="A72" s="11">
         <v>70</v>
       </c>
@@ -7987,12 +8259,12 @@
       <c r="F72" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="G72" s="16" t="s">
+      <c r="G72" s="17" t="s">
         <v>97</v>
       </c>
       <c r="H72" s="10">
-        <f t="shared" si="2"/>
-        <v>30000</v>
+        <f t="shared" si="3"/>
+        <v>35000</v>
       </c>
       <c r="I72" s="11">
         <v>5000</v>
@@ -8009,8 +8281,11 @@
       <c r="Y72" s="11">
         <v>10000</v>
       </c>
-    </row>
-    <row r="73" s="11" customFormat="1" spans="1:26">
+      <c r="AB72" s="1">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="73" s="11" customFormat="1" spans="1:28">
       <c r="A73" s="11">
         <v>71</v>
       </c>
@@ -8020,11 +8295,11 @@
       <c r="F73" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="G73" s="16" t="s">
+      <c r="G73" s="17" t="s">
         <v>98</v>
       </c>
       <c r="H73" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12000</v>
       </c>
       <c r="K73" s="11">
@@ -8033,14 +8308,15 @@
       <c r="R73" s="11">
         <v>3000</v>
       </c>
-      <c r="Y73" s="19">
+      <c r="Y73" s="20">
         <v>3000</v>
       </c>
       <c r="Z73" s="11">
         <v>3000</v>
       </c>
-    </row>
-    <row r="74" s="11" customFormat="1" spans="1:21">
+      <c r="AB73" s="1"/>
+    </row>
+    <row r="74" s="11" customFormat="1" spans="1:28">
       <c r="A74" s="11">
         <v>72</v>
       </c>
@@ -8059,21 +8335,22 @@
       <c r="F74" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="G74" s="16" t="s">
+      <c r="G74" s="17" t="s">
         <v>99</v>
       </c>
       <c r="H74" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4000</v>
       </c>
-      <c r="R74" s="18">
-        <v>2000</v>
-      </c>
-      <c r="U74" s="18">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="75" s="11" customFormat="1" spans="1:8">
+      <c r="R74" s="19">
+        <v>2000</v>
+      </c>
+      <c r="U74" s="19">
+        <v>2000</v>
+      </c>
+      <c r="AB74" s="1"/>
+    </row>
+    <row r="75" s="11" customFormat="1" spans="1:28">
       <c r="A75" s="11">
         <v>73</v>
       </c>
@@ -8086,15 +8363,16 @@
       <c r="F75" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="G75" s="16" t="s">
+      <c r="G75" s="17" t="s">
         <v>100</v>
       </c>
       <c r="H75" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" s="11" customFormat="1" spans="1:16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB75" s="1"/>
+    </row>
+    <row r="76" s="11" customFormat="1" spans="1:28">
       <c r="A76" s="11">
         <v>74</v>
       </c>
@@ -8104,12 +8382,12 @@
       <c r="F76" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="G76" s="16" t="s">
+      <c r="G76" s="17" t="s">
         <v>101</v>
       </c>
       <c r="H76" s="10">
-        <f t="shared" si="2"/>
-        <v>2000</v>
+        <f t="shared" si="3"/>
+        <v>3000</v>
       </c>
       <c r="L76" s="11">
         <v>1000</v>
@@ -8117,8 +8395,11 @@
       <c r="P76" s="11">
         <v>1000</v>
       </c>
-    </row>
-    <row r="77" s="11" customFormat="1" spans="1:26">
+      <c r="AB76" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="77" s="11" customFormat="1" spans="1:28">
       <c r="A77" s="11">
         <v>75</v>
       </c>
@@ -8137,11 +8418,11 @@
       <c r="F77" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="G77" s="16" t="s">
+      <c r="G77" s="17" t="s">
         <v>103</v>
       </c>
       <c r="H77" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10100</v>
       </c>
       <c r="J77" s="11">
@@ -8156,10 +8437,10 @@
       <c r="P77" s="11">
         <v>600</v>
       </c>
-      <c r="R77" s="18">
+      <c r="R77" s="19">
         <v>1500</v>
       </c>
-      <c r="U77" s="18">
+      <c r="U77" s="19">
         <v>1900</v>
       </c>
       <c r="Y77" s="11">
@@ -8168,8 +8449,9 @@
       <c r="Z77" s="11">
         <v>1500</v>
       </c>
-    </row>
-    <row r="78" s="11" customFormat="1" spans="1:21">
+      <c r="AB77" s="1"/>
+    </row>
+    <row r="78" s="11" customFormat="1" spans="1:28">
       <c r="A78" s="11">
         <v>76</v>
       </c>
@@ -8185,17 +8467,17 @@
       <c r="F78" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="G78" s="16" t="s">
+      <c r="G78" s="17" t="s">
         <v>104</v>
       </c>
       <c r="H78" s="10">
-        <f t="shared" si="2"/>
-        <v>21000</v>
-      </c>
-      <c r="L78" s="18">
+        <f t="shared" si="3"/>
+        <v>30000</v>
+      </c>
+      <c r="L78" s="19">
         <v>6000</v>
       </c>
-      <c r="N78" s="18">
+      <c r="N78" s="19">
         <v>6000</v>
       </c>
       <c r="R78" s="11">
@@ -8204,8 +8486,11 @@
       <c r="U78" s="11">
         <v>3000</v>
       </c>
-    </row>
-    <row r="79" s="11" customFormat="1" spans="1:26">
+      <c r="AB78" s="23">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="79" s="11" customFormat="1" spans="1:28">
       <c r="A79" s="11">
         <v>77</v>
       </c>
@@ -8221,11 +8506,11 @@
       <c r="F79" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="G79" s="16" t="s">
+      <c r="G79" s="17" t="s">
         <v>105</v>
       </c>
       <c r="H79" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14500</v>
       </c>
       <c r="I79" s="11">
@@ -8246,23 +8531,25 @@
       <c r="Z79" s="11">
         <v>3500</v>
       </c>
-    </row>
-    <row r="80" s="11" customFormat="1" spans="1:8">
+      <c r="AB79" s="1"/>
+    </row>
+    <row r="80" s="11" customFormat="1" spans="1:28">
       <c r="A80" s="11">
         <v>78</v>
       </c>
       <c r="C80" s="11">
         <v>78</v>
       </c>
-      <c r="G80" s="16" t="s">
+      <c r="G80" s="17" t="s">
         <v>106</v>
       </c>
       <c r="H80" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" s="11" customFormat="1" spans="1:21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB80" s="1"/>
+    </row>
+    <row r="81" s="11" customFormat="1" spans="1:29">
       <c r="A81" s="11">
         <v>79</v>
       </c>
@@ -8281,33 +8568,38 @@
       <c r="F81" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="G81" s="16" t="s">
+      <c r="G81" s="17" t="s">
         <v>108</v>
       </c>
       <c r="H81" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
+        <v>6000</v>
+      </c>
+      <c r="U81" s="19">
         <v>4000</v>
       </c>
-      <c r="U81" s="18">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="82" s="11" customFormat="1" spans="1:8">
+      <c r="AB81" s="1"/>
+      <c r="AC81" s="20">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="82" s="11" customFormat="1" spans="1:28">
       <c r="A82" s="11">
         <v>80</v>
       </c>
       <c r="C82" s="11">
         <v>80</v>
       </c>
-      <c r="G82" s="16" t="s">
+      <c r="G82" s="17" t="s">
         <v>109</v>
       </c>
       <c r="H82" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" s="11" customFormat="1" spans="1:8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB82" s="1"/>
+    </row>
+    <row r="83" s="11" customFormat="1" spans="1:28">
       <c r="A83" s="11">
         <v>81</v>
       </c>
@@ -8317,30 +8609,32 @@
       <c r="F83" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="G83" s="16" t="s">
+      <c r="G83" s="17" t="s">
         <v>111</v>
       </c>
       <c r="H83" s="10">
-        <f t="shared" ref="H83:H96" si="3">SUM(I83:AM83)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" s="11" customFormat="1" spans="1:8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB83" s="1"/>
+    </row>
+    <row r="84" s="11" customFormat="1" spans="1:28">
       <c r="A84" s="11">
         <v>82</v>
       </c>
       <c r="C84" s="11">
         <v>82</v>
       </c>
-      <c r="G84" s="16" t="s">
+      <c r="G84" s="17" t="s">
         <v>112</v>
       </c>
       <c r="H84" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="85" s="11" customFormat="1" spans="1:19">
+      <c r="AB84" s="1"/>
+    </row>
+    <row r="85" s="11" customFormat="1" spans="1:28">
       <c r="A85" s="11">
         <v>83</v>
       </c>
@@ -8356,21 +8650,22 @@
       <c r="F85" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="G85" s="16" t="s">
+      <c r="G85" s="17" t="s">
         <v>114</v>
       </c>
       <c r="H85" s="10">
         <f t="shared" si="3"/>
         <v>15000</v>
       </c>
-      <c r="K85" s="18">
+      <c r="K85" s="19">
         <v>5000</v>
       </c>
-      <c r="S85" s="18">
+      <c r="S85" s="19">
         <v>10000</v>
       </c>
-    </row>
-    <row r="86" s="11" customFormat="1" spans="1:18">
+      <c r="AB85" s="1"/>
+    </row>
+    <row r="86" s="11" customFormat="1" spans="1:28">
       <c r="A86" s="11">
         <v>84</v>
       </c>
@@ -8383,7 +8678,7 @@
       <c r="F86" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="G86" s="16" t="s">
+      <c r="G86" s="17" t="s">
         <v>115</v>
       </c>
       <c r="H86" s="10">
@@ -8393,8 +8688,9 @@
       <c r="R86" s="11">
         <v>5000</v>
       </c>
-    </row>
-    <row r="87" s="11" customFormat="1" spans="1:9">
+      <c r="AB86" s="1"/>
+    </row>
+    <row r="87" s="11" customFormat="1" spans="1:28">
       <c r="A87" s="11">
         <v>85</v>
       </c>
@@ -8413,18 +8709,22 @@
       <c r="F87" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="G87" s="16" t="s">
+      <c r="G87" s="17" t="s">
         <v>116</v>
       </c>
       <c r="H87" s="10">
         <f t="shared" si="3"/>
-        <v>2000</v>
-      </c>
-      <c r="I87" s="18">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="88" s="11" customFormat="1" spans="1:26">
+        <v>4000</v>
+      </c>
+      <c r="I87" s="19">
+        <v>2000</v>
+      </c>
+      <c r="AA87" s="20">
+        <v>2000</v>
+      </c>
+      <c r="AB87" s="1"/>
+    </row>
+    <row r="88" s="11" customFormat="1" spans="1:28">
       <c r="A88" s="11">
         <v>86</v>
       </c>
@@ -8434,36 +8734,40 @@
       <c r="F88" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="G88" s="16" t="s">
+      <c r="G88" s="17" t="s">
         <v>118</v>
       </c>
       <c r="H88" s="10">
         <f t="shared" si="3"/>
-        <v>4000</v>
-      </c>
-      <c r="S88" s="18">
+        <v>6000</v>
+      </c>
+      <c r="S88" s="19">
         <v>2000</v>
       </c>
       <c r="Z88" s="11">
         <v>2000</v>
       </c>
-    </row>
-    <row r="89" s="11" customFormat="1" spans="1:8">
+      <c r="AB88" s="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="89" s="11" customFormat="1" spans="1:28">
       <c r="A89" s="11">
         <v>87</v>
       </c>
       <c r="C89" s="11">
         <v>87</v>
       </c>
-      <c r="G89" s="16" t="s">
+      <c r="G89" s="17" t="s">
         <v>119</v>
       </c>
       <c r="H89" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="90" s="11" customFormat="1" spans="1:18">
+      <c r="AB89" s="1"/>
+    </row>
+    <row r="90" s="11" customFormat="1" spans="1:28">
       <c r="A90" s="11">
         <v>88</v>
       </c>
@@ -8476,33 +8780,35 @@
       <c r="D90" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="G90" s="16" t="s">
+      <c r="G90" s="17" t="s">
         <v>120</v>
       </c>
       <c r="H90" s="10">
         <f t="shared" si="3"/>
         <v>1000</v>
       </c>
-      <c r="R90" s="18">
+      <c r="R90" s="19">
         <v>1000</v>
       </c>
-    </row>
-    <row r="91" s="11" customFormat="1" spans="1:8">
+      <c r="AB90" s="1"/>
+    </row>
+    <row r="91" s="11" customFormat="1" spans="1:28">
       <c r="A91" s="11">
         <v>89</v>
       </c>
       <c r="C91" s="11">
         <v>89</v>
       </c>
-      <c r="G91" s="16" t="s">
+      <c r="G91" s="17" t="s">
         <v>121</v>
       </c>
       <c r="H91" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="92" s="11" customFormat="1" spans="1:8">
+      <c r="AB91" s="1"/>
+    </row>
+    <row r="92" s="11" customFormat="1" spans="1:28">
       <c r="A92" s="11">
         <v>90</v>
       </c>
@@ -8512,30 +8818,32 @@
       <c r="E92" s="11">
         <v>9015378357</v>
       </c>
-      <c r="G92" s="16" t="s">
+      <c r="G92" s="17" t="s">
         <v>122</v>
       </c>
       <c r="H92" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="93" s="11" customFormat="1" spans="1:8">
+      <c r="AB92" s="1"/>
+    </row>
+    <row r="93" s="11" customFormat="1" spans="1:28">
       <c r="A93" s="11">
         <v>91</v>
       </c>
       <c r="C93" s="11">
         <v>91</v>
       </c>
-      <c r="G93" s="16" t="s">
+      <c r="G93" s="17" t="s">
         <v>123</v>
       </c>
       <c r="H93" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="94" s="11" customFormat="1" spans="1:23">
+      <c r="AB93" s="1"/>
+    </row>
+    <row r="94" s="11" customFormat="1" spans="1:28">
       <c r="A94" s="11">
         <v>92</v>
       </c>
@@ -8545,7 +8853,7 @@
       <c r="F94" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="G94" s="16" t="s">
+      <c r="G94" s="17" t="s">
         <v>125</v>
       </c>
       <c r="H94" s="10">
@@ -8555,36 +8863,39 @@
       <c r="W94" s="11">
         <v>1000</v>
       </c>
-    </row>
-    <row r="95" s="11" customFormat="1" spans="1:8">
+      <c r="AB94" s="1"/>
+    </row>
+    <row r="95" s="11" customFormat="1" spans="1:28">
       <c r="A95" s="11">
         <v>93</v>
       </c>
       <c r="C95" s="11">
         <v>93</v>
       </c>
-      <c r="G95" s="16" t="s">
+      <c r="G95" s="17" t="s">
         <v>126</v>
       </c>
       <c r="H95" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="96" s="11" customFormat="1" spans="1:8">
+      <c r="AB95" s="1"/>
+    </row>
+    <row r="96" s="11" customFormat="1" spans="1:28">
       <c r="A96" s="11">
         <v>94</v>
       </c>
       <c r="C96" s="11">
         <v>94</v>
       </c>
-      <c r="G96" s="16" t="s">
+      <c r="G96" s="17" t="s">
         <v>127</v>
       </c>
       <c r="H96" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="AB96" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8598,8 +8909,8 @@
   <sheetPr/>
   <dimension ref="A1:D96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="D94" sqref="A1:D94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -8635,7 +8946,7 @@
       </c>
       <c r="D2" s="6">
         <f>Orders!F2-Collection!H2</f>
-        <v>188000</v>
+        <v>243000</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -8695,7 +9006,7 @@
       </c>
       <c r="D6" s="9">
         <f>Orders!F6-Collection!H6</f>
-        <v>0</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -8710,7 +9021,7 @@
       </c>
       <c r="D7" s="9">
         <f>Orders!F7-Collection!H7</f>
-        <v>16000</v>
+        <v>22000</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -8755,7 +9066,7 @@
       </c>
       <c r="D10" s="9">
         <f>Orders!F10-Collection!H10</f>
-        <v>3000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -8785,7 +9096,7 @@
       </c>
       <c r="D12" s="9">
         <f>Orders!F12-Collection!H12</f>
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -8800,7 +9111,7 @@
       </c>
       <c r="D13" s="9">
         <f>Orders!F13-Collection!H13</f>
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -8815,7 +9126,7 @@
       </c>
       <c r="D14" s="9">
         <f>Orders!F14-Collection!H14</f>
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -8828,7 +9139,7 @@
       </c>
       <c r="D15" s="9">
         <f>Orders!F15-Collection!H15</f>
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -8899,7 +9210,7 @@
       </c>
       <c r="D20" s="9">
         <f>Orders!F20-Collection!H20</f>
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -8929,7 +9240,7 @@
       </c>
       <c r="D22" s="9">
         <f>Orders!F22-Collection!H22</f>
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -8944,7 +9255,7 @@
       </c>
       <c r="D23" s="9">
         <f>Orders!F23-Collection!H23</f>
-        <v>5000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -8974,7 +9285,7 @@
       </c>
       <c r="D25" s="9">
         <f>Orders!F25-Collection!H25</f>
-        <v>0</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -9004,7 +9315,7 @@
       </c>
       <c r="D27" s="9">
         <f>Orders!F27-Collection!H27</f>
-        <v>4000</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -9019,7 +9330,7 @@
       </c>
       <c r="D28" s="9">
         <f>Orders!F28-Collection!H28</f>
-        <v>3000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -9034,7 +9345,7 @@
       </c>
       <c r="D29" s="9">
         <f>Orders!F29-Collection!H29</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -9075,7 +9386,7 @@
       </c>
       <c r="D32" s="9">
         <f>Orders!F32-Collection!H32</f>
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -9088,7 +9399,7 @@
       </c>
       <c r="D33" s="9">
         <f>Orders!F33-Collection!H33</f>
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -9114,7 +9425,7 @@
       </c>
       <c r="D35" s="9">
         <f>Orders!F35-Collection!H35</f>
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -9168,7 +9479,7 @@
       </c>
       <c r="D39" s="9">
         <f>Orders!F39-Collection!H39</f>
-        <v>0</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -9224,7 +9535,7 @@
       </c>
       <c r="D43" s="9">
         <f>Orders!F43-Collection!H43</f>
-        <v>3000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -9250,7 +9561,7 @@
       </c>
       <c r="D45" s="9">
         <f>Orders!F45-Collection!H45</f>
-        <v>3000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -9304,7 +9615,7 @@
       </c>
       <c r="D49" s="9">
         <f>Orders!F49-Collection!H49</f>
-        <v>4500</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -9319,7 +9630,7 @@
       </c>
       <c r="D50" s="9">
         <f>Orders!F50-Collection!H50</f>
-        <v>3000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -9332,7 +9643,7 @@
       </c>
       <c r="D51" s="9">
         <f>Orders!F51-Collection!H51</f>
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -9358,7 +9669,7 @@
       </c>
       <c r="D53" s="9">
         <f>Orders!F53-Collection!H53</f>
-        <v>3000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -9397,7 +9708,7 @@
       </c>
       <c r="D56" s="9">
         <f>Orders!F56-Collection!H56</f>
-        <v>1000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -9440,7 +9751,7 @@
       </c>
       <c r="D59" s="9">
         <f>Orders!F59-Collection!H59</f>
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -9481,7 +9792,7 @@
       </c>
       <c r="D62" s="9">
         <f>Orders!F62-Collection!H62</f>
-        <v>5000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -9511,7 +9822,7 @@
       </c>
       <c r="D64" s="9">
         <f>Orders!F64-Collection!H64</f>
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -9526,7 +9837,7 @@
       </c>
       <c r="D65" s="9">
         <f>Orders!F65-Collection!H65</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -9539,7 +9850,7 @@
       </c>
       <c r="D66" s="9">
         <f>Orders!F66-Collection!H66</f>
-        <v>6000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -9565,7 +9876,7 @@
       </c>
       <c r="D68" s="9">
         <f>Orders!F68-Collection!H68</f>
-        <v>4000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -9604,7 +9915,7 @@
       </c>
       <c r="D71" s="9">
         <f>Orders!F71-Collection!H71</f>
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -9645,7 +9956,7 @@
       </c>
       <c r="D74" s="9">
         <f>Orders!F74-Collection!H74</f>
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -9673,7 +9984,7 @@
       </c>
       <c r="D76" s="9">
         <f>Orders!F76-Collection!H76</f>
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -9688,7 +9999,7 @@
       </c>
       <c r="D77" s="9">
         <f>Orders!F77-Collection!H77</f>
-        <v>900</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -9701,7 +10012,7 @@
       </c>
       <c r="D78" s="9">
         <f>Orders!F78-Collection!H78</f>
-        <v>6000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -9725,7 +10036,7 @@
       </c>
       <c r="D80" s="9">
         <f>Orders!F80-Collection!H80</f>
-        <v>54000</v>
+        <v>58000</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -9740,7 +10051,7 @@
       </c>
       <c r="D81" s="9">
         <f>Orders!F81-Collection!H81</f>
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -9788,7 +10099,7 @@
       </c>
       <c r="D85" s="9">
         <f>Orders!F85-Collection!H85</f>
-        <v>5000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -9831,7 +10142,7 @@
       </c>
       <c r="D88" s="9">
         <f>Orders!F88-Collection!H88</f>
-        <v>0</v>
+        <v>-2000</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -9899,7 +10210,7 @@
       </c>
       <c r="D94" s="9">
         <f>Orders!F94-Collection!H94</f>
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="95" spans="1:4">

--- a/Febuary2021.xlsx
+++ b/Febuary2021.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7815" activeTab="2"/>
+    <workbookView windowWidth="19815" windowHeight="7815"/>
   </bookViews>
   <sheets>
     <sheet name="Orders" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,29 @@
   </authors>
   <commentList>
     <comment ref="J7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Vijay:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+2080-Auto
+2080-Auto</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AD7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -775,11 +798,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="[$-409]d\-mmm;@"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="[$-409]d\-mmm;@"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -799,21 +822,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -821,11 +829,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -838,62 +846,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -914,7 +869,83 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -927,14 +958,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -942,12 +965,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="Times New Roman"/>
       <charset val="0"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="Times New Roman"/>
       <charset val="0"/>
@@ -1040,7 +1063,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1052,13 +1123,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1070,7 +1135,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1082,7 +1159,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1094,43 +1219,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1142,73 +1231,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1220,7 +1243,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1249,6 +1272,41 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1264,15 +1322,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1284,6 +1333,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1306,43 +1364,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1351,13 +1374,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1369,130 +1392,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1554,7 +1577,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -1575,7 +1598,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -1612,7 +1635,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="1" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1956,12 +1979,12 @@
   <sheetPr/>
   <dimension ref="A1:AS114"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="Z34" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="7" ySplit="2" topLeftCell="AC3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E39" sqref="E39"/>
+      <selection pane="bottomRight" activeCell="AG3" sqref="AG3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -2099,22 +2122,22 @@
       <c r="A2" s="13"/>
       <c r="B2" s="28">
         <f>SUM(F3:F121)</f>
-        <v>1123700</v>
+        <v>1229700</v>
       </c>
       <c r="D2" s="16">
         <f>SUM(G3:G121)</f>
-        <v>993720</v>
+        <v>1103960</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="28">
         <f t="shared" ref="F2:F18" si="0">G2/1.04+H2</f>
-        <v>1123700</v>
+        <v>1229700</v>
       </c>
       <c r="G2" s="16">
         <f t="shared" ref="G2:G28" si="1">SUM(I2:AM2)</f>
-        <v>993720</v>
+        <v>1103960</v>
       </c>
       <c r="H2" s="29">
         <f t="shared" ref="H2:AJ2" si="2">SUM(H3:H121)</f>
@@ -2206,15 +2229,15 @@
       </c>
       <c r="AD2" s="10">
         <f t="shared" si="2"/>
-        <v>26000</v>
+        <v>54080</v>
       </c>
       <c r="AE2" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>38480</v>
       </c>
       <c r="AF2" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>43680</v>
       </c>
       <c r="AG2" s="10">
         <f t="shared" si="2"/>
@@ -2261,7 +2284,7 @@
         <v>3120</v>
       </c>
     </row>
-    <row r="4" s="11" customFormat="1" spans="1:23">
+    <row r="4" s="11" customFormat="1" spans="1:30">
       <c r="A4" s="11">
         <v>2</v>
       </c>
@@ -2273,11 +2296,11 @@
       </c>
       <c r="F4" s="10">
         <f t="shared" si="0"/>
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="G4" s="10">
         <f t="shared" si="1"/>
-        <v>5200</v>
+        <v>6240</v>
       </c>
       <c r="H4" s="30">
         <v>2000</v>
@@ -2295,6 +2318,9 @@
         <v>1040</v>
       </c>
       <c r="W4" s="11">
+        <v>1040</v>
+      </c>
+      <c r="AD4" s="11">
         <v>1040</v>
       </c>
     </row>
@@ -2381,7 +2407,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="7" s="11" customFormat="1" spans="1:30">
+    <row r="7" s="11" customFormat="1" spans="1:32">
       <c r="A7" s="11">
         <v>5</v>
       </c>
@@ -2396,11 +2422,11 @@
       </c>
       <c r="F7" s="10">
         <f t="shared" si="0"/>
-        <v>57000</v>
+        <v>63000</v>
       </c>
       <c r="G7" s="10">
         <f t="shared" si="1"/>
-        <v>47840</v>
+        <v>54080</v>
       </c>
       <c r="H7" s="30">
         <v>11000</v>
@@ -2466,6 +2492,12 @@
         <v>2080</v>
       </c>
       <c r="AD7" s="11">
+        <v>4160</v>
+      </c>
+      <c r="AE7" s="11">
+        <v>2080</v>
+      </c>
+      <c r="AF7" s="11">
         <v>2080</v>
       </c>
     </row>
@@ -2503,7 +2535,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="9" s="11" customFormat="1" spans="1:25">
+    <row r="9" s="11" customFormat="1" spans="1:32">
       <c r="A9" s="11">
         <v>7</v>
       </c>
@@ -2515,11 +2547,11 @@
       </c>
       <c r="F9" s="10">
         <f t="shared" si="0"/>
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="G9" s="10">
         <f t="shared" si="1"/>
-        <v>4160</v>
+        <v>6240</v>
       </c>
       <c r="H9" s="30">
         <v>2000</v>
@@ -2528,6 +2560,9 @@
         <v>2080</v>
       </c>
       <c r="Y9" s="11">
+        <v>2080</v>
+      </c>
+      <c r="AF9" s="11">
         <v>2080</v>
       </c>
     </row>
@@ -2571,7 +2606,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="11" s="11" customFormat="1" spans="1:23">
+    <row r="11" s="11" customFormat="1" spans="1:31">
       <c r="A11" s="11">
         <v>9</v>
       </c>
@@ -2583,11 +2618,11 @@
       </c>
       <c r="F11" s="10">
         <f t="shared" si="0"/>
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="G11" s="10">
         <f t="shared" si="1"/>
-        <v>6240</v>
+        <v>8320</v>
       </c>
       <c r="H11" s="30">
         <v>2000</v>
@@ -2601,8 +2636,11 @@
       <c r="W11" s="11">
         <v>2080</v>
       </c>
-    </row>
-    <row r="12" s="11" customFormat="1" spans="1:29">
+      <c r="AE11" s="11">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="12" s="11" customFormat="1" spans="1:31">
       <c r="A12" s="11">
         <v>10</v>
       </c>
@@ -2614,11 +2652,11 @@
       </c>
       <c r="F12" s="10">
         <f t="shared" si="0"/>
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="G12" s="10">
         <f t="shared" si="1"/>
-        <v>7280</v>
+        <v>8320</v>
       </c>
       <c r="H12" s="30">
         <v>0</v>
@@ -2642,6 +2680,9 @@
         <v>1040</v>
       </c>
       <c r="AC12" s="11">
+        <v>1040</v>
+      </c>
+      <c r="AE12" s="11">
         <v>1040</v>
       </c>
     </row>
@@ -2682,7 +2723,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="14" s="11" customFormat="1" spans="1:28">
+    <row r="14" s="11" customFormat="1" spans="1:32">
       <c r="A14" s="11">
         <v>12</v>
       </c>
@@ -2694,11 +2735,11 @@
       </c>
       <c r="F14" s="10">
         <f t="shared" si="0"/>
-        <v>45500</v>
+        <v>50500</v>
       </c>
       <c r="G14" s="10">
         <f t="shared" si="1"/>
-        <v>36400</v>
+        <v>41600</v>
       </c>
       <c r="H14" s="30">
         <v>10500</v>
@@ -2724,8 +2765,11 @@
       <c r="AB14" s="11">
         <v>5200</v>
       </c>
-    </row>
-    <row r="15" s="11" customFormat="1" spans="1:27">
+      <c r="AF14" s="11">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="15" s="11" customFormat="1" spans="1:32">
       <c r="A15" s="11">
         <v>13</v>
       </c>
@@ -2740,11 +2784,11 @@
       </c>
       <c r="F15" s="10">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="G15" s="10">
         <f t="shared" si="1"/>
-        <v>8320</v>
+        <v>10400</v>
       </c>
       <c r="H15" s="30">
         <v>2000</v>
@@ -2761,8 +2805,11 @@
       <c r="AA15" s="11">
         <v>2080</v>
       </c>
-    </row>
-    <row r="16" s="11" customFormat="1" spans="1:22">
+      <c r="AF15" s="11">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="16" s="11" customFormat="1" spans="1:31">
       <c r="A16" s="11">
         <v>14</v>
       </c>
@@ -2774,11 +2821,11 @@
       </c>
       <c r="F16" s="10">
         <f t="shared" si="0"/>
-        <v>5200</v>
+        <v>6200</v>
       </c>
       <c r="G16" s="10">
         <f t="shared" si="1"/>
-        <v>3120</v>
+        <v>4160</v>
       </c>
       <c r="H16" s="30">
         <v>2200</v>
@@ -2788,6 +2835,9 @@
       </c>
       <c r="V16" s="11">
         <v>2080</v>
+      </c>
+      <c r="AE16" s="11">
+        <v>1040</v>
       </c>
     </row>
     <row r="17" s="11" customFormat="1" spans="1:21">
@@ -2871,7 +2921,7 @@
       <c r="Z18" s="36"/>
       <c r="AA18" s="36"/>
     </row>
-    <row r="19" s="11" customFormat="1" spans="1:27">
+    <row r="19" s="11" customFormat="1" spans="1:32">
       <c r="A19" s="11">
         <v>17</v>
       </c>
@@ -2883,11 +2933,11 @@
       </c>
       <c r="F19" s="10">
         <f t="shared" ref="F19:F82" si="3">G19/1.04+H19</f>
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="G19" s="10">
         <f t="shared" si="1"/>
-        <v>12480</v>
+        <v>15600</v>
       </c>
       <c r="H19" s="30">
         <v>-1000</v>
@@ -2902,6 +2952,9 @@
         <v>3120</v>
       </c>
       <c r="AA19" s="11">
+        <v>3120</v>
+      </c>
+      <c r="AF19" s="11">
         <v>3120</v>
       </c>
     </row>
@@ -2939,7 +2992,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="21" s="11" customFormat="1" spans="1:23">
+    <row r="21" s="11" customFormat="1" spans="1:32">
       <c r="A21" s="11">
         <v>19</v>
       </c>
@@ -2951,11 +3004,11 @@
       </c>
       <c r="F21" s="10">
         <f t="shared" si="3"/>
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="G21" s="10">
         <f t="shared" si="1"/>
-        <v>8320</v>
+        <v>10400</v>
       </c>
       <c r="H21" s="30">
         <v>0</v>
@@ -2970,6 +3023,9 @@
         <v>2080</v>
       </c>
       <c r="W21" s="11">
+        <v>2080</v>
+      </c>
+      <c r="AF21" s="11">
         <v>2080</v>
       </c>
     </row>
@@ -3044,7 +3100,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="24" s="11" customFormat="1" spans="1:29">
+    <row r="24" s="11" customFormat="1" spans="1:32">
       <c r="A24" s="11">
         <v>22</v>
       </c>
@@ -3056,11 +3112,11 @@
       </c>
       <c r="F24" s="10">
         <f t="shared" si="3"/>
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="G24" s="10">
         <f t="shared" si="1"/>
-        <v>7280</v>
+        <v>8320</v>
       </c>
       <c r="H24" s="30">
         <v>1000</v>
@@ -3084,6 +3140,9 @@
         <v>1040</v>
       </c>
       <c r="AC24" s="11">
+        <v>1040</v>
+      </c>
+      <c r="AF24" s="11">
         <v>1040</v>
       </c>
     </row>
@@ -3201,7 +3260,7 @@
         <v>3120</v>
       </c>
     </row>
-    <row r="28" s="11" customFormat="1" spans="1:26">
+    <row r="28" s="11" customFormat="1" spans="1:31">
       <c r="A28" s="11">
         <v>26</v>
       </c>
@@ -3213,11 +3272,11 @@
       </c>
       <c r="F28" s="10">
         <f t="shared" si="3"/>
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="G28" s="10">
         <f t="shared" si="1"/>
-        <v>10400</v>
+        <v>12480</v>
       </c>
       <c r="H28" s="30">
         <v>2500</v>
@@ -3237,8 +3296,11 @@
       <c r="Z28" s="11">
         <v>2080</v>
       </c>
-    </row>
-    <row r="29" s="11" customFormat="1" spans="1:25">
+      <c r="AE28" s="11">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="29" s="11" customFormat="1" spans="1:30">
       <c r="A29" s="11">
         <v>27</v>
       </c>
@@ -3250,11 +3312,11 @@
       </c>
       <c r="F29" s="10">
         <f t="shared" si="3"/>
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="G29" s="10">
         <f>SUM(J29:AM29)</f>
-        <v>6240</v>
+        <v>8320</v>
       </c>
       <c r="H29" s="30">
         <v>0</v>
@@ -3266,6 +3328,9 @@
         <v>2080</v>
       </c>
       <c r="Y29" s="11">
+        <v>2080</v>
+      </c>
+      <c r="AD29" s="11">
         <v>2080</v>
       </c>
     </row>
@@ -3297,7 +3362,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="31" s="11" customFormat="1" spans="1:21">
+    <row r="31" s="11" customFormat="1" spans="1:32">
       <c r="A31" s="11">
         <v>29</v>
       </c>
@@ -3309,11 +3374,11 @@
       </c>
       <c r="F31" s="10">
         <f t="shared" si="3"/>
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="G31" s="10">
         <f t="shared" si="4"/>
-        <v>16640</v>
+        <v>21840</v>
       </c>
       <c r="H31" s="30">
         <v>0</v>
@@ -3333,8 +3398,11 @@
       <c r="U31" s="11">
         <v>5200</v>
       </c>
-    </row>
-    <row r="32" s="11" customFormat="1" spans="1:27">
+      <c r="AF31" s="11">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="32" s="11" customFormat="1" spans="1:31">
       <c r="A32" s="11">
         <v>30</v>
       </c>
@@ -3346,11 +3414,11 @@
       </c>
       <c r="F32" s="10">
         <f t="shared" si="3"/>
-        <v>35000</v>
+        <v>40000</v>
       </c>
       <c r="G32" s="10">
         <f t="shared" si="4"/>
-        <v>36400</v>
+        <v>41600</v>
       </c>
       <c r="H32" s="30">
         <v>0</v>
@@ -3376,8 +3444,11 @@
       <c r="AA32" s="11">
         <v>5200</v>
       </c>
-    </row>
-    <row r="33" s="11" customFormat="1" spans="1:25">
+      <c r="AE32" s="11">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="33" s="11" customFormat="1" spans="1:30">
       <c r="A33" s="11">
         <v>31</v>
       </c>
@@ -3389,11 +3460,11 @@
       </c>
       <c r="F33" s="10">
         <f t="shared" si="3"/>
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="G33" s="10">
         <f t="shared" si="4"/>
-        <v>10400</v>
+        <v>12480</v>
       </c>
       <c r="H33" s="30">
         <v>1000</v>
@@ -3413,8 +3484,11 @@
       <c r="Y33" s="11">
         <v>2080</v>
       </c>
-    </row>
-    <row r="34" s="11" customFormat="1" spans="1:28">
+      <c r="AD33" s="11">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="34" s="11" customFormat="1" spans="1:30">
       <c r="A34" s="11">
         <v>32</v>
       </c>
@@ -3426,11 +3500,11 @@
       </c>
       <c r="F34" s="10">
         <f t="shared" si="3"/>
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="G34" s="10">
         <f t="shared" si="4"/>
-        <v>6240</v>
+        <v>7280</v>
       </c>
       <c r="H34" s="30">
         <v>1000</v>
@@ -3453,8 +3527,11 @@
       <c r="AB34" s="11">
         <v>1040</v>
       </c>
-    </row>
-    <row r="35" s="11" customFormat="1" spans="1:28">
+      <c r="AD34" s="11">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="35" s="11" customFormat="1" spans="1:31">
       <c r="A35" s="11">
         <v>33</v>
       </c>
@@ -3466,11 +3543,11 @@
       </c>
       <c r="F35" s="10">
         <f t="shared" si="3"/>
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="G35" s="10">
         <f t="shared" si="4"/>
-        <v>6240</v>
+        <v>7280</v>
       </c>
       <c r="H35" s="30">
         <v>0</v>
@@ -3491,6 +3568,9 @@
         <v>1040</v>
       </c>
       <c r="AB35" s="11">
+        <v>1040</v>
+      </c>
+      <c r="AE35" s="11">
         <v>1040</v>
       </c>
     </row>
@@ -3689,7 +3769,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="42" s="11" customFormat="1" spans="1:24">
+    <row r="42" s="11" customFormat="1" spans="1:31">
       <c r="A42" s="11">
         <v>40</v>
       </c>
@@ -3701,11 +3781,11 @@
       </c>
       <c r="F42" s="10">
         <f t="shared" si="3"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="G42" s="10">
         <f>SUM(J42:AM42)</f>
-        <v>4160</v>
+        <v>6240</v>
       </c>
       <c r="H42" s="30">
         <v>0</v>
@@ -3716,8 +3796,11 @@
       <c r="X42" s="11">
         <v>2080</v>
       </c>
-    </row>
-    <row r="43" s="11" customFormat="1" spans="1:29">
+      <c r="AE42" s="11">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="43" s="11" customFormat="1" spans="1:32">
       <c r="A43" s="11">
         <v>41</v>
       </c>
@@ -3729,11 +3812,11 @@
       </c>
       <c r="F43" s="10">
         <f t="shared" si="3"/>
-        <v>34500</v>
+        <v>37500</v>
       </c>
       <c r="G43" s="10">
         <f t="shared" ref="G43:G84" si="5">SUM(I43:AM43)</f>
-        <v>34320</v>
+        <v>37440</v>
       </c>
       <c r="H43" s="30">
         <v>1500</v>
@@ -3771,8 +3854,11 @@
       <c r="AC43" s="11">
         <v>3120</v>
       </c>
-    </row>
-    <row r="44" s="11" customFormat="1" spans="1:20">
+      <c r="AF43" s="11">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="44" s="11" customFormat="1" spans="1:31">
       <c r="A44" s="11">
         <v>42</v>
       </c>
@@ -3784,11 +3870,11 @@
       </c>
       <c r="F44" s="10">
         <f t="shared" si="3"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="G44" s="10">
         <f t="shared" si="5"/>
-        <v>2080</v>
+        <v>4160</v>
       </c>
       <c r="H44" s="30">
         <v>0</v>
@@ -3796,8 +3882,11 @@
       <c r="T44" s="11">
         <v>2080</v>
       </c>
-    </row>
-    <row r="45" s="11" customFormat="1" spans="1:26">
+      <c r="AE44" s="11">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="45" s="11" customFormat="1" spans="1:32">
       <c r="A45" s="11">
         <v>43</v>
       </c>
@@ -3809,11 +3898,11 @@
       </c>
       <c r="F45" s="10">
         <f t="shared" si="3"/>
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="G45" s="10">
         <f t="shared" si="5"/>
-        <v>18720</v>
+        <v>21840</v>
       </c>
       <c r="H45" s="30">
         <v>0</v>
@@ -3836,8 +3925,11 @@
       <c r="Z45" s="11">
         <v>3120</v>
       </c>
-    </row>
-    <row r="46" s="11" customFormat="1" spans="1:25">
+      <c r="AF45" s="11">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="46" s="11" customFormat="1" spans="1:30">
       <c r="A46" s="11">
         <v>44</v>
       </c>
@@ -3849,11 +3941,11 @@
       </c>
       <c r="F46" s="10">
         <f t="shared" si="3"/>
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="G46" s="10">
         <f t="shared" si="5"/>
-        <v>12480</v>
+        <v>15600</v>
       </c>
       <c r="H46" s="30">
         <v>3000</v>
@@ -3870,8 +3962,11 @@
       <c r="Y46" s="11">
         <v>3120</v>
       </c>
-    </row>
-    <row r="47" s="11" customFormat="1" spans="1:24">
+      <c r="AD46" s="11">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="47" s="11" customFormat="1" spans="1:30">
       <c r="A47" s="11">
         <v>45</v>
       </c>
@@ -3883,11 +3978,11 @@
       </c>
       <c r="F47" s="10">
         <f t="shared" si="3"/>
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="G47" s="10">
         <f t="shared" si="5"/>
-        <v>12480</v>
+        <v>15600</v>
       </c>
       <c r="H47" s="30">
         <v>0</v>
@@ -3902,6 +3997,9 @@
         <v>3120</v>
       </c>
       <c r="X47" s="11">
+        <v>3120</v>
+      </c>
+      <c r="AD47" s="11">
         <v>3120</v>
       </c>
     </row>
@@ -3933,7 +4031,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="49" s="11" customFormat="1" spans="1:27">
+    <row r="49" s="11" customFormat="1" spans="1:30">
       <c r="A49" s="11">
         <v>47</v>
       </c>
@@ -3945,11 +4043,11 @@
       </c>
       <c r="F49" s="10">
         <f t="shared" si="3"/>
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="G49" s="10">
         <f t="shared" si="5"/>
-        <v>24960</v>
+        <v>28080</v>
       </c>
       <c r="H49" s="30">
         <v>3000</v>
@@ -3978,8 +4076,11 @@
       <c r="AA49" s="11">
         <v>3120</v>
       </c>
-    </row>
-    <row r="50" s="11" customFormat="1" spans="1:28">
+      <c r="AD49" s="11">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="50" s="11" customFormat="1" spans="1:31">
       <c r="A50" s="11">
         <v>48</v>
       </c>
@@ -3991,11 +4092,11 @@
       </c>
       <c r="F50" s="10">
         <f t="shared" si="3"/>
-        <v>24000</v>
+        <v>27000</v>
       </c>
       <c r="G50" s="10">
         <f t="shared" si="5"/>
-        <v>21840</v>
+        <v>24960</v>
       </c>
       <c r="H50" s="30">
         <v>3000</v>
@@ -4019,6 +4120,9 @@
         <v>3120</v>
       </c>
       <c r="AB50" s="11">
+        <v>3120</v>
+      </c>
+      <c r="AE50" s="11">
         <v>3120</v>
       </c>
     </row>
@@ -4142,7 +4246,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="54" s="11" customFormat="1" spans="1:26">
+    <row r="54" s="11" customFormat="1" spans="1:32">
       <c r="A54" s="11">
         <v>52</v>
       </c>
@@ -4154,11 +4258,11 @@
       </c>
       <c r="F54" s="10">
         <f t="shared" si="3"/>
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="G54" s="10">
         <f t="shared" si="5"/>
-        <v>10400</v>
+        <v>12480</v>
       </c>
       <c r="H54" s="30">
         <v>2000</v>
@@ -4176,6 +4280,9 @@
         <v>2080</v>
       </c>
       <c r="Z54" s="11">
+        <v>2080</v>
+      </c>
+      <c r="AF54" s="11">
         <v>2080</v>
       </c>
     </row>
@@ -4205,7 +4312,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="56" s="11" customFormat="1" spans="1:29">
+    <row r="56" s="11" customFormat="1" spans="1:30">
       <c r="A56" s="11">
         <v>54</v>
       </c>
@@ -4218,11 +4325,11 @@
       </c>
       <c r="F56" s="10">
         <f t="shared" si="3"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="G56" s="10">
         <f t="shared" si="5"/>
-        <v>3120</v>
+        <v>4160</v>
       </c>
       <c r="H56" s="30">
         <v>0</v>
@@ -4234,6 +4341,9 @@
         <v>1040</v>
       </c>
       <c r="AC56" s="11">
+        <v>1040</v>
+      </c>
+      <c r="AD56" s="11">
         <v>1040</v>
       </c>
     </row>
@@ -4260,7 +4370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" s="11" customFormat="1" spans="1:25">
+    <row r="58" s="11" customFormat="1" spans="1:31">
       <c r="A58" s="11">
         <v>56</v>
       </c>
@@ -4272,11 +4382,11 @@
       </c>
       <c r="F58" s="10">
         <f t="shared" si="3"/>
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="G58" s="10">
         <f t="shared" si="5"/>
-        <v>10400</v>
+        <v>12480</v>
       </c>
       <c r="H58" s="30">
         <v>0</v>
@@ -4296,8 +4406,11 @@
       <c r="Y58" s="11">
         <v>2080</v>
       </c>
-    </row>
-    <row r="59" s="11" customFormat="1" spans="1:27">
+      <c r="AE58" s="11">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="59" s="11" customFormat="1" spans="1:30">
       <c r="A59" s="11">
         <v>57</v>
       </c>
@@ -4309,11 +4422,11 @@
       </c>
       <c r="F59" s="10">
         <f t="shared" si="3"/>
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="G59" s="10">
         <f t="shared" si="5"/>
-        <v>26000</v>
+        <v>31200</v>
       </c>
       <c r="H59" s="30">
         <v>5000</v>
@@ -4331,6 +4444,9 @@
         <v>5200</v>
       </c>
       <c r="AA59" s="11">
+        <v>5200</v>
+      </c>
+      <c r="AD59" s="11">
         <v>5200</v>
       </c>
     </row>
@@ -4402,7 +4518,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="62" s="11" customFormat="1" spans="1:28">
+    <row r="62" s="11" customFormat="1" spans="1:32">
       <c r="A62" s="11">
         <v>60</v>
       </c>
@@ -4415,11 +4531,11 @@
       </c>
       <c r="F62" s="10">
         <f t="shared" si="3"/>
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="G62" s="10">
         <f t="shared" si="5"/>
-        <v>20800</v>
+        <v>26000</v>
       </c>
       <c r="H62" s="30">
         <v>5000</v>
@@ -4434,6 +4550,9 @@
         <v>5200</v>
       </c>
       <c r="AB62" s="11">
+        <v>5200</v>
+      </c>
+      <c r="AF62" s="11">
         <v>5200</v>
       </c>
     </row>
@@ -4494,7 +4613,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="65" s="11" customFormat="1" spans="1:26">
+    <row r="65" s="11" customFormat="1" spans="1:30">
       <c r="A65" s="11">
         <v>63</v>
       </c>
@@ -4509,11 +4628,11 @@
       </c>
       <c r="F65" s="10">
         <f t="shared" si="3"/>
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="G65" s="10">
         <f t="shared" si="5"/>
-        <v>4160</v>
+        <v>6240</v>
       </c>
       <c r="H65" s="25">
         <v>2000</v>
@@ -4524,8 +4643,11 @@
       <c r="Z65" s="11">
         <v>2080</v>
       </c>
-    </row>
-    <row r="66" s="11" customFormat="1" spans="1:27">
+      <c r="AD65" s="11">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="66" s="11" customFormat="1" spans="1:31">
       <c r="A66" s="11">
         <v>64</v>
       </c>
@@ -4538,11 +4660,11 @@
       </c>
       <c r="F66" s="10">
         <f t="shared" si="3"/>
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="G66" s="10">
         <f t="shared" si="5"/>
-        <v>12480</v>
+        <v>14560</v>
       </c>
       <c r="H66" s="30">
         <v>2000</v>
@@ -4563,6 +4685,9 @@
         <v>2080</v>
       </c>
       <c r="AA66" s="11">
+        <v>2080</v>
+      </c>
+      <c r="AE66" s="11">
         <v>2080</v>
       </c>
     </row>
@@ -4691,7 +4816,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="71" s="11" customFormat="1" spans="1:29">
+    <row r="71" s="11" customFormat="1" spans="1:32">
       <c r="A71" s="11">
         <v>69</v>
       </c>
@@ -4703,11 +4828,11 @@
       </c>
       <c r="F71" s="10">
         <f t="shared" si="3"/>
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="G71" s="10">
         <f t="shared" si="5"/>
-        <v>4160</v>
+        <v>5200</v>
       </c>
       <c r="H71" s="30">
         <v>0</v>
@@ -4724,8 +4849,11 @@
       <c r="AC71" s="11">
         <v>1040</v>
       </c>
-    </row>
-    <row r="72" s="11" customFormat="1" spans="1:30">
+      <c r="AF71" s="11">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="72" s="11" customFormat="1" spans="1:31">
       <c r="A72" s="11">
         <v>70</v>
       </c>
@@ -4737,11 +4865,11 @@
       </c>
       <c r="F72" s="10">
         <f t="shared" si="3"/>
-        <v>40000</v>
+        <v>45000</v>
       </c>
       <c r="G72" s="10">
         <f t="shared" si="5"/>
-        <v>36400</v>
+        <v>41600</v>
       </c>
       <c r="H72" s="30">
         <v>5000</v>
@@ -4765,6 +4893,9 @@
         <v>5200</v>
       </c>
       <c r="AD72" s="11">
+        <v>5200</v>
+      </c>
+      <c r="AE72" s="11">
         <v>5200</v>
       </c>
     </row>
@@ -4891,7 +5022,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="77" s="11" customFormat="1" spans="1:29">
+    <row r="77" s="11" customFormat="1" spans="1:31">
       <c r="A77" s="11">
         <v>75</v>
       </c>
@@ -4903,11 +5034,11 @@
       </c>
       <c r="F77" s="10">
         <f t="shared" si="3"/>
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="G77" s="10">
         <f t="shared" si="5"/>
-        <v>11440</v>
+        <v>12480</v>
       </c>
       <c r="H77" s="30">
         <v>2000</v>
@@ -4940,6 +5071,9 @@
         <v>1040</v>
       </c>
       <c r="AC77" s="11">
+        <v>1040</v>
+      </c>
+      <c r="AE77" s="11">
         <v>1040</v>
       </c>
     </row>
@@ -4989,7 +5123,7 @@
         <v>3120</v>
       </c>
     </row>
-    <row r="79" s="11" customFormat="1" spans="1:25">
+    <row r="79" s="11" customFormat="1" spans="1:31">
       <c r="A79" s="11">
         <v>77</v>
       </c>
@@ -5001,11 +5135,11 @@
       </c>
       <c r="F79" s="10">
         <f t="shared" si="3"/>
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="G79" s="10">
         <f t="shared" si="5"/>
-        <v>12480</v>
+        <v>16640</v>
       </c>
       <c r="H79" s="30">
         <v>3000</v>
@@ -5026,6 +5160,12 @@
         <v>2080</v>
       </c>
       <c r="Y79" s="11">
+        <v>2080</v>
+      </c>
+      <c r="AD79" s="11">
+        <v>2080</v>
+      </c>
+      <c r="AE79" s="11">
         <v>2080</v>
       </c>
     </row>
@@ -5073,7 +5213,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="81" s="11" customFormat="1" spans="1:27">
+    <row r="81" s="11" customFormat="1" spans="1:32">
       <c r="A81" s="11">
         <v>79</v>
       </c>
@@ -5086,11 +5226,11 @@
       </c>
       <c r="F81" s="10">
         <f t="shared" si="3"/>
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="G81" s="10">
         <f t="shared" si="5"/>
-        <v>7280</v>
+        <v>8320</v>
       </c>
       <c r="H81" s="30">
         <v>0</v>
@@ -5114,6 +5254,9 @@
         <v>1040</v>
       </c>
       <c r="AA81" s="11">
+        <v>1040</v>
+      </c>
+      <c r="AF81" s="11">
         <v>1040</v>
       </c>
     </row>
@@ -5137,7 +5280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" s="11" customFormat="1" spans="1:24">
+    <row r="83" s="11" customFormat="1" spans="1:31">
       <c r="A83" s="11">
         <v>81</v>
       </c>
@@ -5150,11 +5293,11 @@
       </c>
       <c r="F83" s="10">
         <f t="shared" ref="F83:F96" si="6">G83/1.04+H83</f>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="G83" s="10">
         <f t="shared" si="5"/>
-        <v>4160</v>
+        <v>6240</v>
       </c>
       <c r="H83" s="30">
         <v>-2000</v>
@@ -5163,6 +5306,9 @@
         <v>2080</v>
       </c>
       <c r="X83" s="11">
+        <v>2080</v>
+      </c>
+      <c r="AE83" s="11">
         <v>2080</v>
       </c>
     </row>
@@ -5198,7 +5344,7 @@
       <c r="S84" s="36"/>
       <c r="T84" s="36"/>
     </row>
-    <row r="85" s="11" customFormat="1" spans="1:27">
+    <row r="85" s="11" customFormat="1" spans="1:32">
       <c r="A85" s="11">
         <v>83</v>
       </c>
@@ -5211,11 +5357,11 @@
       </c>
       <c r="F85" s="10">
         <f t="shared" si="6"/>
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="G85" s="10">
         <f>SUM(J85:AM85)</f>
-        <v>26000</v>
+        <v>31200</v>
       </c>
       <c r="H85" s="30">
         <v>0</v>
@@ -5233,6 +5379,9 @@
         <v>5200</v>
       </c>
       <c r="AA85" s="11">
+        <v>5200</v>
+      </c>
+      <c r="AF85" s="11">
         <v>5200</v>
       </c>
     </row>
@@ -5261,7 +5410,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="87" s="11" customFormat="1" spans="1:27">
+    <row r="87" s="11" customFormat="1" spans="1:31">
       <c r="A87" s="11">
         <v>85</v>
       </c>
@@ -5277,11 +5426,11 @@
       </c>
       <c r="F87" s="10">
         <f t="shared" si="6"/>
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="G87" s="10">
         <f t="shared" si="7"/>
-        <v>6240</v>
+        <v>8320</v>
       </c>
       <c r="H87" s="30">
         <v>0</v>
@@ -5293,6 +5442,9 @@
         <v>2080</v>
       </c>
       <c r="AA87" s="38">
+        <v>2080</v>
+      </c>
+      <c r="AE87" s="38">
         <v>2080</v>
       </c>
     </row>
@@ -5601,11 +5753,11 @@
   <dimension ref="A1:AM96"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="V3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="2" topLeftCell="X4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Y13" sqref="Y13"/>
+      <selection pane="bottomRight" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -5746,17 +5898,17 @@
       <c r="E2" s="13"/>
       <c r="F2" s="14">
         <f>SUM(H3:H121)</f>
-        <v>880700</v>
+        <v>1064900</v>
       </c>
       <c r="G2" s="15" t="s">
         <v>8</v>
       </c>
       <c r="H2" s="16">
         <f t="shared" ref="H2:H65" si="0">SUM(I2:AM2)</f>
-        <v>880700</v>
+        <v>1064900</v>
       </c>
       <c r="I2" s="10">
-        <f t="shared" ref="I2:AA2" si="1">SUM(I3:I121)</f>
+        <f t="shared" ref="I2:AB2" si="1">SUM(I3:I121)</f>
         <v>58700</v>
       </c>
       <c r="J2" s="10">
@@ -5832,7 +5984,7 @@
         <v>12000</v>
       </c>
       <c r="AB2" s="22">
-        <f>SUM(AB3:AB121)</f>
+        <f t="shared" si="1"/>
         <v>57000</v>
       </c>
       <c r="AC2" s="10">
@@ -5841,15 +5993,15 @@
       </c>
       <c r="AD2" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>79000</v>
       </c>
       <c r="AE2" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>77700</v>
       </c>
       <c r="AF2" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>27500</v>
       </c>
       <c r="AG2" s="10">
         <f t="shared" si="2"/>
@@ -5905,7 +6057,7 @@
       </c>
       <c r="AB3" s="1"/>
     </row>
-    <row r="4" s="11" customFormat="1" spans="1:28">
+    <row r="4" s="11" customFormat="1" spans="1:31">
       <c r="A4" s="11">
         <v>2</v>
       </c>
@@ -5929,7 +6081,7 @@
       </c>
       <c r="H4" s="10">
         <f t="shared" si="0"/>
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="I4" s="19">
         <v>2000</v>
@@ -5938,6 +6090,9 @@
         <v>4000</v>
       </c>
       <c r="AB4" s="1"/>
+      <c r="AE4" s="20">
+        <v>2000</v>
+      </c>
     </row>
     <row r="5" s="11" customFormat="1" spans="1:28">
       <c r="A5" s="11">
@@ -5979,7 +6134,7 @@
       </c>
       <c r="AB5" s="1"/>
     </row>
-    <row r="6" s="11" customFormat="1" spans="1:28">
+    <row r="6" s="11" customFormat="1" spans="1:32">
       <c r="A6" s="11">
         <v>4</v>
       </c>
@@ -6003,7 +6158,7 @@
       </c>
       <c r="H6" s="10">
         <f t="shared" si="0"/>
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="I6" s="19">
         <v>3000</v>
@@ -6026,8 +6181,11 @@
       <c r="AB6" s="23">
         <v>2000</v>
       </c>
-    </row>
-    <row r="7" s="11" customFormat="1" spans="1:28">
+      <c r="AF6" s="20">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="7" s="11" customFormat="1" spans="1:30">
       <c r="A7" s="11">
         <v>5</v>
       </c>
@@ -6051,7 +6209,7 @@
       </c>
       <c r="H7" s="10">
         <f t="shared" si="0"/>
-        <v>35000</v>
+        <v>45000</v>
       </c>
       <c r="J7" s="19">
         <v>620</v>
@@ -6072,8 +6230,11 @@
         <v>8000</v>
       </c>
       <c r="AB7" s="1"/>
-    </row>
-    <row r="8" s="11" customFormat="1" spans="1:28">
+      <c r="AD7" s="20">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="8" s="11" customFormat="1" spans="1:30">
       <c r="A8" s="11">
         <v>6</v>
       </c>
@@ -6091,7 +6252,7 @@
       </c>
       <c r="H8" s="10">
         <f t="shared" si="0"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="K8" s="11">
         <v>2000</v>
@@ -6100,6 +6261,9 @@
         <v>2000</v>
       </c>
       <c r="AB8" s="1"/>
+      <c r="AD8" s="11">
+        <v>2000</v>
+      </c>
     </row>
     <row r="9" s="11" customFormat="1" spans="1:28">
       <c r="A9" s="11">
@@ -6132,7 +6296,7 @@
       </c>
       <c r="AB9" s="1"/>
     </row>
-    <row r="10" s="11" customFormat="1" spans="1:28">
+    <row r="10" s="11" customFormat="1" spans="1:30">
       <c r="A10" s="11">
         <v>8</v>
       </c>
@@ -6150,7 +6314,7 @@
       </c>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="I10" s="11">
         <v>5000</v>
@@ -6169,6 +6333,9 @@
       </c>
       <c r="AB10" s="1">
         <v>3000</v>
+      </c>
+      <c r="AD10" s="11">
+        <v>5000</v>
       </c>
     </row>
     <row r="11" s="11" customFormat="1" spans="1:28">
@@ -6202,7 +6369,7 @@
       </c>
       <c r="AB11" s="1"/>
     </row>
-    <row r="12" s="11" customFormat="1" spans="1:28">
+    <row r="12" s="11" customFormat="1" spans="1:31">
       <c r="A12" s="11">
         <v>10</v>
       </c>
@@ -6220,7 +6387,7 @@
       </c>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="J12" s="11">
         <v>1500</v>
@@ -6238,8 +6405,14 @@
         <v>1000</v>
       </c>
       <c r="AB12" s="1"/>
-    </row>
-    <row r="13" s="11" customFormat="1" spans="1:28">
+      <c r="AD12" s="11">
+        <v>2000</v>
+      </c>
+      <c r="AE12" s="11">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" s="11" customFormat="1" spans="1:30">
       <c r="A13" s="11">
         <v>11</v>
       </c>
@@ -6257,7 +6430,7 @@
       </c>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="L13" s="11">
         <v>5000</v>
@@ -6272,8 +6445,11 @@
         <v>5000</v>
       </c>
       <c r="AB13" s="1"/>
-    </row>
-    <row r="14" s="11" customFormat="1" spans="1:28">
+      <c r="AD13" s="20">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="14" s="11" customFormat="1" spans="1:32">
       <c r="A14" s="11">
         <v>12</v>
       </c>
@@ -6297,7 +6473,7 @@
       </c>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>39500</v>
+        <v>45500</v>
       </c>
       <c r="I14" s="11">
         <v>4500</v>
@@ -6338,8 +6514,17 @@
       <c r="AB14" s="1">
         <v>3000</v>
       </c>
-    </row>
-    <row r="15" s="11" customFormat="1" spans="1:28">
+      <c r="AD14" s="11">
+        <v>2000</v>
+      </c>
+      <c r="AE14" s="11">
+        <v>2000</v>
+      </c>
+      <c r="AF14" s="11">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="15" s="11" customFormat="1" spans="1:31">
       <c r="A15" s="11">
         <v>13</v>
       </c>
@@ -6360,7 +6545,7 @@
       </c>
       <c r="H15" s="10">
         <f t="shared" si="0"/>
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="I15" s="11">
         <v>2000</v>
@@ -6375,6 +6560,9 @@
         <v>2000</v>
       </c>
       <c r="AB15" s="1"/>
+      <c r="AE15" s="11">
+        <v>2000</v>
+      </c>
     </row>
     <row r="16" s="11" customFormat="1" spans="1:28">
       <c r="A16" s="11">
@@ -6457,7 +6645,7 @@
       </c>
       <c r="AB18" s="1"/>
     </row>
-    <row r="19" s="11" customFormat="1" spans="1:28">
+    <row r="19" s="11" customFormat="1" spans="1:32">
       <c r="A19" s="11">
         <v>17</v>
       </c>
@@ -6481,7 +6669,7 @@
       </c>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="J19" s="11">
         <v>1000</v>
@@ -6499,8 +6687,11 @@
         <v>2000</v>
       </c>
       <c r="AB19" s="1"/>
-    </row>
-    <row r="20" s="11" customFormat="1" spans="1:28">
+      <c r="AF19" s="11">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="20" s="11" customFormat="1" spans="1:32">
       <c r="A20" s="11">
         <v>18</v>
       </c>
@@ -6524,7 +6715,7 @@
       </c>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="L20" s="19">
         <v>5000</v>
@@ -6539,6 +6730,9 @@
         <v>5000</v>
       </c>
       <c r="AB20" s="1"/>
+      <c r="AF20" s="20">
+        <v>5000</v>
+      </c>
     </row>
     <row r="21" s="11" customFormat="1" spans="1:28">
       <c r="A21" s="11">
@@ -6577,7 +6771,7 @@
       </c>
       <c r="AB21" s="1"/>
     </row>
-    <row r="22" s="11" customFormat="1" spans="1:28">
+    <row r="22" s="11" customFormat="1" spans="1:30">
       <c r="A22" s="11">
         <v>20</v>
       </c>
@@ -6595,7 +6789,7 @@
       </c>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="J22" s="11">
         <v>1000</v>
@@ -6610,8 +6804,11 @@
         <v>1000</v>
       </c>
       <c r="AB22" s="1"/>
-    </row>
-    <row r="23" s="11" customFormat="1" spans="1:28">
+      <c r="AD22" s="11">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="23" s="11" customFormat="1" spans="1:30">
       <c r="A23" s="11">
         <v>21</v>
       </c>
@@ -6635,7 +6832,7 @@
       </c>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="Q23" s="19">
         <v>5000</v>
@@ -6644,8 +6841,11 @@
         <v>10000</v>
       </c>
       <c r="AB23" s="1"/>
-    </row>
-    <row r="24" s="11" customFormat="1" spans="1:28">
+      <c r="AD23" s="20">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="24" s="11" customFormat="1" spans="1:30">
       <c r="A24" s="11">
         <v>22</v>
       </c>
@@ -6663,7 +6863,7 @@
       </c>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="I24" s="11">
         <v>1000</v>
@@ -6689,8 +6889,11 @@
       <c r="AB24" s="1">
         <v>1000</v>
       </c>
-    </row>
-    <row r="25" s="11" customFormat="1" spans="1:28">
+      <c r="AD24" s="11">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="25" s="11" customFormat="1" spans="1:30">
       <c r="A25" s="11">
         <v>23</v>
       </c>
@@ -6714,7 +6917,7 @@
       </c>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="K25" s="11">
         <v>3000</v>
@@ -6732,8 +6935,11 @@
         <v>3000</v>
       </c>
       <c r="AB25" s="1"/>
-    </row>
-    <row r="26" s="11" customFormat="1" spans="1:28">
+      <c r="AD25" s="11">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="26" s="11" customFormat="1" spans="1:30">
       <c r="A26" s="11">
         <v>24</v>
       </c>
@@ -6757,7 +6963,7 @@
       </c>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="I26" s="19">
         <v>5000</v>
@@ -6778,8 +6984,11 @@
         <v>5000</v>
       </c>
       <c r="AB26" s="1"/>
-    </row>
-    <row r="27" s="11" customFormat="1" spans="1:28">
+      <c r="AD26" s="20">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="27" s="11" customFormat="1" spans="1:31">
       <c r="A27" s="11">
         <v>25</v>
       </c>
@@ -6797,7 +7006,7 @@
       </c>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="I27" s="11">
         <v>3000</v>
@@ -6808,8 +7017,14 @@
       <c r="AB27" s="1">
         <v>2500</v>
       </c>
-    </row>
-    <row r="28" s="11" customFormat="1" spans="1:28">
+      <c r="AD27" s="20">
+        <v>3000</v>
+      </c>
+      <c r="AE27" s="11">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="28" s="11" customFormat="1" spans="1:32">
       <c r="A28" s="11">
         <v>26</v>
       </c>
@@ -6827,7 +7042,7 @@
       </c>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>11500</v>
+        <v>13500</v>
       </c>
       <c r="K28" s="11">
         <v>1500</v>
@@ -6859,8 +7074,14 @@
       <c r="AB28" s="1">
         <v>2000</v>
       </c>
-    </row>
-    <row r="29" s="11" customFormat="1" spans="1:28">
+      <c r="AD28" s="11">
+        <v>1000</v>
+      </c>
+      <c r="AF28" s="20">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="29" s="11" customFormat="1" spans="1:31">
       <c r="A29" s="11">
         <v>27</v>
       </c>
@@ -6878,7 +7099,7 @@
       </c>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L29" s="11">
         <v>2000</v>
@@ -6887,6 +7108,9 @@
         <v>2000</v>
       </c>
       <c r="AB29" s="1">
+        <v>2000</v>
+      </c>
+      <c r="AE29" s="11">
         <v>2000</v>
       </c>
     </row>
@@ -6924,7 +7148,7 @@
       </c>
       <c r="AB30" s="1"/>
     </row>
-    <row r="31" s="11" customFormat="1" spans="1:28">
+    <row r="31" s="11" customFormat="1" spans="1:32">
       <c r="A31" s="11">
         <v>29</v>
       </c>
@@ -6945,7 +7169,7 @@
       </c>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="J31" s="11">
         <v>5500</v>
@@ -6957,8 +7181,11 @@
         <v>5500</v>
       </c>
       <c r="AB31" s="1"/>
-    </row>
-    <row r="32" s="11" customFormat="1" spans="1:28">
+      <c r="AF31" s="11">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="32" s="11" customFormat="1" spans="1:31">
       <c r="A32" s="11">
         <v>30</v>
       </c>
@@ -6979,7 +7206,7 @@
       </c>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="N32" s="19">
         <v>10000</v>
@@ -6991,8 +7218,11 @@
         <v>10000</v>
       </c>
       <c r="AB32" s="1"/>
-    </row>
-    <row r="33" s="11" customFormat="1" spans="1:28">
+      <c r="AE32" s="11">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="33" s="11" customFormat="1" spans="1:32">
       <c r="A33" s="11">
         <v>31</v>
       </c>
@@ -7007,7 +7237,7 @@
       </c>
       <c r="H33" s="10">
         <f t="shared" si="0"/>
-        <v>11000</v>
+        <v>12500</v>
       </c>
       <c r="I33" s="11">
         <v>1000</v>
@@ -7042,8 +7272,14 @@
       <c r="AB33" s="1">
         <v>1000</v>
       </c>
-    </row>
-    <row r="34" s="11" customFormat="1" spans="1:28">
+      <c r="AE33" s="11">
+        <v>1000</v>
+      </c>
+      <c r="AF33" s="11">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="34" s="11" customFormat="1" spans="1:31">
       <c r="A34" s="11">
         <v>32</v>
       </c>
@@ -7064,7 +7300,7 @@
       </c>
       <c r="H34" s="10">
         <f t="shared" si="0"/>
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="I34" s="11">
         <v>1000</v>
@@ -7087,8 +7323,11 @@
       <c r="AB34" s="1">
         <v>1000</v>
       </c>
-    </row>
-    <row r="35" s="11" customFormat="1" spans="1:28">
+      <c r="AE34" s="11">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="35" s="11" customFormat="1" spans="1:31">
       <c r="A35" s="11">
         <v>33</v>
       </c>
@@ -7103,7 +7342,7 @@
       </c>
       <c r="H35" s="10">
         <f t="shared" si="0"/>
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="K35" s="11">
         <v>1000</v>
@@ -7118,6 +7357,9 @@
         <v>1000</v>
       </c>
       <c r="AB35" s="1"/>
+      <c r="AE35" s="11">
+        <v>2000</v>
+      </c>
     </row>
     <row r="36" s="11" customFormat="1" spans="1:28">
       <c r="A36" s="11">
@@ -7147,7 +7389,7 @@
       </c>
       <c r="AB36" s="1"/>
     </row>
-    <row r="37" s="11" customFormat="1" spans="1:29">
+    <row r="37" s="11" customFormat="1" spans="1:30">
       <c r="A37" s="11">
         <v>35</v>
       </c>
@@ -7162,7 +7404,7 @@
       </c>
       <c r="H37" s="10">
         <f t="shared" si="0"/>
-        <v>24000</v>
+        <v>27000</v>
       </c>
       <c r="J37" s="19">
         <v>3000</v>
@@ -7189,6 +7431,9 @@
       <c r="AC37" s="20">
         <v>3000</v>
       </c>
+      <c r="AD37" s="20">
+        <v>3000</v>
+      </c>
     </row>
     <row r="38" s="11" customFormat="1" spans="1:28">
       <c r="A38" s="11">
@@ -7212,7 +7457,7 @@
       </c>
       <c r="AB38" s="1"/>
     </row>
-    <row r="39" s="11" customFormat="1" spans="1:28">
+    <row r="39" s="11" customFormat="1" spans="1:30">
       <c r="A39" s="11">
         <v>37</v>
       </c>
@@ -7233,7 +7478,7 @@
       </c>
       <c r="H39" s="10">
         <f t="shared" si="0"/>
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="K39" s="19">
         <v>3000</v>
@@ -7245,6 +7490,9 @@
         <v>3000</v>
       </c>
       <c r="AB39" s="1"/>
+      <c r="AD39" s="20">
+        <v>3000</v>
+      </c>
     </row>
     <row r="40" s="11" customFormat="1" spans="1:28">
       <c r="A40" s="11">
@@ -7280,7 +7528,7 @@
       </c>
       <c r="AB40" s="1"/>
     </row>
-    <row r="41" s="11" customFormat="1" spans="1:28">
+    <row r="41" s="11" customFormat="1" spans="1:30">
       <c r="A41" s="11">
         <v>39</v>
       </c>
@@ -7295,7 +7543,7 @@
       </c>
       <c r="H41" s="10">
         <f t="shared" si="0"/>
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P41" s="11">
         <v>4000</v>
@@ -7304,6 +7552,9 @@
         <v>4000</v>
       </c>
       <c r="AB41" s="1"/>
+      <c r="AD41" s="11">
+        <v>2000</v>
+      </c>
     </row>
     <row r="42" s="11" customFormat="1" spans="1:28">
       <c r="A42" s="11">
@@ -7330,7 +7581,7 @@
       </c>
       <c r="AB42" s="1"/>
     </row>
-    <row r="43" s="11" customFormat="1" spans="1:28">
+    <row r="43" s="11" customFormat="1" spans="1:30">
       <c r="A43" s="11">
         <v>41</v>
       </c>
@@ -7348,7 +7599,7 @@
       </c>
       <c r="H43" s="10">
         <f t="shared" si="0"/>
-        <v>28500</v>
+        <v>31500</v>
       </c>
       <c r="J43" s="11">
         <v>1500</v>
@@ -7378,8 +7629,11 @@
         <v>3000</v>
       </c>
       <c r="AB43" s="1"/>
-    </row>
-    <row r="44" s="11" customFormat="1" spans="1:28">
+      <c r="AD43" s="11">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="44" s="11" customFormat="1" spans="1:31">
       <c r="A44" s="11">
         <v>42</v>
       </c>
@@ -7394,12 +7648,15 @@
       </c>
       <c r="H44" s="10">
         <f t="shared" si="0"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="R44" s="11">
         <v>2000</v>
       </c>
       <c r="AB44" s="1"/>
+      <c r="AE44" s="11">
+        <v>2000</v>
+      </c>
     </row>
     <row r="45" s="11" customFormat="1" spans="1:28">
       <c r="A45" s="11">
@@ -7474,7 +7731,7 @@
       </c>
       <c r="AB46" s="1"/>
     </row>
-    <row r="47" s="11" customFormat="1" spans="1:28">
+    <row r="47" s="11" customFormat="1" spans="1:31">
       <c r="A47" s="11">
         <v>45</v>
       </c>
@@ -7489,7 +7746,7 @@
       </c>
       <c r="H47" s="10">
         <f t="shared" si="0"/>
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L47" s="11">
         <v>2100</v>
@@ -7507,6 +7764,9 @@
         <v>3000</v>
       </c>
       <c r="AB47" s="1"/>
+      <c r="AE47" s="11">
+        <v>3000</v>
+      </c>
     </row>
     <row r="48" s="11" customFormat="1" spans="1:28">
       <c r="A48" s="11">
@@ -7538,7 +7798,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="49" s="11" customFormat="1" spans="1:28">
+    <row r="49" s="11" customFormat="1" spans="1:30">
       <c r="A49" s="11">
         <v>47</v>
       </c>
@@ -7562,7 +7822,7 @@
       </c>
       <c r="H49" s="10">
         <f t="shared" si="0"/>
-        <v>24000</v>
+        <v>27000</v>
       </c>
       <c r="J49" s="19">
         <v>4000</v>
@@ -7585,8 +7845,11 @@
       <c r="AB49" s="1">
         <v>4500</v>
       </c>
-    </row>
-    <row r="50" s="11" customFormat="1" spans="1:28">
+      <c r="AD49" s="11">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="50" s="11" customFormat="1" spans="1:31">
       <c r="A50" s="11">
         <v>48</v>
       </c>
@@ -7610,7 +7873,7 @@
       </c>
       <c r="H50" s="10">
         <f t="shared" si="0"/>
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="K50" s="19">
         <v>3000</v>
@@ -7628,8 +7891,11 @@
         <v>3000</v>
       </c>
       <c r="AB50" s="1"/>
-    </row>
-    <row r="51" s="11" customFormat="1" spans="1:28">
+      <c r="AE50" s="11">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="51" s="11" customFormat="1" spans="1:30">
       <c r="A51" s="11">
         <v>49</v>
       </c>
@@ -7650,7 +7916,7 @@
       </c>
       <c r="H51" s="10">
         <f t="shared" si="0"/>
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M51" s="11">
         <v>2000</v>
@@ -7662,6 +7928,9 @@
         <v>2000</v>
       </c>
       <c r="AB51" s="1"/>
+      <c r="AD51" s="20">
+        <v>2000</v>
+      </c>
     </row>
     <row r="52" s="11" customFormat="1" spans="1:28">
       <c r="A52" s="11">
@@ -7792,7 +8061,7 @@
       </c>
       <c r="AB55" s="1"/>
     </row>
-    <row r="56" s="11" customFormat="1" spans="1:28">
+    <row r="56" s="11" customFormat="1" spans="1:31">
       <c r="A56" s="11">
         <v>54</v>
       </c>
@@ -7813,12 +8082,15 @@
       </c>
       <c r="H56" s="10">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="N56" s="19">
         <v>1000</v>
       </c>
       <c r="AB56" s="1"/>
+      <c r="AE56" s="20">
+        <v>3000</v>
+      </c>
     </row>
     <row r="57" s="11" customFormat="1" spans="1:28">
       <c r="A57" s="11">
@@ -7842,7 +8114,7 @@
       </c>
       <c r="AB57" s="1"/>
     </row>
-    <row r="58" s="11" customFormat="1" spans="1:28">
+    <row r="58" s="11" customFormat="1" spans="1:31">
       <c r="A58" s="11">
         <v>56</v>
       </c>
@@ -7860,7 +8132,7 @@
       </c>
       <c r="H58" s="10">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="J58" s="11">
         <v>2000</v>
@@ -7872,8 +8144,11 @@
         <v>4000</v>
       </c>
       <c r="AB58" s="1"/>
-    </row>
-    <row r="59" s="11" customFormat="1" spans="1:28">
+      <c r="AE58" s="11">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="59" s="11" customFormat="1" spans="1:31">
       <c r="A59" s="11">
         <v>57</v>
       </c>
@@ -7894,7 +8169,7 @@
       </c>
       <c r="H59" s="10">
         <f t="shared" si="0"/>
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="P59" s="19">
         <v>15000</v>
@@ -7903,6 +8178,9 @@
         <v>10000</v>
       </c>
       <c r="AB59" s="1"/>
+      <c r="AE59" s="11">
+        <v>10000</v>
+      </c>
     </row>
     <row r="60" s="11" customFormat="1" spans="1:28">
       <c r="A60" s="11">
@@ -7929,7 +8207,7 @@
       </c>
       <c r="AB60" s="1"/>
     </row>
-    <row r="61" s="11" customFormat="1" spans="1:28">
+    <row r="61" s="11" customFormat="1" spans="1:31">
       <c r="A61" s="11">
         <v>59</v>
       </c>
@@ -7944,7 +8222,7 @@
       </c>
       <c r="H61" s="10">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="J61" s="11">
         <v>2000</v>
@@ -7959,8 +8237,11 @@
         <v>4000</v>
       </c>
       <c r="AB61" s="1"/>
-    </row>
-    <row r="62" s="11" customFormat="1" spans="1:28">
+      <c r="AE61" s="11">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="62" s="11" customFormat="1" spans="1:30">
       <c r="A62" s="11">
         <v>60</v>
       </c>
@@ -7984,7 +8265,7 @@
       </c>
       <c r="H62" s="10">
         <f t="shared" si="0"/>
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="I62" s="11">
         <v>5000</v>
@@ -7993,6 +8274,9 @@
         <v>10000</v>
       </c>
       <c r="AB62" s="1"/>
+      <c r="AD62" s="20">
+        <v>5000</v>
+      </c>
     </row>
     <row r="63" s="11" customFormat="1" spans="1:28">
       <c r="A63" s="11">
@@ -8019,7 +8303,7 @@
       </c>
       <c r="AB63" s="1"/>
     </row>
-    <row r="64" s="11" customFormat="1" spans="1:28">
+    <row r="64" s="11" customFormat="1" spans="1:30">
       <c r="A64" s="11">
         <v>62</v>
       </c>
@@ -8043,14 +8327,17 @@
       </c>
       <c r="H64" s="10">
         <f t="shared" si="0"/>
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P64" s="19">
         <v>5000</v>
       </c>
       <c r="AB64" s="1"/>
-    </row>
-    <row r="65" s="11" customFormat="1" spans="1:28">
+      <c r="AD64" s="20">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="65" s="11" customFormat="1" spans="1:31">
       <c r="A65" s="11">
         <v>63</v>
       </c>
@@ -8074,7 +8361,7 @@
       </c>
       <c r="H65" s="10">
         <f t="shared" si="0"/>
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="J65" s="19">
         <v>2000</v>
@@ -8086,6 +8373,9 @@
         <v>2000</v>
       </c>
       <c r="AB65" s="1"/>
+      <c r="AE65" s="20">
+        <v>2000</v>
+      </c>
     </row>
     <row r="66" s="11" customFormat="1" spans="1:29">
       <c r="A66" s="11">
@@ -8121,7 +8411,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="67" s="11" customFormat="1" spans="1:28">
+    <row r="67" s="11" customFormat="1" spans="1:32">
       <c r="A67" s="11">
         <v>65</v>
       </c>
@@ -8136,7 +8426,7 @@
       </c>
       <c r="H67" s="10">
         <f t="shared" si="3"/>
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="J67" s="11">
         <v>1500</v>
@@ -8145,6 +8435,12 @@
         <v>2000</v>
       </c>
       <c r="AB67" s="1"/>
+      <c r="AD67" s="11">
+        <v>2000</v>
+      </c>
+      <c r="AF67" s="11">
+        <v>1000</v>
+      </c>
     </row>
     <row r="68" s="11" customFormat="1" spans="1:28">
       <c r="A68" s="11">
@@ -8221,7 +8517,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="71" s="11" customFormat="1" spans="1:28">
+    <row r="71" s="11" customFormat="1" spans="1:31">
       <c r="A71" s="11">
         <v>69</v>
       </c>
@@ -8236,7 +8532,7 @@
       </c>
       <c r="H71" s="10">
         <f t="shared" si="3"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L71" s="11">
         <v>1000</v>
@@ -8248,8 +8544,11 @@
         <v>1000</v>
       </c>
       <c r="AB71" s="1"/>
-    </row>
-    <row r="72" s="11" customFormat="1" spans="1:28">
+      <c r="AE71" s="11">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="72" s="11" customFormat="1" spans="1:32">
       <c r="A72" s="11">
         <v>70</v>
       </c>
@@ -8264,7 +8563,7 @@
       </c>
       <c r="H72" s="10">
         <f t="shared" si="3"/>
-        <v>35000</v>
+        <v>45000</v>
       </c>
       <c r="I72" s="11">
         <v>5000</v>
@@ -8282,6 +8581,12 @@
         <v>10000</v>
       </c>
       <c r="AB72" s="1">
+        <v>5000</v>
+      </c>
+      <c r="AE72" s="11">
+        <v>5000</v>
+      </c>
+      <c r="AF72" s="11">
         <v>5000</v>
       </c>
     </row>
@@ -8316,7 +8621,7 @@
       </c>
       <c r="AB73" s="1"/>
     </row>
-    <row r="74" s="11" customFormat="1" spans="1:28">
+    <row r="74" s="11" customFormat="1" spans="1:31">
       <c r="A74" s="11">
         <v>72</v>
       </c>
@@ -8340,7 +8645,7 @@
       </c>
       <c r="H74" s="10">
         <f t="shared" si="3"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="R74" s="19">
         <v>2000</v>
@@ -8349,6 +8654,9 @@
         <v>2000</v>
       </c>
       <c r="AB74" s="1"/>
+      <c r="AE74" s="11">
+        <v>2000</v>
+      </c>
     </row>
     <row r="75" s="11" customFormat="1" spans="1:28">
       <c r="A75" s="11">
@@ -8399,7 +8707,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="77" s="11" customFormat="1" spans="1:28">
+    <row r="77" s="11" customFormat="1" spans="1:31">
       <c r="A77" s="11">
         <v>75</v>
       </c>
@@ -8423,7 +8731,7 @@
       </c>
       <c r="H77" s="10">
         <f t="shared" si="3"/>
-        <v>10100</v>
+        <v>11800</v>
       </c>
       <c r="J77" s="11">
         <v>1200</v>
@@ -8450,6 +8758,12 @@
         <v>1500</v>
       </c>
       <c r="AB77" s="1"/>
+      <c r="AD77" s="20">
+        <v>1000</v>
+      </c>
+      <c r="AE77" s="11">
+        <v>700</v>
+      </c>
     </row>
     <row r="78" s="11" customFormat="1" spans="1:28">
       <c r="A78" s="11">
@@ -8490,7 +8804,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="79" s="11" customFormat="1" spans="1:28">
+    <row r="79" s="11" customFormat="1" spans="1:32">
       <c r="A79" s="11">
         <v>77</v>
       </c>
@@ -8511,7 +8825,7 @@
       </c>
       <c r="H79" s="10">
         <f t="shared" si="3"/>
-        <v>14500</v>
+        <v>19000</v>
       </c>
       <c r="I79" s="11">
         <v>2000</v>
@@ -8532,6 +8846,12 @@
         <v>3500</v>
       </c>
       <c r="AB79" s="1"/>
+      <c r="AE79" s="11">
+        <v>2500</v>
+      </c>
+      <c r="AF79" s="11">
+        <v>2000</v>
+      </c>
     </row>
     <row r="80" s="11" customFormat="1" spans="1:28">
       <c r="A80" s="11">
@@ -8634,7 +8954,7 @@
       </c>
       <c r="AB84" s="1"/>
     </row>
-    <row r="85" s="11" customFormat="1" spans="1:28">
+    <row r="85" s="11" customFormat="1" spans="1:31">
       <c r="A85" s="11">
         <v>83</v>
       </c>
@@ -8655,7 +8975,7 @@
       </c>
       <c r="H85" s="10">
         <f t="shared" si="3"/>
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="K85" s="19">
         <v>5000</v>
@@ -8664,6 +8984,9 @@
         <v>10000</v>
       </c>
       <c r="AB85" s="1"/>
+      <c r="AE85" s="20">
+        <v>10000</v>
+      </c>
     </row>
     <row r="86" s="11" customFormat="1" spans="1:28">
       <c r="A86" s="11">
@@ -8690,7 +9013,7 @@
       </c>
       <c r="AB86" s="1"/>
     </row>
-    <row r="87" s="11" customFormat="1" spans="1:28">
+    <row r="87" s="11" customFormat="1" spans="1:31">
       <c r="A87" s="11">
         <v>85</v>
       </c>
@@ -8714,7 +9037,7 @@
       </c>
       <c r="H87" s="10">
         <f t="shared" si="3"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="I87" s="19">
         <v>2000</v>
@@ -8723,6 +9046,9 @@
         <v>2000</v>
       </c>
       <c r="AB87" s="1"/>
+      <c r="AE87" s="20">
+        <v>2000</v>
+      </c>
     </row>
     <row r="88" s="11" customFormat="1" spans="1:28">
       <c r="A88" s="11">
@@ -8909,8 +9235,8 @@
   <sheetPr/>
   <dimension ref="A1:D96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="D94" sqref="A1:D94"/>
+    <sheetView topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="D105" sqref="D105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -8946,7 +9272,7 @@
       </c>
       <c r="D2" s="6">
         <f>Orders!F2-Collection!H2</f>
-        <v>243000</v>
+        <v>164800</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -8976,7 +9302,7 @@
       </c>
       <c r="D4" s="9">
         <f>Orders!F4-Collection!H4</f>
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -9006,7 +9332,7 @@
       </c>
       <c r="D6" s="9">
         <f>Orders!F6-Collection!H6</f>
-        <v>3000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -9021,7 +9347,7 @@
       </c>
       <c r="D7" s="9">
         <f>Orders!F7-Collection!H7</f>
-        <v>22000</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -9036,7 +9362,7 @@
       </c>
       <c r="D8" s="9">
         <f>Orders!F8-Collection!H8</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -9051,7 +9377,7 @@
       </c>
       <c r="D9" s="9">
         <f>Orders!F9-Collection!H9</f>
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -9066,7 +9392,7 @@
       </c>
       <c r="D10" s="9">
         <f>Orders!F10-Collection!H10</f>
-        <v>5000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -9081,7 +9407,7 @@
       </c>
       <c r="D11" s="9">
         <f>Orders!F11-Collection!H11</f>
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -9096,7 +9422,7 @@
       </c>
       <c r="D12" s="9">
         <f>Orders!F12-Collection!H12</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -9111,7 +9437,7 @@
       </c>
       <c r="D13" s="9">
         <f>Orders!F13-Collection!H13</f>
-        <v>5000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -9126,7 +9452,7 @@
       </c>
       <c r="D14" s="9">
         <f>Orders!F14-Collection!H14</f>
-        <v>6000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -9154,7 +9480,7 @@
       </c>
       <c r="D16" s="9">
         <f>Orders!F16-Collection!H16</f>
-        <v>2000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -9210,7 +9536,7 @@
       </c>
       <c r="D20" s="9">
         <f>Orders!F20-Collection!H20</f>
-        <v>5000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -9225,7 +9551,7 @@
       </c>
       <c r="D21" s="9">
         <f>Orders!F21-Collection!H21</f>
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -9240,7 +9566,7 @@
       </c>
       <c r="D22" s="9">
         <f>Orders!F22-Collection!H22</f>
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -9255,7 +9581,7 @@
       </c>
       <c r="D23" s="9">
         <f>Orders!F23-Collection!H23</f>
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -9285,7 +9611,7 @@
       </c>
       <c r="D25" s="9">
         <f>Orders!F25-Collection!H25</f>
-        <v>3000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -9300,7 +9626,7 @@
       </c>
       <c r="D26" s="9">
         <f>Orders!F26-Collection!H26</f>
-        <v>5000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -9315,7 +9641,7 @@
       </c>
       <c r="D27" s="9">
         <f>Orders!F27-Collection!H27</f>
-        <v>4500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -9386,7 +9712,7 @@
       </c>
       <c r="D32" s="9">
         <f>Orders!F32-Collection!H32</f>
-        <v>5000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -9399,7 +9725,7 @@
       </c>
       <c r="D33" s="9">
         <f>Orders!F33-Collection!H33</f>
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -9425,7 +9751,7 @@
       </c>
       <c r="D35" s="9">
         <f>Orders!F35-Collection!H35</f>
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -9453,7 +9779,7 @@
       </c>
       <c r="D37" s="9">
         <f>Orders!F37-Collection!H37</f>
-        <v>3000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -9479,7 +9805,7 @@
       </c>
       <c r="D39" s="9">
         <f>Orders!F39-Collection!H39</f>
-        <v>3000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -9507,7 +9833,7 @@
       </c>
       <c r="D41" s="9">
         <f>Orders!F41-Collection!H41</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -9520,7 +9846,7 @@
       </c>
       <c r="D42" s="9">
         <f>Orders!F42-Collection!H42</f>
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -9561,7 +9887,7 @@
       </c>
       <c r="D45" s="9">
         <f>Orders!F45-Collection!H45</f>
-        <v>0</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -9574,7 +9900,7 @@
       </c>
       <c r="D46" s="9">
         <f>Orders!F46-Collection!H46</f>
-        <v>0</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -9630,7 +9956,7 @@
       </c>
       <c r="D50" s="9">
         <f>Orders!F50-Collection!H50</f>
-        <v>6000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -9643,7 +9969,7 @@
       </c>
       <c r="D51" s="9">
         <f>Orders!F51-Collection!H51</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -9682,7 +10008,7 @@
       </c>
       <c r="D54" s="9">
         <f>Orders!F54-Collection!H54</f>
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -9708,7 +10034,7 @@
       </c>
       <c r="D56" s="9">
         <f>Orders!F56-Collection!H56</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -9751,7 +10077,7 @@
       </c>
       <c r="D59" s="9">
         <f>Orders!F59-Collection!H59</f>
-        <v>5000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -9777,7 +10103,7 @@
       </c>
       <c r="D61" s="9">
         <f>Orders!F61-Collection!H61</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -9822,7 +10148,7 @@
       </c>
       <c r="D64" s="9">
         <f>Orders!F64-Collection!H64</f>
-        <v>5000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -9850,7 +10176,7 @@
       </c>
       <c r="D66" s="9">
         <f>Orders!F66-Collection!H66</f>
-        <v>3000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -9863,7 +10189,7 @@
       </c>
       <c r="D67" s="9">
         <f>Orders!F67-Collection!H67</f>
-        <v>2500</v>
+        <v>-500</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -9928,7 +10254,7 @@
       </c>
       <c r="D72" s="9">
         <f>Orders!F72-Collection!H72</f>
-        <v>5000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -9956,7 +10282,7 @@
       </c>
       <c r="D74" s="9">
         <f>Orders!F74-Collection!H74</f>
-        <v>4000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -9999,7 +10325,7 @@
       </c>
       <c r="D77" s="9">
         <f>Orders!F77-Collection!H77</f>
-        <v>2900</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -10025,7 +10351,7 @@
       </c>
       <c r="D79" s="9">
         <f>Orders!F79-Collection!H79</f>
-        <v>500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -10051,7 +10377,7 @@
       </c>
       <c r="D81" s="9">
         <f>Orders!F81-Collection!H81</f>
-        <v>1000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -10075,7 +10401,7 @@
       </c>
       <c r="D83" s="9">
         <f>Orders!F83-Collection!H83</f>
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -10099,7 +10425,7 @@
       </c>
       <c r="D85" s="9">
         <f>Orders!F85-Collection!H85</f>
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="86" spans="1:4">

--- a/Febuary2021.xlsx
+++ b/Febuary2021.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7815"/>
+    <workbookView windowWidth="19815" windowHeight="7815" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Orders" sheetId="1" r:id="rId1"/>
@@ -798,10 +798,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="[$-409]d\-mmm;@"/>
   </numFmts>
   <fonts count="23">
@@ -821,19 +821,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -852,29 +850,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -886,20 +861,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -921,6 +882,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -929,8 +905,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -945,32 +959,18 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="9"/>
       <name val="Times New Roman"/>
       <charset val="0"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="Times New Roman"/>
       <charset val="0"/>
@@ -1063,7 +1063,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1075,13 +1159,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1093,67 +1225,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1165,85 +1237,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1268,56 +1268,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1347,6 +1297,45 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1357,6 +1346,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1374,13 +1374,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1392,130 +1392,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1979,12 +1979,12 @@
   <sheetPr/>
   <dimension ref="A1:AS114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="AC3" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="7" ySplit="2" topLeftCell="AD10" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AG3" sqref="AG3"/>
+      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -2122,22 +2122,22 @@
       <c r="A2" s="13"/>
       <c r="B2" s="28">
         <f>SUM(F3:F121)</f>
-        <v>1229700</v>
+        <v>1292700</v>
       </c>
       <c r="D2" s="16">
         <f>SUM(G3:G121)</f>
-        <v>1103960</v>
+        <v>1169480</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="28">
         <f t="shared" ref="F2:F18" si="0">G2/1.04+H2</f>
-        <v>1229700</v>
+        <v>1292700</v>
       </c>
       <c r="G2" s="16">
         <f t="shared" ref="G2:G28" si="1">SUM(I2:AM2)</f>
-        <v>1103960</v>
+        <v>1169480</v>
       </c>
       <c r="H2" s="29">
         <f t="shared" ref="H2:AJ2" si="2">SUM(H3:H121)</f>
@@ -2241,11 +2241,11 @@
       </c>
       <c r="AG2" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>38480</v>
       </c>
       <c r="AH2" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>27040</v>
       </c>
       <c r="AI2" s="10">
         <f t="shared" si="2"/>
@@ -2256,7 +2256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" s="11" customFormat="1" spans="1:24">
+    <row r="3" s="11" customFormat="1" spans="1:33">
       <c r="A3" s="11">
         <v>1</v>
       </c>
@@ -2268,11 +2268,11 @@
       </c>
       <c r="F3" s="10">
         <f t="shared" si="0"/>
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="G3" s="10">
         <f t="shared" si="1"/>
-        <v>6240</v>
+        <v>9360</v>
       </c>
       <c r="H3" s="30">
         <v>3000</v>
@@ -2281,6 +2281,9 @@
         <v>3120</v>
       </c>
       <c r="X3" s="11">
+        <v>3120</v>
+      </c>
+      <c r="AG3" s="11">
         <v>3120</v>
       </c>
     </row>
@@ -2324,7 +2327,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="5" s="11" customFormat="1" spans="1:23">
+    <row r="5" s="11" customFormat="1" spans="1:34">
       <c r="A5" s="11">
         <v>3</v>
       </c>
@@ -2339,11 +2342,11 @@
       </c>
       <c r="F5" s="10">
         <f t="shared" si="0"/>
-        <v>11500</v>
+        <v>13500</v>
       </c>
       <c r="G5" s="10">
         <f t="shared" si="1"/>
-        <v>8320</v>
+        <v>10400</v>
       </c>
       <c r="H5" s="30">
         <v>3500</v>
@@ -2370,6 +2373,12 @@
         <v>1040</v>
       </c>
       <c r="W5" s="11">
+        <v>1040</v>
+      </c>
+      <c r="AG5" s="11">
+        <v>1040</v>
+      </c>
+      <c r="AH5" s="11">
         <v>1040</v>
       </c>
     </row>
@@ -2407,7 +2416,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="7" s="11" customFormat="1" spans="1:32">
+    <row r="7" s="11" customFormat="1" spans="1:34">
       <c r="A7" s="11">
         <v>5</v>
       </c>
@@ -2422,11 +2431,11 @@
       </c>
       <c r="F7" s="10">
         <f t="shared" si="0"/>
-        <v>63000</v>
+        <v>65000</v>
       </c>
       <c r="G7" s="10">
         <f t="shared" si="1"/>
-        <v>54080</v>
+        <v>56160</v>
       </c>
       <c r="H7" s="30">
         <v>11000</v>
@@ -2498,6 +2507,9 @@
         <v>2080</v>
       </c>
       <c r="AF7" s="11">
+        <v>2080</v>
+      </c>
+      <c r="AH7" s="11">
         <v>2080</v>
       </c>
     </row>
@@ -2566,7 +2578,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="10" s="11" customFormat="1" spans="1:29">
+    <row r="10" s="11" customFormat="1" spans="1:33">
       <c r="A10" s="11">
         <v>8</v>
       </c>
@@ -2581,11 +2593,11 @@
       </c>
       <c r="F10" s="10">
         <f t="shared" si="0"/>
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="G10" s="10">
         <f t="shared" si="1"/>
-        <v>26000</v>
+        <v>31200</v>
       </c>
       <c r="H10" s="30">
         <v>5000</v>
@@ -2603,6 +2615,9 @@
         <v>5200</v>
       </c>
       <c r="AC10" s="11">
+        <v>5200</v>
+      </c>
+      <c r="AG10" s="11">
         <v>5200</v>
       </c>
     </row>
@@ -2640,7 +2655,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="12" s="11" customFormat="1" spans="1:31">
+    <row r="12" s="11" customFormat="1" spans="1:34">
       <c r="A12" s="11">
         <v>10</v>
       </c>
@@ -2652,11 +2667,11 @@
       </c>
       <c r="F12" s="10">
         <f t="shared" si="0"/>
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="G12" s="10">
         <f t="shared" si="1"/>
-        <v>8320</v>
+        <v>9360</v>
       </c>
       <c r="H12" s="30">
         <v>0</v>
@@ -2685,8 +2700,11 @@
       <c r="AE12" s="11">
         <v>1040</v>
       </c>
-    </row>
-    <row r="13" s="11" customFormat="1" spans="1:30">
+      <c r="AH12" s="11">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="13" s="11" customFormat="1" spans="1:33">
       <c r="A13" s="11">
         <v>11</v>
       </c>
@@ -2698,11 +2716,11 @@
       </c>
       <c r="F13" s="10">
         <f t="shared" si="0"/>
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="G13" s="10">
         <f t="shared" si="1"/>
-        <v>26000</v>
+        <v>31200</v>
       </c>
       <c r="H13" s="30">
         <v>0</v>
@@ -2720,6 +2738,9 @@
         <v>5200</v>
       </c>
       <c r="AD13" s="11">
+        <v>5200</v>
+      </c>
+      <c r="AG13" s="11">
         <v>5200</v>
       </c>
     </row>
@@ -3229,7 +3250,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="27" s="11" customFormat="1" spans="1:28">
+    <row r="27" s="11" customFormat="1" spans="1:33">
       <c r="A27" s="11">
         <v>25</v>
       </c>
@@ -3241,11 +3262,11 @@
       </c>
       <c r="F27" s="10">
         <f t="shared" si="3"/>
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="G27" s="10">
         <f t="shared" si="1"/>
-        <v>9360</v>
+        <v>12480</v>
       </c>
       <c r="H27" s="30">
         <v>3000</v>
@@ -3257,6 +3278,9 @@
         <v>3120</v>
       </c>
       <c r="AB27" s="11">
+        <v>3120</v>
+      </c>
+      <c r="AG27" s="11">
         <v>3120</v>
       </c>
     </row>
@@ -3402,7 +3426,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="32" s="11" customFormat="1" spans="1:31">
+    <row r="32" s="11" customFormat="1" spans="1:34">
       <c r="A32" s="11">
         <v>30</v>
       </c>
@@ -3414,11 +3438,11 @@
       </c>
       <c r="F32" s="10">
         <f t="shared" si="3"/>
-        <v>40000</v>
+        <v>45000</v>
       </c>
       <c r="G32" s="10">
         <f t="shared" si="4"/>
-        <v>41600</v>
+        <v>46800</v>
       </c>
       <c r="H32" s="30">
         <v>0</v>
@@ -3445,6 +3469,9 @@
         <v>5200</v>
       </c>
       <c r="AE32" s="11">
+        <v>5200</v>
+      </c>
+      <c r="AH32" s="11">
         <v>5200</v>
       </c>
     </row>
@@ -3488,7 +3515,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="34" s="11" customFormat="1" spans="1:30">
+    <row r="34" s="11" customFormat="1" spans="1:34">
       <c r="A34" s="11">
         <v>32</v>
       </c>
@@ -3500,11 +3527,11 @@
       </c>
       <c r="F34" s="10">
         <f t="shared" si="3"/>
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="G34" s="10">
         <f t="shared" si="4"/>
-        <v>7280</v>
+        <v>8320</v>
       </c>
       <c r="H34" s="30">
         <v>1000</v>
@@ -3528,6 +3555,9 @@
         <v>1040</v>
       </c>
       <c r="AD34" s="11">
+        <v>1040</v>
+      </c>
+      <c r="AH34" s="11">
         <v>1040</v>
       </c>
     </row>
@@ -3800,7 +3830,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="43" s="11" customFormat="1" spans="1:32">
+    <row r="43" s="11" customFormat="1" spans="1:34">
       <c r="A43" s="11">
         <v>41</v>
       </c>
@@ -3812,11 +3842,11 @@
       </c>
       <c r="F43" s="10">
         <f t="shared" si="3"/>
-        <v>37500</v>
+        <v>40500</v>
       </c>
       <c r="G43" s="10">
         <f t="shared" ref="G43:G84" si="5">SUM(I43:AM43)</f>
-        <v>37440</v>
+        <v>40560</v>
       </c>
       <c r="H43" s="30">
         <v>1500</v>
@@ -3855,6 +3885,9 @@
         <v>3120</v>
       </c>
       <c r="AF43" s="11">
+        <v>3120</v>
+      </c>
+      <c r="AH43" s="11">
         <v>3120</v>
       </c>
     </row>
@@ -3929,7 +3962,7 @@
         <v>3120</v>
       </c>
     </row>
-    <row r="46" s="11" customFormat="1" spans="1:30">
+    <row r="46" s="11" customFormat="1" spans="1:33">
       <c r="A46" s="11">
         <v>44</v>
       </c>
@@ -3941,11 +3974,11 @@
       </c>
       <c r="F46" s="10">
         <f t="shared" si="3"/>
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="G46" s="10">
         <f t="shared" si="5"/>
-        <v>15600</v>
+        <v>18720</v>
       </c>
       <c r="H46" s="30">
         <v>3000</v>
@@ -3965,8 +3998,11 @@
       <c r="AD46" s="11">
         <v>3120</v>
       </c>
-    </row>
-    <row r="47" s="11" customFormat="1" spans="1:30">
+      <c r="AG46" s="11">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="47" s="11" customFormat="1" spans="1:34">
       <c r="A47" s="11">
         <v>45</v>
       </c>
@@ -3978,11 +4014,11 @@
       </c>
       <c r="F47" s="10">
         <f t="shared" si="3"/>
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="G47" s="10">
         <f t="shared" si="5"/>
-        <v>15600</v>
+        <v>18720</v>
       </c>
       <c r="H47" s="30">
         <v>0</v>
@@ -4000,6 +4036,9 @@
         <v>3120</v>
       </c>
       <c r="AD47" s="11">
+        <v>3120</v>
+      </c>
+      <c r="AH47" s="11">
         <v>3120</v>
       </c>
     </row>
@@ -4031,7 +4070,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="49" s="11" customFormat="1" spans="1:30">
+    <row r="49" s="11" customFormat="1" spans="1:34">
       <c r="A49" s="11">
         <v>47</v>
       </c>
@@ -4043,11 +4082,11 @@
       </c>
       <c r="F49" s="10">
         <f t="shared" si="3"/>
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="G49" s="10">
         <f t="shared" si="5"/>
-        <v>28080</v>
+        <v>31200</v>
       </c>
       <c r="H49" s="30">
         <v>3000</v>
@@ -4077,6 +4116,9 @@
         <v>3120</v>
       </c>
       <c r="AD49" s="11">
+        <v>3120</v>
+      </c>
+      <c r="AH49" s="11">
         <v>3120</v>
       </c>
     </row>
@@ -4182,7 +4224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" s="11" customFormat="1" spans="1:30">
+    <row r="53" s="11" customFormat="1" spans="1:34">
       <c r="A53" s="11">
         <v>51</v>
       </c>
@@ -4194,11 +4236,11 @@
       </c>
       <c r="F53" s="10">
         <f t="shared" si="3"/>
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="G53" s="10">
         <f t="shared" si="5"/>
-        <v>15600</v>
+        <v>17680</v>
       </c>
       <c r="H53" s="30">
         <v>0</v>
@@ -4243,6 +4285,12 @@
         <v>1040</v>
       </c>
       <c r="AD53" s="11">
+        <v>1040</v>
+      </c>
+      <c r="AG53" s="11">
+        <v>1040</v>
+      </c>
+      <c r="AH53" s="11">
         <v>1040</v>
       </c>
     </row>
@@ -4312,7 +4360,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="56" s="11" customFormat="1" spans="1:30">
+    <row r="56" s="11" customFormat="1" spans="1:33">
       <c r="A56" s="11">
         <v>54</v>
       </c>
@@ -4325,11 +4373,11 @@
       </c>
       <c r="F56" s="10">
         <f t="shared" si="3"/>
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="G56" s="10">
         <f t="shared" si="5"/>
-        <v>4160</v>
+        <v>5200</v>
       </c>
       <c r="H56" s="30">
         <v>0</v>
@@ -4344,6 +4392,9 @@
         <v>1040</v>
       </c>
       <c r="AD56" s="11">
+        <v>1040</v>
+      </c>
+      <c r="AG56" s="11">
         <v>1040</v>
       </c>
     </row>
@@ -4450,7 +4501,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="60" s="11" customFormat="1" spans="1:20">
+    <row r="60" s="11" customFormat="1" spans="1:33">
       <c r="A60" s="11">
         <v>58</v>
       </c>
@@ -4462,11 +4513,11 @@
       </c>
       <c r="F60" s="10">
         <f t="shared" si="3"/>
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="G60" s="10">
         <f t="shared" si="5"/>
-        <v>10400</v>
+        <v>15600</v>
       </c>
       <c r="H60" s="30">
         <v>0</v>
@@ -4475,6 +4526,9 @@
         <v>5200</v>
       </c>
       <c r="T60" s="11">
+        <v>5200</v>
+      </c>
+      <c r="AG60" s="11">
         <v>5200</v>
       </c>
     </row>
@@ -4647,7 +4701,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="66" s="11" customFormat="1" spans="1:31">
+    <row r="66" s="11" customFormat="1" spans="1:33">
       <c r="A66" s="11">
         <v>64</v>
       </c>
@@ -4660,11 +4714,11 @@
       </c>
       <c r="F66" s="10">
         <f t="shared" si="3"/>
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="G66" s="10">
         <f t="shared" si="5"/>
-        <v>14560</v>
+        <v>16640</v>
       </c>
       <c r="H66" s="30">
         <v>2000</v>
@@ -4688,6 +4742,9 @@
         <v>2080</v>
       </c>
       <c r="AE66" s="11">
+        <v>2080</v>
+      </c>
+      <c r="AG66" s="11">
         <v>2080</v>
       </c>
     </row>
@@ -4720,7 +4777,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="68" s="11" customFormat="1" spans="1:29">
+    <row r="68" s="11" customFormat="1" spans="1:34">
       <c r="A68" s="11">
         <v>66</v>
       </c>
@@ -4732,11 +4789,11 @@
       </c>
       <c r="F68" s="10">
         <f t="shared" si="3"/>
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="G68" s="10">
         <f t="shared" si="5"/>
-        <v>8320</v>
+        <v>10400</v>
       </c>
       <c r="H68" s="30">
         <v>2000</v>
@@ -4751,6 +4808,9 @@
         <v>2080</v>
       </c>
       <c r="AC68" s="11">
+        <v>2080</v>
+      </c>
+      <c r="AH68" s="11">
         <v>2080</v>
       </c>
     </row>
@@ -4899,7 +4959,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="73" s="11" customFormat="1" spans="1:26">
+    <row r="73" s="11" customFormat="1" spans="1:33">
       <c r="A73" s="11">
         <v>71</v>
       </c>
@@ -4911,11 +4971,11 @@
       </c>
       <c r="F73" s="10">
         <f t="shared" si="3"/>
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="G73" s="10">
         <f t="shared" si="5"/>
-        <v>15600</v>
+        <v>18720</v>
       </c>
       <c r="H73" s="30">
         <v>0</v>
@@ -4935,8 +4995,11 @@
       <c r="Z73" s="11">
         <v>3120</v>
       </c>
-    </row>
-    <row r="74" s="11" customFormat="1" spans="1:29">
+      <c r="AG73" s="11">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="74" s="11" customFormat="1" spans="1:34">
       <c r="A74" s="11">
         <v>72</v>
       </c>
@@ -4949,11 +5012,11 @@
       </c>
       <c r="F74" s="10">
         <f t="shared" si="3"/>
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="G74" s="10">
         <f t="shared" si="5"/>
-        <v>8320</v>
+        <v>10400</v>
       </c>
       <c r="H74" s="30">
         <v>0</v>
@@ -4968,6 +5031,9 @@
         <v>2080</v>
       </c>
       <c r="AC74" s="11">
+        <v>2080</v>
+      </c>
+      <c r="AH74" s="11">
         <v>2080</v>
       </c>
     </row>
@@ -5022,7 +5088,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="77" s="11" customFormat="1" spans="1:31">
+    <row r="77" s="11" customFormat="1" spans="1:33">
       <c r="A77" s="11">
         <v>75</v>
       </c>
@@ -5034,11 +5100,11 @@
       </c>
       <c r="F77" s="10">
         <f t="shared" si="3"/>
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="G77" s="10">
         <f t="shared" si="5"/>
-        <v>12480</v>
+        <v>13520</v>
       </c>
       <c r="H77" s="30">
         <v>2000</v>
@@ -5076,8 +5142,11 @@
       <c r="AE77" s="11">
         <v>1040</v>
       </c>
-    </row>
-    <row r="78" s="11" customFormat="1" spans="1:27">
+      <c r="AG77" s="11">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="78" s="11" customFormat="1" spans="1:33">
       <c r="A78" s="11">
         <v>76</v>
       </c>
@@ -5089,11 +5158,11 @@
       </c>
       <c r="F78" s="10">
         <f t="shared" si="3"/>
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="G78" s="10">
         <f t="shared" si="5"/>
-        <v>24960</v>
+        <v>28080</v>
       </c>
       <c r="H78" s="30">
         <v>6000</v>
@@ -5120,6 +5189,9 @@
         <v>3120</v>
       </c>
       <c r="AA78" s="11">
+        <v>3120</v>
+      </c>
+      <c r="AG78" s="11">
         <v>3120</v>
       </c>
     </row>
@@ -5213,7 +5285,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="81" s="11" customFormat="1" spans="1:32">
+    <row r="81" s="11" customFormat="1" spans="1:33">
       <c r="A81" s="11">
         <v>79</v>
       </c>
@@ -5226,11 +5298,11 @@
       </c>
       <c r="F81" s="10">
         <f t="shared" si="3"/>
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="G81" s="10">
         <f t="shared" si="5"/>
-        <v>8320</v>
+        <v>9360</v>
       </c>
       <c r="H81" s="30">
         <v>0</v>
@@ -5257,6 +5329,9 @@
         <v>1040</v>
       </c>
       <c r="AF81" s="11">
+        <v>1040</v>
+      </c>
+      <c r="AG81" s="11">
         <v>1040</v>
       </c>
     </row>
@@ -5448,7 +5523,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="88" s="11" customFormat="1" spans="1:26">
+    <row r="88" s="11" customFormat="1" spans="1:34">
       <c r="A88" s="11">
         <v>86</v>
       </c>
@@ -5461,11 +5536,11 @@
       </c>
       <c r="F88" s="10">
         <f t="shared" si="6"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="G88" s="10">
         <f t="shared" si="7"/>
-        <v>4160</v>
+        <v>6240</v>
       </c>
       <c r="H88" s="30">
         <v>0</v>
@@ -5492,6 +5567,9 @@
       </c>
       <c r="Y88" s="36"/>
       <c r="Z88" s="36"/>
+      <c r="AH88" s="11">
+        <v>2080</v>
+      </c>
     </row>
     <row r="89" s="11" customFormat="1" spans="1:8">
       <c r="A89" s="11">
@@ -5753,11 +5831,11 @@
   <dimension ref="A1:AM96"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="X4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="2" topLeftCell="Y52" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G11" sqref="G11"/>
+      <selection pane="bottomRight" activeCell="AG52" sqref="AG52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -5898,14 +5976,14 @@
       <c r="E2" s="13"/>
       <c r="F2" s="14">
         <f>SUM(H3:H121)</f>
-        <v>1064900</v>
+        <v>1096400</v>
       </c>
       <c r="G2" s="15" t="s">
         <v>8</v>
       </c>
       <c r="H2" s="16">
         <f t="shared" ref="H2:H65" si="0">SUM(I2:AM2)</f>
-        <v>1064900</v>
+        <v>1096400</v>
       </c>
       <c r="I2" s="10">
         <f t="shared" ref="I2:AB2" si="1">SUM(I3:I121)</f>
@@ -6001,11 +6079,11 @@
       </c>
       <c r="AF2" s="10">
         <f t="shared" si="2"/>
-        <v>27500</v>
+        <v>28500</v>
       </c>
       <c r="AG2" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>30500</v>
       </c>
       <c r="AH2" s="10">
         <f t="shared" si="2"/>
@@ -6020,7 +6098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" s="11" customFormat="1" spans="1:28">
+    <row r="3" s="11" customFormat="1" spans="1:33">
       <c r="A3" s="11">
         <v>1</v>
       </c>
@@ -6044,7 +6122,7 @@
       </c>
       <c r="H3" s="10">
         <f t="shared" si="0"/>
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="I3" s="19">
         <v>3000</v>
@@ -6056,6 +6134,9 @@
         <v>3000</v>
       </c>
       <c r="AB3" s="1"/>
+      <c r="AG3" s="20">
+        <v>3000</v>
+      </c>
     </row>
     <row r="4" s="11" customFormat="1" spans="1:31">
       <c r="A4" s="11">
@@ -6265,7 +6346,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="9" s="11" customFormat="1" spans="1:28">
+    <row r="9" s="11" customFormat="1" spans="1:33">
       <c r="A9" s="11">
         <v>7</v>
       </c>
@@ -6283,7 +6364,7 @@
       </c>
       <c r="H9" s="10">
         <f t="shared" si="0"/>
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="I9" s="11">
         <v>2000</v>
@@ -6295,6 +6376,9 @@
         <v>2000</v>
       </c>
       <c r="AB9" s="1"/>
+      <c r="AG9" s="11">
+        <v>2000</v>
+      </c>
     </row>
     <row r="10" s="11" customFormat="1" spans="1:30">
       <c r="A10" s="11">
@@ -6338,7 +6422,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="11" s="11" customFormat="1" spans="1:28">
+    <row r="11" s="11" customFormat="1" spans="1:33">
       <c r="A11" s="11">
         <v>9</v>
       </c>
@@ -6362,12 +6446,15 @@
       </c>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="W11" s="20">
         <v>6000</v>
       </c>
       <c r="AB11" s="1"/>
+      <c r="AG11" s="20">
+        <v>4000</v>
+      </c>
     </row>
     <row r="12" s="11" customFormat="1" spans="1:31">
       <c r="A12" s="11">
@@ -6449,7 +6536,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="14" s="11" customFormat="1" spans="1:32">
+    <row r="14" s="11" customFormat="1" spans="1:33">
       <c r="A14" s="11">
         <v>12</v>
       </c>
@@ -6473,7 +6560,7 @@
       </c>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>45500</v>
+        <v>47500</v>
       </c>
       <c r="I14" s="11">
         <v>4500</v>
@@ -6521,6 +6608,9 @@
         <v>2000</v>
       </c>
       <c r="AF14" s="11">
+        <v>2000</v>
+      </c>
+      <c r="AG14" s="11">
         <v>2000</v>
       </c>
     </row>
@@ -6564,7 +6654,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="16" s="11" customFormat="1" spans="1:28">
+    <row r="16" s="11" customFormat="1" spans="1:32">
       <c r="A16" s="11">
         <v>14</v>
       </c>
@@ -6588,7 +6678,7 @@
       </c>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>3200</v>
+        <v>4200</v>
       </c>
       <c r="I16" s="19">
         <v>1200</v>
@@ -6600,6 +6690,9 @@
         <v>1000</v>
       </c>
       <c r="AB16" s="1"/>
+      <c r="AF16" s="20">
+        <v>1000</v>
+      </c>
     </row>
     <row r="17" s="11" customFormat="1" spans="1:28">
       <c r="A17" s="11">
@@ -6734,7 +6827,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="21" s="11" customFormat="1" spans="1:28">
+    <row r="21" s="11" customFormat="1" spans="1:33">
       <c r="A21" s="11">
         <v>19</v>
       </c>
@@ -6758,7 +6851,7 @@
       </c>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M21" s="11">
         <v>2000</v>
@@ -6770,6 +6863,9 @@
         <v>2000</v>
       </c>
       <c r="AB21" s="1"/>
+      <c r="AG21" s="20">
+        <v>2000</v>
+      </c>
     </row>
     <row r="22" s="11" customFormat="1" spans="1:30">
       <c r="A22" s="11">
@@ -6845,7 +6941,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="24" s="11" customFormat="1" spans="1:30">
+    <row r="24" s="11" customFormat="1" spans="1:33">
       <c r="A24" s="11">
         <v>22</v>
       </c>
@@ -6863,7 +6959,7 @@
       </c>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="I24" s="11">
         <v>1000</v>
@@ -6890,6 +6986,9 @@
         <v>1000</v>
       </c>
       <c r="AD24" s="11">
+        <v>1000</v>
+      </c>
+      <c r="AG24" s="11">
         <v>1000</v>
       </c>
     </row>
@@ -6988,7 +7087,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="27" s="11" customFormat="1" spans="1:31">
+    <row r="27" s="11" customFormat="1" spans="1:33">
       <c r="A27" s="11">
         <v>25</v>
       </c>
@@ -7006,7 +7105,7 @@
       </c>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="I27" s="11">
         <v>3000</v>
@@ -7022,6 +7121,9 @@
       </c>
       <c r="AE27" s="11">
         <v>1500</v>
+      </c>
+      <c r="AG27" s="11">
+        <v>2000</v>
       </c>
     </row>
     <row r="28" s="11" customFormat="1" spans="1:32">
@@ -7222,7 +7324,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="33" s="11" customFormat="1" spans="1:32">
+    <row r="33" s="11" customFormat="1" spans="1:33">
       <c r="A33" s="11">
         <v>31</v>
       </c>
@@ -7237,7 +7339,7 @@
       </c>
       <c r="H33" s="10">
         <f t="shared" si="0"/>
-        <v>12500</v>
+        <v>13000</v>
       </c>
       <c r="I33" s="11">
         <v>1000</v>
@@ -7276,6 +7378,9 @@
         <v>1000</v>
       </c>
       <c r="AF33" s="11">
+        <v>500</v>
+      </c>
+      <c r="AG33" s="11">
         <v>500</v>
       </c>
     </row>
@@ -7556,7 +7661,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="42" s="11" customFormat="1" spans="1:28">
+    <row r="42" s="11" customFormat="1" spans="1:33">
       <c r="A42" s="11">
         <v>40</v>
       </c>
@@ -7571,7 +7676,7 @@
       </c>
       <c r="H42" s="10">
         <f t="shared" si="0"/>
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M42" s="11">
         <v>2000</v>
@@ -7580,8 +7685,11 @@
         <v>2000</v>
       </c>
       <c r="AB42" s="1"/>
-    </row>
-    <row r="43" s="11" customFormat="1" spans="1:30">
+      <c r="AG42" s="11">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="43" s="11" customFormat="1" spans="1:33">
       <c r="A43" s="11">
         <v>41</v>
       </c>
@@ -7599,7 +7707,7 @@
       </c>
       <c r="H43" s="10">
         <f t="shared" si="0"/>
-        <v>31500</v>
+        <v>34500</v>
       </c>
       <c r="J43" s="11">
         <v>1500</v>
@@ -7632,6 +7740,9 @@
       <c r="AD43" s="11">
         <v>3000</v>
       </c>
+      <c r="AG43" s="11">
+        <v>3000</v>
+      </c>
     </row>
     <row r="44" s="11" customFormat="1" spans="1:31">
       <c r="A44" s="11">
@@ -7658,7 +7769,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="45" s="11" customFormat="1" spans="1:28">
+    <row r="45" s="11" customFormat="1" spans="1:33">
       <c r="A45" s="11">
         <v>43</v>
       </c>
@@ -7673,7 +7784,7 @@
       </c>
       <c r="H45" s="10">
         <f t="shared" si="0"/>
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="K45" s="11">
         <v>3000</v>
@@ -7691,6 +7802,9 @@
         <v>3000</v>
       </c>
       <c r="AB45" s="23">
+        <v>3000</v>
+      </c>
+      <c r="AG45" s="11">
         <v>3000</v>
       </c>
     </row>
@@ -7798,7 +7912,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="49" s="11" customFormat="1" spans="1:30">
+    <row r="49" s="11" customFormat="1" spans="1:33">
       <c r="A49" s="11">
         <v>47</v>
       </c>
@@ -7822,7 +7936,7 @@
       </c>
       <c r="H49" s="10">
         <f t="shared" si="0"/>
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="J49" s="19">
         <v>4000</v>
@@ -7846,6 +7960,9 @@
         <v>4500</v>
       </c>
       <c r="AD49" s="11">
+        <v>3000</v>
+      </c>
+      <c r="AG49" s="11">
         <v>3000</v>
       </c>
     </row>
@@ -7951,7 +8068,7 @@
       </c>
       <c r="AB52" s="1"/>
     </row>
-    <row r="53" s="11" customFormat="1" spans="1:28">
+    <row r="53" s="11" customFormat="1" spans="1:33">
       <c r="A53" s="11">
         <v>51</v>
       </c>
@@ -7972,7 +8089,7 @@
       </c>
       <c r="H53" s="10">
         <f t="shared" si="0"/>
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="K53" s="19">
         <v>1000</v>
@@ -7997,6 +8114,9 @@
       </c>
       <c r="AB53" s="23">
         <v>3000</v>
+      </c>
+      <c r="AG53" s="20">
+        <v>2000</v>
       </c>
     </row>
     <row r="54" s="11" customFormat="1" spans="1:28">
@@ -8411,7 +8531,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="67" s="11" customFormat="1" spans="1:32">
+    <row r="67" s="11" customFormat="1" spans="1:30">
       <c r="A67" s="11">
         <v>65</v>
       </c>
@@ -8426,7 +8546,7 @@
       </c>
       <c r="H67" s="10">
         <f t="shared" si="3"/>
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="J67" s="11">
         <v>1500</v>
@@ -8437,9 +8557,6 @@
       <c r="AB67" s="1"/>
       <c r="AD67" s="11">
         <v>2000</v>
-      </c>
-      <c r="AF67" s="11">
-        <v>1000</v>
       </c>
     </row>
     <row r="68" s="11" customFormat="1" spans="1:28">
@@ -8680,7 +8797,7 @@
       </c>
       <c r="AB75" s="1"/>
     </row>
-    <row r="76" s="11" customFormat="1" spans="1:28">
+    <row r="76" s="11" customFormat="1" spans="1:32">
       <c r="A76" s="11">
         <v>74</v>
       </c>
@@ -8695,7 +8812,7 @@
       </c>
       <c r="H76" s="10">
         <f t="shared" si="3"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L76" s="11">
         <v>1000</v>
@@ -8704,6 +8821,9 @@
         <v>1000</v>
       </c>
       <c r="AB76" s="1">
+        <v>1000</v>
+      </c>
+      <c r="AF76" s="11">
         <v>1000</v>
       </c>
     </row>
@@ -8869,7 +8989,7 @@
       </c>
       <c r="AB80" s="1"/>
     </row>
-    <row r="81" s="11" customFormat="1" spans="1:29">
+    <row r="81" s="11" customFormat="1" spans="1:33">
       <c r="A81" s="11">
         <v>79</v>
       </c>
@@ -8893,13 +9013,16 @@
       </c>
       <c r="H81" s="10">
         <f t="shared" si="3"/>
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="U81" s="19">
         <v>4000</v>
       </c>
       <c r="AB81" s="1"/>
       <c r="AC81" s="20">
+        <v>2000</v>
+      </c>
+      <c r="AG81" s="20">
         <v>2000</v>
       </c>
     </row>
@@ -9235,8 +9358,8 @@
   <sheetPr/>
   <dimension ref="A1:D96"/>
   <sheetViews>
-    <sheetView topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="D105" sqref="D105"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -9272,7 +9395,7 @@
       </c>
       <c r="D2" s="6">
         <f>Orders!F2-Collection!H2</f>
-        <v>164800</v>
+        <v>196300</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -9317,7 +9440,7 @@
       </c>
       <c r="D5" s="9">
         <f>Orders!F5-Collection!H5</f>
-        <v>500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -9347,7 +9470,7 @@
       </c>
       <c r="D7" s="9">
         <f>Orders!F7-Collection!H7</f>
-        <v>18000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -9377,7 +9500,7 @@
       </c>
       <c r="D9" s="9">
         <f>Orders!F9-Collection!H9</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -9392,7 +9515,7 @@
       </c>
       <c r="D10" s="9">
         <f>Orders!F10-Collection!H10</f>
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -9407,7 +9530,7 @@
       </c>
       <c r="D11" s="9">
         <f>Orders!F11-Collection!H11</f>
-        <v>4000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -9422,7 +9545,7 @@
       </c>
       <c r="D12" s="9">
         <f>Orders!F12-Collection!H12</f>
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -9437,7 +9560,7 @@
       </c>
       <c r="D13" s="9">
         <f>Orders!F13-Collection!H13</f>
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -9452,14 +9575,16 @@
       </c>
       <c r="D14" s="9">
         <f>Orders!F14-Collection!H14</f>
-        <v>5000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="7"/>
+      <c r="B15" s="7">
+        <v>7004936104</v>
+      </c>
       <c r="C15" s="8" t="s">
         <v>29</v>
       </c>
@@ -9480,7 +9605,7 @@
       </c>
       <c r="D16" s="9">
         <f>Orders!F16-Collection!H16</f>
-        <v>3000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -9551,7 +9676,7 @@
       </c>
       <c r="D21" s="9">
         <f>Orders!F21-Collection!H21</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -9596,7 +9721,7 @@
       </c>
       <c r="D24" s="9">
         <f>Orders!F24-Collection!H24</f>
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -9641,7 +9766,7 @@
       </c>
       <c r="D27" s="9">
         <f>Orders!F27-Collection!H27</f>
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -9706,13 +9831,15 @@
       <c r="A32" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="7"/>
+      <c r="B32" s="7">
+        <v>7004134938</v>
+      </c>
       <c r="C32" s="8" t="s">
         <v>49</v>
       </c>
       <c r="D32" s="9">
         <f>Orders!F32-Collection!H32</f>
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -9725,20 +9852,22 @@
       </c>
       <c r="D33" s="9">
         <f>Orders!F33-Collection!H33</f>
-        <v>500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B34" s="7"/>
+      <c r="B34" s="7">
+        <v>9110951966</v>
+      </c>
       <c r="C34" s="8" t="s">
         <v>52</v>
       </c>
       <c r="D34" s="9">
         <f>Orders!F34-Collection!H34</f>
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -9840,13 +9969,15 @@
       <c r="A42" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B42" s="7"/>
+      <c r="B42" s="7">
+        <v>9304671707</v>
+      </c>
       <c r="C42" s="8" t="s">
         <v>60</v>
       </c>
       <c r="D42" s="9">
         <f>Orders!F42-Collection!H42</f>
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -9887,33 +10018,37 @@
       </c>
       <c r="D45" s="9">
         <f>Orders!F45-Collection!H45</f>
-        <v>3000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B46" s="7"/>
+      <c r="B46" s="7">
+        <v>7004687745</v>
+      </c>
       <c r="C46" s="8" t="s">
         <v>65</v>
       </c>
       <c r="D46" s="9">
         <f>Orders!F46-Collection!H46</f>
-        <v>3000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B47" s="7"/>
+      <c r="B47" s="7">
+        <v>7004454705</v>
+      </c>
       <c r="C47" s="8" t="s">
         <v>66</v>
       </c>
       <c r="D47" s="9">
         <f>Orders!F47-Collection!H47</f>
-        <v>0</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -9989,7 +10124,9 @@
       <c r="A53" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B53" s="7"/>
+      <c r="B53" s="7">
+        <v>7004423721</v>
+      </c>
       <c r="C53" s="8" t="s">
         <v>72</v>
       </c>
@@ -10002,7 +10139,9 @@
       <c r="A54" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B54" s="7"/>
+      <c r="B54" s="7">
+        <v>6202424016</v>
+      </c>
       <c r="C54" s="8" t="s">
         <v>73</v>
       </c>
@@ -10028,13 +10167,15 @@
       <c r="A56" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B56" s="7"/>
+      <c r="B56" s="7">
+        <v>7870055507</v>
+      </c>
       <c r="C56" s="8" t="s">
         <v>75</v>
       </c>
       <c r="D56" s="9">
         <f>Orders!F56-Collection!H56</f>
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -10084,13 +10225,15 @@
       <c r="A60" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B60" s="7"/>
+      <c r="B60" s="7">
+        <v>9304063435</v>
+      </c>
       <c r="C60" s="8" t="s">
         <v>80</v>
       </c>
       <c r="D60" s="9">
         <f>Orders!F60-Collection!H60</f>
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -10170,39 +10313,45 @@
       <c r="A66" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B66" s="7"/>
+      <c r="B66" s="7">
+        <v>9939935008</v>
+      </c>
       <c r="C66" s="8" t="s">
         <v>89</v>
       </c>
       <c r="D66" s="9">
         <f>Orders!F66-Collection!H66</f>
-        <v>5000</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B67" s="7"/>
+      <c r="B67" s="7">
+        <v>8271027441</v>
+      </c>
       <c r="C67" s="8" t="s">
         <v>91</v>
       </c>
       <c r="D67" s="9">
         <f>Orders!F67-Collection!H67</f>
-        <v>-500</v>
+        <v>500</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B68" s="7"/>
+      <c r="B68" s="7">
+        <v>8709494155</v>
+      </c>
       <c r="C68" s="8" t="s">
         <v>93</v>
       </c>
       <c r="D68" s="9">
         <f>Orders!F68-Collection!H68</f>
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -10235,7 +10384,9 @@
       <c r="A71" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B71" s="7"/>
+      <c r="B71" s="7">
+        <v>6202448688</v>
+      </c>
       <c r="C71" s="8" t="s">
         <v>96</v>
       </c>
@@ -10261,13 +10412,15 @@
       <c r="A73" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B73" s="7"/>
+      <c r="B73" s="7">
+        <v>7909071642</v>
+      </c>
       <c r="C73" s="8" t="s">
         <v>98</v>
       </c>
       <c r="D73" s="9">
         <f>Orders!F73-Collection!H73</f>
-        <v>3000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -10282,7 +10435,7 @@
       </c>
       <c r="D74" s="9">
         <f>Orders!F74-Collection!H74</f>
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -10310,7 +10463,7 @@
       </c>
       <c r="D76" s="9">
         <f>Orders!F76-Collection!H76</f>
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -10325,20 +10478,22 @@
       </c>
       <c r="D77" s="9">
         <f>Orders!F77-Collection!H77</f>
-        <v>2200</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="B78" s="7"/>
+      <c r="B78" s="7">
+        <v>7004695819</v>
+      </c>
       <c r="C78" s="8" t="s">
         <v>104</v>
       </c>
       <c r="D78" s="9">
         <f>Orders!F78-Collection!H78</f>
-        <v>0</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -10377,7 +10532,7 @@
       </c>
       <c r="D81" s="9">
         <f>Orders!F81-Collection!H81</f>
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -10395,7 +10550,9 @@
       <c r="A83" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="B83" s="7"/>
+      <c r="B83" s="7">
+        <v>7079312729</v>
+      </c>
       <c r="C83" s="8" t="s">
         <v>111</v>
       </c>
@@ -10419,7 +10576,9 @@
       <c r="A85" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="B85" s="7"/>
+      <c r="B85" s="7">
+        <v>7979068575</v>
+      </c>
       <c r="C85" s="8" t="s">
         <v>114</v>
       </c>
@@ -10468,7 +10627,7 @@
       </c>
       <c r="D88" s="9">
         <f>Orders!F88-Collection!H88</f>
-        <v>-2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -10530,7 +10689,9 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="7"/>
-      <c r="B94" s="7"/>
+      <c r="B94" s="7">
+        <v>7254967519</v>
+      </c>
       <c r="C94" s="8" t="s">
         <v>125</v>
       </c>

--- a/Febuary2021.xlsx
+++ b/Febuary2021.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7815" activeTab="2"/>
+    <workbookView windowWidth="19815" windowHeight="7815"/>
   </bookViews>
   <sheets>
     <sheet name="Orders" sheetId="1" r:id="rId1"/>
@@ -264,12 +264,35 @@
         </r>
       </text>
     </comment>
+    <comment ref="AI77" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Vijay:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+1400-Digital
+500-Cash</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="175">
   <si>
     <t>S.No.</t>
   </si>
@@ -788,6 +811,9 @@
   </si>
   <si>
     <t>MD Aslam</t>
+  </si>
+  <si>
+    <t>Tawakala</t>
   </si>
   <si>
     <t>Dues Amount</t>
@@ -798,10 +824,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="[$-409]d\-mmm;@"/>
   </numFmts>
   <fonts count="23">
@@ -822,29 +848,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -858,9 +900,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -875,15 +946,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -905,46 +969,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -959,15 +985,10 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Times New Roman"/>
-      <charset val="0"/>
     </font>
     <font>
       <b/>
@@ -975,8 +996,13 @@
       <name val="Times New Roman"/>
       <charset val="0"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+      <charset val="0"/>
+    </font>
   </fonts>
-  <fills count="46">
+  <fills count="47">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1033,6 +1059,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFDD56E2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1063,25 +1095,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1093,97 +1125,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1201,19 +1149,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1231,7 +1173,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1243,7 +1275,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1272,17 +1304,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1313,9 +1354,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1335,32 +1393,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1374,7 +1406,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1392,134 +1424,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1605,19 +1637,23 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -1635,26 +1671,26 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="1" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1711,6 +1747,13 @@
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="00B01FAF"/>
+      <color rgb="00EEA2EF"/>
+      <color rgb="00DD56E2"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1979,12 +2022,12 @@
   <sheetPr/>
   <dimension ref="A1:AS114"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="AD10" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="7" ySplit="2" topLeftCell="H28" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomRight" activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1995,117 +2038,117 @@
     <col min="5" max="5" width="51.1428571428571" style="11" customWidth="1"/>
     <col min="6" max="6" width="21.8571428571429" style="11" customWidth="1"/>
     <col min="7" max="7" width="11" style="11" customWidth="1"/>
-    <col min="8" max="8" width="20" style="25" customWidth="1"/>
+    <col min="8" max="8" width="20" style="26" customWidth="1"/>
     <col min="9" max="16384" width="9.14285714285714" style="11"/>
   </cols>
   <sheetData>
     <row r="1" s="10" customFormat="1" spans="1:45">
-      <c r="A1" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="26" t="s">
+      <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="35">
+      <c r="I1" s="36">
         <v>44228</v>
       </c>
-      <c r="J1" s="35">
+      <c r="J1" s="36">
         <v>44229</v>
       </c>
-      <c r="K1" s="35">
+      <c r="K1" s="36">
         <v>44230</v>
       </c>
-      <c r="L1" s="35">
+      <c r="L1" s="36">
         <v>44231</v>
       </c>
-      <c r="M1" s="35">
+      <c r="M1" s="36">
         <v>44232</v>
       </c>
-      <c r="N1" s="35">
+      <c r="N1" s="36">
         <v>44233</v>
       </c>
-      <c r="O1" s="35">
+      <c r="O1" s="36">
         <v>44234</v>
       </c>
-      <c r="P1" s="35">
+      <c r="P1" s="36">
         <v>44235</v>
       </c>
-      <c r="Q1" s="35">
+      <c r="Q1" s="36">
         <v>44236</v>
       </c>
-      <c r="R1" s="35">
+      <c r="R1" s="36">
         <v>44237</v>
       </c>
-      <c r="S1" s="35">
+      <c r="S1" s="36">
         <v>44238</v>
       </c>
-      <c r="T1" s="35">
+      <c r="T1" s="36">
         <v>44239</v>
       </c>
-      <c r="U1" s="35">
+      <c r="U1" s="36">
         <v>44240</v>
       </c>
-      <c r="V1" s="35">
+      <c r="V1" s="36">
         <v>44241</v>
       </c>
-      <c r="W1" s="35">
+      <c r="W1" s="36">
         <v>44242</v>
       </c>
-      <c r="X1" s="35">
+      <c r="X1" s="36">
         <v>44243</v>
       </c>
-      <c r="Y1" s="35">
+      <c r="Y1" s="36">
         <v>44244</v>
       </c>
-      <c r="Z1" s="35">
+      <c r="Z1" s="36">
         <v>44245</v>
       </c>
-      <c r="AA1" s="35">
+      <c r="AA1" s="36">
         <v>44246</v>
       </c>
-      <c r="AB1" s="35">
+      <c r="AB1" s="36">
         <v>44247</v>
       </c>
-      <c r="AC1" s="35">
+      <c r="AC1" s="36">
         <v>44248</v>
       </c>
-      <c r="AD1" s="35">
+      <c r="AD1" s="36">
         <v>44249</v>
       </c>
-      <c r="AE1" s="35">
+      <c r="AE1" s="36">
         <v>44250</v>
       </c>
-      <c r="AF1" s="35">
+      <c r="AF1" s="36">
         <v>44251</v>
       </c>
-      <c r="AG1" s="35">
+      <c r="AG1" s="36">
         <v>44252</v>
       </c>
-      <c r="AH1" s="35">
+      <c r="AH1" s="36">
         <v>44253</v>
       </c>
-      <c r="AI1" s="35">
+      <c r="AI1" s="36">
         <v>44254</v>
       </c>
-      <c r="AJ1" s="35">
+      <c r="AJ1" s="36">
         <v>44255</v>
       </c>
       <c r="AK1" s="24"/>
@@ -2120,26 +2163,26 @@
     </row>
     <row r="2" s="10" customFormat="1" spans="1:36">
       <c r="A2" s="13"/>
-      <c r="B2" s="28">
+      <c r="B2" s="29">
         <f>SUM(F3:F121)</f>
-        <v>1292700</v>
+        <v>1382700</v>
       </c>
       <c r="D2" s="16">
         <f>SUM(G3:G121)</f>
-        <v>1169480</v>
+        <v>1263080</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="28">
+      <c r="F2" s="29">
         <f t="shared" ref="F2:F18" si="0">G2/1.04+H2</f>
-        <v>1292700</v>
+        <v>1382700</v>
       </c>
       <c r="G2" s="16">
         <f t="shared" ref="G2:G28" si="1">SUM(I2:AM2)</f>
-        <v>1169480</v>
-      </c>
-      <c r="H2" s="29">
+        <v>1263080</v>
+      </c>
+      <c r="H2" s="30">
         <f t="shared" ref="H2:AJ2" si="2">SUM(H3:H121)</f>
         <v>168200</v>
       </c>
@@ -2245,15 +2288,15 @@
       </c>
       <c r="AH2" s="10">
         <f t="shared" si="2"/>
-        <v>27040</v>
+        <v>46800</v>
       </c>
       <c r="AI2" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>33280</v>
       </c>
       <c r="AJ2" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>40560</v>
       </c>
     </row>
     <row r="3" s="11" customFormat="1" spans="1:33">
@@ -2274,7 +2317,7 @@
         <f t="shared" si="1"/>
         <v>9360</v>
       </c>
-      <c r="H3" s="30">
+      <c r="H3" s="31">
         <v>3000</v>
       </c>
       <c r="P3" s="11">
@@ -2287,7 +2330,7 @@
         <v>3120</v>
       </c>
     </row>
-    <row r="4" s="11" customFormat="1" spans="1:30">
+    <row r="4" s="11" customFormat="1" spans="1:36">
       <c r="A4" s="11">
         <v>2</v>
       </c>
@@ -2299,13 +2342,13 @@
       </c>
       <c r="F4" s="10">
         <f t="shared" si="0"/>
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="G4" s="10">
         <f t="shared" si="1"/>
-        <v>6240</v>
-      </c>
-      <c r="H4" s="30">
+        <v>7280</v>
+      </c>
+      <c r="H4" s="31">
         <v>2000</v>
       </c>
       <c r="J4" s="11">
@@ -2324,6 +2367,9 @@
         <v>1040</v>
       </c>
       <c r="AD4" s="11">
+        <v>1040</v>
+      </c>
+      <c r="AJ4" s="11">
         <v>1040</v>
       </c>
     </row>
@@ -2348,7 +2394,7 @@
         <f t="shared" si="1"/>
         <v>10400</v>
       </c>
-      <c r="H5" s="30">
+      <c r="H5" s="31">
         <v>3500</v>
       </c>
       <c r="I5" s="11">
@@ -2403,7 +2449,7 @@
         <f t="shared" si="1"/>
         <v>15600</v>
       </c>
-      <c r="H6" s="30">
+      <c r="H6" s="31">
         <v>5000</v>
       </c>
       <c r="N6" s="11">
@@ -2416,7 +2462,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="7" s="11" customFormat="1" spans="1:34">
+    <row r="7" s="11" customFormat="1" spans="1:36">
       <c r="A7" s="11">
         <v>5</v>
       </c>
@@ -2431,13 +2477,13 @@
       </c>
       <c r="F7" s="10">
         <f t="shared" si="0"/>
-        <v>65000</v>
+        <v>67000</v>
       </c>
       <c r="G7" s="10">
         <f t="shared" si="1"/>
-        <v>56160</v>
-      </c>
-      <c r="H7" s="30">
+        <v>58240</v>
+      </c>
+      <c r="H7" s="31">
         <v>11000</v>
       </c>
       <c r="I7" s="11">
@@ -2510,6 +2556,9 @@
         <v>2080</v>
       </c>
       <c r="AH7" s="11">
+        <v>2080</v>
+      </c>
+      <c r="AJ7" s="11">
         <v>2080</v>
       </c>
     </row>
@@ -2534,7 +2583,7 @@
         <f t="shared" si="1"/>
         <v>6240</v>
       </c>
-      <c r="H8" s="30">
+      <c r="H8" s="31">
         <v>0</v>
       </c>
       <c r="J8" s="11">
@@ -2565,7 +2614,7 @@
         <f t="shared" si="1"/>
         <v>6240</v>
       </c>
-      <c r="H9" s="30">
+      <c r="H9" s="31">
         <v>2000</v>
       </c>
       <c r="O9" s="11">
@@ -2599,7 +2648,7 @@
         <f t="shared" si="1"/>
         <v>31200</v>
       </c>
-      <c r="H10" s="30">
+      <c r="H10" s="31">
         <v>5000</v>
       </c>
       <c r="L10" s="11">
@@ -2639,7 +2688,7 @@
         <f t="shared" si="1"/>
         <v>8320</v>
       </c>
-      <c r="H11" s="30">
+      <c r="H11" s="31">
         <v>2000</v>
       </c>
       <c r="J11" s="11">
@@ -2673,7 +2722,7 @@
         <f t="shared" si="1"/>
         <v>9360</v>
       </c>
-      <c r="H12" s="30">
+      <c r="H12" s="31">
         <v>0</v>
       </c>
       <c r="I12" s="11">
@@ -2722,7 +2771,7 @@
         <f t="shared" si="1"/>
         <v>31200</v>
       </c>
-      <c r="H13" s="30">
+      <c r="H13" s="31">
         <v>0</v>
       </c>
       <c r="K13" s="11">
@@ -2744,7 +2793,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="14" s="11" customFormat="1" spans="1:32">
+    <row r="14" s="11" customFormat="1" spans="1:34">
       <c r="A14" s="11">
         <v>12</v>
       </c>
@@ -2756,13 +2805,13 @@
       </c>
       <c r="F14" s="10">
         <f t="shared" si="0"/>
-        <v>50500</v>
+        <v>55500</v>
       </c>
       <c r="G14" s="10">
         <f t="shared" si="1"/>
-        <v>41600</v>
-      </c>
-      <c r="H14" s="30">
+        <v>46800</v>
+      </c>
+      <c r="H14" s="31">
         <v>10500</v>
       </c>
       <c r="K14" s="11">
@@ -2789,8 +2838,11 @@
       <c r="AF14" s="11">
         <v>5200</v>
       </c>
-    </row>
-    <row r="15" s="11" customFormat="1" spans="1:32">
+      <c r="AH14" s="11">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="15" s="11" customFormat="1" spans="1:35">
       <c r="A15" s="11">
         <v>13</v>
       </c>
@@ -2805,13 +2857,13 @@
       </c>
       <c r="F15" s="10">
         <f t="shared" si="0"/>
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="G15" s="10">
         <f t="shared" si="1"/>
-        <v>10400</v>
-      </c>
-      <c r="H15" s="30">
+        <v>12480</v>
+      </c>
+      <c r="H15" s="31">
         <v>2000</v>
       </c>
       <c r="M15" s="11">
@@ -2827,6 +2879,9 @@
         <v>2080</v>
       </c>
       <c r="AF15" s="11">
+        <v>2080</v>
+      </c>
+      <c r="AI15" s="11">
         <v>2080</v>
       </c>
     </row>
@@ -2848,7 +2903,7 @@
         <f t="shared" si="1"/>
         <v>4160</v>
       </c>
-      <c r="H16" s="30">
+      <c r="H16" s="31">
         <v>2200</v>
       </c>
       <c r="Q16" s="11">
@@ -2865,7 +2920,7 @@
       <c r="A17" s="11">
         <v>15</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="32" t="s">
         <v>31</v>
       </c>
       <c r="D17" s="11" t="s">
@@ -2882,7 +2937,7 @@
         <f t="shared" si="1"/>
         <v>1040</v>
       </c>
-      <c r="H17" s="30">
+      <c r="H17" s="31">
         <v>1000</v>
       </c>
       <c r="U17" s="11">
@@ -2893,7 +2948,7 @@
       <c r="A18" s="11">
         <v>16</v>
       </c>
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="33" t="s">
         <v>33</v>
       </c>
       <c r="C18" s="11">
@@ -2902,7 +2957,7 @@
       <c r="D18" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="33" t="s">
+      <c r="E18" s="34" t="s">
         <v>34</v>
       </c>
       <c r="F18" s="10">
@@ -2913,34 +2968,34 @@
         <f t="shared" si="1"/>
         <v>3120</v>
       </c>
-      <c r="H18" s="30">
-        <v>0</v>
-      </c>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="34">
-        <v>1040</v>
-      </c>
-      <c r="N18" s="36"/>
-      <c r="O18" s="36"/>
-      <c r="P18" s="36"/>
-      <c r="Q18" s="36"/>
-      <c r="R18" s="36"/>
-      <c r="S18" s="36"/>
-      <c r="T18" s="36"/>
-      <c r="U18" s="36">
-        <v>1040</v>
-      </c>
-      <c r="V18" s="36"/>
-      <c r="W18" s="36"/>
-      <c r="X18" s="34">
-        <v>1040</v>
-      </c>
-      <c r="Y18" s="36"/>
-      <c r="Z18" s="36"/>
-      <c r="AA18" s="36"/>
+      <c r="H18" s="31">
+        <v>0</v>
+      </c>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="35">
+        <v>1040</v>
+      </c>
+      <c r="N18" s="37"/>
+      <c r="O18" s="37"/>
+      <c r="P18" s="37"/>
+      <c r="Q18" s="37"/>
+      <c r="R18" s="37"/>
+      <c r="S18" s="37"/>
+      <c r="T18" s="37"/>
+      <c r="U18" s="37">
+        <v>1040</v>
+      </c>
+      <c r="V18" s="37"/>
+      <c r="W18" s="37"/>
+      <c r="X18" s="35">
+        <v>1040</v>
+      </c>
+      <c r="Y18" s="37"/>
+      <c r="Z18" s="37"/>
+      <c r="AA18" s="37"/>
     </row>
     <row r="19" s="11" customFormat="1" spans="1:32">
       <c r="A19" s="11">
@@ -2960,7 +3015,7 @@
         <f t="shared" si="1"/>
         <v>15600</v>
       </c>
-      <c r="H19" s="30">
+      <c r="H19" s="31">
         <v>-1000</v>
       </c>
       <c r="J19" s="11">
@@ -2979,7 +3034,7 @@
         <v>3120</v>
       </c>
     </row>
-    <row r="20" s="11" customFormat="1" spans="1:27">
+    <row r="20" s="11" customFormat="1" spans="1:34">
       <c r="A20" s="11">
         <v>18</v>
       </c>
@@ -2991,13 +3046,13 @@
       </c>
       <c r="F20" s="10">
         <f t="shared" si="3"/>
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="G20" s="10">
         <f t="shared" si="1"/>
-        <v>20800</v>
-      </c>
-      <c r="H20" s="30">
+        <v>26000</v>
+      </c>
+      <c r="H20" s="31">
         <v>5000</v>
       </c>
       <c r="K20" s="11">
@@ -3010,6 +3065,9 @@
         <v>5200</v>
       </c>
       <c r="AA20" s="11">
+        <v>5200</v>
+      </c>
+      <c r="AH20" s="11">
         <v>5200</v>
       </c>
     </row>
@@ -3031,7 +3089,7 @@
         <f t="shared" si="1"/>
         <v>10400</v>
       </c>
-      <c r="H21" s="30">
+      <c r="H21" s="31">
         <v>0</v>
       </c>
       <c r="L21" s="11">
@@ -3050,7 +3108,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="22" s="11" customFormat="1" spans="1:28">
+    <row r="22" s="11" customFormat="1" spans="1:35">
       <c r="A22" s="11">
         <v>20</v>
       </c>
@@ -3062,13 +3120,13 @@
       </c>
       <c r="F22" s="10">
         <f t="shared" si="3"/>
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="G22" s="10">
         <f t="shared" si="1"/>
-        <v>4160</v>
-      </c>
-      <c r="H22" s="30">
+        <v>5200</v>
+      </c>
+      <c r="H22" s="31">
         <v>1000</v>
       </c>
       <c r="J22" s="11">
@@ -3083,8 +3141,11 @@
       <c r="AB22" s="11">
         <v>1040</v>
       </c>
-    </row>
-    <row r="23" s="11" customFormat="1" spans="1:28">
+      <c r="AI22" s="11">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="23" s="11" customFormat="1" spans="1:35">
       <c r="A23" s="11">
         <v>21</v>
       </c>
@@ -3096,13 +3157,13 @@
       </c>
       <c r="F23" s="10">
         <f t="shared" si="3"/>
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="G23" s="10">
         <f t="shared" si="1"/>
-        <v>26000</v>
-      </c>
-      <c r="H23" s="30">
+        <v>31200</v>
+      </c>
+      <c r="H23" s="31">
         <v>0</v>
       </c>
       <c r="I23" s="11">
@@ -3118,6 +3179,9 @@
         <v>5200</v>
       </c>
       <c r="AB23" s="11">
+        <v>5200</v>
+      </c>
+      <c r="AI23" s="11">
         <v>5200</v>
       </c>
     </row>
@@ -3139,7 +3203,7 @@
         <f t="shared" si="1"/>
         <v>8320</v>
       </c>
-      <c r="H24" s="30">
+      <c r="H24" s="31">
         <v>1000</v>
       </c>
       <c r="J24" s="11">
@@ -3185,7 +3249,7 @@
         <f t="shared" si="1"/>
         <v>18720</v>
       </c>
-      <c r="H25" s="30">
+      <c r="H25" s="31">
         <v>0</v>
       </c>
       <c r="J25" s="11">
@@ -3207,7 +3271,7 @@
         <v>3120</v>
       </c>
     </row>
-    <row r="26" s="11" customFormat="1" spans="1:30">
+    <row r="26" s="11" customFormat="1" spans="1:36">
       <c r="A26" s="11">
         <v>24</v>
       </c>
@@ -3219,13 +3283,13 @@
       </c>
       <c r="F26" s="10">
         <f t="shared" si="3"/>
-        <v>35000</v>
+        <v>40000</v>
       </c>
       <c r="G26" s="10">
         <f t="shared" si="1"/>
-        <v>36400</v>
-      </c>
-      <c r="H26" s="30">
+        <v>41600</v>
+      </c>
+      <c r="H26" s="31">
         <v>0</v>
       </c>
       <c r="I26" s="11">
@@ -3249,8 +3313,11 @@
       <c r="AD26" s="11">
         <v>5200</v>
       </c>
-    </row>
-    <row r="27" s="11" customFormat="1" spans="1:33">
+      <c r="AJ26" s="11">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="27" s="11" customFormat="1" spans="1:36">
       <c r="A27" s="11">
         <v>25</v>
       </c>
@@ -3262,13 +3329,13 @@
       </c>
       <c r="F27" s="10">
         <f t="shared" si="3"/>
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="G27" s="10">
         <f t="shared" si="1"/>
-        <v>12480</v>
-      </c>
-      <c r="H27" s="30">
+        <v>15600</v>
+      </c>
+      <c r="H27" s="31">
         <v>3000</v>
       </c>
       <c r="O27" s="11">
@@ -3283,8 +3350,11 @@
       <c r="AG27" s="11">
         <v>3120</v>
       </c>
-    </row>
-    <row r="28" s="11" customFormat="1" spans="1:31">
+      <c r="AJ27" s="11">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="28" s="11" customFormat="1" spans="1:36">
       <c r="A28" s="11">
         <v>26</v>
       </c>
@@ -3296,13 +3366,13 @@
       </c>
       <c r="F28" s="10">
         <f t="shared" si="3"/>
-        <v>14500</v>
+        <v>16500</v>
       </c>
       <c r="G28" s="10">
         <f t="shared" si="1"/>
-        <v>12480</v>
-      </c>
-      <c r="H28" s="30">
+        <v>14560</v>
+      </c>
+      <c r="H28" s="31">
         <v>2500</v>
       </c>
       <c r="K28" s="11">
@@ -3321,6 +3391,9 @@
         <v>2080</v>
       </c>
       <c r="AE28" s="11">
+        <v>2080</v>
+      </c>
+      <c r="AJ28" s="11">
         <v>2080</v>
       </c>
     </row>
@@ -3342,7 +3415,7 @@
         <f>SUM(J29:AM29)</f>
         <v>8320</v>
       </c>
-      <c r="H29" s="30">
+      <c r="H29" s="31">
         <v>0</v>
       </c>
       <c r="J29" s="11">
@@ -3358,7 +3431,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="30" s="11" customFormat="1" spans="1:25">
+    <row r="30" s="11" customFormat="1" spans="1:35">
       <c r="A30" s="11">
         <v>28</v>
       </c>
@@ -3370,13 +3443,13 @@
       </c>
       <c r="F30" s="10">
         <f t="shared" si="3"/>
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="G30" s="10">
         <f t="shared" ref="G30:G41" si="4">SUM(I30:AM30)</f>
-        <v>4160</v>
-      </c>
-      <c r="H30" s="30">
+        <v>6240</v>
+      </c>
+      <c r="H30" s="31">
         <v>2000</v>
       </c>
       <c r="S30" s="11">
@@ -3385,8 +3458,11 @@
       <c r="Y30" s="11">
         <v>2080</v>
       </c>
-    </row>
-    <row r="31" s="11" customFormat="1" spans="1:32">
+      <c r="AI30" s="11">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="31" s="11" customFormat="1" spans="1:36">
       <c r="A31" s="11">
         <v>29</v>
       </c>
@@ -3398,16 +3474,16 @@
       </c>
       <c r="F31" s="10">
         <f t="shared" si="3"/>
-        <v>21000</v>
+        <v>26000</v>
       </c>
       <c r="G31" s="10">
         <f t="shared" si="4"/>
-        <v>21840</v>
-      </c>
-      <c r="H31" s="30">
-        <v>0</v>
-      </c>
-      <c r="I31" s="37">
+        <v>27040</v>
+      </c>
+      <c r="H31" s="31">
+        <v>0</v>
+      </c>
+      <c r="I31" s="38">
         <v>520</v>
       </c>
       <c r="J31" s="11">
@@ -3416,13 +3492,16 @@
       <c r="O31" s="11">
         <v>5200</v>
       </c>
-      <c r="T31" s="37">
+      <c r="T31" s="38">
         <v>520</v>
       </c>
       <c r="U31" s="11">
         <v>5200</v>
       </c>
       <c r="AF31" s="11">
+        <v>5200</v>
+      </c>
+      <c r="AJ31" s="11">
         <v>5200</v>
       </c>
     </row>
@@ -3444,7 +3523,7 @@
         <f t="shared" si="4"/>
         <v>46800</v>
       </c>
-      <c r="H32" s="30">
+      <c r="H32" s="31">
         <v>0</v>
       </c>
       <c r="I32" s="11">
@@ -3493,7 +3572,7 @@
         <f t="shared" si="4"/>
         <v>12480</v>
       </c>
-      <c r="H33" s="30">
+      <c r="H33" s="31">
         <v>1000</v>
       </c>
       <c r="L33" s="11">
@@ -3515,7 +3594,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="34" s="11" customFormat="1" spans="1:34">
+    <row r="34" s="11" customFormat="1" spans="1:36">
       <c r="A34" s="11">
         <v>32</v>
       </c>
@@ -3527,13 +3606,13 @@
       </c>
       <c r="F34" s="10">
         <f t="shared" si="3"/>
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="G34" s="10">
         <f t="shared" si="4"/>
-        <v>8320</v>
-      </c>
-      <c r="H34" s="30">
+        <v>9360</v>
+      </c>
+      <c r="H34" s="31">
         <v>1000</v>
       </c>
       <c r="J34" s="11">
@@ -3560,8 +3639,11 @@
       <c r="AH34" s="11">
         <v>1040</v>
       </c>
-    </row>
-    <row r="35" s="11" customFormat="1" spans="1:31">
+      <c r="AJ34" s="11">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="35" s="11" customFormat="1" spans="1:35">
       <c r="A35" s="11">
         <v>33</v>
       </c>
@@ -3573,13 +3655,13 @@
       </c>
       <c r="F35" s="10">
         <f t="shared" si="3"/>
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="G35" s="10">
         <f t="shared" si="4"/>
-        <v>7280</v>
-      </c>
-      <c r="H35" s="30">
+        <v>8320</v>
+      </c>
+      <c r="H35" s="31">
         <v>0</v>
       </c>
       <c r="I35" s="11">
@@ -3601,6 +3683,9 @@
         <v>1040</v>
       </c>
       <c r="AE35" s="11">
+        <v>1040</v>
+      </c>
+      <c r="AI35" s="11">
         <v>1040</v>
       </c>
     </row>
@@ -3622,14 +3707,14 @@
         <f t="shared" si="4"/>
         <v>2080</v>
       </c>
-      <c r="H36" s="30">
+      <c r="H36" s="31">
         <v>2000</v>
       </c>
       <c r="O36" s="11">
         <v>2080</v>
       </c>
     </row>
-    <row r="37" s="11" customFormat="1" spans="1:30">
+    <row r="37" s="11" customFormat="1" spans="1:35">
       <c r="A37" s="11">
         <v>35</v>
       </c>
@@ -3641,13 +3726,13 @@
       </c>
       <c r="F37" s="10">
         <f t="shared" si="3"/>
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="G37" s="10">
         <f t="shared" si="4"/>
-        <v>28080</v>
-      </c>
-      <c r="H37" s="30">
+        <v>31200</v>
+      </c>
+      <c r="H37" s="31">
         <v>0</v>
       </c>
       <c r="I37" s="11">
@@ -3675,6 +3760,9 @@
         <v>3120</v>
       </c>
       <c r="AD37" s="11">
+        <v>3120</v>
+      </c>
+      <c r="AI37" s="11">
         <v>3120</v>
       </c>
     </row>
@@ -3696,14 +3784,14 @@
         <f t="shared" si="4"/>
         <v>1040</v>
       </c>
-      <c r="H38" s="30">
+      <c r="H38" s="31">
         <v>0</v>
       </c>
       <c r="P38" s="11">
         <v>1040</v>
       </c>
     </row>
-    <row r="39" s="11" customFormat="1" spans="1:28">
+    <row r="39" s="11" customFormat="1" spans="1:35">
       <c r="A39" s="11">
         <v>37</v>
       </c>
@@ -3715,13 +3803,13 @@
       </c>
       <c r="F39" s="10">
         <f t="shared" si="3"/>
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="G39" s="10">
         <f t="shared" si="4"/>
-        <v>12480</v>
-      </c>
-      <c r="H39" s="30">
+        <v>15600</v>
+      </c>
+      <c r="H39" s="31">
         <v>0</v>
       </c>
       <c r="J39" s="11">
@@ -3736,8 +3824,11 @@
       <c r="AB39" s="11">
         <v>3120</v>
       </c>
-    </row>
-    <row r="40" s="11" customFormat="1" spans="1:21">
+      <c r="AI39" s="11">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="40" s="11" customFormat="1" spans="1:36">
       <c r="A40" s="11">
         <v>38</v>
       </c>
@@ -3752,20 +3843,23 @@
       </c>
       <c r="F40" s="10">
         <f t="shared" si="3"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="G40" s="10">
         <f t="shared" si="4"/>
-        <v>2080</v>
-      </c>
-      <c r="H40" s="30">
+        <v>4160</v>
+      </c>
+      <c r="H40" s="31">
         <v>2000</v>
       </c>
       <c r="U40" s="11">
         <v>2080</v>
       </c>
-    </row>
-    <row r="41" s="11" customFormat="1" spans="1:27">
+      <c r="AJ40" s="11">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="41" s="11" customFormat="1" spans="1:34">
       <c r="A41" s="11">
         <v>39</v>
       </c>
@@ -3777,13 +3871,13 @@
       </c>
       <c r="F41" s="10">
         <f t="shared" si="3"/>
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="G41" s="10">
         <f t="shared" si="4"/>
-        <v>8320</v>
-      </c>
-      <c r="H41" s="30">
+        <v>10400</v>
+      </c>
+      <c r="H41" s="31">
         <v>2000</v>
       </c>
       <c r="I41" s="11">
@@ -3796,6 +3890,9 @@
         <v>2080</v>
       </c>
       <c r="AA41" s="11">
+        <v>2080</v>
+      </c>
+      <c r="AH41" s="11">
         <v>2080</v>
       </c>
     </row>
@@ -3814,10 +3911,10 @@
         <v>6000</v>
       </c>
       <c r="G42" s="10">
-        <f>SUM(J42:AM42)</f>
+        <f>SUM(I42:AM42)</f>
         <v>6240</v>
       </c>
-      <c r="H42" s="30">
+      <c r="H42" s="31">
         <v>0</v>
       </c>
       <c r="L42" s="11">
@@ -3848,7 +3945,7 @@
         <f t="shared" ref="G43:G84" si="5">SUM(I43:AM43)</f>
         <v>40560</v>
       </c>
-      <c r="H43" s="30">
+      <c r="H43" s="31">
         <v>1500</v>
       </c>
       <c r="I43" s="11">
@@ -3909,7 +4006,7 @@
         <f t="shared" si="5"/>
         <v>4160</v>
       </c>
-      <c r="H44" s="30">
+      <c r="H44" s="31">
         <v>0</v>
       </c>
       <c r="T44" s="11">
@@ -3937,7 +4034,7 @@
         <f t="shared" si="5"/>
         <v>21840</v>
       </c>
-      <c r="H45" s="30">
+      <c r="H45" s="31">
         <v>0</v>
       </c>
       <c r="J45" s="11">
@@ -3980,7 +4077,7 @@
         <f t="shared" si="5"/>
         <v>18720</v>
       </c>
-      <c r="H46" s="30">
+      <c r="H46" s="31">
         <v>3000</v>
       </c>
       <c r="K46" s="11">
@@ -4020,7 +4117,7 @@
         <f t="shared" si="5"/>
         <v>18720</v>
       </c>
-      <c r="H47" s="30">
+      <c r="H47" s="31">
         <v>0</v>
       </c>
       <c r="L47" s="11">
@@ -4060,7 +4157,7 @@
         <f t="shared" si="5"/>
         <v>4160</v>
       </c>
-      <c r="H48" s="30">
+      <c r="H48" s="31">
         <v>0</v>
       </c>
       <c r="K48" s="11">
@@ -4070,7 +4167,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="49" s="11" customFormat="1" spans="1:34">
+    <row r="49" s="11" customFormat="1" spans="1:36">
       <c r="A49" s="11">
         <v>47</v>
       </c>
@@ -4082,13 +4179,13 @@
       </c>
       <c r="F49" s="10">
         <f t="shared" si="3"/>
-        <v>33000</v>
+        <v>36000</v>
       </c>
       <c r="G49" s="10">
         <f t="shared" si="5"/>
-        <v>31200</v>
-      </c>
-      <c r="H49" s="30">
+        <v>34320</v>
+      </c>
+      <c r="H49" s="31">
         <v>3000</v>
       </c>
       <c r="I49" s="11">
@@ -4121,8 +4218,11 @@
       <c r="AH49" s="11">
         <v>3120</v>
       </c>
-    </row>
-    <row r="50" s="11" customFormat="1" spans="1:31">
+      <c r="AJ49" s="11">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="50" s="11" customFormat="1" spans="1:36">
       <c r="A50" s="11">
         <v>48</v>
       </c>
@@ -4134,13 +4234,13 @@
       </c>
       <c r="F50" s="10">
         <f t="shared" si="3"/>
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="G50" s="10">
         <f t="shared" si="5"/>
-        <v>24960</v>
-      </c>
-      <c r="H50" s="30">
+        <v>28080</v>
+      </c>
+      <c r="H50" s="31">
         <v>3000</v>
       </c>
       <c r="K50" s="11">
@@ -4167,8 +4267,11 @@
       <c r="AE50" s="11">
         <v>3120</v>
       </c>
-    </row>
-    <row r="51" s="11" customFormat="1" spans="1:28">
+      <c r="AJ50" s="11">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="51" s="11" customFormat="1" spans="1:36">
       <c r="A51" s="11">
         <v>49</v>
       </c>
@@ -4180,13 +4283,13 @@
       </c>
       <c r="F51" s="10">
         <f t="shared" si="3"/>
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="G51" s="10">
         <f t="shared" si="5"/>
-        <v>8320</v>
-      </c>
-      <c r="H51" s="30">
+        <v>10400</v>
+      </c>
+      <c r="H51" s="31">
         <v>0</v>
       </c>
       <c r="M51" s="11">
@@ -4199,6 +4302,9 @@
         <v>2080</v>
       </c>
       <c r="AB51" s="11">
+        <v>2080</v>
+      </c>
+      <c r="AJ51" s="11">
         <v>2080</v>
       </c>
     </row>
@@ -4220,11 +4326,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H52" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" s="11" customFormat="1" spans="1:34">
+      <c r="H52" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" s="11" customFormat="1" spans="1:35">
       <c r="A53" s="11">
         <v>51</v>
       </c>
@@ -4236,13 +4342,13 @@
       </c>
       <c r="F53" s="10">
         <f t="shared" si="3"/>
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="G53" s="10">
         <f t="shared" si="5"/>
-        <v>17680</v>
-      </c>
-      <c r="H53" s="30">
+        <v>18720</v>
+      </c>
+      <c r="H53" s="31">
         <v>0</v>
       </c>
       <c r="J53" s="11">
@@ -4293,8 +4399,11 @@
       <c r="AH53" s="11">
         <v>1040</v>
       </c>
-    </row>
-    <row r="54" s="11" customFormat="1" spans="1:32">
+      <c r="AI53" s="11">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="54" s="11" customFormat="1" spans="1:36">
       <c r="A54" s="11">
         <v>52</v>
       </c>
@@ -4306,16 +4415,16 @@
       </c>
       <c r="F54" s="10">
         <f t="shared" si="3"/>
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="G54" s="10">
         <f t="shared" si="5"/>
-        <v>12480</v>
-      </c>
-      <c r="H54" s="30">
-        <v>2000</v>
-      </c>
-      <c r="L54" s="37">
+        <v>14560</v>
+      </c>
+      <c r="H54" s="31">
+        <v>2000</v>
+      </c>
+      <c r="L54" s="38">
         <v>2080</v>
       </c>
       <c r="S54" s="11">
@@ -4331,6 +4440,9 @@
         <v>2080</v>
       </c>
       <c r="AF54" s="11">
+        <v>2080</v>
+      </c>
+      <c r="AJ54" s="11">
         <v>2080</v>
       </c>
     </row>
@@ -4338,11 +4450,11 @@
       <c r="A55" s="11">
         <v>53</v>
       </c>
-      <c r="B55" s="34"/>
+      <c r="B55" s="35"/>
       <c r="D55" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="E55" s="33" t="s">
+      <c r="E55" s="34" t="s">
         <v>74</v>
       </c>
       <c r="F55" s="10">
@@ -4353,10 +4465,10 @@
         <f t="shared" si="5"/>
         <v>2080</v>
       </c>
-      <c r="H55" s="30">
-        <v>0</v>
-      </c>
-      <c r="U55" s="37">
+      <c r="H55" s="31">
+        <v>0</v>
+      </c>
+      <c r="U55" s="38">
         <v>2080</v>
       </c>
     </row>
@@ -4364,11 +4476,11 @@
       <c r="A56" s="11">
         <v>54</v>
       </c>
-      <c r="B56" s="34"/>
+      <c r="B56" s="35"/>
       <c r="D56" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="E56" s="33" t="s">
+      <c r="E56" s="34" t="s">
         <v>75</v>
       </c>
       <c r="F56" s="10">
@@ -4379,7 +4491,7 @@
         <f t="shared" si="5"/>
         <v>5200</v>
       </c>
-      <c r="H56" s="30">
+      <c r="H56" s="31">
         <v>0</v>
       </c>
       <c r="N56" s="11">
@@ -4402,11 +4514,11 @@
       <c r="A57" s="11">
         <v>55</v>
       </c>
-      <c r="B57" s="34"/>
+      <c r="B57" s="35"/>
       <c r="D57" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="E57" s="33" t="s">
+      <c r="E57" s="34" t="s">
         <v>76</v>
       </c>
       <c r="F57" s="10">
@@ -4417,7 +4529,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H57" s="30">
+      <c r="H57" s="31">
         <v>0</v>
       </c>
     </row>
@@ -4439,7 +4551,7 @@
         <f t="shared" si="5"/>
         <v>12480</v>
       </c>
-      <c r="H58" s="30">
+      <c r="H58" s="31">
         <v>0</v>
       </c>
       <c r="J58" s="11">
@@ -4461,7 +4573,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="59" s="11" customFormat="1" spans="1:30">
+    <row r="59" s="11" customFormat="1" spans="1:36">
       <c r="A59" s="11">
         <v>57</v>
       </c>
@@ -4473,19 +4585,19 @@
       </c>
       <c r="F59" s="10">
         <f t="shared" si="3"/>
-        <v>35000</v>
+        <v>40000</v>
       </c>
       <c r="G59" s="10">
         <f t="shared" si="5"/>
-        <v>31200</v>
-      </c>
-      <c r="H59" s="30">
+        <v>36400</v>
+      </c>
+      <c r="H59" s="31">
         <v>5000</v>
       </c>
       <c r="L59" s="11">
         <v>5200</v>
       </c>
-      <c r="P59" s="37">
+      <c r="P59" s="38">
         <v>5200</v>
       </c>
       <c r="Q59" s="11">
@@ -4498,6 +4610,9 @@
         <v>5200</v>
       </c>
       <c r="AD59" s="11">
+        <v>5200</v>
+      </c>
+      <c r="AJ59" s="11">
         <v>5200</v>
       </c>
     </row>
@@ -4519,7 +4634,7 @@
         <f t="shared" si="5"/>
         <v>15600</v>
       </c>
-      <c r="H60" s="30">
+      <c r="H60" s="31">
         <v>0</v>
       </c>
       <c r="K60" s="11">
@@ -4550,7 +4665,7 @@
         <f t="shared" si="5"/>
         <v>12480</v>
       </c>
-      <c r="H61" s="30">
+      <c r="H61" s="31">
         <v>0</v>
       </c>
       <c r="I61" s="11">
@@ -4562,7 +4677,7 @@
       <c r="S61" s="11">
         <v>2080</v>
       </c>
-      <c r="W61" s="38">
+      <c r="W61" s="39">
         <v>2080</v>
       </c>
       <c r="X61" s="11">
@@ -4576,11 +4691,11 @@
       <c r="A62" s="11">
         <v>60</v>
       </c>
-      <c r="B62" s="34"/>
+      <c r="B62" s="35"/>
       <c r="D62" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="E62" s="33" t="s">
+      <c r="E62" s="34" t="s">
         <v>83</v>
       </c>
       <c r="F62" s="10">
@@ -4591,7 +4706,7 @@
         <f t="shared" si="5"/>
         <v>26000</v>
       </c>
-      <c r="H62" s="30">
+      <c r="H62" s="31">
         <v>5000</v>
       </c>
       <c r="N62" s="11">
@@ -4614,11 +4729,11 @@
       <c r="A63" s="11">
         <v>61</v>
       </c>
-      <c r="B63" s="34"/>
+      <c r="B63" s="35"/>
       <c r="D63" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="E63" s="33" t="s">
+      <c r="E63" s="34" t="s">
         <v>84</v>
       </c>
       <c r="F63" s="10">
@@ -4629,10 +4744,10 @@
         <f t="shared" si="5"/>
         <v>520</v>
       </c>
-      <c r="H63" s="30">
+      <c r="H63" s="31">
         <v>3000</v>
       </c>
-      <c r="Q63" s="37">
+      <c r="Q63" s="38">
         <v>520</v>
       </c>
     </row>
@@ -4640,7 +4755,7 @@
       <c r="A64" s="11">
         <v>62</v>
       </c>
-      <c r="C64" s="31" t="s">
+      <c r="C64" s="32" t="s">
         <v>85</v>
       </c>
       <c r="D64" s="11" t="s">
@@ -4657,7 +4772,7 @@
         <f t="shared" si="5"/>
         <v>10400</v>
       </c>
-      <c r="H64" s="30">
+      <c r="H64" s="31">
         <v>0</v>
       </c>
       <c r="O64" s="11">
@@ -4688,7 +4803,7 @@
         <f t="shared" si="5"/>
         <v>6240</v>
       </c>
-      <c r="H65" s="25">
+      <c r="H65" s="26">
         <v>2000</v>
       </c>
       <c r="O65" s="11">
@@ -4705,11 +4820,11 @@
       <c r="A66" s="11">
         <v>64</v>
       </c>
-      <c r="B66" s="34"/>
+      <c r="B66" s="35"/>
       <c r="D66" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="E66" s="33" t="s">
+      <c r="E66" s="34" t="s">
         <v>89</v>
       </c>
       <c r="F66" s="10">
@@ -4720,7 +4835,7 @@
         <f t="shared" si="5"/>
         <v>16640</v>
       </c>
-      <c r="H66" s="30">
+      <c r="H66" s="31">
         <v>2000</v>
       </c>
       <c r="L66" s="11">
@@ -4752,11 +4867,11 @@
       <c r="A67" s="11">
         <v>65</v>
       </c>
-      <c r="B67" s="34"/>
+      <c r="B67" s="35"/>
       <c r="D67" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="E67" s="33" t="s">
+      <c r="E67" s="34" t="s">
         <v>91</v>
       </c>
       <c r="F67" s="10">
@@ -4767,7 +4882,7 @@
         <f t="shared" si="5"/>
         <v>4160</v>
       </c>
-      <c r="H67" s="30">
+      <c r="H67" s="31">
         <v>2000</v>
       </c>
       <c r="T67" s="11">
@@ -4795,7 +4910,7 @@
         <f t="shared" si="5"/>
         <v>10400</v>
       </c>
-      <c r="H68" s="30">
+      <c r="H68" s="31">
         <v>2000</v>
       </c>
       <c r="L68" s="11">
@@ -4814,7 +4929,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="69" s="11" customFormat="1" spans="1:29">
+    <row r="69" s="11" customFormat="1" spans="1:35">
       <c r="A69" s="11">
         <v>67</v>
       </c>
@@ -4826,13 +4941,13 @@
       </c>
       <c r="F69" s="10">
         <f t="shared" si="3"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="G69" s="10">
         <f t="shared" si="5"/>
-        <v>6240</v>
-      </c>
-      <c r="H69" s="30">
+        <v>8320</v>
+      </c>
+      <c r="H69" s="31">
         <v>-2000</v>
       </c>
       <c r="N69" s="11">
@@ -4842,6 +4957,9 @@
         <v>2080</v>
       </c>
       <c r="AC69" s="11">
+        <v>2080</v>
+      </c>
+      <c r="AI69" s="11">
         <v>2080</v>
       </c>
     </row>
@@ -4863,7 +4981,7 @@
         <f t="shared" si="5"/>
         <v>6240</v>
       </c>
-      <c r="H70" s="30">
+      <c r="H70" s="31">
         <v>0</v>
       </c>
       <c r="I70" s="11">
@@ -4894,7 +5012,7 @@
         <f t="shared" si="5"/>
         <v>5200</v>
       </c>
-      <c r="H71" s="30">
+      <c r="H71" s="31">
         <v>0</v>
       </c>
       <c r="J71" s="11">
@@ -4913,7 +5031,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="72" s="11" customFormat="1" spans="1:31">
+    <row r="72" s="11" customFormat="1" spans="1:34">
       <c r="A72" s="11">
         <v>70</v>
       </c>
@@ -4925,13 +5043,13 @@
       </c>
       <c r="F72" s="10">
         <f t="shared" si="3"/>
-        <v>45000</v>
+        <v>50000</v>
       </c>
       <c r="G72" s="10">
         <f t="shared" si="5"/>
-        <v>41600</v>
-      </c>
-      <c r="H72" s="30">
+        <v>46800</v>
+      </c>
+      <c r="H72" s="31">
         <v>5000</v>
       </c>
       <c r="K72" s="11">
@@ -4958,8 +5076,11 @@
       <c r="AE72" s="11">
         <v>5200</v>
       </c>
-    </row>
-    <row r="73" s="11" customFormat="1" spans="1:33">
+      <c r="AH72" s="11">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="73" s="11" customFormat="1" spans="1:35">
       <c r="A73" s="11">
         <v>71</v>
       </c>
@@ -4971,13 +5092,13 @@
       </c>
       <c r="F73" s="10">
         <f t="shared" si="3"/>
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="G73" s="10">
         <f t="shared" si="5"/>
-        <v>18720</v>
-      </c>
-      <c r="H73" s="30">
+        <v>21840</v>
+      </c>
+      <c r="H73" s="31">
         <v>0</v>
       </c>
       <c r="J73" s="11">
@@ -4996,6 +5117,9 @@
         <v>3120</v>
       </c>
       <c r="AG73" s="11">
+        <v>3120</v>
+      </c>
+      <c r="AI73" s="11">
         <v>3120</v>
       </c>
     </row>
@@ -5003,11 +5127,11 @@
       <c r="A74" s="11">
         <v>72</v>
       </c>
-      <c r="B74" s="34"/>
+      <c r="B74" s="35"/>
       <c r="D74" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E74" s="33" t="s">
+      <c r="E74" s="34" t="s">
         <v>99</v>
       </c>
       <c r="F74" s="10">
@@ -5018,7 +5142,7 @@
         <f t="shared" si="5"/>
         <v>10400</v>
       </c>
-      <c r="H74" s="30">
+      <c r="H74" s="31">
         <v>0</v>
       </c>
       <c r="O74" s="11">
@@ -5058,37 +5182,40 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H75" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" s="11" customFormat="1" spans="1:26">
+      <c r="H75" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" s="11" customFormat="1" spans="1:34">
       <c r="A76" s="11">
         <v>74</v>
       </c>
-      <c r="B76" s="34"/>
+      <c r="B76" s="35"/>
       <c r="D76" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E76" s="33" t="s">
+      <c r="E76" s="34" t="s">
         <v>101</v>
       </c>
       <c r="F76" s="10">
         <f t="shared" si="3"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="G76" s="10">
         <f t="shared" si="5"/>
-        <v>2080</v>
-      </c>
-      <c r="H76" s="30">
+        <v>4160</v>
+      </c>
+      <c r="H76" s="31">
         <v>2000</v>
       </c>
       <c r="Z76" s="11">
         <v>2080</v>
       </c>
-    </row>
-    <row r="77" s="11" customFormat="1" spans="1:33">
+      <c r="AH76" s="11">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="77" s="11" customFormat="1" spans="1:36">
       <c r="A77" s="11">
         <v>75</v>
       </c>
@@ -5100,13 +5227,13 @@
       </c>
       <c r="F77" s="10">
         <f t="shared" si="3"/>
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="G77" s="10">
         <f t="shared" si="5"/>
-        <v>13520</v>
-      </c>
-      <c r="H77" s="30">
+        <v>14560</v>
+      </c>
+      <c r="H77" s="31">
         <v>2000</v>
       </c>
       <c r="I77" s="11">
@@ -5145,8 +5272,11 @@
       <c r="AG77" s="11">
         <v>1040</v>
       </c>
-    </row>
-    <row r="78" s="11" customFormat="1" spans="1:33">
+      <c r="AJ77" s="11">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="78" s="11" customFormat="1" spans="1:35">
       <c r="A78" s="11">
         <v>76</v>
       </c>
@@ -5158,13 +5288,13 @@
       </c>
       <c r="F78" s="10">
         <f t="shared" si="3"/>
-        <v>33000</v>
+        <v>36000</v>
       </c>
       <c r="G78" s="10">
         <f t="shared" si="5"/>
-        <v>28080</v>
-      </c>
-      <c r="H78" s="30">
+        <v>31200</v>
+      </c>
+      <c r="H78" s="31">
         <v>6000</v>
       </c>
       <c r="L78" s="11">
@@ -5194,8 +5324,11 @@
       <c r="AG78" s="11">
         <v>3120</v>
       </c>
-    </row>
-    <row r="79" s="11" customFormat="1" spans="1:31">
+      <c r="AI78" s="11">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="79" s="11" customFormat="1" spans="1:36">
       <c r="A79" s="11">
         <v>77</v>
       </c>
@@ -5207,13 +5340,13 @@
       </c>
       <c r="F79" s="10">
         <f t="shared" si="3"/>
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="G79" s="10">
         <f t="shared" si="5"/>
-        <v>16640</v>
-      </c>
-      <c r="H79" s="30">
+        <v>18720</v>
+      </c>
+      <c r="H79" s="31">
         <v>3000</v>
       </c>
       <c r="K79" s="11">
@@ -5238,6 +5371,9 @@
         <v>2080</v>
       </c>
       <c r="AE79" s="11">
+        <v>2080</v>
+      </c>
+      <c r="AJ79" s="11">
         <v>2080</v>
       </c>
     </row>
@@ -5245,8 +5381,8 @@
       <c r="A80" s="11">
         <v>78</v>
       </c>
-      <c r="B80" s="34"/>
-      <c r="E80" s="33" t="s">
+      <c r="B80" s="35"/>
+      <c r="E80" s="34" t="s">
         <v>106</v>
       </c>
       <c r="F80" s="10">
@@ -5257,27 +5393,27 @@
         <f t="shared" si="5"/>
         <v>9360</v>
       </c>
-      <c r="H80" s="30">
+      <c r="H80" s="31">
         <v>49000</v>
       </c>
-      <c r="I80" s="34"/>
-      <c r="J80" s="34"/>
-      <c r="K80" s="34"/>
-      <c r="L80" s="34"/>
-      <c r="M80" s="34"/>
-      <c r="N80" s="34"/>
-      <c r="O80" s="34"/>
-      <c r="P80" s="34"/>
-      <c r="Q80" s="34"/>
-      <c r="R80" s="34"/>
-      <c r="S80" s="34"/>
-      <c r="T80" s="34"/>
-      <c r="V80" s="36"/>
-      <c r="W80" s="39">
+      <c r="I80" s="35"/>
+      <c r="J80" s="35"/>
+      <c r="K80" s="35"/>
+      <c r="L80" s="35"/>
+      <c r="M80" s="35"/>
+      <c r="N80" s="35"/>
+      <c r="O80" s="35"/>
+      <c r="P80" s="35"/>
+      <c r="Q80" s="35"/>
+      <c r="R80" s="35"/>
+      <c r="S80" s="35"/>
+      <c r="T80" s="35"/>
+      <c r="V80" s="37"/>
+      <c r="W80" s="40">
         <v>5200</v>
       </c>
-      <c r="X80" s="36"/>
-      <c r="Y80" s="36"/>
+      <c r="X80" s="37"/>
+      <c r="Y80" s="37"/>
       <c r="AA80" s="11">
         <v>2080</v>
       </c>
@@ -5285,26 +5421,26 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="81" s="11" customFormat="1" spans="1:33">
+    <row r="81" s="11" customFormat="1" spans="1:35">
       <c r="A81" s="11">
         <v>79</v>
       </c>
-      <c r="B81" s="34"/>
+      <c r="B81" s="35"/>
       <c r="D81" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="E81" s="33" t="s">
+      <c r="E81" s="34" t="s">
         <v>108</v>
       </c>
       <c r="F81" s="10">
         <f t="shared" si="3"/>
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="G81" s="10">
         <f t="shared" si="5"/>
-        <v>9360</v>
-      </c>
-      <c r="H81" s="30">
+        <v>10400</v>
+      </c>
+      <c r="H81" s="31">
         <v>0</v>
       </c>
       <c r="I81" s="11">
@@ -5332,6 +5468,9 @@
         <v>1040</v>
       </c>
       <c r="AG81" s="11">
+        <v>1040</v>
+      </c>
+      <c r="AI81" s="11">
         <v>1040</v>
       </c>
     </row>
@@ -5339,8 +5478,8 @@
       <c r="A82" s="11">
         <v>80</v>
       </c>
-      <c r="B82" s="34"/>
-      <c r="E82" s="33" t="s">
+      <c r="B82" s="35"/>
+      <c r="E82" s="34" t="s">
         <v>109</v>
       </c>
       <c r="F82" s="10">
@@ -5351,7 +5490,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H82" s="30">
+      <c r="H82" s="31">
         <v>0</v>
       </c>
     </row>
@@ -5359,11 +5498,11 @@
       <c r="A83" s="11">
         <v>81</v>
       </c>
-      <c r="B83" s="34"/>
+      <c r="B83" s="35"/>
       <c r="D83" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="E83" s="33" t="s">
+      <c r="E83" s="34" t="s">
         <v>111</v>
       </c>
       <c r="F83" s="10">
@@ -5374,7 +5513,7 @@
         <f t="shared" si="5"/>
         <v>6240</v>
       </c>
-      <c r="H83" s="30">
+      <c r="H83" s="31">
         <v>-2000</v>
       </c>
       <c r="J83" s="11">
@@ -5391,8 +5530,8 @@
       <c r="A84" s="11">
         <v>82</v>
       </c>
-      <c r="B84" s="34"/>
-      <c r="E84" s="33" t="s">
+      <c r="B84" s="35"/>
+      <c r="E84" s="34" t="s">
         <v>112</v>
       </c>
       <c r="F84" s="10">
@@ -5403,31 +5542,31 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H84" s="30">
-        <v>0</v>
-      </c>
-      <c r="I84" s="36"/>
-      <c r="J84" s="36"/>
-      <c r="K84" s="36"/>
-      <c r="L84" s="36"/>
-      <c r="M84" s="36"/>
-      <c r="N84" s="36"/>
-      <c r="O84" s="36"/>
-      <c r="P84" s="36"/>
-      <c r="Q84" s="36"/>
-      <c r="R84" s="36"/>
-      <c r="S84" s="36"/>
-      <c r="T84" s="36"/>
+      <c r="H84" s="31">
+        <v>0</v>
+      </c>
+      <c r="I84" s="37"/>
+      <c r="J84" s="37"/>
+      <c r="K84" s="37"/>
+      <c r="L84" s="37"/>
+      <c r="M84" s="37"/>
+      <c r="N84" s="37"/>
+      <c r="O84" s="37"/>
+      <c r="P84" s="37"/>
+      <c r="Q84" s="37"/>
+      <c r="R84" s="37"/>
+      <c r="S84" s="37"/>
+      <c r="T84" s="37"/>
     </row>
     <row r="85" s="11" customFormat="1" spans="1:32">
       <c r="A85" s="11">
         <v>83</v>
       </c>
-      <c r="B85" s="34"/>
+      <c r="B85" s="35"/>
       <c r="D85" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="E85" s="33" t="s">
+      <c r="E85" s="34" t="s">
         <v>114</v>
       </c>
       <c r="F85" s="10">
@@ -5438,7 +5577,7 @@
         <f>SUM(J85:AM85)</f>
         <v>31200</v>
       </c>
-      <c r="H85" s="30">
+      <c r="H85" s="31">
         <v>0</v>
       </c>
       <c r="J85" s="11">
@@ -5460,7 +5599,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="86" s="11" customFormat="1" spans="1:16">
+    <row r="86" s="11" customFormat="1" spans="1:35">
       <c r="A86" s="11">
         <v>84</v>
       </c>
@@ -5472,16 +5611,19 @@
       </c>
       <c r="F86" s="10">
         <f t="shared" si="6"/>
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="G86" s="10">
         <f t="shared" ref="G86:G96" si="7">SUM(I86:AM86)</f>
+        <v>10400</v>
+      </c>
+      <c r="H86" s="31">
+        <v>0</v>
+      </c>
+      <c r="P86" s="11">
         <v>5200</v>
       </c>
-      <c r="H86" s="30">
-        <v>0</v>
-      </c>
-      <c r="P86" s="11">
+      <c r="AI86" s="11">
         <v>5200</v>
       </c>
     </row>
@@ -5489,14 +5631,14 @@
       <c r="A87" s="11">
         <v>85</v>
       </c>
-      <c r="B87" s="34"/>
+      <c r="B87" s="35"/>
       <c r="C87" s="11">
         <v>683879115</v>
       </c>
       <c r="D87" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="E87" s="33" t="s">
+      <c r="E87" s="34" t="s">
         <v>116</v>
       </c>
       <c r="F87" s="10">
@@ -5507,19 +5649,19 @@
         <f t="shared" si="7"/>
         <v>8320</v>
       </c>
-      <c r="H87" s="30">
-        <v>0</v>
-      </c>
-      <c r="I87" s="37">
-        <v>2080</v>
-      </c>
-      <c r="N87" s="37">
-        <v>2080</v>
-      </c>
-      <c r="AA87" s="38">
-        <v>2080</v>
-      </c>
-      <c r="AE87" s="38">
+      <c r="H87" s="31">
+        <v>0</v>
+      </c>
+      <c r="I87" s="38">
+        <v>2080</v>
+      </c>
+      <c r="N87" s="38">
+        <v>2080</v>
+      </c>
+      <c r="AA87" s="39">
+        <v>2080</v>
+      </c>
+      <c r="AE87" s="39">
         <v>2080</v>
       </c>
     </row>
@@ -5527,11 +5669,11 @@
       <c r="A88" s="11">
         <v>86</v>
       </c>
-      <c r="B88" s="34"/>
+      <c r="B88" s="35"/>
       <c r="D88" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="E88" s="33" t="s">
+      <c r="E88" s="34" t="s">
         <v>118</v>
       </c>
       <c r="F88" s="10">
@@ -5542,31 +5684,31 @@
         <f t="shared" si="7"/>
         <v>6240</v>
       </c>
-      <c r="H88" s="30">
-        <v>0</v>
-      </c>
-      <c r="I88" s="36"/>
-      <c r="J88" s="36"/>
-      <c r="K88" s="36"/>
-      <c r="L88" s="36"/>
-      <c r="M88" s="36"/>
-      <c r="N88" s="36"/>
-      <c r="O88" s="34"/>
-      <c r="P88" s="36"/>
-      <c r="Q88" s="36"/>
-      <c r="R88" s="36"/>
-      <c r="S88" s="36">
-        <v>2080</v>
-      </c>
-      <c r="T88" s="36"/>
-      <c r="U88" s="36"/>
-      <c r="V88" s="36"/>
-      <c r="W88" s="34"/>
-      <c r="X88" s="36">
-        <v>2080</v>
-      </c>
-      <c r="Y88" s="36"/>
-      <c r="Z88" s="36"/>
+      <c r="H88" s="31">
+        <v>0</v>
+      </c>
+      <c r="I88" s="37"/>
+      <c r="J88" s="37"/>
+      <c r="K88" s="37"/>
+      <c r="L88" s="37"/>
+      <c r="M88" s="37"/>
+      <c r="N88" s="37"/>
+      <c r="O88" s="35"/>
+      <c r="P88" s="37"/>
+      <c r="Q88" s="37"/>
+      <c r="R88" s="37"/>
+      <c r="S88" s="37">
+        <v>2080</v>
+      </c>
+      <c r="T88" s="37"/>
+      <c r="U88" s="37"/>
+      <c r="V88" s="37"/>
+      <c r="W88" s="35"/>
+      <c r="X88" s="37">
+        <v>2080</v>
+      </c>
+      <c r="Y88" s="37"/>
+      <c r="Z88" s="37"/>
       <c r="AH88" s="11">
         <v>2080</v>
       </c>
@@ -5575,8 +5717,8 @@
       <c r="A89" s="11">
         <v>87</v>
       </c>
-      <c r="B89" s="34"/>
-      <c r="E89" s="33" t="s">
+      <c r="B89" s="35"/>
+      <c r="E89" s="34" t="s">
         <v>119</v>
       </c>
       <c r="F89" s="10">
@@ -5587,7 +5729,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H89" s="30">
+      <c r="H89" s="31">
         <v>0</v>
       </c>
     </row>
@@ -5595,8 +5737,8 @@
       <c r="A90" s="11">
         <v>88</v>
       </c>
-      <c r="B90" s="34"/>
-      <c r="E90" s="33" t="s">
+      <c r="B90" s="35"/>
+      <c r="E90" s="34" t="s">
         <v>120</v>
       </c>
       <c r="F90" s="10">
@@ -5607,29 +5749,29 @@
         <f t="shared" si="7"/>
         <v>1040</v>
       </c>
-      <c r="H90" s="30">
-        <v>0</v>
-      </c>
-      <c r="I90" s="36"/>
-      <c r="J90" s="36"/>
-      <c r="K90" s="36"/>
-      <c r="L90" s="36"/>
-      <c r="M90" s="36"/>
-      <c r="N90" s="36"/>
-      <c r="O90" s="36"/>
-      <c r="P90" s="36"/>
-      <c r="Q90" s="36"/>
-      <c r="R90" s="40">
-        <v>1040</v>
-      </c>
-      <c r="S90" s="36"/>
+      <c r="H90" s="31">
+        <v>0</v>
+      </c>
+      <c r="I90" s="37"/>
+      <c r="J90" s="37"/>
+      <c r="K90" s="37"/>
+      <c r="L90" s="37"/>
+      <c r="M90" s="37"/>
+      <c r="N90" s="37"/>
+      <c r="O90" s="37"/>
+      <c r="P90" s="37"/>
+      <c r="Q90" s="37"/>
+      <c r="R90" s="41">
+        <v>1040</v>
+      </c>
+      <c r="S90" s="37"/>
     </row>
     <row r="91" s="11" customFormat="1" spans="1:24">
       <c r="A91" s="11">
         <v>89</v>
       </c>
-      <c r="B91" s="34"/>
-      <c r="E91" s="33" t="s">
+      <c r="B91" s="35"/>
+      <c r="E91" s="34" t="s">
         <v>121</v>
       </c>
       <c r="F91" s="10">
@@ -5640,25 +5782,25 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H91" s="30">
-        <v>0</v>
-      </c>
-      <c r="I91" s="36"/>
-      <c r="J91" s="36"/>
-      <c r="K91" s="36"/>
-      <c r="L91" s="36"/>
-      <c r="M91" s="36"/>
-      <c r="N91" s="36"/>
-      <c r="O91" s="36"/>
-      <c r="P91" s="36"/>
-      <c r="Q91" s="36"/>
-      <c r="R91" s="36"/>
-      <c r="S91" s="36"/>
-      <c r="T91" s="36"/>
-      <c r="U91" s="36"/>
-      <c r="V91" s="36"/>
-      <c r="W91" s="36"/>
-      <c r="X91" s="36"/>
+      <c r="H91" s="31">
+        <v>0</v>
+      </c>
+      <c r="I91" s="37"/>
+      <c r="J91" s="37"/>
+      <c r="K91" s="37"/>
+      <c r="L91" s="37"/>
+      <c r="M91" s="37"/>
+      <c r="N91" s="37"/>
+      <c r="O91" s="37"/>
+      <c r="P91" s="37"/>
+      <c r="Q91" s="37"/>
+      <c r="R91" s="37"/>
+      <c r="S91" s="37"/>
+      <c r="T91" s="37"/>
+      <c r="U91" s="37"/>
+      <c r="V91" s="37"/>
+      <c r="W91" s="37"/>
+      <c r="X91" s="37"/>
     </row>
     <row r="92" s="11" customFormat="1" spans="1:8">
       <c r="A92" s="11">
@@ -5675,7 +5817,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H92" s="30">
+      <c r="H92" s="31">
         <v>1000</v>
       </c>
     </row>
@@ -5694,7 +5836,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H93" s="30">
+      <c r="H93" s="31">
         <v>0</v>
       </c>
     </row>
@@ -5716,7 +5858,7 @@
         <f t="shared" si="7"/>
         <v>2080</v>
       </c>
-      <c r="H94" s="30">
+      <c r="H94" s="31">
         <v>0</v>
       </c>
       <c r="N94" s="11">
@@ -5741,7 +5883,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H95" s="30">
+      <c r="H95" s="31">
         <v>0</v>
       </c>
     </row>
@@ -5760,63 +5902,63 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H96" s="30">
+      <c r="H96" s="31">
         <v>0</v>
       </c>
     </row>
     <row r="97" s="11" customFormat="1" spans="8:8">
-      <c r="H97" s="25"/>
+      <c r="H97" s="26"/>
     </row>
     <row r="98" s="11" customFormat="1" spans="8:8">
-      <c r="H98" s="25"/>
+      <c r="H98" s="26"/>
     </row>
     <row r="99" s="11" customFormat="1" spans="8:8">
-      <c r="H99" s="25"/>
+      <c r="H99" s="26"/>
     </row>
     <row r="100" s="11" customFormat="1" spans="8:8">
-      <c r="H100" s="25"/>
+      <c r="H100" s="26"/>
     </row>
     <row r="101" s="11" customFormat="1" spans="8:8">
-      <c r="H101" s="25"/>
+      <c r="H101" s="26"/>
     </row>
     <row r="102" s="11" customFormat="1" spans="8:8">
-      <c r="H102" s="25"/>
+      <c r="H102" s="26"/>
     </row>
     <row r="103" s="11" customFormat="1" spans="8:8">
-      <c r="H103" s="25"/>
+      <c r="H103" s="26"/>
     </row>
     <row r="104" s="11" customFormat="1" spans="8:8">
-      <c r="H104" s="25"/>
+      <c r="H104" s="26"/>
     </row>
     <row r="105" s="11" customFormat="1" spans="8:8">
-      <c r="H105" s="25"/>
+      <c r="H105" s="26"/>
     </row>
     <row r="106" s="11" customFormat="1" spans="8:8">
-      <c r="H106" s="25"/>
+      <c r="H106" s="26"/>
     </row>
     <row r="107" s="11" customFormat="1" spans="8:8">
-      <c r="H107" s="25"/>
+      <c r="H107" s="26"/>
     </row>
     <row r="108" s="11" customFormat="1" spans="8:8">
-      <c r="H108" s="25"/>
+      <c r="H108" s="26"/>
     </row>
     <row r="109" s="11" customFormat="1" spans="8:8">
-      <c r="H109" s="25"/>
+      <c r="H109" s="26"/>
     </row>
     <row r="110" s="11" customFormat="1" spans="8:8">
-      <c r="H110" s="25"/>
+      <c r="H110" s="26"/>
     </row>
     <row r="111" s="11" customFormat="1" spans="8:8">
-      <c r="H111" s="25"/>
+      <c r="H111" s="26"/>
     </row>
     <row r="112" s="11" customFormat="1" spans="8:8">
-      <c r="H112" s="25"/>
+      <c r="H112" s="26"/>
     </row>
     <row r="113" s="11" customFormat="1" spans="8:8">
-      <c r="H113" s="25"/>
+      <c r="H113" s="26"/>
     </row>
     <row r="114" s="11" customFormat="1" spans="8:8">
-      <c r="H114" s="25"/>
+      <c r="H114" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5831,11 +5973,11 @@
   <dimension ref="A1:AM96"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="Y52" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="2" topLeftCell="AD62" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AG52" sqref="AG52"/>
+      <selection pane="bottomRight" activeCell="AJ68" sqref="AJ68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -5976,14 +6118,14 @@
       <c r="E2" s="13"/>
       <c r="F2" s="14">
         <f>SUM(H3:H121)</f>
-        <v>1096400</v>
+        <v>1203800</v>
       </c>
       <c r="G2" s="15" t="s">
         <v>8</v>
       </c>
       <c r="H2" s="16">
         <f t="shared" ref="H2:H65" si="0">SUM(I2:AM2)</f>
-        <v>1096400</v>
+        <v>1203800</v>
       </c>
       <c r="I2" s="10">
         <f t="shared" ref="I2:AB2" si="1">SUM(I3:I121)</f>
@@ -6087,15 +6229,15 @@
       </c>
       <c r="AH2" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>64500</v>
       </c>
       <c r="AI2" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>23900</v>
       </c>
       <c r="AJ2" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>19000</v>
       </c>
     </row>
     <row r="3" s="11" customFormat="1" spans="1:33">
@@ -6266,7 +6408,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="7" s="11" customFormat="1" spans="1:30">
+    <row r="7" s="11" customFormat="1" spans="1:34">
       <c r="A7" s="11">
         <v>5</v>
       </c>
@@ -6290,7 +6432,7 @@
       </c>
       <c r="H7" s="10">
         <f t="shared" si="0"/>
-        <v>45000</v>
+        <v>55000</v>
       </c>
       <c r="J7" s="19">
         <v>620</v>
@@ -6314,6 +6456,9 @@
       <c r="AD7" s="20">
         <v>10000</v>
       </c>
+      <c r="AH7" s="11">
+        <v>10000</v>
+      </c>
     </row>
     <row r="8" s="11" customFormat="1" spans="1:30">
       <c r="A8" s="11">
@@ -6380,7 +6525,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" s="11" customFormat="1" spans="1:30">
+    <row r="10" s="11" customFormat="1" spans="1:34">
       <c r="A10" s="11">
         <v>8</v>
       </c>
@@ -6398,7 +6543,7 @@
       </c>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="I10" s="11">
         <v>5000</v>
@@ -6419,6 +6564,9 @@
         <v>3000</v>
       </c>
       <c r="AD10" s="11">
+        <v>5000</v>
+      </c>
+      <c r="AH10" s="11">
         <v>5000</v>
       </c>
     </row>
@@ -6456,7 +6604,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="12" s="11" customFormat="1" spans="1:31">
+    <row r="12" s="11" customFormat="1" spans="1:34">
       <c r="A12" s="11">
         <v>10</v>
       </c>
@@ -6474,7 +6622,7 @@
       </c>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="J12" s="11">
         <v>1500</v>
@@ -6498,8 +6646,11 @@
       <c r="AE12" s="11">
         <v>1000</v>
       </c>
-    </row>
-    <row r="13" s="11" customFormat="1" spans="1:30">
+      <c r="AH12" s="11">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" s="11" customFormat="1" spans="1:34">
       <c r="A13" s="11">
         <v>11</v>
       </c>
@@ -6517,7 +6668,7 @@
       </c>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="L13" s="11">
         <v>5000</v>
@@ -6535,8 +6686,11 @@
       <c r="AD13" s="20">
         <v>5000</v>
       </c>
-    </row>
-    <row r="14" s="11" customFormat="1" spans="1:33">
+      <c r="AH13" s="11">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="14" s="11" customFormat="1" spans="1:34">
       <c r="A14" s="11">
         <v>12</v>
       </c>
@@ -6560,7 +6714,7 @@
       </c>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>47500</v>
+        <v>50500</v>
       </c>
       <c r="I14" s="11">
         <v>4500</v>
@@ -6613,8 +6767,11 @@
       <c r="AG14" s="11">
         <v>2000</v>
       </c>
-    </row>
-    <row r="15" s="11" customFormat="1" spans="1:31">
+      <c r="AH14" s="11">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="15" s="11" customFormat="1" spans="1:34">
       <c r="A15" s="11">
         <v>13</v>
       </c>
@@ -6635,7 +6792,7 @@
       </c>
       <c r="H15" s="10">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="I15" s="11">
         <v>2000</v>
@@ -6651,6 +6808,9 @@
       </c>
       <c r="AB15" s="1"/>
       <c r="AE15" s="11">
+        <v>2000</v>
+      </c>
+      <c r="AH15" s="11">
         <v>2000</v>
       </c>
     </row>
@@ -6738,7 +6898,7 @@
       </c>
       <c r="AB18" s="1"/>
     </row>
-    <row r="19" s="11" customFormat="1" spans="1:32">
+    <row r="19" s="11" customFormat="1" spans="1:34">
       <c r="A19" s="11">
         <v>17</v>
       </c>
@@ -6762,7 +6922,7 @@
       </c>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>11000</v>
+        <v>12500</v>
       </c>
       <c r="J19" s="11">
         <v>1000</v>
@@ -6783,6 +6943,9 @@
       <c r="AF19" s="11">
         <v>3000</v>
       </c>
+      <c r="AH19" s="11">
+        <v>1500</v>
+      </c>
     </row>
     <row r="20" s="11" customFormat="1" spans="1:32">
       <c r="A20" s="11">
@@ -7087,7 +7250,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="27" s="11" customFormat="1" spans="1:33">
+    <row r="27" s="11" customFormat="1" spans="1:34">
       <c r="A27" s="11">
         <v>25</v>
       </c>
@@ -7105,7 +7268,7 @@
       </c>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="I27" s="11">
         <v>3000</v>
@@ -7124,6 +7287,9 @@
       </c>
       <c r="AG27" s="11">
         <v>2000</v>
+      </c>
+      <c r="AH27" s="11">
+        <v>1000</v>
       </c>
     </row>
     <row r="28" s="11" customFormat="1" spans="1:32">
@@ -7287,7 +7453,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="32" s="11" customFormat="1" spans="1:31">
+    <row r="32" s="11" customFormat="1" spans="1:34">
       <c r="A32" s="11">
         <v>30</v>
       </c>
@@ -7308,7 +7474,7 @@
       </c>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>40000</v>
+        <v>45000</v>
       </c>
       <c r="N32" s="19">
         <v>10000</v>
@@ -7323,6 +7489,9 @@
       <c r="AE32" s="11">
         <v>10000</v>
       </c>
+      <c r="AH32" s="11">
+        <v>5000</v>
+      </c>
     </row>
     <row r="33" s="11" customFormat="1" spans="1:33">
       <c r="A33" s="11">
@@ -7562,7 +7731,7 @@
       </c>
       <c r="AB38" s="1"/>
     </row>
-    <row r="39" s="11" customFormat="1" spans="1:30">
+    <row r="39" s="11" customFormat="1" spans="1:35">
       <c r="A39" s="11">
         <v>37</v>
       </c>
@@ -7583,7 +7752,7 @@
       </c>
       <c r="H39" s="10">
         <f t="shared" si="0"/>
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="K39" s="19">
         <v>3000</v>
@@ -7598,8 +7767,11 @@
       <c r="AD39" s="20">
         <v>3000</v>
       </c>
-    </row>
-    <row r="40" s="11" customFormat="1" spans="1:28">
+      <c r="AI39" s="25">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="40" s="11" customFormat="1" spans="1:36">
       <c r="A40" s="11">
         <v>38</v>
       </c>
@@ -7623,7 +7795,7 @@
       </c>
       <c r="H40" s="10">
         <f t="shared" si="0"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="I40" s="19">
         <v>2000</v>
@@ -7632,6 +7804,9 @@
         <v>2000</v>
       </c>
       <c r="AB40" s="1"/>
+      <c r="AJ40" s="20">
+        <v>2000</v>
+      </c>
     </row>
     <row r="41" s="11" customFormat="1" spans="1:30">
       <c r="A41" s="11">
@@ -7661,7 +7836,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="42" s="11" customFormat="1" spans="1:33">
+    <row r="42" s="11" customFormat="1" spans="1:34">
       <c r="A42" s="11">
         <v>40</v>
       </c>
@@ -7676,7 +7851,7 @@
       </c>
       <c r="H42" s="10">
         <f t="shared" si="0"/>
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M42" s="11">
         <v>2000</v>
@@ -7688,8 +7863,11 @@
       <c r="AG42" s="11">
         <v>1000</v>
       </c>
-    </row>
-    <row r="43" s="11" customFormat="1" spans="1:33">
+      <c r="AH42" s="11">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="43" s="11" customFormat="1" spans="1:34">
       <c r="A43" s="11">
         <v>41</v>
       </c>
@@ -7707,7 +7885,7 @@
       </c>
       <c r="H43" s="10">
         <f t="shared" si="0"/>
-        <v>34500</v>
+        <v>37500</v>
       </c>
       <c r="J43" s="11">
         <v>1500</v>
@@ -7743,6 +7921,9 @@
       <c r="AG43" s="11">
         <v>3000</v>
       </c>
+      <c r="AH43" s="11">
+        <v>3000</v>
+      </c>
     </row>
     <row r="44" s="11" customFormat="1" spans="1:31">
       <c r="A44" s="11">
@@ -7808,7 +7989,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="46" s="11" customFormat="1" spans="1:28">
+    <row r="46" s="11" customFormat="1" spans="1:34">
       <c r="A46" s="11">
         <v>44</v>
       </c>
@@ -7829,7 +8010,7 @@
       </c>
       <c r="H46" s="10">
         <f t="shared" si="0"/>
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="J46" s="11">
         <v>3000</v>
@@ -7844,8 +8025,11 @@
         <v>3000</v>
       </c>
       <c r="AB46" s="1"/>
-    </row>
-    <row r="47" s="11" customFormat="1" spans="1:31">
+      <c r="AH46" s="11">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="47" s="11" customFormat="1" spans="1:34">
       <c r="A47" s="11">
         <v>45</v>
       </c>
@@ -7860,7 +8044,7 @@
       </c>
       <c r="H47" s="10">
         <f t="shared" si="0"/>
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="L47" s="11">
         <v>2100</v>
@@ -7881,6 +8065,9 @@
       <c r="AE47" s="11">
         <v>3000</v>
       </c>
+      <c r="AH47" s="11">
+        <v>3000</v>
+      </c>
     </row>
     <row r="48" s="11" customFormat="1" spans="1:28">
       <c r="A48" s="11">
@@ -8068,7 +8255,7 @@
       </c>
       <c r="AB52" s="1"/>
     </row>
-    <row r="53" s="11" customFormat="1" spans="1:33">
+    <row r="53" s="11" customFormat="1" spans="1:36">
       <c r="A53" s="11">
         <v>51</v>
       </c>
@@ -8089,7 +8276,7 @@
       </c>
       <c r="H53" s="10">
         <f t="shared" si="0"/>
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="K53" s="19">
         <v>1000</v>
@@ -8118,8 +8305,11 @@
       <c r="AG53" s="20">
         <v>2000</v>
       </c>
-    </row>
-    <row r="54" s="11" customFormat="1" spans="1:28">
+      <c r="AJ53" s="20">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="54" s="11" customFormat="1" spans="1:34">
       <c r="A54" s="11">
         <v>52</v>
       </c>
@@ -8134,7 +8324,7 @@
       </c>
       <c r="H54" s="10">
         <f t="shared" si="0"/>
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="I54" s="19">
         <v>2000</v>
@@ -8152,6 +8342,9 @@
         <v>2000</v>
       </c>
       <c r="AB54" s="1"/>
+      <c r="AH54" s="11">
+        <v>2000</v>
+      </c>
     </row>
     <row r="55" s="11" customFormat="1" spans="1:28">
       <c r="A55" s="11">
@@ -8302,7 +8495,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="60" s="11" customFormat="1" spans="1:28">
+    <row r="60" s="11" customFormat="1" spans="1:34">
       <c r="A60" s="11">
         <v>58</v>
       </c>
@@ -8317,7 +8510,7 @@
       </c>
       <c r="H60" s="10">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="J60" s="11">
         <v>5000</v>
@@ -8326,6 +8519,9 @@
         <v>5000</v>
       </c>
       <c r="AB60" s="1"/>
+      <c r="AH60" s="11">
+        <v>5000</v>
+      </c>
     </row>
     <row r="61" s="11" customFormat="1" spans="1:31">
       <c r="A61" s="11">
@@ -8361,7 +8557,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="62" s="11" customFormat="1" spans="1:30">
+    <row r="62" s="11" customFormat="1" spans="1:36">
       <c r="A62" s="11">
         <v>60</v>
       </c>
@@ -8385,7 +8581,7 @@
       </c>
       <c r="H62" s="10">
         <f t="shared" si="0"/>
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="I62" s="11">
         <v>5000</v>
@@ -8397,6 +8593,9 @@
       <c r="AD62" s="20">
         <v>5000</v>
       </c>
+      <c r="AJ62" s="11">
+        <v>10000</v>
+      </c>
     </row>
     <row r="63" s="11" customFormat="1" spans="1:28">
       <c r="A63" s="11">
@@ -8457,7 +8656,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="65" s="11" customFormat="1" spans="1:31">
+    <row r="65" s="11" customFormat="1" spans="1:34">
       <c r="A65" s="11">
         <v>63</v>
       </c>
@@ -8481,7 +8680,7 @@
       </c>
       <c r="H65" s="10">
         <f t="shared" si="0"/>
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="J65" s="19">
         <v>2000</v>
@@ -8495,6 +8694,9 @@
       <c r="AB65" s="1"/>
       <c r="AE65" s="20">
         <v>2000</v>
+      </c>
+      <c r="AH65" s="20">
+        <v>1000</v>
       </c>
     </row>
     <row r="66" s="11" customFormat="1" spans="1:29">
@@ -8583,7 +8785,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="69" s="11" customFormat="1" spans="1:28">
+    <row r="69" s="11" customFormat="1" spans="1:35">
       <c r="A69" s="11">
         <v>67</v>
       </c>
@@ -8598,7 +8800,7 @@
       </c>
       <c r="H69" s="10">
         <f t="shared" si="3"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="Y69" s="11">
         <v>2000</v>
@@ -8606,8 +8808,11 @@
       <c r="AB69" s="1">
         <v>2000</v>
       </c>
-    </row>
-    <row r="70" s="11" customFormat="1" spans="1:28">
+      <c r="AI69" s="11">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="70" s="11" customFormat="1" spans="1:35">
       <c r="A70" s="11">
         <v>68</v>
       </c>
@@ -8622,7 +8827,7 @@
       </c>
       <c r="H70" s="10">
         <f t="shared" si="3"/>
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="I70" s="11">
         <v>1500</v>
@@ -8633,8 +8838,11 @@
       <c r="AB70" s="1">
         <v>2000</v>
       </c>
-    </row>
-    <row r="71" s="11" customFormat="1" spans="1:31">
+      <c r="AI70" s="11">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="71" s="11" customFormat="1" spans="1:35">
       <c r="A71" s="11">
         <v>69</v>
       </c>
@@ -8649,7 +8857,7 @@
       </c>
       <c r="H71" s="10">
         <f t="shared" si="3"/>
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L71" s="11">
         <v>1000</v>
@@ -8664,8 +8872,11 @@
       <c r="AE71" s="11">
         <v>1000</v>
       </c>
-    </row>
-    <row r="72" s="11" customFormat="1" spans="1:32">
+      <c r="AI71" s="11">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="72" s="11" customFormat="1" spans="1:35">
       <c r="A72" s="11">
         <v>70</v>
       </c>
@@ -8680,7 +8891,7 @@
       </c>
       <c r="H72" s="10">
         <f t="shared" si="3"/>
-        <v>45000</v>
+        <v>50000</v>
       </c>
       <c r="I72" s="11">
         <v>5000</v>
@@ -8706,8 +8917,11 @@
       <c r="AF72" s="11">
         <v>5000</v>
       </c>
-    </row>
-    <row r="73" s="11" customFormat="1" spans="1:28">
+      <c r="AI72" s="11">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="73" s="11" customFormat="1" spans="1:34">
       <c r="A73" s="11">
         <v>71</v>
       </c>
@@ -8722,7 +8936,7 @@
       </c>
       <c r="H73" s="10">
         <f t="shared" si="3"/>
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="K73" s="11">
         <v>3000</v>
@@ -8737,8 +8951,11 @@
         <v>3000</v>
       </c>
       <c r="AB73" s="1"/>
-    </row>
-    <row r="74" s="11" customFormat="1" spans="1:31">
+      <c r="AH73" s="11">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="74" s="11" customFormat="1" spans="1:35">
       <c r="A74" s="11">
         <v>72</v>
       </c>
@@ -8762,7 +8979,7 @@
       </c>
       <c r="H74" s="10">
         <f t="shared" si="3"/>
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="R74" s="19">
         <v>2000</v>
@@ -8773,6 +8990,9 @@
       <c r="AB74" s="1"/>
       <c r="AE74" s="11">
         <v>2000</v>
+      </c>
+      <c r="AI74" s="25">
+        <v>3000</v>
       </c>
     </row>
     <row r="75" s="11" customFormat="1" spans="1:28">
@@ -8797,7 +9017,7 @@
       </c>
       <c r="AB75" s="1"/>
     </row>
-    <row r="76" s="11" customFormat="1" spans="1:32">
+    <row r="76" s="11" customFormat="1" spans="1:35">
       <c r="A76" s="11">
         <v>74</v>
       </c>
@@ -8812,7 +9032,7 @@
       </c>
       <c r="H76" s="10">
         <f t="shared" si="3"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L76" s="11">
         <v>1000</v>
@@ -8826,8 +9046,11 @@
       <c r="AF76" s="11">
         <v>1000</v>
       </c>
-    </row>
-    <row r="77" s="11" customFormat="1" spans="1:31">
+      <c r="AI76" s="11">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="77" s="11" customFormat="1" spans="1:35">
       <c r="A77" s="11">
         <v>75</v>
       </c>
@@ -8851,7 +9074,7 @@
       </c>
       <c r="H77" s="10">
         <f t="shared" si="3"/>
-        <v>11800</v>
+        <v>13700</v>
       </c>
       <c r="J77" s="11">
         <v>1200</v>
@@ -8884,8 +9107,11 @@
       <c r="AE77" s="11">
         <v>700</v>
       </c>
-    </row>
-    <row r="78" s="11" customFormat="1" spans="1:28">
+      <c r="AI77" s="25">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="78" s="11" customFormat="1" spans="1:34">
       <c r="A78" s="11">
         <v>76</v>
       </c>
@@ -8906,7 +9132,7 @@
       </c>
       <c r="H78" s="10">
         <f t="shared" si="3"/>
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="L78" s="19">
         <v>6000</v>
@@ -8922,6 +9148,9 @@
       </c>
       <c r="AB78" s="23">
         <v>9000</v>
+      </c>
+      <c r="AH78" s="20">
+        <v>3000</v>
       </c>
     </row>
     <row r="79" s="11" customFormat="1" spans="1:32">
@@ -9042,7 +9271,7 @@
       </c>
       <c r="AB82" s="1"/>
     </row>
-    <row r="83" s="11" customFormat="1" spans="1:28">
+    <row r="83" s="11" customFormat="1" spans="1:35">
       <c r="A83" s="11">
         <v>81</v>
       </c>
@@ -9057,9 +9286,12 @@
       </c>
       <c r="H83" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="AB83" s="1"/>
+      <c r="AI83" s="25">
+        <v>4000</v>
+      </c>
     </row>
     <row r="84" s="11" customFormat="1" spans="1:28">
       <c r="A84" s="11">
@@ -9077,7 +9309,7 @@
       </c>
       <c r="AB84" s="1"/>
     </row>
-    <row r="85" s="11" customFormat="1" spans="1:31">
+    <row r="85" s="11" customFormat="1" spans="1:36">
       <c r="A85" s="11">
         <v>83</v>
       </c>
@@ -9098,7 +9330,7 @@
       </c>
       <c r="H85" s="10">
         <f t="shared" si="3"/>
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="K85" s="19">
         <v>5000</v>
@@ -9110,6 +9342,9 @@
       <c r="AE85" s="20">
         <v>10000</v>
       </c>
+      <c r="AJ85" s="11">
+        <v>5000</v>
+      </c>
     </row>
     <row r="86" s="11" customFormat="1" spans="1:28">
       <c r="A86" s="11">
@@ -9257,7 +9492,7 @@
       </c>
       <c r="AB91" s="1"/>
     </row>
-    <row r="92" s="11" customFormat="1" spans="1:28">
+    <row r="92" s="11" customFormat="1" spans="1:34">
       <c r="A92" s="11">
         <v>90</v>
       </c>
@@ -9267,14 +9502,20 @@
       <c r="E92" s="11">
         <v>9015378357</v>
       </c>
+      <c r="F92" s="11" t="s">
+        <v>173</v>
+      </c>
       <c r="G92" s="17" t="s">
         <v>122</v>
       </c>
       <c r="H92" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB92" s="1"/>
+      <c r="AH92" s="11">
+        <v>1000</v>
+      </c>
     </row>
     <row r="93" s="11" customFormat="1" spans="1:28">
       <c r="A93" s="11">
@@ -9358,8 +9599,8 @@
   <sheetPr/>
   <dimension ref="A1:D96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -9384,7 +9625,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -9395,7 +9636,7 @@
       </c>
       <c r="D2" s="6">
         <f>Orders!F2-Collection!H2</f>
-        <v>196300</v>
+        <v>178900</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -9425,7 +9666,7 @@
       </c>
       <c r="D4" s="9">
         <f>Orders!F4-Collection!H4</f>
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -9470,7 +9711,7 @@
       </c>
       <c r="D7" s="9">
         <f>Orders!F7-Collection!H7</f>
-        <v>20000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -9515,7 +9756,7 @@
       </c>
       <c r="D10" s="9">
         <f>Orders!F10-Collection!H10</f>
-        <v>5000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -9545,7 +9786,7 @@
       </c>
       <c r="D12" s="9">
         <f>Orders!F12-Collection!H12</f>
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -9560,7 +9801,7 @@
       </c>
       <c r="D13" s="9">
         <f>Orders!F13-Collection!H13</f>
-        <v>5000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -9575,7 +9816,7 @@
       </c>
       <c r="D14" s="9">
         <f>Orders!F14-Collection!H14</f>
-        <v>3000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -9646,7 +9887,7 @@
       </c>
       <c r="D19" s="9">
         <f>Orders!F19-Collection!H19</f>
-        <v>3000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -9661,7 +9902,7 @@
       </c>
       <c r="D20" s="9">
         <f>Orders!F20-Collection!H20</f>
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -9691,7 +9932,7 @@
       </c>
       <c r="D22" s="9">
         <f>Orders!F22-Collection!H22</f>
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -9706,7 +9947,7 @@
       </c>
       <c r="D23" s="9">
         <f>Orders!F23-Collection!H23</f>
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -9751,7 +9992,7 @@
       </c>
       <c r="D26" s="9">
         <f>Orders!F26-Collection!H26</f>
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -9766,7 +10007,7 @@
       </c>
       <c r="D27" s="9">
         <f>Orders!F27-Collection!H27</f>
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -9781,7 +10022,7 @@
       </c>
       <c r="D28" s="9">
         <f>Orders!F28-Collection!H28</f>
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -9811,7 +10052,7 @@
       </c>
       <c r="D30" s="9">
         <f>Orders!F30-Collection!H30</f>
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -9824,7 +10065,7 @@
       </c>
       <c r="D31" s="9">
         <f>Orders!F31-Collection!H31</f>
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -9839,7 +10080,7 @@
       </c>
       <c r="D32" s="9">
         <f>Orders!F32-Collection!H32</f>
-        <v>5000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -9867,20 +10108,22 @@
       </c>
       <c r="D34" s="9">
         <f>Orders!F34-Collection!H34</f>
-        <v>1000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B35" s="7"/>
+      <c r="B35" s="7">
+        <v>7909015301</v>
+      </c>
       <c r="C35" s="8" t="s">
         <v>53</v>
       </c>
       <c r="D35" s="9">
         <f>Orders!F35-Collection!H35</f>
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -9902,13 +10145,15 @@
       <c r="A37" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="7"/>
+      <c r="B37" s="7">
+        <v>7004687743</v>
+      </c>
       <c r="C37" s="8" t="s">
         <v>55</v>
       </c>
       <c r="D37" s="9">
         <f>Orders!F37-Collection!H37</f>
-        <v>0</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -9928,7 +10173,9 @@
       <c r="A39" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B39" s="7"/>
+      <c r="B39" s="7">
+        <v>9708329918</v>
+      </c>
       <c r="C39" s="8" t="s">
         <v>57</v>
       </c>
@@ -9956,13 +10203,15 @@
       <c r="A41" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B41" s="7"/>
+      <c r="B41" s="7">
+        <v>8102542369</v>
+      </c>
       <c r="C41" s="8" t="s">
         <v>59</v>
       </c>
       <c r="D41" s="9">
         <f>Orders!F41-Collection!H41</f>
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -9977,7 +10226,7 @@
       </c>
       <c r="D42" s="9">
         <f>Orders!F42-Collection!H42</f>
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -9992,7 +10241,7 @@
       </c>
       <c r="D43" s="9">
         <f>Orders!F43-Collection!H43</f>
-        <v>6000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -10033,7 +10282,7 @@
       </c>
       <c r="D46" s="9">
         <f>Orders!F46-Collection!H46</f>
-        <v>6000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -10048,7 +10297,7 @@
       </c>
       <c r="D47" s="9">
         <f>Orders!F47-Collection!H47</f>
-        <v>3000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -10076,7 +10325,7 @@
       </c>
       <c r="D49" s="9">
         <f>Orders!F49-Collection!H49</f>
-        <v>3000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -10091,20 +10340,22 @@
       </c>
       <c r="D50" s="9">
         <f>Orders!F50-Collection!H50</f>
-        <v>3000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B51" s="7"/>
+      <c r="B51" s="7">
+        <v>7004191817</v>
+      </c>
       <c r="C51" s="8" t="s">
         <v>70</v>
       </c>
       <c r="D51" s="9">
         <f>Orders!F51-Collection!H51</f>
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -10132,7 +10383,7 @@
       </c>
       <c r="D53" s="9">
         <f>Orders!F53-Collection!H53</f>
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -10218,7 +10469,7 @@
       </c>
       <c r="D59" s="9">
         <f>Orders!F59-Collection!H59</f>
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -10233,7 +10484,7 @@
       </c>
       <c r="D60" s="9">
         <f>Orders!F60-Collection!H60</f>
-        <v>5000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -10261,7 +10512,7 @@
       </c>
       <c r="D62" s="9">
         <f>Orders!F62-Collection!H62</f>
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -10306,7 +10557,7 @@
       </c>
       <c r="D65" s="9">
         <f>Orders!F65-Collection!H65</f>
-        <v>0</v>
+        <v>-1000</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -10377,7 +10628,7 @@
       </c>
       <c r="D70" s="9">
         <f>Orders!F70-Collection!H70</f>
-        <v>0</v>
+        <v>-2000</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -10392,14 +10643,16 @@
       </c>
       <c r="D71" s="9">
         <f>Orders!F71-Collection!H71</f>
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B72" s="7"/>
+      <c r="B72" s="7">
+        <v>8709017189</v>
+      </c>
       <c r="C72" s="8" t="s">
         <v>97</v>
       </c>
@@ -10420,7 +10673,7 @@
       </c>
       <c r="D73" s="9">
         <f>Orders!F73-Collection!H73</f>
-        <v>6000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -10435,7 +10688,7 @@
       </c>
       <c r="D74" s="9">
         <f>Orders!F74-Collection!H74</f>
-        <v>4000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -10457,7 +10710,9 @@
       <c r="A76" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B76" s="7"/>
+      <c r="B76" s="7">
+        <v>8271027441</v>
+      </c>
       <c r="C76" s="8" t="s">
         <v>101</v>
       </c>
@@ -10478,7 +10733,7 @@
       </c>
       <c r="D77" s="9">
         <f>Orders!F77-Collection!H77</f>
-        <v>3200</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -10506,7 +10761,7 @@
       </c>
       <c r="D79" s="9">
         <f>Orders!F79-Collection!H79</f>
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -10532,7 +10787,7 @@
       </c>
       <c r="D81" s="9">
         <f>Orders!F81-Collection!H81</f>
-        <v>1000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -10558,7 +10813,7 @@
       </c>
       <c r="D83" s="9">
         <f>Orders!F83-Collection!H83</f>
-        <v>4000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -10584,7 +10839,7 @@
       </c>
       <c r="D85" s="9">
         <f>Orders!F85-Collection!H85</f>
-        <v>5000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -10599,7 +10854,7 @@
       </c>
       <c r="D86" s="9">
         <f>Orders!F86-Collection!H86</f>
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -10673,7 +10928,7 @@
       </c>
       <c r="D92" s="9">
         <f>Orders!F92-Collection!H92</f>
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:4">

--- a/Febuary2021.xlsx
+++ b/Febuary2021.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7815"/>
+    <workbookView windowWidth="19815" windowHeight="7815" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Orders" sheetId="1" r:id="rId1"/>
@@ -824,11 +824,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="[$-409]d\-mmm;@"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="[$-409]d\-mmm;@"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -848,14 +848,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -863,9 +856,24 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -876,8 +884,85 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -892,80 +977,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -976,27 +991,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="9"/>
       <name val="Times New Roman"/>
       <charset val="0"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="Times New Roman"/>
       <charset val="0"/>
@@ -1095,13 +1095,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1119,145 +1221,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1270,6 +1246,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1319,11 +1319,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1332,6 +1338,17 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1348,32 +1365,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1396,6 +1387,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -1406,10 +1406,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1424,130 +1424,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1609,7 +1609,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -1630,7 +1630,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -1671,7 +1671,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="1" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2022,12 +2022,12 @@
   <sheetPr/>
   <dimension ref="A1:AS114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H28" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="7" ySplit="2" topLeftCell="AF24" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G42" sqref="G42"/>
+      <selection pane="bottomRight" activeCell="AJ26" sqref="AJ26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -3446,7 +3446,7 @@
         <v>8000</v>
       </c>
       <c r="G30" s="10">
-        <f t="shared" ref="G30:G41" si="4">SUM(I30:AM30)</f>
+        <f t="shared" ref="G30:G42" si="4">SUM(I30:AM30)</f>
         <v>6240</v>
       </c>
       <c r="H30" s="31">
@@ -3911,7 +3911,7 @@
         <v>6000</v>
       </c>
       <c r="G42" s="10">
-        <f>SUM(I42:AM42)</f>
+        <f t="shared" si="4"/>
         <v>6240</v>
       </c>
       <c r="H42" s="31">
@@ -5972,12 +5972,12 @@
   <sheetPr/>
   <dimension ref="A1:AM96"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="AD62" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane xSplit="6" ySplit="2" topLeftCell="AD22" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AJ68" sqref="AJ68"/>
+      <selection pane="bottomRight" activeCell="AF42" sqref="AF42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -6118,14 +6118,14 @@
       <c r="E2" s="13"/>
       <c r="F2" s="14">
         <f>SUM(H3:H121)</f>
-        <v>1203800</v>
+        <v>1208800</v>
       </c>
       <c r="G2" s="15" t="s">
         <v>8</v>
       </c>
       <c r="H2" s="16">
         <f t="shared" ref="H2:H65" si="0">SUM(I2:AM2)</f>
-        <v>1203800</v>
+        <v>1208800</v>
       </c>
       <c r="I2" s="10">
         <f t="shared" ref="I2:AB2" si="1">SUM(I3:I121)</f>
@@ -6237,7 +6237,7 @@
       </c>
       <c r="AJ2" s="10">
         <f t="shared" si="2"/>
-        <v>19000</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="3" s="11" customFormat="1" spans="1:33">
@@ -7201,7 +7201,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="26" s="11" customFormat="1" spans="1:30">
+    <row r="26" s="11" customFormat="1" spans="1:36">
       <c r="A26" s="11">
         <v>24</v>
       </c>
@@ -7225,7 +7225,7 @@
       </c>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>35000</v>
+        <v>40000</v>
       </c>
       <c r="I26" s="19">
         <v>5000</v>
@@ -7247,6 +7247,9 @@
       </c>
       <c r="AB26" s="1"/>
       <c r="AD26" s="20">
+        <v>5000</v>
+      </c>
+      <c r="AJ26" s="25">
         <v>5000</v>
       </c>
     </row>
@@ -9636,7 +9639,7 @@
       </c>
       <c r="D2" s="6">
         <f>Orders!F2-Collection!H2</f>
-        <v>178900</v>
+        <v>173900</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -9992,7 +9995,7 @@
       </c>
       <c r="D26" s="9">
         <f>Orders!F26-Collection!H26</f>
-        <v>5000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:4">
